--- a/Budget.xlsx
+++ b/Budget.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acgue\Documents\git-project\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3c6177e7d3ca184/Documents/git-projet/Document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CD8A904-680D-4329-A1F0-BEEAE2D6AA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{9CD8A904-680D-4329-A1F0-BEEAE2D6AA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A19757C-B59E-4924-B57B-E6D431636715}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="11" activeTab="11" xr2:uid="{27B7E826-E620-B34C-81E1-46A3DBC74E62}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" firstSheet="11" activeTab="13" xr2:uid="{27B7E826-E620-B34C-81E1-46A3DBC74E62}"/>
   </bookViews>
   <sheets>
     <sheet name="Fevrier" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,6 @@
     <sheet name="divers " sheetId="22" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="224">
   <si>
     <t>Loyer</t>
   </si>
@@ -707,6 +706,24 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>YG Consulting</t>
+  </si>
+  <si>
+    <t>septembre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aout </t>
+  </si>
+  <si>
+    <t>juillet</t>
+  </si>
+  <si>
+    <t>mai</t>
+  </si>
+  <si>
+    <t>mars</t>
   </si>
 </sst>
 </file>
@@ -1153,14 +1170,14 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.8125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1168,7 +1185,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1176,7 +1193,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1185,13 +1202,13 @@
         <v>3375</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1202,7 +1219,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1216,7 +1233,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1230,7 +1247,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1244,7 +1261,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1258,7 +1275,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -1272,7 +1289,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1286,7 +1303,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1300,7 +1317,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1314,7 +1331,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -1323,7 +1340,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -1332,7 +1349,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1341,7 +1358,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -1356,7 +1373,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B25" t="s">
         <v>15</v>
       </c>
@@ -1365,7 +1382,7 @@
         <v>3446.18</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
@@ -1387,16 +1404,16 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.19921875" customWidth="1"/>
-    <col min="11" max="11" width="8.19921875" customWidth="1"/>
-    <col min="13" max="13" width="18.296875" customWidth="1"/>
-    <col min="18" max="18" width="3.69921875" customWidth="1"/>
+    <col min="2" max="2" width="11.8125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1875" customWidth="1"/>
+    <col min="11" max="11" width="8.1875" customWidth="1"/>
+    <col min="13" max="13" width="18.3125" customWidth="1"/>
+    <col min="18" max="18" width="3.6875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1417,7 +1434,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -1438,7 +1455,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -1459,7 +1476,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -1492,7 +1509,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -1513,7 +1530,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -1546,7 +1563,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A7" s="10"/>
       <c r="B7" s="9"/>
       <c r="C7" s="11"/>
@@ -1583,7 +1600,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A8" s="10"/>
       <c r="B8" s="9"/>
       <c r="C8" s="11"/>
@@ -1612,7 +1629,7 @@
       <c r="R8" s="11"/>
       <c r="S8" s="12"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A9" s="10"/>
       <c r="B9" s="9"/>
       <c r="C9" s="11"/>
@@ -1649,7 +1666,7 @@
       <c r="R9" s="11"/>
       <c r="S9" s="12"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="C10" s="11"/>
@@ -1686,7 +1703,7 @@
       <c r="R10" s="11"/>
       <c r="S10" s="12"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="11"/>
@@ -1723,7 +1740,7 @@
       <c r="R11" s="11"/>
       <c r="S11" s="12"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>
@@ -1760,7 +1777,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -1793,7 +1810,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -1824,7 +1841,7 @@
       <c r="R14" s="11"/>
       <c r="S14" s="12"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -1857,7 +1874,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="11"/>
@@ -1890,7 +1907,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -1923,7 +1940,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A18" s="10"/>
       <c r="B18" s="9"/>
       <c r="C18" s="11"/>
@@ -1956,7 +1973,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A19" s="10"/>
       <c r="B19" s="9"/>
       <c r="C19" s="11"/>
@@ -1985,7 +2002,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A20" s="10"/>
       <c r="B20" s="9"/>
       <c r="C20" s="11"/>
@@ -2012,7 +2029,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A21" s="10"/>
       <c r="B21" s="9"/>
       <c r="C21" s="11"/>
@@ -2041,7 +2058,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A22" s="10"/>
       <c r="B22" s="9"/>
       <c r="C22" s="11"/>
@@ -2066,7 +2083,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A23" s="10"/>
       <c r="B23" s="9"/>
       <c r="C23" s="11"/>
@@ -2091,7 +2108,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A24" s="10"/>
       <c r="B24" s="9"/>
       <c r="C24" s="11"/>
@@ -2116,7 +2133,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A25" s="10"/>
       <c r="B25" s="9"/>
       <c r="C25" s="11"/>
@@ -2139,7 +2156,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A26" s="10"/>
       <c r="B26" s="9"/>
       <c r="C26" s="11"/>
@@ -2164,7 +2181,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -2189,7 +2206,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -2214,7 +2231,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -2235,7 +2252,7 @@
       <c r="R29" s="11"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -2256,7 +2273,7 @@
       <c r="R30" s="11"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -2277,7 +2294,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="12"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -2298,7 +2315,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="12"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -2319,7 +2336,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="12"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A34" s="10"/>
       <c r="B34" s="14" t="s">
         <v>6</v>
@@ -2357,7 +2374,7 @@
       <c r="R34" s="11"/>
       <c r="S34" s="12"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -2378,7 +2395,7 @@
       <c r="R35" s="11"/>
       <c r="S35" s="12"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -2399,7 +2416,7 @@
       <c r="R36" s="11"/>
       <c r="S36" s="12"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -2420,7 +2437,7 @@
       <c r="R37" s="11"/>
       <c r="S37" s="12"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="14" t="s">
@@ -2451,7 +2468,7 @@
       <c r="R38" s="11"/>
       <c r="S38" s="12"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -2472,7 +2489,7 @@
       <c r="R39" s="11"/>
       <c r="S39" s="12"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -2493,7 +2510,7 @@
       <c r="R40" s="11"/>
       <c r="S40" s="12"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A41" s="10"/>
       <c r="B41" s="14" t="s">
         <v>8</v>
@@ -2524,7 +2541,7 @@
       <c r="R41" s="11"/>
       <c r="S41" s="12"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -2545,7 +2562,7 @@
       <c r="R42" s="11"/>
       <c r="S42" s="12"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -2566,7 +2583,7 @@
       <c r="R43" s="12"/>
       <c r="S43" s="12"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -2587,7 +2604,7 @@
       <c r="R44" s="12"/>
       <c r="S44" s="12"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -2608,7 +2625,7 @@
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A46" s="9"/>
       <c r="B46" s="14" t="s">
         <v>113</v>
@@ -2634,7 +2651,7 @@
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A47" s="9"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
@@ -2653,7 +2670,7 @@
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B74" s="14" t="s">
         <v>3</v>
       </c>
@@ -2674,18 +2691,18 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.19921875" customWidth="1"/>
-    <col min="8" max="8" width="15.69921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.19921875" customWidth="1"/>
-    <col min="13" max="13" width="18.296875" customWidth="1"/>
-    <col min="16" max="16" width="15.69921875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.69921875" customWidth="1"/>
+    <col min="2" max="2" width="11.8125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1875" customWidth="1"/>
+    <col min="8" max="8" width="15.6875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.1875" customWidth="1"/>
+    <col min="13" max="13" width="18.3125" customWidth="1"/>
+    <col min="16" max="16" width="15.6875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.6875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -2706,7 +2723,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -2727,7 +2744,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -2748,7 +2765,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -2781,7 +2798,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -2802,7 +2819,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -2835,7 +2852,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A7" s="10"/>
       <c r="B7" s="9"/>
       <c r="C7" s="11">
@@ -2874,7 +2891,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A8" s="10"/>
       <c r="B8" s="9"/>
       <c r="C8" s="11"/>
@@ -2907,7 +2924,7 @@
       <c r="R8" s="11"/>
       <c r="S8" s="12"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A9" s="10"/>
       <c r="B9" s="9"/>
       <c r="C9" s="11"/>
@@ -2944,7 +2961,7 @@
       <c r="R9" s="11"/>
       <c r="S9" s="12"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="C10" s="11"/>
@@ -2978,7 +2995,7 @@
       <c r="R10" s="11"/>
       <c r="S10" s="12"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="11"/>
@@ -3012,7 +3029,7 @@
       <c r="R11" s="11"/>
       <c r="S11" s="12"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>
@@ -3049,7 +3066,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -3086,7 +3103,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -3113,7 +3130,7 @@
       <c r="R14" s="11"/>
       <c r="S14" s="12"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -3138,7 +3155,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="11"/>
@@ -3163,7 +3180,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -3188,7 +3205,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A18" s="10"/>
       <c r="B18" s="9"/>
       <c r="C18" s="11"/>
@@ -3213,7 +3230,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A19" s="10"/>
       <c r="B19" s="9"/>
       <c r="C19" s="11"/>
@@ -3238,7 +3255,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A20" s="10"/>
       <c r="B20" s="9"/>
       <c r="C20" s="11"/>
@@ -3263,7 +3280,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A21" s="10"/>
       <c r="B21" s="9"/>
       <c r="C21" s="11"/>
@@ -3288,7 +3305,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A22" s="10"/>
       <c r="B22" s="9"/>
       <c r="C22" s="11"/>
@@ -3313,7 +3330,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A23" s="10"/>
       <c r="B23" s="9"/>
       <c r="C23" s="11"/>
@@ -3338,7 +3355,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A24" s="10"/>
       <c r="B24" s="9"/>
       <c r="C24" s="11"/>
@@ -3363,7 +3380,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A25" s="10"/>
       <c r="B25" s="9"/>
       <c r="C25" s="11"/>
@@ -3388,7 +3405,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A26" s="10"/>
       <c r="B26" s="9"/>
       <c r="C26" s="11"/>
@@ -3409,7 +3426,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -3430,7 +3447,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -3451,7 +3468,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -3472,7 +3489,7 @@
       <c r="R29" s="11"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -3493,7 +3510,7 @@
       <c r="R30" s="11"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -3514,7 +3531,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="12"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -3535,7 +3552,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="12"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -3556,7 +3573,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="12"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A34" s="10"/>
       <c r="B34" s="14" t="s">
         <v>6</v>
@@ -3594,7 +3611,7 @@
       <c r="R34" s="11"/>
       <c r="S34" s="12"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -3615,7 +3632,7 @@
       <c r="R35" s="11"/>
       <c r="S35" s="12"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -3636,7 +3653,7 @@
       <c r="R36" s="11"/>
       <c r="S36" s="12"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -3657,7 +3674,7 @@
       <c r="R37" s="11"/>
       <c r="S37" s="12"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="14" t="s">
@@ -3688,7 +3705,7 @@
       <c r="R38" s="11"/>
       <c r="S38" s="12"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -3709,7 +3726,7 @@
       <c r="R39" s="11"/>
       <c r="S39" s="12"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -3730,7 +3747,7 @@
       <c r="R40" s="11"/>
       <c r="S40" s="12"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A41" s="10"/>
       <c r="B41" s="14" t="s">
         <v>8</v>
@@ -3761,7 +3778,7 @@
       <c r="R41" s="11"/>
       <c r="S41" s="12"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -3782,7 +3799,7 @@
       <c r="R42" s="11"/>
       <c r="S42" s="12"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -3803,7 +3820,7 @@
       <c r="R43" s="12"/>
       <c r="S43" s="12"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -3824,7 +3841,7 @@
       <c r="R44" s="12"/>
       <c r="S44" s="12"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -3845,7 +3862,7 @@
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A46" s="9"/>
       <c r="B46" s="14" t="s">
         <v>113</v>
@@ -3871,7 +3888,7 @@
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A47" s="9"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
@@ -3890,7 +3907,7 @@
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B74" s="14" t="s">
         <v>3</v>
       </c>
@@ -3907,21 +3924,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D597620-C5D0-4BFD-8F70-437E7D884A0C}">
   <dimension ref="A1:T123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.19921875" customWidth="1"/>
-    <col min="9" max="9" width="19.796875" customWidth="1"/>
-    <col min="11" max="11" width="8.19921875" customWidth="1"/>
-    <col min="13" max="13" width="18.296875" customWidth="1"/>
-    <col min="18" max="18" width="3.69921875" customWidth="1"/>
+    <col min="2" max="2" width="11.8125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1875" customWidth="1"/>
+    <col min="9" max="9" width="19.8125" customWidth="1"/>
+    <col min="11" max="11" width="8.1875" customWidth="1"/>
+    <col min="13" max="13" width="18.3125" customWidth="1"/>
+    <col min="18" max="18" width="3.6875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -3942,7 +3959,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -3963,7 +3980,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -3988,7 +4005,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -4026,7 +4043,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -4047,7 +4064,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -4080,7 +4097,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A7" s="10"/>
       <c r="B7" s="9" t="s">
         <v>193</v>
@@ -4111,7 +4128,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A8" s="10"/>
       <c r="B8" s="9" t="s">
         <v>202</v>
@@ -4147,7 +4164,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A9" s="10"/>
       <c r="B9" s="9" t="s">
         <v>146</v>
@@ -4183,7 +4200,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A10" s="10"/>
       <c r="B10" s="9" t="s">
         <v>213</v>
@@ -4217,7 +4234,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A11" s="10"/>
       <c r="B11" s="9" t="s">
         <v>207</v>
@@ -4251,7 +4268,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A12" s="10"/>
       <c r="B12" s="9" t="s">
         <v>208</v>
@@ -4282,7 +4299,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A13" s="10"/>
       <c r="B13" s="9" t="s">
         <v>209</v>
@@ -4313,7 +4330,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A14" s="10"/>
       <c r="B14" s="9" t="s">
         <v>210</v>
@@ -4344,7 +4361,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A15" s="10"/>
       <c r="B15" s="9" t="s">
         <v>216</v>
@@ -4373,7 +4390,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A16" s="10"/>
       <c r="B16" s="9" t="s">
         <v>198</v>
@@ -4402,7 +4419,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -4423,7 +4440,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -4444,7 +4461,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -4465,7 +4482,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A20" s="10"/>
       <c r="B20" s="14" t="s">
         <v>6</v>
@@ -4503,7 +4520,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -4524,7 +4541,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -4545,7 +4562,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -4566,7 +4583,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="14" t="s">
@@ -4597,7 +4614,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -4618,7 +4635,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -4639,7 +4656,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A27" s="10"/>
       <c r="B27" s="14" t="s">
         <v>8</v>
@@ -4670,7 +4687,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -4691,7 +4708,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -4712,7 +4729,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -4733,7 +4750,7 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -4754,7 +4771,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A32" s="9"/>
       <c r="B32" s="14" t="s">
         <v>113</v>
@@ -4780,7 +4797,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A33" s="9"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -4799,7 +4816,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B60" s="14" t="s">
         <v>3</v>
       </c>
@@ -4807,12 +4824,12 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B96">
         <v>3000</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B97">
         <v>2500</v>
       </c>
@@ -4820,7 +4837,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B98">
         <v>2500</v>
       </c>
@@ -4828,17 +4845,17 @@
         <v>600</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B99">
         <v>800</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B100">
         <v>700</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B104">
         <f>SUM(B96:B100)</f>
         <v>9500</v>
@@ -4848,47 +4865,47 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.5">
       <c r="P105">
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.5">
       <c r="P106" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.5">
       <c r="P107" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.5">
       <c r="P108" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.5">
       <c r="P109" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.5">
       <c r="P110" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.5">
       <c r="P111" s="11">
         <v>3.99</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.5">
       <c r="P112" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.5">
       <c r="E113">
         <v>1400</v>
       </c>
@@ -4896,7 +4913,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.5">
       <c r="E114">
         <v>1300</v>
       </c>
@@ -4904,24 +4921,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="5:16" x14ac:dyDescent="0.5">
       <c r="E115">
         <v>950</v>
       </c>
       <c r="P115" s="11"/>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="5:16" x14ac:dyDescent="0.5">
       <c r="P116" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="5:16" x14ac:dyDescent="0.5">
       <c r="E119">
         <f>SUM(E113:E117)</f>
         <v>3650</v>
       </c>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="5:16" x14ac:dyDescent="0.5">
       <c r="P123">
         <f>SUM(P103:P120)</f>
         <v>516.99</v>
@@ -4940,17 +4957,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.19921875" customWidth="1"/>
-    <col min="9" max="9" width="19.796875" customWidth="1"/>
-    <col min="11" max="11" width="8.19921875" customWidth="1"/>
-    <col min="13" max="13" width="18.296875" customWidth="1"/>
-    <col min="18" max="18" width="3.69921875" customWidth="1"/>
+    <col min="2" max="2" width="11.8125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1875" customWidth="1"/>
+    <col min="9" max="9" width="19.8125" customWidth="1"/>
+    <col min="11" max="11" width="8.1875" customWidth="1"/>
+    <col min="13" max="13" width="18.3125" customWidth="1"/>
+    <col min="18" max="18" width="3.6875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -4971,7 +4988,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -4992,7 +5009,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -5017,7 +5034,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -5055,7 +5072,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -5076,7 +5093,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -5109,7 +5126,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A7" s="10"/>
       <c r="B7" s="9" t="s">
         <v>193</v>
@@ -5142,7 +5159,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A8" s="10"/>
       <c r="B8" s="9" t="s">
         <v>202</v>
@@ -5178,7 +5195,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A9" s="10"/>
       <c r="B9" s="9" t="s">
         <v>146</v>
@@ -5214,7 +5231,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A10" s="10"/>
       <c r="B10" s="9" t="s">
         <v>214</v>
@@ -5248,7 +5265,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="11"/>
@@ -5278,7 +5295,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>
@@ -5305,7 +5322,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -5332,7 +5349,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -5359,7 +5376,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -5384,7 +5401,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="D16" s="11"/>
@@ -5408,7 +5425,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -5429,7 +5446,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -5450,7 +5467,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -5471,7 +5488,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A20" s="10"/>
       <c r="B20" s="14" t="s">
         <v>6</v>
@@ -5509,7 +5526,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -5530,7 +5547,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -5551,7 +5568,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -5572,7 +5589,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="14" t="s">
@@ -5603,7 +5620,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -5624,7 +5641,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -5645,7 +5662,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A27" s="10"/>
       <c r="B27" s="14" t="s">
         <v>8</v>
@@ -5676,7 +5693,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -5697,7 +5714,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -5718,7 +5735,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -5739,7 +5756,7 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -5760,7 +5777,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A32" s="9"/>
       <c r="B32" s="14" t="s">
         <v>113</v>
@@ -5786,7 +5803,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A33" s="9"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -5805,7 +5822,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B60" s="14" t="s">
         <v>3</v>
       </c>
@@ -5813,12 +5830,12 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B96">
         <v>3000</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B97">
         <v>2500</v>
       </c>
@@ -5826,7 +5843,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B98">
         <v>2500</v>
       </c>
@@ -5834,17 +5851,17 @@
         <v>600</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B99">
         <v>800</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B100">
         <v>700</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B104">
         <f>SUM(B96:B100)</f>
         <v>9500</v>
@@ -5854,47 +5871,47 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.5">
       <c r="P105">
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.5">
       <c r="P106" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.5">
       <c r="P107" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.5">
       <c r="P108" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.5">
       <c r="P109" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.5">
       <c r="P110" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.5">
       <c r="P111" s="11">
         <v>3.99</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.5">
       <c r="P112" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.5">
       <c r="E113">
         <v>1400</v>
       </c>
@@ -5902,7 +5919,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.5">
       <c r="E114">
         <v>1300</v>
       </c>
@@ -5910,24 +5927,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="5:16" x14ac:dyDescent="0.5">
       <c r="E115">
         <v>950</v>
       </c>
       <c r="P115" s="11"/>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="5:16" x14ac:dyDescent="0.5">
       <c r="P116" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="5:16" x14ac:dyDescent="0.5">
       <c r="E119">
         <f>SUM(E113:E117)</f>
         <v>3650</v>
       </c>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="5:16" x14ac:dyDescent="0.5">
       <c r="P123">
         <f>SUM(P103:P120)</f>
         <v>516.99</v>
@@ -5942,21 +5959,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A004D6B5-EDB4-4F00-8178-BEA92D2455E4}">
   <dimension ref="A1:T123"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.19921875" customWidth="1"/>
-    <col min="9" max="9" width="19.796875" customWidth="1"/>
-    <col min="11" max="11" width="8.19921875" customWidth="1"/>
-    <col min="13" max="13" width="18.296875" customWidth="1"/>
-    <col min="18" max="18" width="3.69921875" customWidth="1"/>
+    <col min="2" max="2" width="11.8125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1875" customWidth="1"/>
+    <col min="9" max="9" width="19.8125" customWidth="1"/>
+    <col min="11" max="11" width="8.1875" customWidth="1"/>
+    <col min="13" max="13" width="18.3125" customWidth="1"/>
+    <col min="18" max="18" width="3.6875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -5977,7 +5994,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -5998,7 +6015,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -6023,7 +6040,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -6061,7 +6078,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -6082,7 +6099,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -6115,7 +6132,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A7" s="10"/>
       <c r="B7" s="9" t="s">
         <v>193</v>
@@ -6148,7 +6165,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A8" s="10"/>
       <c r="B8" s="9" t="s">
         <v>202</v>
@@ -6184,7 +6201,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A9" s="10"/>
       <c r="B9" s="9" t="s">
         <v>146</v>
@@ -6220,7 +6237,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A10" s="10"/>
       <c r="B10" s="9" t="s">
         <v>214</v>
@@ -6254,7 +6271,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="11"/>
@@ -6284,7 +6301,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>
@@ -6311,7 +6328,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -6338,7 +6355,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -6365,7 +6382,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -6374,7 +6391,7 @@
         <v>195</v>
       </c>
       <c r="F15" s="11">
-        <v>90</v>
+        <v>400</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="9"/>
@@ -6390,7 +6407,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="D16" s="11"/>
@@ -6414,13 +6431,17 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="11"/>
+      <c r="E17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="11">
+        <v>90</v>
+      </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
@@ -6435,7 +6456,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -6456,7 +6477,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -6477,7 +6498,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A20" s="10"/>
       <c r="B20" s="14" t="s">
         <v>6</v>
@@ -6490,7 +6511,7 @@
       <c r="E20" s="11"/>
       <c r="F20" s="11">
         <f>SUM(F7:F18)+100</f>
-        <v>2202</v>
+        <v>2602</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
@@ -6515,7 +6536,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -6536,7 +6557,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -6557,7 +6578,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -6578,7 +6599,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="14" t="s">
@@ -6586,7 +6607,7 @@
       </c>
       <c r="D24" s="11">
         <f>C20+F20+I20</f>
-        <v>4502</v>
+        <v>4902</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
@@ -6609,7 +6630,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -6630,7 +6651,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -6651,14 +6672,14 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A27" s="10"/>
       <c r="B27" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="11">
         <f>G4-D24</f>
-        <v>-1402</v>
+        <v>-1802</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
@@ -6682,7 +6703,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -6703,7 +6724,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -6724,7 +6745,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -6745,7 +6766,7 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -6766,7 +6787,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A32" s="9"/>
       <c r="B32" s="14" t="s">
         <v>113</v>
@@ -6780,7 +6801,7 @@
       <c r="I32" s="11"/>
       <c r="J32" s="11">
         <f>C27+L27</f>
-        <v>-898</v>
+        <v>-1298</v>
       </c>
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
@@ -6792,7 +6813,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A33" s="9"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -6811,7 +6832,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B60" s="14" t="s">
         <v>3</v>
       </c>
@@ -6819,12 +6840,12 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B96">
         <v>3000</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B97">
         <v>2500</v>
       </c>
@@ -6832,7 +6853,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B98">
         <v>2500</v>
       </c>
@@ -6840,17 +6861,17 @@
         <v>600</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B99">
         <v>800</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B100">
         <v>700</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B104">
         <f>SUM(B96:B100)</f>
         <v>9500</v>
@@ -6860,47 +6881,47 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.5">
       <c r="P105">
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.5">
       <c r="P106" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.5">
       <c r="P107" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.5">
       <c r="P108" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.5">
       <c r="P109" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.5">
       <c r="P110" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.5">
       <c r="P111" s="11">
         <v>3.99</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.5">
       <c r="P112" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.5">
       <c r="E113">
         <v>1400</v>
       </c>
@@ -6908,7 +6929,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.5">
       <c r="E114">
         <v>1300</v>
       </c>
@@ -6916,24 +6937,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="5:16" x14ac:dyDescent="0.5">
       <c r="E115">
         <v>950</v>
       </c>
       <c r="P115" s="11"/>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="5:16" x14ac:dyDescent="0.5">
       <c r="P116" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="5:16" x14ac:dyDescent="0.5">
       <c r="E119">
         <f>SUM(E113:E117)</f>
         <v>3650</v>
       </c>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="5:16" x14ac:dyDescent="0.5">
       <c r="P123">
         <f>SUM(P103:P120)</f>
         <v>516.99</v>
@@ -6946,15 +6967,18 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B974066F-70AB-4CE0-9413-18C0CA619219}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>204</v>
       </c>
@@ -6968,27 +6992,77 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A2">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="B2">
         <v>14700</v>
       </c>
-      <c r="C2">
-        <v>3000</v>
+      <c r="C2" t="s">
+        <v>217</v>
       </c>
       <c r="D2">
         <v>350</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="G2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="G3" t="s">
+        <v>219</v>
+      </c>
+      <c r="H3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="G4" t="s">
+        <v>220</v>
+      </c>
+      <c r="H4">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="G5" t="s">
+        <v>221</v>
+      </c>
+      <c r="H5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B6">
         <f>SUM(A2:G2)</f>
-        <v>25050</v>
+        <v>23050</v>
+      </c>
+      <c r="G6" t="s">
+        <v>222</v>
+      </c>
+      <c r="H6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="G7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="19" spans="6:8" x14ac:dyDescent="0.5">
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19">
+        <f>SUM(H3:H17)</f>
+        <v>19000</v>
       </c>
     </row>
   </sheetData>
@@ -7002,7 +7076,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7016,14 +7090,14 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="4" max="4" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.5">
       <c r="L2" t="s">
         <v>181</v>
       </c>
@@ -7031,7 +7105,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>162</v>
       </c>
@@ -7064,7 +7138,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.5">
       <c r="L5" t="s">
         <v>182</v>
       </c>
@@ -7078,7 +7152,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>184</v>
       </c>
@@ -7092,7 +7166,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>163</v>
       </c>
@@ -7112,7 +7186,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>183</v>
       </c>
@@ -7126,7 +7200,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>164</v>
       </c>
@@ -7141,7 +7215,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.5">
       <c r="L10" t="s">
         <v>192</v>
       </c>
@@ -7149,12 +7223,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.5">
       <c r="G13" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>166</v>
       </c>
@@ -7163,7 +7237,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -7191,7 +7265,7 @@
         <v>13978</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>163</v>
       </c>
@@ -7205,7 +7279,7 @@
         <v>3820</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>164</v>
       </c>
@@ -7228,12 +7302,12 @@
         <v>6022</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.5">
       <c r="G28" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>166</v>
       </c>
@@ -7255,20 +7329,20 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="17.8984375" customWidth="1"/>
-    <col min="7" max="7" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="7" max="7" width="13.6875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A3" s="16" t="s">
         <v>155</v>
       </c>
@@ -7279,7 +7353,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>1.5</v>
       </c>
@@ -7290,7 +7364,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>1.8</v>
       </c>
@@ -7301,7 +7375,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>1.5</v>
       </c>
@@ -7312,7 +7386,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>159</v>
       </c>
@@ -7320,7 +7394,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
       <c r="G11" t="s">
         <v>186</v>
       </c>
@@ -7328,7 +7402,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>160</v>
       </c>
@@ -7343,7 +7417,7 @@
         <v>336000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B13" t="s">
         <v>161</v>
       </c>
@@ -7358,21 +7432,21 @@
   <dimension ref="B3:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="4" max="4" width="18.296875" customWidth="1"/>
-    <col min="6" max="6" width="20.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.3125" customWidth="1"/>
+    <col min="6" max="6" width="20.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.5">
       <c r="F3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B4" t="s">
         <v>168</v>
       </c>
@@ -7389,7 +7463,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B5" t="s">
         <v>169</v>
       </c>
@@ -7406,7 +7480,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B6" t="s">
         <v>170</v>
       </c>
@@ -7423,7 +7497,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B7" t="s">
         <v>171</v>
       </c>
@@ -7437,7 +7511,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B8" t="s">
         <v>145</v>
       </c>
@@ -7445,7 +7519,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B9" t="s">
         <v>172</v>
       </c>
@@ -7453,7 +7527,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B10" t="s">
         <v>174</v>
       </c>
@@ -7461,12 +7535,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B11" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B19" t="s">
         <v>175</v>
       </c>
@@ -7492,19 +7566,19 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -7512,7 +7586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -7520,7 +7594,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -7529,10 +7603,10 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -7546,7 +7620,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -7560,7 +7634,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -7574,7 +7648,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -7588,7 +7662,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -7602,7 +7676,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -7616,7 +7690,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -7630,7 +7704,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -7644,7 +7718,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -7658,7 +7732,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -7667,7 +7741,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
@@ -7676,7 +7750,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -7685,7 +7759,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -7693,13 +7767,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A21" s="1"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -7712,7 +7786,7 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.5">
       <c r="B27" t="s">
         <v>15</v>
       </c>
@@ -7721,7 +7795,7 @@
         <v>4156.41</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -7746,14 +7820,14 @@
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.3125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -7761,7 +7835,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -7769,7 +7843,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -7778,10 +7852,10 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A4" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -7799,7 +7873,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -7808,7 +7882,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A8" s="1"/>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -7817,7 +7891,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>4</v>
@@ -7826,7 +7900,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>14</v>
@@ -7835,7 +7909,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>2</v>
@@ -7844,7 +7918,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>16</v>
@@ -7853,7 +7927,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>5</v>
@@ -7862,7 +7936,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>21</v>
@@ -7871,7 +7945,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>37</v>
@@ -7880,7 +7954,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>36</v>
@@ -7889,7 +7963,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>38</v>
@@ -7898,7 +7972,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>39</v>
@@ -7907,7 +7981,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>40</v>
@@ -7916,7 +7990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>42</v>
@@ -7925,7 +7999,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A21" s="1"/>
       <c r="D21" s="1" t="s">
         <v>43</v>
@@ -7934,7 +8008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>43</v>
@@ -7943,7 +8017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A23" s="1"/>
       <c r="D23" s="1" t="s">
         <v>44</v>
@@ -7952,7 +8026,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D24" s="1" t="s">
         <v>45</v>
       </c>
@@ -7960,7 +8034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="D25" s="1" t="s">
         <v>37</v>
       </c>
@@ -7968,7 +8042,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="D26" s="1" t="s">
         <v>16</v>
       </c>
@@ -7976,7 +8050,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D27" s="1" t="s">
         <v>36</v>
       </c>
@@ -7984,7 +8058,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D28" s="1" t="s">
         <v>46</v>
       </c>
@@ -7992,7 +8066,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D29" s="1" t="s">
         <v>47</v>
       </c>
@@ -8000,7 +8074,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D30" s="1" t="s">
         <v>27</v>
       </c>
@@ -8008,7 +8082,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D31" s="1" t="s">
         <v>27</v>
       </c>
@@ -8016,7 +8090,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D32" s="1" t="s">
         <v>54</v>
       </c>
@@ -8024,7 +8098,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D33" s="1" t="s">
         <v>50</v>
       </c>
@@ -8032,16 +8106,16 @@
         <v>387</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D36" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A38" s="2" t="s">
         <v>6</v>
       </c>
@@ -8054,7 +8128,7 @@
         <v>3854</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B42" s="2" t="s">
         <v>15</v>
       </c>
@@ -8063,7 +8137,7 @@
         <v>3854</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A45" s="2" t="s">
         <v>8</v>
       </c>
@@ -8072,7 +8146,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A49" s="2" t="s">
         <v>3</v>
       </c>
@@ -8092,7 +8166,7 @@
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8106,14 +8180,14 @@
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.3125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -8121,7 +8195,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -8129,7 +8203,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -8138,10 +8212,10 @@
         <v>3946</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -8152,7 +8226,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -8161,7 +8235,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" s="1"/>
       <c r="D8" s="1" t="s">
         <v>21</v>
@@ -8170,7 +8244,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -8179,7 +8253,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>4</v>
@@ -8188,7 +8262,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>5</v>
@@ -8197,7 +8271,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>2</v>
@@ -8206,7 +8280,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -8215,7 +8289,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>39</v>
@@ -8224,7 +8298,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>40</v>
@@ -8233,7 +8307,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>48</v>
@@ -8242,7 +8316,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>49</v>
@@ -8251,7 +8325,7 @@
         <v>15.99</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>49</v>
@@ -8260,7 +8334,7 @@
         <v>15.99</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>49</v>
@@ -8269,7 +8343,7 @@
         <v>3.99</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>51</v>
@@ -8278,7 +8352,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A21" s="1"/>
       <c r="D21" s="1" t="s">
         <v>57</v>
@@ -8287,7 +8361,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>52</v>
@@ -8296,7 +8370,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A23" s="1"/>
       <c r="D23" s="1" t="s">
         <v>53</v>
@@ -8305,7 +8379,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A24" s="1"/>
       <c r="D24" s="1" t="s">
         <v>55</v>
@@ -8314,7 +8388,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D25" s="1" t="s">
         <v>56</v>
       </c>
@@ -8322,7 +8396,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D26" s="1" t="s">
         <v>58</v>
       </c>
@@ -8330,7 +8404,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D27" s="1" t="s">
         <v>59</v>
       </c>
@@ -8338,7 +8412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D28" s="1" t="s">
         <v>60</v>
       </c>
@@ -8346,7 +8420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D29" s="1" t="s">
         <v>61</v>
       </c>
@@ -8354,7 +8428,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D30" s="1" t="s">
         <v>62</v>
       </c>
@@ -8362,7 +8436,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D31" s="1" t="s">
         <v>27</v>
       </c>
@@ -8370,7 +8444,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D32" s="1" t="s">
         <v>14</v>
       </c>
@@ -8378,22 +8452,22 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D37" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A39" s="2" t="s">
         <v>6</v>
       </c>
@@ -8406,7 +8480,7 @@
         <v>3898.9699999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B43" s="2" t="s">
         <v>15</v>
       </c>
@@ -8415,7 +8489,7 @@
         <v>3898.9699999999993</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A46" s="2" t="s">
         <v>8</v>
       </c>
@@ -8424,7 +8498,7 @@
         <v>47.030000000000655</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -8445,19 +8519,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.3125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -8465,7 +8539,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -8474,10 +8548,10 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -8488,7 +8562,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -8497,7 +8571,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" s="1"/>
       <c r="B8">
         <v>50</v>
@@ -8509,7 +8583,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -8518,7 +8592,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>4</v>
@@ -8527,7 +8601,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>5</v>
@@ -8536,7 +8610,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>2</v>
@@ -8545,7 +8619,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -8554,7 +8628,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>39</v>
@@ -8563,7 +8637,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>40</v>
@@ -8572,7 +8646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>48</v>
@@ -8581,7 +8655,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>49</v>
@@ -8590,7 +8664,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>49</v>
@@ -8599,7 +8673,7 @@
         <v>15.99</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>49</v>
@@ -8608,7 +8682,7 @@
         <v>3.99</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>51</v>
@@ -8617,7 +8691,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A21" s="1"/>
       <c r="D21" s="1" t="s">
         <v>14</v>
@@ -8626,7 +8700,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>52</v>
@@ -8635,7 +8709,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A23" s="1"/>
       <c r="D23" s="1" t="s">
         <v>63</v>
@@ -8644,7 +8718,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A24" s="1"/>
       <c r="D24" s="1" t="s">
         <v>14</v>
@@ -8653,7 +8727,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D25" s="1" t="s">
         <v>64</v>
       </c>
@@ -8661,7 +8735,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D26" s="1" t="s">
         <v>65</v>
       </c>
@@ -8669,40 +8743,40 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D37" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A39" s="2" t="s">
         <v>6</v>
       </c>
@@ -8715,7 +8789,7 @@
         <v>3000.9799999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B43" s="2" t="s">
         <v>15</v>
       </c>
@@ -8724,7 +8798,7 @@
         <v>3050.9799999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A46" s="2" t="s">
         <v>8</v>
       </c>
@@ -8733,7 +8807,7 @@
         <v>-0.97999999999956344</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -8754,17 +8828,17 @@
       <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.3125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -8772,7 +8846,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -8780,7 +8854,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -8789,7 +8863,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A4" s="1"/>
       <c r="D4" s="5" t="s">
         <v>78</v>
@@ -8798,7 +8872,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>75</v>
@@ -8827,7 +8901,7 @@
       </c>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -8849,7 +8923,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A8" s="1"/>
       <c r="B8">
         <v>25</v>
@@ -8874,7 +8948,7 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A9" s="1"/>
       <c r="B9">
         <v>26</v>
@@ -8894,7 +8968,7 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
       <c r="B10">
         <v>160</v>
@@ -8919,7 +8993,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>5</v>
@@ -8940,7 +9014,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>2</v>
@@ -8955,7 +9029,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -8967,7 +9041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>39</v>
@@ -8977,7 +9051,7 @@
       </c>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>40</v>
@@ -8987,7 +9061,7 @@
       </c>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>48</v>
@@ -8997,7 +9071,7 @@
       </c>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>49</v>
@@ -9007,7 +9081,7 @@
       </c>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>49</v>
@@ -9020,7 +9094,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>49</v>
@@ -9033,7 +9107,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>51</v>
@@ -9046,7 +9120,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A21" s="1"/>
       <c r="D21" s="1" t="s">
         <v>14</v>
@@ -9059,7 +9133,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>81</v>
@@ -9071,7 +9145,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A23" s="1"/>
       <c r="D23" s="1" t="s">
         <v>82</v>
@@ -9080,7 +9154,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A24" s="1"/>
       <c r="D24" s="1" t="s">
         <v>84</v>
@@ -9093,10 +9167,10 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A25" s="1"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.5">
       <c r="D27" s="1"/>
       <c r="Q27" t="s">
         <v>83</v>
@@ -9106,25 +9180,25 @@
         <v>780.98999999999978</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.5">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.5">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.5">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.5">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.5">
       <c r="N32">
         <f>SUM(N7:N29)</f>
         <v>272</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
@@ -9141,7 +9215,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B37" s="2" t="s">
         <v>15</v>
       </c>
@@ -9150,7 +9224,7 @@
         <v>3066.99</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
@@ -9159,7 +9233,7 @@
         <v>233.01000000000022</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A44" s="2" t="s">
         <v>3</v>
       </c>
@@ -9180,20 +9254,20 @@
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="10.796875" style="1"/>
-    <col min="2" max="2" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.8125" style="1"/>
+    <col min="2" max="2" width="13.6875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.3125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.19921875" customWidth="1"/>
+    <col min="10" max="10" width="11.1875" customWidth="1"/>
     <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.3125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -9214,7 +9288,7 @@
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -9235,7 +9309,7 @@
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A3" s="8"/>
       <c r="B3" s="1">
         <v>3030</v>
@@ -9246,7 +9320,7 @@
       </c>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A4" s="8"/>
       <c r="B4" s="1">
         <v>600</v>
@@ -9254,7 +9328,7 @@
       <c r="J4" s="7"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A5" s="8"/>
       <c r="B5" s="1">
         <v>300</v>
@@ -9262,7 +9336,7 @@
       <c r="J5" s="7"/>
       <c r="S5" s="7"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A6" s="8"/>
       <c r="B6" s="1">
         <v>100</v>
@@ -9270,19 +9344,19 @@
       <c r="J6" s="7"/>
       <c r="S6" s="7"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A7" s="8"/>
       <c r="B7" s="1"/>
       <c r="J7" s="7"/>
       <c r="S7" s="7"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A8" s="8"/>
       <c r="B8" s="1"/>
       <c r="J8" s="7"/>
       <c r="S8" s="7"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A9" s="8"/>
       <c r="B9" s="1"/>
       <c r="E9" s="5" t="s">
@@ -9307,13 +9381,13 @@
       </c>
       <c r="S9" s="7"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A10" s="8"/>
       <c r="B10" s="1"/>
       <c r="J10" s="7"/>
       <c r="S10" s="7"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A11" s="8"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
@@ -9345,7 +9419,7 @@
       <c r="Q11" s="2"/>
       <c r="S11" s="7"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A12" s="8"/>
       <c r="B12" s="1"/>
       <c r="E12" s="1" t="s">
@@ -9375,7 +9449,7 @@
       </c>
       <c r="S12" s="7"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A13" s="8"/>
       <c r="B13" s="1" t="s">
         <v>91</v>
@@ -9410,7 +9484,7 @@
       </c>
       <c r="S13" s="7"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A14" s="8"/>
       <c r="B14" s="1" t="s">
         <v>50</v>
@@ -9445,7 +9519,7 @@
       </c>
       <c r="S14" s="7"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A15" s="8"/>
       <c r="B15" s="1" t="s">
         <v>11</v>
@@ -9480,7 +9554,7 @@
       </c>
       <c r="S15" s="7"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A16" s="8"/>
       <c r="B16" s="1" t="s">
         <v>82</v>
@@ -9515,7 +9589,7 @@
       </c>
       <c r="S16" s="7"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A17" s="8"/>
       <c r="B17" s="1" t="s">
         <v>84</v>
@@ -9550,7 +9624,7 @@
       </c>
       <c r="S17" s="7"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A18" s="8"/>
       <c r="B18" s="1" t="s">
         <v>81</v>
@@ -9582,7 +9656,7 @@
       </c>
       <c r="S18" s="7"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A19" s="8"/>
       <c r="B19" s="1"/>
       <c r="E19" s="1" t="s">
@@ -9607,7 +9681,7 @@
       </c>
       <c r="S19" s="7"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A20" s="8"/>
       <c r="B20" s="1"/>
       <c r="E20" s="1" t="s">
@@ -9632,7 +9706,7 @@
       </c>
       <c r="S20" s="7"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A21" s="8"/>
       <c r="B21" s="1"/>
       <c r="E21" s="1" t="s">
@@ -9651,7 +9725,7 @@
       <c r="M21" s="1"/>
       <c r="S21" s="7"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A22" s="8"/>
       <c r="B22" s="1"/>
       <c r="E22" s="1" t="s">
@@ -9670,7 +9744,7 @@
       <c r="M22" s="1"/>
       <c r="S22" s="7"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A23" s="8"/>
       <c r="B23" s="1"/>
       <c r="E23" s="1" t="s">
@@ -9684,7 +9758,7 @@
       <c r="M23" s="1"/>
       <c r="S23" s="7"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A24" s="8"/>
       <c r="B24" s="1"/>
       <c r="E24" s="1" t="s">
@@ -9703,7 +9777,7 @@
       <c r="M24" s="1"/>
       <c r="S24" s="7"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A25" s="8"/>
       <c r="B25" s="1"/>
       <c r="E25" s="1" t="s">
@@ -9722,7 +9796,7 @@
       <c r="M25" s="1"/>
       <c r="S25" s="7"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A26" s="8"/>
       <c r="B26" s="1"/>
       <c r="E26" s="1" t="s">
@@ -9741,7 +9815,7 @@
       <c r="M26" s="1"/>
       <c r="S26" s="7"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A27" s="8"/>
       <c r="B27" s="1"/>
       <c r="E27" s="1" t="s">
@@ -9759,7 +9833,7 @@
       <c r="J27" s="7"/>
       <c r="S27" s="7"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A28" s="8"/>
       <c r="B28" s="1"/>
       <c r="E28" s="1"/>
@@ -9772,7 +9846,7 @@
       <c r="J28" s="7"/>
       <c r="S28" s="7"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A29" s="8"/>
       <c r="B29" s="1"/>
       <c r="E29" s="1"/>
@@ -9785,7 +9859,7 @@
       <c r="J29" s="7"/>
       <c r="S29" s="7"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A30" s="8"/>
       <c r="B30" s="1"/>
       <c r="H30" s="1" t="s">
@@ -9797,7 +9871,7 @@
       <c r="J30" s="7"/>
       <c r="S30" s="7"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A31" s="8"/>
       <c r="H31" s="1" t="s">
         <v>110</v>
@@ -9808,7 +9882,7 @@
       <c r="J31" s="7"/>
       <c r="S31" s="7"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A32" s="8"/>
       <c r="E32" s="1"/>
       <c r="H32" s="1" t="s">
@@ -9820,7 +9894,7 @@
       <c r="J32" s="7"/>
       <c r="S32" s="7"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A33" s="8"/>
       <c r="E33" s="1"/>
       <c r="H33" s="1" t="s">
@@ -9832,30 +9906,30 @@
       <c r="J33" s="7"/>
       <c r="S33" s="7"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A34" s="8"/>
       <c r="E34" s="1"/>
       <c r="J34" s="7"/>
       <c r="S34" s="7"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A35" s="8"/>
       <c r="E35" s="1"/>
       <c r="J35" s="7"/>
       <c r="S35" s="7"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A36" s="8"/>
       <c r="E36" s="1"/>
       <c r="J36" s="7"/>
       <c r="S36" s="7"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A37" s="8"/>
       <c r="J37" s="7"/>
       <c r="S37" s="7"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A38" s="8"/>
       <c r="B38" s="2" t="s">
         <v>6</v>
@@ -9883,22 +9957,22 @@
       </c>
       <c r="S38" s="7"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A39" s="8"/>
       <c r="J39" s="7"/>
       <c r="S39" s="7"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A40" s="8"/>
       <c r="J40" s="7"/>
       <c r="S40" s="7"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A41" s="8"/>
       <c r="J41" s="7"/>
       <c r="S41" s="7"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A42" s="8"/>
       <c r="C42" s="2" t="s">
         <v>15</v>
@@ -9917,17 +9991,17 @@
       </c>
       <c r="S42" s="7"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A43" s="8"/>
       <c r="J43" s="7"/>
       <c r="S43" s="7"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A44" s="8"/>
       <c r="J44" s="7"/>
       <c r="S44" s="7"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A45" s="8"/>
       <c r="B45" s="2" t="s">
         <v>8</v>
@@ -9943,12 +10017,12 @@
       </c>
       <c r="S45" s="7"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A46" s="8"/>
       <c r="J46" s="7"/>
       <c r="S46" s="7"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -9969,7 +10043,7 @@
       <c r="R47" s="7"/>
       <c r="S47" s="7"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -9990,10 +10064,10 @@
       <c r="R48" s="7"/>
       <c r="S48" s="7"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A49"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B51" s="2" t="s">
         <v>3</v>
       </c>
@@ -10004,7 +10078,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M52" t="s">
         <v>106</v>
       </c>
@@ -10012,12 +10086,12 @@
         <v>24.99</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M53" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M54" t="s">
         <v>108</v>
       </c>
@@ -10025,7 +10099,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.5">
       <c r="N61">
         <f>SUM(N51:N57)</f>
         <v>74.989999999999995</v>
@@ -10044,16 +10118,16 @@
       <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.19921875" customWidth="1"/>
-    <col min="11" max="11" width="8.19921875" customWidth="1"/>
-    <col min="13" max="13" width="18.296875" customWidth="1"/>
-    <col min="18" max="18" width="3.69921875" customWidth="1"/>
+    <col min="2" max="2" width="11.8125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1875" customWidth="1"/>
+    <col min="11" max="11" width="8.1875" customWidth="1"/>
+    <col min="13" max="13" width="18.3125" customWidth="1"/>
+    <col min="18" max="18" width="3.6875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -10074,7 +10148,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -10095,7 +10169,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -10116,7 +10190,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -10149,7 +10223,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -10170,7 +10244,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -10203,7 +10277,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A7" s="10"/>
       <c r="B7" s="9"/>
       <c r="C7" s="11"/>
@@ -10238,7 +10312,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A8" s="10"/>
       <c r="B8" s="9"/>
       <c r="C8" s="11"/>
@@ -10275,7 +10349,7 @@
       <c r="R8" s="11"/>
       <c r="S8" s="12"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A9" s="10"/>
       <c r="B9" s="9"/>
       <c r="C9" s="11"/>
@@ -10312,7 +10386,7 @@
       <c r="R9" s="11"/>
       <c r="S9" s="12"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="C10" s="11"/>
@@ -10349,7 +10423,7 @@
       <c r="R10" s="11"/>
       <c r="S10" s="12"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="11"/>
@@ -10384,7 +10458,7 @@
       <c r="R11" s="11"/>
       <c r="S11" s="12"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>
@@ -10421,7 +10495,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -10454,7 +10528,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -10481,7 +10555,7 @@
       <c r="R14" s="11"/>
       <c r="S14" s="12"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -10510,7 +10584,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="11"/>
@@ -10539,7 +10613,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -10568,7 +10642,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A18" s="10"/>
       <c r="B18" s="9"/>
       <c r="C18" s="11"/>
@@ -10597,7 +10671,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A19" s="10"/>
       <c r="B19" s="9"/>
       <c r="C19" s="11"/>
@@ -10626,7 +10700,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A20" s="10"/>
       <c r="B20" s="9"/>
       <c r="C20" s="11"/>
@@ -10655,7 +10729,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A21" s="10"/>
       <c r="B21" s="9"/>
       <c r="C21" s="11"/>
@@ -10682,7 +10756,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A22" s="10"/>
       <c r="B22" s="9"/>
       <c r="C22" s="11"/>
@@ -10707,7 +10781,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A23" s="10"/>
       <c r="B23" s="9"/>
       <c r="C23" s="11"/>
@@ -10732,7 +10806,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A24" s="10"/>
       <c r="B24" s="9"/>
       <c r="C24" s="11"/>
@@ -10753,7 +10827,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A25" s="10"/>
       <c r="B25" s="9"/>
       <c r="C25" s="11"/>
@@ -10774,7 +10848,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -10795,7 +10869,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -10816,7 +10890,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -10837,7 +10911,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -10858,7 +10932,7 @@
       <c r="R29" s="11"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -10879,7 +10953,7 @@
       <c r="R30" s="11"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -10900,7 +10974,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="12"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -10921,7 +10995,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="12"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A33" s="10"/>
       <c r="B33" s="14" t="s">
         <v>6</v>
@@ -10959,7 +11033,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="12"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -10980,7 +11054,7 @@
       <c r="R34" s="11"/>
       <c r="S34" s="12"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -11001,7 +11075,7 @@
       <c r="R35" s="11"/>
       <c r="S35" s="12"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -11022,7 +11096,7 @@
       <c r="R36" s="11"/>
       <c r="S36" s="12"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="14" t="s">
@@ -11053,7 +11127,7 @@
       <c r="R37" s="11"/>
       <c r="S37" s="12"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -11074,7 +11148,7 @@
       <c r="R38" s="11"/>
       <c r="S38" s="12"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -11095,7 +11169,7 @@
       <c r="R39" s="11"/>
       <c r="S39" s="12"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A40" s="10"/>
       <c r="B40" s="14" t="s">
         <v>8</v>
@@ -11126,7 +11200,7 @@
       <c r="R40" s="11"/>
       <c r="S40" s="12"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -11147,7 +11221,7 @@
       <c r="R41" s="11"/>
       <c r="S41" s="12"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -11168,7 +11242,7 @@
       <c r="R42" s="12"/>
       <c r="S42" s="12"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -11189,7 +11263,7 @@
       <c r="R43" s="12"/>
       <c r="S43" s="12"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -11210,7 +11284,7 @@
       <c r="R44" s="11"/>
       <c r="S44" s="11"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A45" s="9"/>
       <c r="B45" s="14" t="s">
         <v>113</v>
@@ -11236,7 +11310,7 @@
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A46" s="9"/>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
@@ -11255,7 +11329,7 @@
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.5">
       <c r="N47" t="s">
         <v>122</v>
       </c>
@@ -11263,7 +11337,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.5">
       <c r="N48" t="s">
         <v>125</v>
       </c>
@@ -11271,7 +11345,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="14:16" x14ac:dyDescent="0.5">
       <c r="N49" t="s">
         <v>122</v>
       </c>
@@ -11279,7 +11353,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="14:16" x14ac:dyDescent="0.5">
       <c r="N50" t="s">
         <v>123</v>
       </c>
@@ -11287,7 +11361,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="14:16" x14ac:dyDescent="0.5">
       <c r="N51" t="s">
         <v>126</v>
       </c>
@@ -11298,7 +11372,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="14:16" x14ac:dyDescent="0.5">
       <c r="N52" t="s">
         <v>127</v>
       </c>
@@ -11306,12 +11380,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="14:16" x14ac:dyDescent="0.5">
       <c r="N55" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="58" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="14:16" x14ac:dyDescent="0.5">
       <c r="N58" t="s">
         <v>6</v>
       </c>
@@ -11320,7 +11394,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B73" s="14" t="s">
         <v>3</v>
       </c>

--- a/Budget.xlsx
+++ b/Budget.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3c6177e7d3ca184/Documents/git-projet/Document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{9CD8A904-680D-4329-A1F0-BEEAE2D6AA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A19757C-B59E-4924-B57B-E6D431636715}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{9CD8A904-680D-4329-A1F0-BEEAE2D6AA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D8A75F2-0138-45C6-87B1-A69081E15298}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" firstSheet="11" activeTab="13" xr2:uid="{27B7E826-E620-B34C-81E1-46A3DBC74E62}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="11" activeTab="14" xr2:uid="{27B7E826-E620-B34C-81E1-46A3DBC74E62}"/>
   </bookViews>
   <sheets>
     <sheet name="Fevrier" sheetId="3" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="228">
   <si>
     <t>Loyer</t>
   </si>
@@ -724,6 +724,18 @@
   </si>
   <si>
     <t>mars</t>
+  </si>
+  <si>
+    <t>Mohamed NIANG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Credit </t>
+  </si>
+  <si>
+    <t>debit</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -865,6 +877,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1170,14 +1186,14 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.6875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.8125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1185,7 +1201,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1193,7 +1209,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1202,13 +1218,13 @@
         <v>3375</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1219,7 +1235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1233,7 +1249,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1247,7 +1263,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1261,7 +1277,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1275,7 +1291,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -1289,7 +1305,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1303,7 +1319,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1317,7 +1333,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1331,7 +1347,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -1340,7 +1356,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -1349,7 +1365,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,7 +1374,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -1373,7 +1389,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>15</v>
       </c>
@@ -1382,7 +1398,7 @@
         <v>3446.18</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
@@ -1404,16 +1420,16 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.8125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1875" customWidth="1"/>
-    <col min="11" max="11" width="8.1875" customWidth="1"/>
-    <col min="13" max="13" width="18.3125" customWidth="1"/>
-    <col min="18" max="18" width="3.6875" customWidth="1"/>
+    <col min="2" max="2" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.19921875" customWidth="1"/>
+    <col min="11" max="11" width="8.19921875" customWidth="1"/>
+    <col min="13" max="13" width="18.296875" customWidth="1"/>
+    <col min="18" max="18" width="3.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1434,7 +1450,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -1455,7 +1471,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -1476,7 +1492,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -1509,7 +1525,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -1530,7 +1546,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -1563,7 +1579,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="9"/>
       <c r="C7" s="11"/>
@@ -1600,7 +1616,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="9"/>
       <c r="C8" s="11"/>
@@ -1629,7 +1645,7 @@
       <c r="R8" s="11"/>
       <c r="S8" s="12"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="9"/>
       <c r="C9" s="11"/>
@@ -1666,7 +1682,7 @@
       <c r="R9" s="11"/>
       <c r="S9" s="12"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="C10" s="11"/>
@@ -1703,7 +1719,7 @@
       <c r="R10" s="11"/>
       <c r="S10" s="12"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="11"/>
@@ -1740,7 +1756,7 @@
       <c r="R11" s="11"/>
       <c r="S11" s="12"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>
@@ -1777,7 +1793,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -1810,7 +1826,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -1841,7 +1857,7 @@
       <c r="R14" s="11"/>
       <c r="S14" s="12"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -1874,7 +1890,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="11"/>
@@ -1907,7 +1923,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -1940,7 +1956,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="9"/>
       <c r="C18" s="11"/>
@@ -1973,7 +1989,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="9"/>
       <c r="C19" s="11"/>
@@ -2002,7 +2018,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="9"/>
       <c r="C20" s="11"/>
@@ -2029,7 +2045,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="9"/>
       <c r="C21" s="11"/>
@@ -2058,7 +2074,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="9"/>
       <c r="C22" s="11"/>
@@ -2083,7 +2099,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="9"/>
       <c r="C23" s="11"/>
@@ -2108,7 +2124,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="9"/>
       <c r="C24" s="11"/>
@@ -2133,7 +2149,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="9"/>
       <c r="C25" s="11"/>
@@ -2156,7 +2172,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="9"/>
       <c r="C26" s="11"/>
@@ -2181,7 +2197,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -2206,7 +2222,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -2231,7 +2247,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -2252,7 +2268,7 @@
       <c r="R29" s="11"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -2273,7 +2289,7 @@
       <c r="R30" s="11"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -2294,7 +2310,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="12"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -2315,7 +2331,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="12"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -2336,7 +2352,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="12"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="14" t="s">
         <v>6</v>
@@ -2374,7 +2390,7 @@
       <c r="R34" s="11"/>
       <c r="S34" s="12"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -2395,7 +2411,7 @@
       <c r="R35" s="11"/>
       <c r="S35" s="12"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -2416,7 +2432,7 @@
       <c r="R36" s="11"/>
       <c r="S36" s="12"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -2437,7 +2453,7 @@
       <c r="R37" s="11"/>
       <c r="S37" s="12"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="14" t="s">
@@ -2468,7 +2484,7 @@
       <c r="R38" s="11"/>
       <c r="S38" s="12"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -2489,7 +2505,7 @@
       <c r="R39" s="11"/>
       <c r="S39" s="12"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -2510,7 +2526,7 @@
       <c r="R40" s="11"/>
       <c r="S40" s="12"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
       <c r="B41" s="14" t="s">
         <v>8</v>
@@ -2541,7 +2557,7 @@
       <c r="R41" s="11"/>
       <c r="S41" s="12"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -2562,7 +2578,7 @@
       <c r="R42" s="11"/>
       <c r="S42" s="12"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -2583,7 +2599,7 @@
       <c r="R43" s="12"/>
       <c r="S43" s="12"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -2604,7 +2620,7 @@
       <c r="R44" s="12"/>
       <c r="S44" s="12"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -2625,7 +2641,7 @@
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="14" t="s">
         <v>113</v>
@@ -2651,7 +2667,7 @@
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
@@ -2670,7 +2686,7 @@
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B74" s="14" t="s">
         <v>3</v>
       </c>
@@ -2691,18 +2707,18 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.8125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1875" customWidth="1"/>
-    <col min="8" max="8" width="15.6875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.1875" customWidth="1"/>
-    <col min="13" max="13" width="18.3125" customWidth="1"/>
-    <col min="16" max="16" width="15.6875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.6875" customWidth="1"/>
+    <col min="2" max="2" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.19921875" customWidth="1"/>
+    <col min="8" max="8" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.19921875" customWidth="1"/>
+    <col min="13" max="13" width="18.296875" customWidth="1"/>
+    <col min="16" max="16" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -2723,7 +2739,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -2744,7 +2760,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -2765,7 +2781,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -2798,7 +2814,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -2819,7 +2835,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -2852,7 +2868,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="9"/>
       <c r="C7" s="11">
@@ -2891,7 +2907,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="9"/>
       <c r="C8" s="11"/>
@@ -2924,7 +2940,7 @@
       <c r="R8" s="11"/>
       <c r="S8" s="12"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="9"/>
       <c r="C9" s="11"/>
@@ -2961,7 +2977,7 @@
       <c r="R9" s="11"/>
       <c r="S9" s="12"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="C10" s="11"/>
@@ -2995,7 +3011,7 @@
       <c r="R10" s="11"/>
       <c r="S10" s="12"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="11"/>
@@ -3029,7 +3045,7 @@
       <c r="R11" s="11"/>
       <c r="S11" s="12"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>
@@ -3066,7 +3082,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -3103,7 +3119,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -3130,7 +3146,7 @@
       <c r="R14" s="11"/>
       <c r="S14" s="12"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -3155,7 +3171,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="11"/>
@@ -3180,7 +3196,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -3205,7 +3221,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="9"/>
       <c r="C18" s="11"/>
@@ -3230,7 +3246,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="9"/>
       <c r="C19" s="11"/>
@@ -3255,7 +3271,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="9"/>
       <c r="C20" s="11"/>
@@ -3280,7 +3296,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="9"/>
       <c r="C21" s="11"/>
@@ -3305,7 +3321,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="9"/>
       <c r="C22" s="11"/>
@@ -3330,7 +3346,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="9"/>
       <c r="C23" s="11"/>
@@ -3355,7 +3371,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="9"/>
       <c r="C24" s="11"/>
@@ -3380,7 +3396,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="9"/>
       <c r="C25" s="11"/>
@@ -3405,7 +3421,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="9"/>
       <c r="C26" s="11"/>
@@ -3426,7 +3442,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -3447,7 +3463,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -3468,7 +3484,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -3489,7 +3505,7 @@
       <c r="R29" s="11"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -3510,7 +3526,7 @@
       <c r="R30" s="11"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -3531,7 +3547,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="12"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -3552,7 +3568,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="12"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -3573,7 +3589,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="12"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="14" t="s">
         <v>6</v>
@@ -3611,7 +3627,7 @@
       <c r="R34" s="11"/>
       <c r="S34" s="12"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -3632,7 +3648,7 @@
       <c r="R35" s="11"/>
       <c r="S35" s="12"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -3653,7 +3669,7 @@
       <c r="R36" s="11"/>
       <c r="S36" s="12"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -3674,7 +3690,7 @@
       <c r="R37" s="11"/>
       <c r="S37" s="12"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="14" t="s">
@@ -3705,7 +3721,7 @@
       <c r="R38" s="11"/>
       <c r="S38" s="12"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -3726,7 +3742,7 @@
       <c r="R39" s="11"/>
       <c r="S39" s="12"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -3747,7 +3763,7 @@
       <c r="R40" s="11"/>
       <c r="S40" s="12"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
       <c r="B41" s="14" t="s">
         <v>8</v>
@@ -3778,7 +3794,7 @@
       <c r="R41" s="11"/>
       <c r="S41" s="12"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -3799,7 +3815,7 @@
       <c r="R42" s="11"/>
       <c r="S42" s="12"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -3820,7 +3836,7 @@
       <c r="R43" s="12"/>
       <c r="S43" s="12"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -3841,7 +3857,7 @@
       <c r="R44" s="12"/>
       <c r="S44" s="12"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -3862,7 +3878,7 @@
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="14" t="s">
         <v>113</v>
@@ -3888,7 +3904,7 @@
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
@@ -3907,7 +3923,7 @@
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B74" s="14" t="s">
         <v>3</v>
       </c>
@@ -3928,17 +3944,17 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.8125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1875" customWidth="1"/>
-    <col min="9" max="9" width="19.8125" customWidth="1"/>
-    <col min="11" max="11" width="8.1875" customWidth="1"/>
-    <col min="13" max="13" width="18.3125" customWidth="1"/>
-    <col min="18" max="18" width="3.6875" customWidth="1"/>
+    <col min="2" max="2" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.19921875" customWidth="1"/>
+    <col min="9" max="9" width="19.796875" customWidth="1"/>
+    <col min="11" max="11" width="8.19921875" customWidth="1"/>
+    <col min="13" max="13" width="18.296875" customWidth="1"/>
+    <col min="18" max="18" width="3.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -3959,7 +3975,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -3980,7 +3996,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -4005,7 +4021,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -4043,7 +4059,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -4064,7 +4080,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -4097,7 +4113,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="9" t="s">
         <v>193</v>
@@ -4128,7 +4144,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="9" t="s">
         <v>202</v>
@@ -4164,7 +4180,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="9" t="s">
         <v>146</v>
@@ -4200,7 +4216,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="9" t="s">
         <v>213</v>
@@ -4234,7 +4250,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="9" t="s">
         <v>207</v>
@@ -4268,7 +4284,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="9" t="s">
         <v>208</v>
@@ -4299,7 +4315,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="9" t="s">
         <v>209</v>
@@ -4330,7 +4346,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="9" t="s">
         <v>210</v>
@@ -4361,7 +4377,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="9" t="s">
         <v>216</v>
@@ -4390,7 +4406,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="9" t="s">
         <v>198</v>
@@ -4419,7 +4435,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -4440,7 +4456,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -4461,7 +4477,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -4482,7 +4498,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="14" t="s">
         <v>6</v>
@@ -4520,7 +4536,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -4541,7 +4557,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -4562,7 +4578,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -4583,7 +4599,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="14" t="s">
@@ -4614,7 +4630,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -4635,7 +4651,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -4656,7 +4672,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="14" t="s">
         <v>8</v>
@@ -4687,7 +4703,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -4708,7 +4724,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -4729,7 +4745,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -4750,7 +4766,7 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -4771,7 +4787,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="14" t="s">
         <v>113</v>
@@ -4797,7 +4813,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -4816,7 +4832,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" s="14" t="s">
         <v>3</v>
       </c>
@@ -4824,12 +4840,12 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B96">
         <v>3000</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B97">
         <v>2500</v>
       </c>
@@ -4837,7 +4853,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B98">
         <v>2500</v>
       </c>
@@ -4845,17 +4861,17 @@
         <v>600</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B99">
         <v>800</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B100">
         <v>700</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B104">
         <f>SUM(B96:B100)</f>
         <v>9500</v>
@@ -4865,47 +4881,47 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P105">
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P106" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P107" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P108" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P109" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P110" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P111" s="11">
         <v>3.99</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P112" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.5">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E113">
         <v>1400</v>
       </c>
@@ -4913,7 +4929,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.5">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E114">
         <v>1300</v>
       </c>
@@ -4921,24 +4937,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.5">
+    <row r="115" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E115">
         <v>950</v>
       </c>
       <c r="P115" s="11"/>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.5">
+    <row r="116" spans="5:16" x14ac:dyDescent="0.3">
       <c r="P116" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.5">
+    <row r="119" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E119">
         <f>SUM(E113:E117)</f>
         <v>3650</v>
       </c>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.5">
+    <row r="123" spans="5:16" x14ac:dyDescent="0.3">
       <c r="P123">
         <f>SUM(P103:P120)</f>
         <v>516.99</v>
@@ -4957,17 +4973,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.8125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1875" customWidth="1"/>
-    <col min="9" max="9" width="19.8125" customWidth="1"/>
-    <col min="11" max="11" width="8.1875" customWidth="1"/>
-    <col min="13" max="13" width="18.3125" customWidth="1"/>
-    <col min="18" max="18" width="3.6875" customWidth="1"/>
+    <col min="2" max="2" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.19921875" customWidth="1"/>
+    <col min="9" max="9" width="19.796875" customWidth="1"/>
+    <col min="11" max="11" width="8.19921875" customWidth="1"/>
+    <col min="13" max="13" width="18.296875" customWidth="1"/>
+    <col min="18" max="18" width="3.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -4988,7 +5004,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -5009,7 +5025,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -5034,7 +5050,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -5072,7 +5088,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -5093,7 +5109,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -5126,7 +5142,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="9" t="s">
         <v>193</v>
@@ -5159,7 +5175,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="9" t="s">
         <v>202</v>
@@ -5195,7 +5211,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="9" t="s">
         <v>146</v>
@@ -5231,7 +5247,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="9" t="s">
         <v>214</v>
@@ -5265,7 +5281,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="11"/>
@@ -5295,7 +5311,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>
@@ -5322,7 +5338,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -5349,7 +5365,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -5376,7 +5392,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -5401,7 +5417,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="D16" s="11"/>
@@ -5425,7 +5441,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -5446,7 +5462,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -5467,7 +5483,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -5488,7 +5504,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="14" t="s">
         <v>6</v>
@@ -5526,7 +5542,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -5547,7 +5563,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -5568,7 +5584,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -5589,7 +5605,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="14" t="s">
@@ -5620,7 +5636,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -5641,7 +5657,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -5662,7 +5678,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="14" t="s">
         <v>8</v>
@@ -5693,7 +5709,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -5714,7 +5730,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -5735,7 +5751,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -5756,7 +5772,7 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -5777,7 +5793,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="14" t="s">
         <v>113</v>
@@ -5803,7 +5819,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -5822,7 +5838,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" s="14" t="s">
         <v>3</v>
       </c>
@@ -5830,12 +5846,12 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B96">
         <v>3000</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B97">
         <v>2500</v>
       </c>
@@ -5843,7 +5859,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B98">
         <v>2500</v>
       </c>
@@ -5851,17 +5867,17 @@
         <v>600</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B99">
         <v>800</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B100">
         <v>700</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B104">
         <f>SUM(B96:B100)</f>
         <v>9500</v>
@@ -5871,47 +5887,47 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P105">
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P106" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P107" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P108" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P109" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P110" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P111" s="11">
         <v>3.99</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P112" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.5">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E113">
         <v>1400</v>
       </c>
@@ -5919,7 +5935,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.5">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E114">
         <v>1300</v>
       </c>
@@ -5927,24 +5943,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.5">
+    <row r="115" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E115">
         <v>950</v>
       </c>
       <c r="P115" s="11"/>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.5">
+    <row r="116" spans="5:16" x14ac:dyDescent="0.3">
       <c r="P116" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.5">
+    <row r="119" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E119">
         <f>SUM(E113:E117)</f>
         <v>3650</v>
       </c>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.5">
+    <row r="123" spans="5:16" x14ac:dyDescent="0.3">
       <c r="P123">
         <f>SUM(P103:P120)</f>
         <v>516.99</v>
@@ -5959,21 +5975,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A004D6B5-EDB4-4F00-8178-BEA92D2455E4}">
   <dimension ref="A1:T123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.8125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1875" customWidth="1"/>
-    <col min="9" max="9" width="19.8125" customWidth="1"/>
-    <col min="11" max="11" width="8.1875" customWidth="1"/>
-    <col min="13" max="13" width="18.3125" customWidth="1"/>
-    <col min="18" max="18" width="3.6875" customWidth="1"/>
+    <col min="2" max="2" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.19921875" customWidth="1"/>
+    <col min="9" max="9" width="19.796875" customWidth="1"/>
+    <col min="11" max="11" width="8.19921875" customWidth="1"/>
+    <col min="13" max="13" width="18.296875" customWidth="1"/>
+    <col min="18" max="18" width="3.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -5994,7 +6010,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -6015,7 +6031,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -6040,7 +6056,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -6078,7 +6094,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -6099,7 +6115,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -6132,7 +6148,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="9" t="s">
         <v>193</v>
@@ -6165,7 +6181,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="9" t="s">
         <v>202</v>
@@ -6201,7 +6217,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="9" t="s">
         <v>146</v>
@@ -6237,7 +6253,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="9" t="s">
         <v>214</v>
@@ -6271,7 +6287,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="11"/>
@@ -6301,7 +6317,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>
@@ -6328,7 +6344,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -6355,7 +6371,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -6382,7 +6398,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -6407,7 +6423,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="D16" s="11"/>
@@ -6431,7 +6447,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -6456,7 +6472,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -6477,7 +6493,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -6498,7 +6514,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="14" t="s">
         <v>6</v>
@@ -6536,7 +6552,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -6557,7 +6573,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -6578,7 +6594,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -6599,7 +6615,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="14" t="s">
@@ -6630,7 +6646,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -6651,7 +6667,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -6672,7 +6688,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="14" t="s">
         <v>8</v>
@@ -6703,7 +6719,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -6724,7 +6740,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -6745,7 +6761,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -6766,7 +6782,7 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -6787,7 +6803,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="14" t="s">
         <v>113</v>
@@ -6813,7 +6829,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -6832,7 +6848,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" s="14" t="s">
         <v>3</v>
       </c>
@@ -6840,12 +6856,12 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B96">
         <v>3000</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B97">
         <v>2500</v>
       </c>
@@ -6853,7 +6869,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B98">
         <v>2500</v>
       </c>
@@ -6861,17 +6877,17 @@
         <v>600</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B99">
         <v>800</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B100">
         <v>700</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B104">
         <f>SUM(B96:B100)</f>
         <v>9500</v>
@@ -6881,47 +6897,47 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P105">
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P106" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P107" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P108" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P109" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P110" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P111" s="11">
         <v>3.99</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P112" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.5">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E113">
         <v>1400</v>
       </c>
@@ -6929,7 +6945,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.5">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E114">
         <v>1300</v>
       </c>
@@ -6937,24 +6953,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.5">
+    <row r="115" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E115">
         <v>950</v>
       </c>
       <c r="P115" s="11"/>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.5">
+    <row r="116" spans="5:16" x14ac:dyDescent="0.3">
       <c r="P116" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.5">
+    <row r="119" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E119">
         <f>SUM(E113:E117)</f>
         <v>3650</v>
       </c>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.5">
+    <row r="123" spans="5:16" x14ac:dyDescent="0.3">
       <c r="P123">
         <f>SUM(P103:P120)</f>
         <v>516.99</v>
@@ -6967,18 +6983,18 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B974066F-70AB-4CE0-9413-18C0CA619219}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>204</v>
       </c>
@@ -6992,7 +7008,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>8000</v>
       </c>
@@ -7008,32 +7024,53 @@
       <c r="G2" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="L2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G3" t="s">
         <v>219</v>
       </c>
       <c r="H3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="L3" t="s">
+        <v>225</v>
+      </c>
+      <c r="M3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G4" t="s">
         <v>220</v>
       </c>
       <c r="H4">
         <v>4000</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="L4">
+        <v>6100</v>
+      </c>
+      <c r="M4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G5" t="s">
         <v>221</v>
       </c>
       <c r="H5">
         <v>3000</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="L5">
+        <v>76.22</v>
+      </c>
+      <c r="M5">
+        <v>1187.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -7047,8 +7084,11 @@
       <c r="H6">
         <v>5000</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="M6">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G7" t="s">
         <v>223</v>
       </c>
@@ -7056,13 +7096,40 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="O17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F19" t="s">
         <v>6</v>
       </c>
       <c r="H19">
         <f>SUM(H3:H17)</f>
         <v>19000</v>
+      </c>
+      <c r="L19">
+        <f>SUM(L4:L16)</f>
+        <v>6176.22</v>
+      </c>
+      <c r="M19">
+        <f>SUM(M4:M16)</f>
+        <v>4137.5</v>
+      </c>
+    </row>
+    <row r="23" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="L23" t="s">
+        <v>164</v>
+      </c>
+      <c r="M23">
+        <f>L19-M19</f>
+        <v>2038.7200000000003</v>
       </c>
     </row>
   </sheetData>
@@ -7076,7 +7143,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7090,14 +7157,14 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.1875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="L2" t="s">
         <v>181</v>
       </c>
@@ -7105,7 +7172,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>162</v>
       </c>
@@ -7138,7 +7205,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="L5" t="s">
         <v>182</v>
       </c>
@@ -7152,7 +7219,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>184</v>
       </c>
@@ -7166,7 +7233,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>163</v>
       </c>
@@ -7186,7 +7253,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>183</v>
       </c>
@@ -7200,7 +7267,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>164</v>
       </c>
@@ -7215,7 +7282,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="L10" t="s">
         <v>192</v>
       </c>
@@ -7223,12 +7290,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="G13" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>166</v>
       </c>
@@ -7237,7 +7304,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -7265,7 +7332,7 @@
         <v>13978</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>163</v>
       </c>
@@ -7279,7 +7346,7 @@
         <v>3820</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>164</v>
       </c>
@@ -7302,12 +7369,12 @@
         <v>6022</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G28" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>166</v>
       </c>
@@ -7329,20 +7396,20 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.8125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
-    <col min="7" max="7" width="13.6875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.8984375" customWidth="1"/>
+    <col min="7" max="7" width="13.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>155</v>
       </c>
@@ -7353,7 +7420,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1.5</v>
       </c>
@@ -7364,7 +7431,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1.8</v>
       </c>
@@ -7375,7 +7442,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1.5</v>
       </c>
@@ -7386,7 +7453,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>159</v>
       </c>
@@ -7394,7 +7461,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G11" t="s">
         <v>186</v>
       </c>
@@ -7402,7 +7469,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>160</v>
       </c>
@@ -7417,7 +7484,7 @@
         <v>336000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>161</v>
       </c>
@@ -7435,18 +7502,18 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="18.3125" customWidth="1"/>
-    <col min="6" max="6" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.296875" customWidth="1"/>
+    <col min="6" max="6" width="20.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>168</v>
       </c>
@@ -7463,7 +7530,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>169</v>
       </c>
@@ -7480,7 +7547,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>170</v>
       </c>
@@ -7497,7 +7564,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>171</v>
       </c>
@@ -7511,7 +7578,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>145</v>
       </c>
@@ -7519,7 +7586,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>172</v>
       </c>
@@ -7527,7 +7594,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>174</v>
       </c>
@@ -7535,12 +7602,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>175</v>
       </c>
@@ -7566,19 +7633,19 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -7586,7 +7653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -7594,7 +7661,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -7603,10 +7670,10 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -7620,7 +7687,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -7634,7 +7701,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -7648,7 +7715,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -7662,7 +7729,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -7676,7 +7743,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -7690,7 +7757,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -7704,7 +7771,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -7718,7 +7785,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -7732,7 +7799,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -7741,7 +7808,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
@@ -7750,7 +7817,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -7759,7 +7826,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -7767,13 +7834,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -7786,7 +7853,7 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>15</v>
       </c>
@@ -7795,7 +7862,7 @@
         <v>4156.41</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -7820,14 +7887,14 @@
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.6875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.3125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -7835,7 +7902,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -7843,7 +7910,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -7852,10 +7919,10 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -7873,7 +7940,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -7882,7 +7949,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -7891,7 +7958,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>4</v>
@@ -7900,7 +7967,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>14</v>
@@ -7909,7 +7976,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>2</v>
@@ -7918,7 +7985,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>16</v>
@@ -7927,7 +7994,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>5</v>
@@ -7936,7 +8003,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>21</v>
@@ -7945,7 +8012,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>37</v>
@@ -7954,7 +8021,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>36</v>
@@ -7963,7 +8030,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>38</v>
@@ -7972,7 +8039,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>39</v>
@@ -7981,7 +8048,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>40</v>
@@ -7990,7 +8057,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>42</v>
@@ -7999,7 +8066,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="D21" s="1" t="s">
         <v>43</v>
@@ -8008,7 +8075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>43</v>
@@ -8017,7 +8084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="D23" s="1" t="s">
         <v>44</v>
@@ -8026,7 +8093,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D24" s="1" t="s">
         <v>45</v>
       </c>
@@ -8034,7 +8101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D25" s="1" t="s">
         <v>37</v>
       </c>
@@ -8042,7 +8109,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D26" s="1" t="s">
         <v>16</v>
       </c>
@@ -8050,7 +8117,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D27" s="1" t="s">
         <v>36</v>
       </c>
@@ -8058,7 +8125,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D28" s="1" t="s">
         <v>46</v>
       </c>
@@ -8066,7 +8133,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D29" s="1" t="s">
         <v>47</v>
       </c>
@@ -8074,7 +8141,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D30" s="1" t="s">
         <v>27</v>
       </c>
@@ -8082,7 +8149,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D31" s="1" t="s">
         <v>27</v>
       </c>
@@ -8090,7 +8157,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D32" s="1" t="s">
         <v>54</v>
       </c>
@@ -8098,7 +8165,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D33" s="1" t="s">
         <v>50</v>
       </c>
@@ -8106,16 +8173,16 @@
         <v>387</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D36" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>6</v>
       </c>
@@ -8128,7 +8195,7 @@
         <v>3854</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
         <v>15</v>
       </c>
@@ -8137,7 +8204,7 @@
         <v>3854</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>8</v>
       </c>
@@ -8146,7 +8213,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>3</v>
       </c>
@@ -8166,7 +8233,7 @@
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8180,14 +8247,14 @@
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.6875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.3125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -8195,7 +8262,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -8203,7 +8270,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -8212,10 +8279,10 @@
         <v>3946</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -8226,7 +8293,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -8235,7 +8302,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="D8" s="1" t="s">
         <v>21</v>
@@ -8244,7 +8311,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -8253,7 +8320,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>4</v>
@@ -8262,7 +8329,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>5</v>
@@ -8271,7 +8338,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>2</v>
@@ -8280,7 +8347,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -8289,7 +8356,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>39</v>
@@ -8298,7 +8365,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>40</v>
@@ -8307,7 +8374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>48</v>
@@ -8316,7 +8383,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>49</v>
@@ -8325,7 +8392,7 @@
         <v>15.99</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>49</v>
@@ -8334,7 +8401,7 @@
         <v>15.99</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>49</v>
@@ -8343,7 +8410,7 @@
         <v>3.99</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>51</v>
@@ -8352,7 +8419,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="D21" s="1" t="s">
         <v>57</v>
@@ -8361,7 +8428,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>52</v>
@@ -8370,7 +8437,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="D23" s="1" t="s">
         <v>53</v>
@@ -8379,7 +8446,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="D24" s="1" t="s">
         <v>55</v>
@@ -8388,7 +8455,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D25" s="1" t="s">
         <v>56</v>
       </c>
@@ -8396,7 +8463,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D26" s="1" t="s">
         <v>58</v>
       </c>
@@ -8404,7 +8471,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D27" s="1" t="s">
         <v>59</v>
       </c>
@@ -8412,7 +8479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D28" s="1" t="s">
         <v>60</v>
       </c>
@@ -8420,7 +8487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D29" s="1" t="s">
         <v>61</v>
       </c>
@@ -8428,7 +8495,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D30" s="1" t="s">
         <v>62</v>
       </c>
@@ -8436,7 +8503,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D31" s="1" t="s">
         <v>27</v>
       </c>
@@ -8444,7 +8511,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D32" s="1" t="s">
         <v>14</v>
       </c>
@@ -8452,22 +8519,22 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>6</v>
       </c>
@@ -8480,7 +8547,7 @@
         <v>3898.9699999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
         <v>15</v>
       </c>
@@ -8489,7 +8556,7 @@
         <v>3898.9699999999993</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>8</v>
       </c>
@@ -8498,7 +8565,7 @@
         <v>47.030000000000655</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -8519,19 +8586,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.6875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.3125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -8539,7 +8606,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -8548,10 +8615,10 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -8562,7 +8629,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -8571,7 +8638,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8">
         <v>50</v>
@@ -8583,7 +8650,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -8592,7 +8659,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>4</v>
@@ -8601,7 +8668,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>5</v>
@@ -8610,7 +8677,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>2</v>
@@ -8619,7 +8686,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -8628,7 +8695,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>39</v>
@@ -8637,7 +8704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>40</v>
@@ -8646,7 +8713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>48</v>
@@ -8655,7 +8722,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>49</v>
@@ -8664,7 +8731,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>49</v>
@@ -8673,7 +8740,7 @@
         <v>15.99</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>49</v>
@@ -8682,7 +8749,7 @@
         <v>3.99</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>51</v>
@@ -8691,7 +8758,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="D21" s="1" t="s">
         <v>14</v>
@@ -8700,7 +8767,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>52</v>
@@ -8709,7 +8776,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="D23" s="1" t="s">
         <v>63</v>
@@ -8718,7 +8785,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="D24" s="1" t="s">
         <v>14</v>
@@ -8727,7 +8794,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D25" s="1" t="s">
         <v>64</v>
       </c>
@@ -8735,7 +8802,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D26" s="1" t="s">
         <v>65</v>
       </c>
@@ -8743,40 +8810,40 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>6</v>
       </c>
@@ -8789,7 +8856,7 @@
         <v>3000.9799999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
         <v>15</v>
       </c>
@@ -8798,7 +8865,7 @@
         <v>3050.9799999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>8</v>
       </c>
@@ -8807,7 +8874,7 @@
         <v>-0.97999999999956344</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -8828,17 +8895,17 @@
       <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.6875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.3125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.69921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -8846,7 +8913,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -8854,7 +8921,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -8863,7 +8930,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="D4" s="5" t="s">
         <v>78</v>
@@ -8872,7 +8939,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>75</v>
@@ -8901,7 +8968,7 @@
       </c>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -8923,7 +8990,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8">
         <v>25</v>
@@ -8948,7 +9015,7 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9">
         <v>26</v>
@@ -8968,7 +9035,7 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10">
         <v>160</v>
@@ -8993,7 +9060,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>5</v>
@@ -9014,7 +9081,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>2</v>
@@ -9029,7 +9096,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -9041,7 +9108,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>39</v>
@@ -9051,7 +9118,7 @@
       </c>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>40</v>
@@ -9061,7 +9128,7 @@
       </c>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>48</v>
@@ -9071,7 +9138,7 @@
       </c>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>49</v>
@@ -9081,7 +9148,7 @@
       </c>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>49</v>
@@ -9094,7 +9161,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>49</v>
@@ -9107,7 +9174,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>51</v>
@@ -9120,7 +9187,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="D21" s="1" t="s">
         <v>14</v>
@@ -9133,7 +9200,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>81</v>
@@ -9145,7 +9212,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="D23" s="1" t="s">
         <v>82</v>
@@ -9154,7 +9221,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="D24" s="1" t="s">
         <v>84</v>
@@ -9167,10 +9234,10 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D27" s="1"/>
       <c r="Q27" t="s">
         <v>83</v>
@@ -9180,25 +9247,25 @@
         <v>780.98999999999978</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="N32">
         <f>SUM(N7:N29)</f>
         <v>272</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
@@ -9215,7 +9282,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
         <v>15</v>
       </c>
@@ -9224,7 +9291,7 @@
         <v>3066.99</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
@@ -9233,7 +9300,7 @@
         <v>233.01000000000022</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>3</v>
       </c>
@@ -9254,20 +9321,20 @@
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.8125" style="1"/>
-    <col min="2" max="2" width="13.6875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.3125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.796875" style="1"/>
+    <col min="2" max="2" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.69921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1875" customWidth="1"/>
+    <col min="10" max="10" width="11.19921875" customWidth="1"/>
     <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.3125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -9288,7 +9355,7 @@
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -9309,7 +9376,7 @@
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="1">
         <v>3030</v>
@@ -9320,7 +9387,7 @@
       </c>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="1">
         <v>600</v>
@@ -9328,7 +9395,7 @@
       <c r="J4" s="7"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="1">
         <v>300</v>
@@ -9336,7 +9403,7 @@
       <c r="J5" s="7"/>
       <c r="S5" s="7"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="1">
         <v>100</v>
@@ -9344,19 +9411,19 @@
       <c r="J6" s="7"/>
       <c r="S6" s="7"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="1"/>
       <c r="J7" s="7"/>
       <c r="S7" s="7"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="1"/>
       <c r="J8" s="7"/>
       <c r="S8" s="7"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="1"/>
       <c r="E9" s="5" t="s">
@@ -9381,13 +9448,13 @@
       </c>
       <c r="S9" s="7"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="1"/>
       <c r="J10" s="7"/>
       <c r="S10" s="7"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
@@ -9419,7 +9486,7 @@
       <c r="Q11" s="2"/>
       <c r="S11" s="7"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="1"/>
       <c r="E12" s="1" t="s">
@@ -9449,7 +9516,7 @@
       </c>
       <c r="S12" s="7"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="1" t="s">
         <v>91</v>
@@ -9484,7 +9551,7 @@
       </c>
       <c r="S13" s="7"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="1" t="s">
         <v>50</v>
@@ -9519,7 +9586,7 @@
       </c>
       <c r="S14" s="7"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="1" t="s">
         <v>11</v>
@@ -9554,7 +9621,7 @@
       </c>
       <c r="S15" s="7"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="1" t="s">
         <v>82</v>
@@ -9589,7 +9656,7 @@
       </c>
       <c r="S16" s="7"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="1" t="s">
         <v>84</v>
@@ -9624,7 +9691,7 @@
       </c>
       <c r="S17" s="7"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="1" t="s">
         <v>81</v>
@@ -9656,7 +9723,7 @@
       </c>
       <c r="S18" s="7"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="1"/>
       <c r="E19" s="1" t="s">
@@ -9681,7 +9748,7 @@
       </c>
       <c r="S19" s="7"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="1"/>
       <c r="E20" s="1" t="s">
@@ -9706,7 +9773,7 @@
       </c>
       <c r="S20" s="7"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="1"/>
       <c r="E21" s="1" t="s">
@@ -9725,7 +9792,7 @@
       <c r="M21" s="1"/>
       <c r="S21" s="7"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="1"/>
       <c r="E22" s="1" t="s">
@@ -9744,7 +9811,7 @@
       <c r="M22" s="1"/>
       <c r="S22" s="7"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="1"/>
       <c r="E23" s="1" t="s">
@@ -9758,7 +9825,7 @@
       <c r="M23" s="1"/>
       <c r="S23" s="7"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="1"/>
       <c r="E24" s="1" t="s">
@@ -9777,7 +9844,7 @@
       <c r="M24" s="1"/>
       <c r="S24" s="7"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="1"/>
       <c r="E25" s="1" t="s">
@@ -9796,7 +9863,7 @@
       <c r="M25" s="1"/>
       <c r="S25" s="7"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="1"/>
       <c r="E26" s="1" t="s">
@@ -9815,7 +9882,7 @@
       <c r="M26" s="1"/>
       <c r="S26" s="7"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="1"/>
       <c r="E27" s="1" t="s">
@@ -9833,7 +9900,7 @@
       <c r="J27" s="7"/>
       <c r="S27" s="7"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="1"/>
       <c r="E28" s="1"/>
@@ -9846,7 +9913,7 @@
       <c r="J28" s="7"/>
       <c r="S28" s="7"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="1"/>
       <c r="E29" s="1"/>
@@ -9859,7 +9926,7 @@
       <c r="J29" s="7"/>
       <c r="S29" s="7"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="1"/>
       <c r="H30" s="1" t="s">
@@ -9871,7 +9938,7 @@
       <c r="J30" s="7"/>
       <c r="S30" s="7"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="H31" s="1" t="s">
         <v>110</v>
@@ -9882,7 +9949,7 @@
       <c r="J31" s="7"/>
       <c r="S31" s="7"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="E32" s="1"/>
       <c r="H32" s="1" t="s">
@@ -9894,7 +9961,7 @@
       <c r="J32" s="7"/>
       <c r="S32" s="7"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="E33" s="1"/>
       <c r="H33" s="1" t="s">
@@ -9906,30 +9973,30 @@
       <c r="J33" s="7"/>
       <c r="S33" s="7"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="E34" s="1"/>
       <c r="J34" s="7"/>
       <c r="S34" s="7"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="E35" s="1"/>
       <c r="J35" s="7"/>
       <c r="S35" s="7"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="E36" s="1"/>
       <c r="J36" s="7"/>
       <c r="S36" s="7"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="J37" s="7"/>
       <c r="S37" s="7"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" s="2" t="s">
         <v>6</v>
@@ -9957,22 +10024,22 @@
       </c>
       <c r="S38" s="7"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
       <c r="J39" s="7"/>
       <c r="S39" s="7"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
       <c r="J40" s="7"/>
       <c r="S40" s="7"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
       <c r="J41" s="7"/>
       <c r="S41" s="7"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
       <c r="C42" s="2" t="s">
         <v>15</v>
@@ -9991,17 +10058,17 @@
       </c>
       <c r="S42" s="7"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
       <c r="J43" s="7"/>
       <c r="S43" s="7"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
       <c r="J44" s="7"/>
       <c r="S44" s="7"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
       <c r="B45" s="2" t="s">
         <v>8</v>
@@ -10017,12 +10084,12 @@
       </c>
       <c r="S45" s="7"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
       <c r="J46" s="7"/>
       <c r="S46" s="7"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -10043,7 +10110,7 @@
       <c r="R47" s="7"/>
       <c r="S47" s="7"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -10064,10 +10131,10 @@
       <c r="R48" s="7"/>
       <c r="S48" s="7"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B51" s="2" t="s">
         <v>3</v>
       </c>
@@ -10078,7 +10145,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M52" t="s">
         <v>106</v>
       </c>
@@ -10086,12 +10153,12 @@
         <v>24.99</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M53" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M54" t="s">
         <v>108</v>
       </c>
@@ -10099,7 +10166,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N61">
         <f>SUM(N51:N57)</f>
         <v>74.989999999999995</v>
@@ -10118,16 +10185,16 @@
       <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.8125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1875" customWidth="1"/>
-    <col min="11" max="11" width="8.1875" customWidth="1"/>
-    <col min="13" max="13" width="18.3125" customWidth="1"/>
-    <col min="18" max="18" width="3.6875" customWidth="1"/>
+    <col min="2" max="2" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.19921875" customWidth="1"/>
+    <col min="11" max="11" width="8.19921875" customWidth="1"/>
+    <col min="13" max="13" width="18.296875" customWidth="1"/>
+    <col min="18" max="18" width="3.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -10148,7 +10215,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -10169,7 +10236,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -10190,7 +10257,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -10223,7 +10290,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -10244,7 +10311,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -10277,7 +10344,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="9"/>
       <c r="C7" s="11"/>
@@ -10312,7 +10379,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="9"/>
       <c r="C8" s="11"/>
@@ -10349,7 +10416,7 @@
       <c r="R8" s="11"/>
       <c r="S8" s="12"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="9"/>
       <c r="C9" s="11"/>
@@ -10386,7 +10453,7 @@
       <c r="R9" s="11"/>
       <c r="S9" s="12"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="C10" s="11"/>
@@ -10423,7 +10490,7 @@
       <c r="R10" s="11"/>
       <c r="S10" s="12"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="11"/>
@@ -10458,7 +10525,7 @@
       <c r="R11" s="11"/>
       <c r="S11" s="12"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>
@@ -10495,7 +10562,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -10528,7 +10595,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -10555,7 +10622,7 @@
       <c r="R14" s="11"/>
       <c r="S14" s="12"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -10584,7 +10651,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="11"/>
@@ -10613,7 +10680,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -10642,7 +10709,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="9"/>
       <c r="C18" s="11"/>
@@ -10671,7 +10738,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="9"/>
       <c r="C19" s="11"/>
@@ -10700,7 +10767,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="9"/>
       <c r="C20" s="11"/>
@@ -10729,7 +10796,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="9"/>
       <c r="C21" s="11"/>
@@ -10756,7 +10823,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="9"/>
       <c r="C22" s="11"/>
@@ -10781,7 +10848,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="9"/>
       <c r="C23" s="11"/>
@@ -10806,7 +10873,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="9"/>
       <c r="C24" s="11"/>
@@ -10827,7 +10894,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="9"/>
       <c r="C25" s="11"/>
@@ -10848,7 +10915,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -10869,7 +10936,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -10890,7 +10957,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -10911,7 +10978,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -10932,7 +10999,7 @@
       <c r="R29" s="11"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -10953,7 +11020,7 @@
       <c r="R30" s="11"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -10974,7 +11041,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="12"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -10995,7 +11062,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="12"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="14" t="s">
         <v>6</v>
@@ -11033,7 +11100,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="12"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -11054,7 +11121,7 @@
       <c r="R34" s="11"/>
       <c r="S34" s="12"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -11075,7 +11142,7 @@
       <c r="R35" s="11"/>
       <c r="S35" s="12"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -11096,7 +11163,7 @@
       <c r="R36" s="11"/>
       <c r="S36" s="12"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="14" t="s">
@@ -11127,7 +11194,7 @@
       <c r="R37" s="11"/>
       <c r="S37" s="12"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -11148,7 +11215,7 @@
       <c r="R38" s="11"/>
       <c r="S38" s="12"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -11169,7 +11236,7 @@
       <c r="R39" s="11"/>
       <c r="S39" s="12"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="14" t="s">
         <v>8</v>
@@ -11200,7 +11267,7 @@
       <c r="R40" s="11"/>
       <c r="S40" s="12"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -11221,7 +11288,7 @@
       <c r="R41" s="11"/>
       <c r="S41" s="12"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -11242,7 +11309,7 @@
       <c r="R42" s="12"/>
       <c r="S42" s="12"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -11263,7 +11330,7 @@
       <c r="R43" s="12"/>
       <c r="S43" s="12"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -11284,7 +11351,7 @@
       <c r="R44" s="11"/>
       <c r="S44" s="11"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="9"/>
       <c r="B45" s="14" t="s">
         <v>113</v>
@@ -11310,7 +11377,7 @@
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
@@ -11329,7 +11396,7 @@
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="N47" t="s">
         <v>122</v>
       </c>
@@ -11337,7 +11404,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="N48" t="s">
         <v>125</v>
       </c>
@@ -11345,7 +11412,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="14:16" x14ac:dyDescent="0.5">
+    <row r="49" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N49" t="s">
         <v>122</v>
       </c>
@@ -11353,7 +11420,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="14:16" x14ac:dyDescent="0.5">
+    <row r="50" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N50" t="s">
         <v>123</v>
       </c>
@@ -11361,7 +11428,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="14:16" x14ac:dyDescent="0.5">
+    <row r="51" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N51" t="s">
         <v>126</v>
       </c>
@@ -11372,7 +11439,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="14:16" x14ac:dyDescent="0.5">
+    <row r="52" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N52" t="s">
         <v>127</v>
       </c>
@@ -11380,12 +11447,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="14:16" x14ac:dyDescent="0.5">
+    <row r="55" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N55" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="58" spans="14:16" x14ac:dyDescent="0.5">
+    <row r="58" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N58" t="s">
         <v>6</v>
       </c>
@@ -11394,7 +11461,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B73" s="14" t="s">
         <v>3</v>
       </c>

--- a/Budget.xlsx
+++ b/Budget.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3c6177e7d3ca184/Documents/git-projet/Document/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acgue\Documents\git-project\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{9CD8A904-680D-4329-A1F0-BEEAE2D6AA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D8A75F2-0138-45C6-87B1-A69081E15298}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94E59A6-9E4B-4A38-91D1-279266D15B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="11" activeTab="14" xr2:uid="{27B7E826-E620-B34C-81E1-46A3DBC74E62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" firstSheet="11" activeTab="13" xr2:uid="{27B7E826-E620-B34C-81E1-46A3DBC74E62}"/>
   </bookViews>
   <sheets>
     <sheet name="Fevrier" sheetId="3" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="230">
   <si>
     <t>Loyer</t>
   </si>
@@ -736,6 +736,12 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>virement</t>
+  </si>
+  <si>
+    <t>achat</t>
   </si>
 </sst>
 </file>
@@ -877,10 +883,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1186,14 +1188,14 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1201,7 +1203,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1209,7 +1211,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1218,13 +1220,13 @@
         <v>3375</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1235,7 +1237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1249,7 +1251,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,7 +1265,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1277,7 +1279,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1291,7 +1293,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -1305,7 +1307,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1319,7 +1321,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1333,7 +1335,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1347,7 +1349,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -1356,7 +1358,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -1365,7 +1367,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1374,7 +1376,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -1389,7 +1391,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>15</v>
       </c>
@@ -1398,7 +1400,7 @@
         <v>3446.18</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
@@ -1420,16 +1422,16 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.19921875" customWidth="1"/>
-    <col min="11" max="11" width="8.19921875" customWidth="1"/>
-    <col min="13" max="13" width="18.296875" customWidth="1"/>
-    <col min="18" max="18" width="3.69921875" customWidth="1"/>
+    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.25" customWidth="1"/>
+    <col min="11" max="11" width="8.25" customWidth="1"/>
+    <col min="13" max="13" width="18.25" customWidth="1"/>
+    <col min="18" max="18" width="3.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1450,7 +1452,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -1471,7 +1473,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -1492,7 +1494,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -1525,7 +1527,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -1546,7 +1548,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -1579,7 +1581,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="9"/>
       <c r="C7" s="11"/>
@@ -1616,7 +1618,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="9"/>
       <c r="C8" s="11"/>
@@ -1645,7 +1647,7 @@
       <c r="R8" s="11"/>
       <c r="S8" s="12"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="9"/>
       <c r="C9" s="11"/>
@@ -1682,7 +1684,7 @@
       <c r="R9" s="11"/>
       <c r="S9" s="12"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="C10" s="11"/>
@@ -1719,7 +1721,7 @@
       <c r="R10" s="11"/>
       <c r="S10" s="12"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="11"/>
@@ -1756,7 +1758,7 @@
       <c r="R11" s="11"/>
       <c r="S11" s="12"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>
@@ -1793,7 +1795,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -1826,7 +1828,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -1857,7 +1859,7 @@
       <c r="R14" s="11"/>
       <c r="S14" s="12"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -1890,7 +1892,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="11"/>
@@ -1923,7 +1925,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -1956,7 +1958,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="9"/>
       <c r="C18" s="11"/>
@@ -1989,7 +1991,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="9"/>
       <c r="C19" s="11"/>
@@ -2018,7 +2020,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="9"/>
       <c r="C20" s="11"/>
@@ -2045,7 +2047,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="9"/>
       <c r="C21" s="11"/>
@@ -2074,7 +2076,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="9"/>
       <c r="C22" s="11"/>
@@ -2099,7 +2101,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="9"/>
       <c r="C23" s="11"/>
@@ -2124,7 +2126,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="9"/>
       <c r="C24" s="11"/>
@@ -2149,7 +2151,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="9"/>
       <c r="C25" s="11"/>
@@ -2172,7 +2174,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="9"/>
       <c r="C26" s="11"/>
@@ -2197,7 +2199,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -2222,7 +2224,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -2247,7 +2249,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -2268,7 +2270,7 @@
       <c r="R29" s="11"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -2289,7 +2291,7 @@
       <c r="R30" s="11"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -2310,7 +2312,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="12"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -2331,7 +2333,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="12"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -2352,7 +2354,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="12"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="14" t="s">
         <v>6</v>
@@ -2390,7 +2392,7 @@
       <c r="R34" s="11"/>
       <c r="S34" s="12"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -2411,7 +2413,7 @@
       <c r="R35" s="11"/>
       <c r="S35" s="12"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -2432,7 +2434,7 @@
       <c r="R36" s="11"/>
       <c r="S36" s="12"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -2453,7 +2455,7 @@
       <c r="R37" s="11"/>
       <c r="S37" s="12"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="14" t="s">
@@ -2484,7 +2486,7 @@
       <c r="R38" s="11"/>
       <c r="S38" s="12"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -2505,7 +2507,7 @@
       <c r="R39" s="11"/>
       <c r="S39" s="12"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -2526,7 +2528,7 @@
       <c r="R40" s="11"/>
       <c r="S40" s="12"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="14" t="s">
         <v>8</v>
@@ -2557,7 +2559,7 @@
       <c r="R41" s="11"/>
       <c r="S41" s="12"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -2578,7 +2580,7 @@
       <c r="R42" s="11"/>
       <c r="S42" s="12"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -2599,7 +2601,7 @@
       <c r="R43" s="12"/>
       <c r="S43" s="12"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -2620,7 +2622,7 @@
       <c r="R44" s="12"/>
       <c r="S44" s="12"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -2641,7 +2643,7 @@
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="14" t="s">
         <v>113</v>
@@ -2667,7 +2669,7 @@
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
@@ -2686,7 +2688,7 @@
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="14" t="s">
         <v>3</v>
       </c>
@@ -2707,18 +2709,18 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.19921875" customWidth="1"/>
-    <col min="8" max="8" width="15.69921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.19921875" customWidth="1"/>
-    <col min="13" max="13" width="18.296875" customWidth="1"/>
-    <col min="16" max="16" width="15.69921875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.69921875" customWidth="1"/>
+    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.25" customWidth="1"/>
+    <col min="8" max="8" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.25" customWidth="1"/>
+    <col min="13" max="13" width="18.25" customWidth="1"/>
+    <col min="16" max="16" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -2739,7 +2741,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -2760,7 +2762,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -2781,7 +2783,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -2814,7 +2816,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -2835,7 +2837,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -2868,7 +2870,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="9"/>
       <c r="C7" s="11">
@@ -2907,7 +2909,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="9"/>
       <c r="C8" s="11"/>
@@ -2940,7 +2942,7 @@
       <c r="R8" s="11"/>
       <c r="S8" s="12"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="9"/>
       <c r="C9" s="11"/>
@@ -2977,7 +2979,7 @@
       <c r="R9" s="11"/>
       <c r="S9" s="12"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="C10" s="11"/>
@@ -3011,7 +3013,7 @@
       <c r="R10" s="11"/>
       <c r="S10" s="12"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="11"/>
@@ -3045,7 +3047,7 @@
       <c r="R11" s="11"/>
       <c r="S11" s="12"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>
@@ -3082,7 +3084,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -3119,7 +3121,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -3146,7 +3148,7 @@
       <c r="R14" s="11"/>
       <c r="S14" s="12"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -3171,7 +3173,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="11"/>
@@ -3196,7 +3198,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -3221,7 +3223,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="9"/>
       <c r="C18" s="11"/>
@@ -3246,7 +3248,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="9"/>
       <c r="C19" s="11"/>
@@ -3271,7 +3273,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="9"/>
       <c r="C20" s="11"/>
@@ -3296,7 +3298,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="9"/>
       <c r="C21" s="11"/>
@@ -3321,7 +3323,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="9"/>
       <c r="C22" s="11"/>
@@ -3346,7 +3348,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="9"/>
       <c r="C23" s="11"/>
@@ -3371,7 +3373,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="9"/>
       <c r="C24" s="11"/>
@@ -3396,7 +3398,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="9"/>
       <c r="C25" s="11"/>
@@ -3421,7 +3423,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="9"/>
       <c r="C26" s="11"/>
@@ -3442,7 +3444,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -3463,7 +3465,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -3484,7 +3486,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -3505,7 +3507,7 @@
       <c r="R29" s="11"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -3526,7 +3528,7 @@
       <c r="R30" s="11"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -3547,7 +3549,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="12"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -3568,7 +3570,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="12"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -3589,7 +3591,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="12"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="14" t="s">
         <v>6</v>
@@ -3627,7 +3629,7 @@
       <c r="R34" s="11"/>
       <c r="S34" s="12"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -3648,7 +3650,7 @@
       <c r="R35" s="11"/>
       <c r="S35" s="12"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -3669,7 +3671,7 @@
       <c r="R36" s="11"/>
       <c r="S36" s="12"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -3690,7 +3692,7 @@
       <c r="R37" s="11"/>
       <c r="S37" s="12"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="14" t="s">
@@ -3721,7 +3723,7 @@
       <c r="R38" s="11"/>
       <c r="S38" s="12"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -3742,7 +3744,7 @@
       <c r="R39" s="11"/>
       <c r="S39" s="12"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -3763,7 +3765,7 @@
       <c r="R40" s="11"/>
       <c r="S40" s="12"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="14" t="s">
         <v>8</v>
@@ -3794,7 +3796,7 @@
       <c r="R41" s="11"/>
       <c r="S41" s="12"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -3815,7 +3817,7 @@
       <c r="R42" s="11"/>
       <c r="S42" s="12"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -3836,7 +3838,7 @@
       <c r="R43" s="12"/>
       <c r="S43" s="12"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -3857,7 +3859,7 @@
       <c r="R44" s="12"/>
       <c r="S44" s="12"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -3878,7 +3880,7 @@
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="14" t="s">
         <v>113</v>
@@ -3904,7 +3906,7 @@
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
@@ -3923,7 +3925,7 @@
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="14" t="s">
         <v>3</v>
       </c>
@@ -3944,17 +3946,17 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.19921875" customWidth="1"/>
-    <col min="9" max="9" width="19.796875" customWidth="1"/>
-    <col min="11" max="11" width="8.19921875" customWidth="1"/>
-    <col min="13" max="13" width="18.296875" customWidth="1"/>
-    <col min="18" max="18" width="3.69921875" customWidth="1"/>
+    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.25" customWidth="1"/>
+    <col min="9" max="9" width="19.75" customWidth="1"/>
+    <col min="11" max="11" width="8.25" customWidth="1"/>
+    <col min="13" max="13" width="18.25" customWidth="1"/>
+    <col min="18" max="18" width="3.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -3975,7 +3977,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -3996,7 +3998,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -4021,7 +4023,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -4059,7 +4061,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -4080,7 +4082,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -4113,7 +4115,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="9" t="s">
         <v>193</v>
@@ -4144,7 +4146,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="9" t="s">
         <v>202</v>
@@ -4180,7 +4182,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="9" t="s">
         <v>146</v>
@@ -4216,7 +4218,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="9" t="s">
         <v>213</v>
@@ -4250,7 +4252,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="9" t="s">
         <v>207</v>
@@ -4284,7 +4286,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="9" t="s">
         <v>208</v>
@@ -4315,7 +4317,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="9" t="s">
         <v>209</v>
@@ -4346,7 +4348,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="9" t="s">
         <v>210</v>
@@ -4377,7 +4379,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="9" t="s">
         <v>216</v>
@@ -4406,7 +4408,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="9" t="s">
         <v>198</v>
@@ -4435,7 +4437,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -4456,7 +4458,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -4477,7 +4479,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -4498,7 +4500,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="14" t="s">
         <v>6</v>
@@ -4536,7 +4538,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -4557,7 +4559,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -4578,7 +4580,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -4599,7 +4601,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="14" t="s">
@@ -4630,7 +4632,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -4651,7 +4653,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -4672,7 +4674,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="14" t="s">
         <v>8</v>
@@ -4703,7 +4705,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -4724,7 +4726,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -4745,7 +4747,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -4766,7 +4768,7 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -4787,7 +4789,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="14" t="s">
         <v>113</v>
@@ -4813,7 +4815,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -4832,7 +4834,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="14" t="s">
         <v>3</v>
       </c>
@@ -4840,12 +4842,12 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>3000</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>2500</v>
       </c>
@@ -4853,7 +4855,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>2500</v>
       </c>
@@ -4861,17 +4863,17 @@
         <v>600</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>800</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>700</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B104">
         <f>SUM(B96:B100)</f>
         <v>9500</v>
@@ -4881,47 +4883,47 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P105">
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P106" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P107" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P108" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P109" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P110" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P111" s="11">
         <v>3.99</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P112" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E113">
         <v>1400</v>
       </c>
@@ -4929,7 +4931,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E114">
         <v>1300</v>
       </c>
@@ -4937,24 +4939,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E115">
         <v>950</v>
       </c>
       <c r="P115" s="11"/>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="5:16" x14ac:dyDescent="0.25">
       <c r="P116" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E119">
         <f>SUM(E113:E117)</f>
         <v>3650</v>
       </c>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="5:16" x14ac:dyDescent="0.25">
       <c r="P123">
         <f>SUM(P103:P120)</f>
         <v>516.99</v>
@@ -4973,17 +4975,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.19921875" customWidth="1"/>
-    <col min="9" max="9" width="19.796875" customWidth="1"/>
-    <col min="11" max="11" width="8.19921875" customWidth="1"/>
-    <col min="13" max="13" width="18.296875" customWidth="1"/>
-    <col min="18" max="18" width="3.69921875" customWidth="1"/>
+    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.25" customWidth="1"/>
+    <col min="9" max="9" width="19.75" customWidth="1"/>
+    <col min="11" max="11" width="8.25" customWidth="1"/>
+    <col min="13" max="13" width="18.25" customWidth="1"/>
+    <col min="18" max="18" width="3.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -5004,7 +5006,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -5025,7 +5027,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -5050,7 +5052,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -5088,7 +5090,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -5109,7 +5111,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -5142,7 +5144,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="9" t="s">
         <v>193</v>
@@ -5175,7 +5177,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="9" t="s">
         <v>202</v>
@@ -5211,7 +5213,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="9" t="s">
         <v>146</v>
@@ -5247,7 +5249,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="9" t="s">
         <v>214</v>
@@ -5281,7 +5283,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="11"/>
@@ -5311,7 +5313,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>
@@ -5338,7 +5340,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -5365,7 +5367,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -5392,7 +5394,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -5417,7 +5419,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="D16" s="11"/>
@@ -5441,7 +5443,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -5462,7 +5464,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -5483,7 +5485,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -5504,7 +5506,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="14" t="s">
         <v>6</v>
@@ -5542,7 +5544,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -5563,7 +5565,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -5584,7 +5586,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -5605,7 +5607,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="14" t="s">
@@ -5636,7 +5638,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -5657,7 +5659,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -5678,7 +5680,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="14" t="s">
         <v>8</v>
@@ -5709,7 +5711,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -5730,7 +5732,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -5751,7 +5753,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -5772,7 +5774,7 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -5793,7 +5795,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="14" t="s">
         <v>113</v>
@@ -5819,7 +5821,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -5838,7 +5840,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="14" t="s">
         <v>3</v>
       </c>
@@ -5846,12 +5848,12 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>3000</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>2500</v>
       </c>
@@ -5859,7 +5861,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>2500</v>
       </c>
@@ -5867,17 +5869,17 @@
         <v>600</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>800</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>700</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B104">
         <f>SUM(B96:B100)</f>
         <v>9500</v>
@@ -5887,47 +5889,47 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P105">
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P106" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P107" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P108" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P109" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P110" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P111" s="11">
         <v>3.99</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P112" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E113">
         <v>1400</v>
       </c>
@@ -5935,7 +5937,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E114">
         <v>1300</v>
       </c>
@@ -5943,24 +5945,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E115">
         <v>950</v>
       </c>
       <c r="P115" s="11"/>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="5:16" x14ac:dyDescent="0.25">
       <c r="P116" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E119">
         <f>SUM(E113:E117)</f>
         <v>3650</v>
       </c>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="5:16" x14ac:dyDescent="0.25">
       <c r="P123">
         <f>SUM(P103:P120)</f>
         <v>516.99</v>
@@ -5975,21 +5977,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A004D6B5-EDB4-4F00-8178-BEA92D2455E4}">
   <dimension ref="A1:T123"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.19921875" customWidth="1"/>
-    <col min="9" max="9" width="19.796875" customWidth="1"/>
-    <col min="11" max="11" width="8.19921875" customWidth="1"/>
-    <col min="13" max="13" width="18.296875" customWidth="1"/>
-    <col min="18" max="18" width="3.69921875" customWidth="1"/>
+    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.25" customWidth="1"/>
+    <col min="9" max="9" width="19.75" customWidth="1"/>
+    <col min="11" max="11" width="8.25" customWidth="1"/>
+    <col min="13" max="13" width="18.25" customWidth="1"/>
+    <col min="18" max="18" width="3.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -6010,7 +6012,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -6031,7 +6033,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -6056,7 +6058,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -6094,7 +6096,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -6115,7 +6117,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -6148,7 +6150,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="9" t="s">
         <v>193</v>
@@ -6181,7 +6183,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="9" t="s">
         <v>202</v>
@@ -6217,7 +6219,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="9" t="s">
         <v>146</v>
@@ -6253,7 +6255,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="9" t="s">
         <v>214</v>
@@ -6287,7 +6289,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="11"/>
@@ -6317,7 +6319,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>
@@ -6344,7 +6346,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -6371,7 +6373,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -6398,7 +6400,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -6423,7 +6425,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="D16" s="11"/>
@@ -6447,7 +6449,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -6472,7 +6474,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -6493,7 +6495,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -6514,7 +6516,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="14" t="s">
         <v>6</v>
@@ -6552,7 +6554,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -6573,7 +6575,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -6594,7 +6596,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -6615,7 +6617,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="14" t="s">
@@ -6646,7 +6648,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -6667,7 +6669,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -6688,7 +6690,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="14" t="s">
         <v>8</v>
@@ -6719,7 +6721,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -6740,7 +6742,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -6761,7 +6763,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -6782,7 +6784,7 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -6803,7 +6805,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="14" t="s">
         <v>113</v>
@@ -6829,7 +6831,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -6848,7 +6850,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="14" t="s">
         <v>3</v>
       </c>
@@ -6856,12 +6858,12 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>3000</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>2500</v>
       </c>
@@ -6869,7 +6871,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>2500</v>
       </c>
@@ -6877,17 +6879,17 @@
         <v>600</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>800</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>700</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B104">
         <f>SUM(B96:B100)</f>
         <v>9500</v>
@@ -6897,47 +6899,47 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P105">
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P106" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P107" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P108" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P109" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P110" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P111" s="11">
         <v>3.99</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P112" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E113">
         <v>1400</v>
       </c>
@@ -6945,7 +6947,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E114">
         <v>1300</v>
       </c>
@@ -6953,24 +6955,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E115">
         <v>950</v>
       </c>
       <c r="P115" s="11"/>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="5:16" x14ac:dyDescent="0.25">
       <c r="P116" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E119">
         <f>SUM(E113:E117)</f>
         <v>3650</v>
       </c>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="5:16" x14ac:dyDescent="0.25">
       <c r="P123">
         <f>SUM(P103:P120)</f>
         <v>516.99</v>
@@ -6985,16 +6987,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B974066F-70AB-4CE0-9413-18C0CA619219}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>204</v>
       </c>
@@ -7008,7 +7010,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>8000</v>
       </c>
@@ -7028,7 +7030,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
         <v>219</v>
       </c>
@@ -7042,7 +7044,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
         <v>220</v>
       </c>
@@ -7055,8 +7057,11 @@
       <c r="M4">
         <v>2000</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
         <v>221</v>
       </c>
@@ -7069,8 +7074,11 @@
       <c r="M5">
         <v>1187.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -7087,26 +7095,43 @@
       <c r="M6">
         <v>950</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
         <v>223</v>
       </c>
       <c r="H7">
         <v>4000</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M7">
+        <v>629.47</v>
+      </c>
+      <c r="N7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <v>1409.25</v>
+      </c>
+      <c r="N8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I10" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:15" x14ac:dyDescent="0.25">
       <c r="O17" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="19" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>6</v>
       </c>
@@ -7120,16 +7145,16 @@
       </c>
       <c r="M19">
         <f>SUM(M4:M16)</f>
-        <v>4137.5</v>
-      </c>
-    </row>
-    <row r="23" spans="6:15" x14ac:dyDescent="0.3">
+        <v>6176.22</v>
+      </c>
+    </row>
+    <row r="23" spans="6:15" x14ac:dyDescent="0.25">
       <c r="L23" t="s">
         <v>164</v>
       </c>
       <c r="M23">
         <f>L19-M19</f>
-        <v>2038.7200000000003</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7143,7 +7168,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7157,14 +7182,14 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L2" t="s">
         <v>181</v>
       </c>
@@ -7172,7 +7197,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>162</v>
       </c>
@@ -7205,7 +7230,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L5" t="s">
         <v>182</v>
       </c>
@@ -7219,7 +7244,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>184</v>
       </c>
@@ -7233,7 +7258,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>163</v>
       </c>
@@ -7253,7 +7278,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>183</v>
       </c>
@@ -7267,7 +7292,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>164</v>
       </c>
@@ -7282,7 +7307,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L10" t="s">
         <v>192</v>
       </c>
@@ -7290,12 +7315,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>166</v>
       </c>
@@ -7304,7 +7329,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -7332,7 +7357,7 @@
         <v>13978</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>163</v>
       </c>
@@ -7346,7 +7371,7 @@
         <v>3820</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>164</v>
       </c>
@@ -7369,12 +7394,12 @@
         <v>6022</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G28" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>166</v>
       </c>
@@ -7396,20 +7421,20 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="17.8984375" customWidth="1"/>
-    <col min="7" max="7" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="7" max="7" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>155</v>
       </c>
@@ -7420,7 +7445,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.5</v>
       </c>
@@ -7431,7 +7456,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.8</v>
       </c>
@@ -7442,7 +7467,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1.5</v>
       </c>
@@ -7453,7 +7478,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>159</v>
       </c>
@@ -7461,7 +7486,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G11" t="s">
         <v>186</v>
       </c>
@@ -7469,7 +7494,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>160</v>
       </c>
@@ -7484,7 +7509,7 @@
         <v>336000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>161</v>
       </c>
@@ -7502,18 +7527,18 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="18.296875" customWidth="1"/>
-    <col min="6" max="6" width="20.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col min="6" max="6" width="20.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>168</v>
       </c>
@@ -7530,7 +7555,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>169</v>
       </c>
@@ -7547,7 +7572,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>170</v>
       </c>
@@ -7564,7 +7589,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>171</v>
       </c>
@@ -7578,7 +7603,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>145</v>
       </c>
@@ -7586,7 +7611,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>172</v>
       </c>
@@ -7594,7 +7619,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>174</v>
       </c>
@@ -7602,12 +7627,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>175</v>
       </c>
@@ -7633,19 +7658,19 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -7653,7 +7678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -7661,7 +7686,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -7670,10 +7695,10 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -7687,7 +7712,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -7701,7 +7726,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -7715,7 +7740,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -7729,7 +7754,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -7743,7 +7768,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -7757,7 +7782,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -7771,7 +7796,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -7785,7 +7810,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -7799,7 +7824,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -7808,7 +7833,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
@@ -7817,7 +7842,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -7826,7 +7851,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -7834,13 +7859,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -7853,7 +7878,7 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>15</v>
       </c>
@@ -7862,7 +7887,7 @@
         <v>4156.41</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -7887,14 +7912,14 @@
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -7902,7 +7927,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -7910,7 +7935,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -7919,10 +7944,10 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -7940,7 +7965,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -7949,7 +7974,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -7958,7 +7983,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>4</v>
@@ -7967,7 +7992,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>14</v>
@@ -7976,7 +8001,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>2</v>
@@ -7985,7 +8010,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>16</v>
@@ -7994,7 +8019,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>5</v>
@@ -8003,7 +8028,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>21</v>
@@ -8012,7 +8037,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>37</v>
@@ -8021,7 +8046,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>36</v>
@@ -8030,7 +8055,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>38</v>
@@ -8039,7 +8064,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>39</v>
@@ -8048,7 +8073,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>40</v>
@@ -8057,7 +8082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>42</v>
@@ -8066,7 +8091,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="D21" s="1" t="s">
         <v>43</v>
@@ -8075,7 +8100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>43</v>
@@ -8084,7 +8109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="D23" s="1" t="s">
         <v>44</v>
@@ -8093,7 +8118,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D24" s="1" t="s">
         <v>45</v>
       </c>
@@ -8101,7 +8126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D25" s="1" t="s">
         <v>37</v>
       </c>
@@ -8109,7 +8134,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D26" s="1" t="s">
         <v>16</v>
       </c>
@@ -8117,7 +8142,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D27" s="1" t="s">
         <v>36</v>
       </c>
@@ -8125,7 +8150,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D28" s="1" t="s">
         <v>46</v>
       </c>
@@ -8133,7 +8158,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="s">
         <v>47</v>
       </c>
@@ -8141,7 +8166,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D30" s="1" t="s">
         <v>27</v>
       </c>
@@ -8149,7 +8174,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D31" s="1" t="s">
         <v>27</v>
       </c>
@@ -8157,7 +8182,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D32" s="1" t="s">
         <v>54</v>
       </c>
@@ -8165,7 +8190,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D33" s="1" t="s">
         <v>50</v>
       </c>
@@ -8173,16 +8198,16 @@
         <v>387</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>6</v>
       </c>
@@ -8195,7 +8220,7 @@
         <v>3854</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>15</v>
       </c>
@@ -8204,7 +8229,7 @@
         <v>3854</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>8</v>
       </c>
@@ -8213,7 +8238,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>3</v>
       </c>
@@ -8233,7 +8258,7 @@
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8247,14 +8272,14 @@
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -8262,7 +8287,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -8270,7 +8295,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -8279,10 +8304,10 @@
         <v>3946</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -8293,7 +8318,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -8302,7 +8327,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="D8" s="1" t="s">
         <v>21</v>
@@ -8311,7 +8336,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -8320,7 +8345,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>4</v>
@@ -8329,7 +8354,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>5</v>
@@ -8338,7 +8363,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>2</v>
@@ -8347,7 +8372,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -8356,7 +8381,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>39</v>
@@ -8365,7 +8390,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>40</v>
@@ -8374,7 +8399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>48</v>
@@ -8383,7 +8408,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>49</v>
@@ -8392,7 +8417,7 @@
         <v>15.99</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>49</v>
@@ -8401,7 +8426,7 @@
         <v>15.99</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>49</v>
@@ -8410,7 +8435,7 @@
         <v>3.99</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>51</v>
@@ -8419,7 +8444,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="D21" s="1" t="s">
         <v>57</v>
@@ -8428,7 +8453,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>52</v>
@@ -8437,7 +8462,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="D23" s="1" t="s">
         <v>53</v>
@@ -8446,7 +8471,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="D24" s="1" t="s">
         <v>55</v>
@@ -8455,7 +8480,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D25" s="1" t="s">
         <v>56</v>
       </c>
@@ -8463,7 +8488,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D26" s="1" t="s">
         <v>58</v>
       </c>
@@ -8471,7 +8496,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D27" s="1" t="s">
         <v>59</v>
       </c>
@@ -8479,7 +8504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D28" s="1" t="s">
         <v>60</v>
       </c>
@@ -8487,7 +8512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="s">
         <v>61</v>
       </c>
@@ -8495,7 +8520,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D30" s="1" t="s">
         <v>62</v>
       </c>
@@ -8503,7 +8528,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D31" s="1" t="s">
         <v>27</v>
       </c>
@@ -8511,7 +8536,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D32" s="1" t="s">
         <v>14</v>
       </c>
@@ -8519,22 +8544,22 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>6</v>
       </c>
@@ -8547,7 +8572,7 @@
         <v>3898.9699999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>15</v>
       </c>
@@ -8556,7 +8581,7 @@
         <v>3898.9699999999993</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>8</v>
       </c>
@@ -8565,7 +8590,7 @@
         <v>47.030000000000655</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -8586,19 +8611,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -8606,7 +8631,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -8615,10 +8640,10 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -8629,7 +8654,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -8638,7 +8663,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8">
         <v>50</v>
@@ -8650,7 +8675,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -8659,7 +8684,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>4</v>
@@ -8668,7 +8693,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>5</v>
@@ -8677,7 +8702,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>2</v>
@@ -8686,7 +8711,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -8695,7 +8720,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>39</v>
@@ -8704,7 +8729,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>40</v>
@@ -8713,7 +8738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>48</v>
@@ -8722,7 +8747,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>49</v>
@@ -8731,7 +8756,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>49</v>
@@ -8740,7 +8765,7 @@
         <v>15.99</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>49</v>
@@ -8749,7 +8774,7 @@
         <v>3.99</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>51</v>
@@ -8758,7 +8783,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="D21" s="1" t="s">
         <v>14</v>
@@ -8767,7 +8792,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>52</v>
@@ -8776,7 +8801,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="D23" s="1" t="s">
         <v>63</v>
@@ -8785,7 +8810,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="D24" s="1" t="s">
         <v>14</v>
@@ -8794,7 +8819,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D25" s="1" t="s">
         <v>64</v>
       </c>
@@ -8802,7 +8827,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D26" s="1" t="s">
         <v>65</v>
       </c>
@@ -8810,40 +8835,40 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>6</v>
       </c>
@@ -8856,7 +8881,7 @@
         <v>3000.9799999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>15</v>
       </c>
@@ -8865,7 +8890,7 @@
         <v>3050.9799999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>8</v>
       </c>
@@ -8874,7 +8899,7 @@
         <v>-0.97999999999956344</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -8895,17 +8920,17 @@
       <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -8913,7 +8938,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -8921,7 +8946,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -8930,7 +8955,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="D4" s="5" t="s">
         <v>78</v>
@@ -8939,7 +8964,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>75</v>
@@ -8968,7 +8993,7 @@
       </c>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -8990,7 +9015,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8">
         <v>25</v>
@@ -9015,7 +9040,7 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9">
         <v>26</v>
@@ -9035,7 +9060,7 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10">
         <v>160</v>
@@ -9060,7 +9085,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>5</v>
@@ -9081,7 +9106,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>2</v>
@@ -9096,7 +9121,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -9108,7 +9133,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>39</v>
@@ -9118,7 +9143,7 @@
       </c>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>40</v>
@@ -9128,7 +9153,7 @@
       </c>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>48</v>
@@ -9138,7 +9163,7 @@
       </c>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>49</v>
@@ -9148,7 +9173,7 @@
       </c>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>49</v>
@@ -9161,7 +9186,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>49</v>
@@ -9174,7 +9199,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>51</v>
@@ -9187,7 +9212,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="D21" s="1" t="s">
         <v>14</v>
@@ -9200,7 +9225,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>81</v>
@@ -9212,7 +9237,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="D23" s="1" t="s">
         <v>82</v>
@@ -9221,7 +9246,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="D24" s="1" t="s">
         <v>84</v>
@@ -9234,10 +9259,10 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
       <c r="Q27" t="s">
         <v>83</v>
@@ -9247,25 +9272,25 @@
         <v>780.98999999999978</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="N32">
         <f>SUM(N7:N29)</f>
         <v>272</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
@@ -9282,7 +9307,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>15</v>
       </c>
@@ -9291,7 +9316,7 @@
         <v>3066.99</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
@@ -9300,7 +9325,7 @@
         <v>233.01000000000022</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>3</v>
       </c>
@@ -9321,20 +9346,20 @@
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.796875" style="1"/>
-    <col min="2" max="2" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.75" style="1"/>
+    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.19921875" customWidth="1"/>
+    <col min="10" max="10" width="11.25" customWidth="1"/>
     <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -9355,7 +9380,7 @@
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -9376,7 +9401,7 @@
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="1">
         <v>3030</v>
@@ -9387,7 +9412,7 @@
       </c>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="1">
         <v>600</v>
@@ -9395,7 +9420,7 @@
       <c r="J4" s="7"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="1">
         <v>300</v>
@@ -9403,7 +9428,7 @@
       <c r="J5" s="7"/>
       <c r="S5" s="7"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="1">
         <v>100</v>
@@ -9411,19 +9436,19 @@
       <c r="J6" s="7"/>
       <c r="S6" s="7"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="1"/>
       <c r="J7" s="7"/>
       <c r="S7" s="7"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="1"/>
       <c r="J8" s="7"/>
       <c r="S8" s="7"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="1"/>
       <c r="E9" s="5" t="s">
@@ -9448,13 +9473,13 @@
       </c>
       <c r="S9" s="7"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="1"/>
       <c r="J10" s="7"/>
       <c r="S10" s="7"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
@@ -9486,7 +9511,7 @@
       <c r="Q11" s="2"/>
       <c r="S11" s="7"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="1"/>
       <c r="E12" s="1" t="s">
@@ -9516,7 +9541,7 @@
       </c>
       <c r="S12" s="7"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="1" t="s">
         <v>91</v>
@@ -9551,7 +9576,7 @@
       </c>
       <c r="S13" s="7"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="1" t="s">
         <v>50</v>
@@ -9586,7 +9611,7 @@
       </c>
       <c r="S14" s="7"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="1" t="s">
         <v>11</v>
@@ -9621,7 +9646,7 @@
       </c>
       <c r="S15" s="7"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="1" t="s">
         <v>82</v>
@@ -9656,7 +9681,7 @@
       </c>
       <c r="S16" s="7"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="1" t="s">
         <v>84</v>
@@ -9691,7 +9716,7 @@
       </c>
       <c r="S17" s="7"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="1" t="s">
         <v>81</v>
@@ -9723,7 +9748,7 @@
       </c>
       <c r="S18" s="7"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="1"/>
       <c r="E19" s="1" t="s">
@@ -9748,7 +9773,7 @@
       </c>
       <c r="S19" s="7"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="1"/>
       <c r="E20" s="1" t="s">
@@ -9773,7 +9798,7 @@
       </c>
       <c r="S20" s="7"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="1"/>
       <c r="E21" s="1" t="s">
@@ -9792,7 +9817,7 @@
       <c r="M21" s="1"/>
       <c r="S21" s="7"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="1"/>
       <c r="E22" s="1" t="s">
@@ -9811,7 +9836,7 @@
       <c r="M22" s="1"/>
       <c r="S22" s="7"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="1"/>
       <c r="E23" s="1" t="s">
@@ -9825,7 +9850,7 @@
       <c r="M23" s="1"/>
       <c r="S23" s="7"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="1"/>
       <c r="E24" s="1" t="s">
@@ -9844,7 +9869,7 @@
       <c r="M24" s="1"/>
       <c r="S24" s="7"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="1"/>
       <c r="E25" s="1" t="s">
@@ -9863,7 +9888,7 @@
       <c r="M25" s="1"/>
       <c r="S25" s="7"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="1"/>
       <c r="E26" s="1" t="s">
@@ -9882,7 +9907,7 @@
       <c r="M26" s="1"/>
       <c r="S26" s="7"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="1"/>
       <c r="E27" s="1" t="s">
@@ -9900,7 +9925,7 @@
       <c r="J27" s="7"/>
       <c r="S27" s="7"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="1"/>
       <c r="E28" s="1"/>
@@ -9913,7 +9938,7 @@
       <c r="J28" s="7"/>
       <c r="S28" s="7"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="1"/>
       <c r="E29" s="1"/>
@@ -9926,7 +9951,7 @@
       <c r="J29" s="7"/>
       <c r="S29" s="7"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="1"/>
       <c r="H30" s="1" t="s">
@@ -9938,7 +9963,7 @@
       <c r="J30" s="7"/>
       <c r="S30" s="7"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="H31" s="1" t="s">
         <v>110</v>
@@ -9949,7 +9974,7 @@
       <c r="J31" s="7"/>
       <c r="S31" s="7"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="E32" s="1"/>
       <c r="H32" s="1" t="s">
@@ -9961,7 +9986,7 @@
       <c r="J32" s="7"/>
       <c r="S32" s="7"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="E33" s="1"/>
       <c r="H33" s="1" t="s">
@@ -9973,30 +9998,30 @@
       <c r="J33" s="7"/>
       <c r="S33" s="7"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="E34" s="1"/>
       <c r="J34" s="7"/>
       <c r="S34" s="7"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="E35" s="1"/>
       <c r="J35" s="7"/>
       <c r="S35" s="7"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="E36" s="1"/>
       <c r="J36" s="7"/>
       <c r="S36" s="7"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="J37" s="7"/>
       <c r="S37" s="7"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="2" t="s">
         <v>6</v>
@@ -10024,22 +10049,22 @@
       </c>
       <c r="S38" s="7"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="J39" s="7"/>
       <c r="S39" s="7"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="J40" s="7"/>
       <c r="S40" s="7"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="J41" s="7"/>
       <c r="S41" s="7"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="C42" s="2" t="s">
         <v>15</v>
@@ -10058,17 +10083,17 @@
       </c>
       <c r="S42" s="7"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="J43" s="7"/>
       <c r="S43" s="7"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="J44" s="7"/>
       <c r="S44" s="7"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="2" t="s">
         <v>8</v>
@@ -10084,12 +10109,12 @@
       </c>
       <c r="S45" s="7"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="J46" s="7"/>
       <c r="S46" s="7"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -10110,7 +10135,7 @@
       <c r="R47" s="7"/>
       <c r="S47" s="7"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -10131,10 +10156,10 @@
       <c r="R48" s="7"/>
       <c r="S48" s="7"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>3</v>
       </c>
@@ -10145,7 +10170,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M52" t="s">
         <v>106</v>
       </c>
@@ -10153,12 +10178,12 @@
         <v>24.99</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M53" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M54" t="s">
         <v>108</v>
       </c>
@@ -10166,7 +10191,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N61">
         <f>SUM(N51:N57)</f>
         <v>74.989999999999995</v>
@@ -10185,16 +10210,16 @@
       <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.19921875" customWidth="1"/>
-    <col min="11" max="11" width="8.19921875" customWidth="1"/>
-    <col min="13" max="13" width="18.296875" customWidth="1"/>
-    <col min="18" max="18" width="3.69921875" customWidth="1"/>
+    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.25" customWidth="1"/>
+    <col min="11" max="11" width="8.25" customWidth="1"/>
+    <col min="13" max="13" width="18.25" customWidth="1"/>
+    <col min="18" max="18" width="3.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -10215,7 +10240,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -10236,7 +10261,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -10257,7 +10282,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -10290,7 +10315,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -10311,7 +10336,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -10344,7 +10369,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="9"/>
       <c r="C7" s="11"/>
@@ -10379,7 +10404,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="9"/>
       <c r="C8" s="11"/>
@@ -10416,7 +10441,7 @@
       <c r="R8" s="11"/>
       <c r="S8" s="12"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="9"/>
       <c r="C9" s="11"/>
@@ -10453,7 +10478,7 @@
       <c r="R9" s="11"/>
       <c r="S9" s="12"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="C10" s="11"/>
@@ -10490,7 +10515,7 @@
       <c r="R10" s="11"/>
       <c r="S10" s="12"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="11"/>
@@ -10525,7 +10550,7 @@
       <c r="R11" s="11"/>
       <c r="S11" s="12"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>
@@ -10562,7 +10587,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -10595,7 +10620,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -10622,7 +10647,7 @@
       <c r="R14" s="11"/>
       <c r="S14" s="12"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -10651,7 +10676,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="11"/>
@@ -10680,7 +10705,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -10709,7 +10734,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="9"/>
       <c r="C18" s="11"/>
@@ -10738,7 +10763,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="9"/>
       <c r="C19" s="11"/>
@@ -10767,7 +10792,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="9"/>
       <c r="C20" s="11"/>
@@ -10796,7 +10821,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="9"/>
       <c r="C21" s="11"/>
@@ -10823,7 +10848,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="9"/>
       <c r="C22" s="11"/>
@@ -10848,7 +10873,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="9"/>
       <c r="C23" s="11"/>
@@ -10873,7 +10898,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="9"/>
       <c r="C24" s="11"/>
@@ -10894,7 +10919,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="9"/>
       <c r="C25" s="11"/>
@@ -10915,7 +10940,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -10936,7 +10961,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -10957,7 +10982,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -10978,7 +11003,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -10999,7 +11024,7 @@
       <c r="R29" s="11"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -11020,7 +11045,7 @@
       <c r="R30" s="11"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -11041,7 +11066,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="12"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -11062,7 +11087,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="12"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="14" t="s">
         <v>6</v>
@@ -11100,7 +11125,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="12"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -11121,7 +11146,7 @@
       <c r="R34" s="11"/>
       <c r="S34" s="12"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -11142,7 +11167,7 @@
       <c r="R35" s="11"/>
       <c r="S35" s="12"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -11163,7 +11188,7 @@
       <c r="R36" s="11"/>
       <c r="S36" s="12"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="14" t="s">
@@ -11194,7 +11219,7 @@
       <c r="R37" s="11"/>
       <c r="S37" s="12"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -11215,7 +11240,7 @@
       <c r="R38" s="11"/>
       <c r="S38" s="12"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -11236,7 +11261,7 @@
       <c r="R39" s="11"/>
       <c r="S39" s="12"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="14" t="s">
         <v>8</v>
@@ -11267,7 +11292,7 @@
       <c r="R40" s="11"/>
       <c r="S40" s="12"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -11288,7 +11313,7 @@
       <c r="R41" s="11"/>
       <c r="S41" s="12"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -11309,7 +11334,7 @@
       <c r="R42" s="12"/>
       <c r="S42" s="12"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -11330,7 +11355,7 @@
       <c r="R43" s="12"/>
       <c r="S43" s="12"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -11351,7 +11376,7 @@
       <c r="R44" s="11"/>
       <c r="S44" s="11"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="14" t="s">
         <v>113</v>
@@ -11377,7 +11402,7 @@
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
@@ -11396,7 +11421,7 @@
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="N47" t="s">
         <v>122</v>
       </c>
@@ -11404,7 +11429,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="N48" t="s">
         <v>125</v>
       </c>
@@ -11412,7 +11437,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N49" t="s">
         <v>122</v>
       </c>
@@ -11420,7 +11445,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N50" t="s">
         <v>123</v>
       </c>
@@ -11428,7 +11453,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N51" t="s">
         <v>126</v>
       </c>
@@ -11439,7 +11464,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N52" t="s">
         <v>127</v>
       </c>
@@ -11447,12 +11472,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N55" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="58" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N58" t="s">
         <v>6</v>
       </c>
@@ -11461,7 +11486,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="14" t="s">
         <v>3</v>
       </c>

--- a/Budget.xlsx
+++ b/Budget.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acgue\Documents\git-project\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3c6177e7d3ca184/Documents/git-projet/Document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94E59A6-9E4B-4A38-91D1-279266D15B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{B94E59A6-9E4B-4A38-91D1-279266D15B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4297C59-B6A2-464C-9E7B-2C262FF7E58B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" firstSheet="11" activeTab="13" xr2:uid="{27B7E826-E620-B34C-81E1-46A3DBC74E62}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" firstSheet="11" activeTab="14" xr2:uid="{27B7E826-E620-B34C-81E1-46A3DBC74E62}"/>
   </bookViews>
   <sheets>
     <sheet name="Fevrier" sheetId="3" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="231">
   <si>
     <t>Loyer</t>
   </si>
@@ -742,6 +742,9 @@
   </si>
   <si>
     <t>achat</t>
+  </si>
+  <si>
+    <t>octobre</t>
   </si>
 </sst>
 </file>
@@ -1188,14 +1191,14 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1203,7 +1206,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1211,7 +1214,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1220,13 +1223,13 @@
         <v>3375</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1237,7 +1240,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1251,7 +1254,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1265,7 +1268,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1279,7 +1282,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1293,7 +1296,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -1307,7 +1310,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1321,7 +1324,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1335,7 +1338,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,7 +1352,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -1358,7 +1361,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -1367,7 +1370,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,7 +1379,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -1391,7 +1394,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B25" t="s">
         <v>15</v>
       </c>
@@ -1400,7 +1403,7 @@
         <v>3446.18</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
@@ -1422,7 +1425,7 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.25" customWidth="1"/>
@@ -1431,7 +1434,7 @@
     <col min="18" max="18" width="3.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1452,7 +1455,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -1473,7 +1476,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -1494,7 +1497,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -1527,7 +1530,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -1548,7 +1551,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -1581,7 +1584,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A7" s="10"/>
       <c r="B7" s="9"/>
       <c r="C7" s="11"/>
@@ -1618,7 +1621,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A8" s="10"/>
       <c r="B8" s="9"/>
       <c r="C8" s="11"/>
@@ -1647,7 +1650,7 @@
       <c r="R8" s="11"/>
       <c r="S8" s="12"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A9" s="10"/>
       <c r="B9" s="9"/>
       <c r="C9" s="11"/>
@@ -1684,7 +1687,7 @@
       <c r="R9" s="11"/>
       <c r="S9" s="12"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="C10" s="11"/>
@@ -1721,7 +1724,7 @@
       <c r="R10" s="11"/>
       <c r="S10" s="12"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="11"/>
@@ -1758,7 +1761,7 @@
       <c r="R11" s="11"/>
       <c r="S11" s="12"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>
@@ -1795,7 +1798,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -1828,7 +1831,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -1859,7 +1862,7 @@
       <c r="R14" s="11"/>
       <c r="S14" s="12"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -1892,7 +1895,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="11"/>
@@ -1925,7 +1928,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -1958,7 +1961,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A18" s="10"/>
       <c r="B18" s="9"/>
       <c r="C18" s="11"/>
@@ -1991,7 +1994,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A19" s="10"/>
       <c r="B19" s="9"/>
       <c r="C19" s="11"/>
@@ -2020,7 +2023,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A20" s="10"/>
       <c r="B20" s="9"/>
       <c r="C20" s="11"/>
@@ -2047,7 +2050,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A21" s="10"/>
       <c r="B21" s="9"/>
       <c r="C21" s="11"/>
@@ -2076,7 +2079,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A22" s="10"/>
       <c r="B22" s="9"/>
       <c r="C22" s="11"/>
@@ -2101,7 +2104,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A23" s="10"/>
       <c r="B23" s="9"/>
       <c r="C23" s="11"/>
@@ -2126,7 +2129,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A24" s="10"/>
       <c r="B24" s="9"/>
       <c r="C24" s="11"/>
@@ -2151,7 +2154,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A25" s="10"/>
       <c r="B25" s="9"/>
       <c r="C25" s="11"/>
@@ -2174,7 +2177,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A26" s="10"/>
       <c r="B26" s="9"/>
       <c r="C26" s="11"/>
@@ -2199,7 +2202,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -2224,7 +2227,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -2249,7 +2252,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -2270,7 +2273,7 @@
       <c r="R29" s="11"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -2291,7 +2294,7 @@
       <c r="R30" s="11"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -2312,7 +2315,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="12"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -2333,7 +2336,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="12"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -2354,7 +2357,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="12"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A34" s="10"/>
       <c r="B34" s="14" t="s">
         <v>6</v>
@@ -2392,7 +2395,7 @@
       <c r="R34" s="11"/>
       <c r="S34" s="12"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -2413,7 +2416,7 @@
       <c r="R35" s="11"/>
       <c r="S35" s="12"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -2434,7 +2437,7 @@
       <c r="R36" s="11"/>
       <c r="S36" s="12"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -2455,7 +2458,7 @@
       <c r="R37" s="11"/>
       <c r="S37" s="12"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="14" t="s">
@@ -2486,7 +2489,7 @@
       <c r="R38" s="11"/>
       <c r="S38" s="12"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -2507,7 +2510,7 @@
       <c r="R39" s="11"/>
       <c r="S39" s="12"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -2528,7 +2531,7 @@
       <c r="R40" s="11"/>
       <c r="S40" s="12"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A41" s="10"/>
       <c r="B41" s="14" t="s">
         <v>8</v>
@@ -2559,7 +2562,7 @@
       <c r="R41" s="11"/>
       <c r="S41" s="12"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -2580,7 +2583,7 @@
       <c r="R42" s="11"/>
       <c r="S42" s="12"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -2601,7 +2604,7 @@
       <c r="R43" s="12"/>
       <c r="S43" s="12"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -2622,7 +2625,7 @@
       <c r="R44" s="12"/>
       <c r="S44" s="12"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -2643,7 +2646,7 @@
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A46" s="9"/>
       <c r="B46" s="14" t="s">
         <v>113</v>
@@ -2669,7 +2672,7 @@
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A47" s="9"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
@@ -2688,7 +2691,7 @@
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B74" s="14" t="s">
         <v>3</v>
       </c>
@@ -2709,7 +2712,7 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.25" customWidth="1"/>
@@ -2720,7 +2723,7 @@
     <col min="18" max="18" width="3.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -2741,7 +2744,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -2762,7 +2765,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -2783,7 +2786,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -2816,7 +2819,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -2837,7 +2840,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -2870,7 +2873,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A7" s="10"/>
       <c r="B7" s="9"/>
       <c r="C7" s="11">
@@ -2909,7 +2912,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A8" s="10"/>
       <c r="B8" s="9"/>
       <c r="C8" s="11"/>
@@ -2942,7 +2945,7 @@
       <c r="R8" s="11"/>
       <c r="S8" s="12"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A9" s="10"/>
       <c r="B9" s="9"/>
       <c r="C9" s="11"/>
@@ -2979,7 +2982,7 @@
       <c r="R9" s="11"/>
       <c r="S9" s="12"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="C10" s="11"/>
@@ -3013,7 +3016,7 @@
       <c r="R10" s="11"/>
       <c r="S10" s="12"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="11"/>
@@ -3047,7 +3050,7 @@
       <c r="R11" s="11"/>
       <c r="S11" s="12"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>
@@ -3084,7 +3087,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -3121,7 +3124,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -3148,7 +3151,7 @@
       <c r="R14" s="11"/>
       <c r="S14" s="12"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -3173,7 +3176,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="11"/>
@@ -3198,7 +3201,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -3223,7 +3226,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A18" s="10"/>
       <c r="B18" s="9"/>
       <c r="C18" s="11"/>
@@ -3248,7 +3251,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A19" s="10"/>
       <c r="B19" s="9"/>
       <c r="C19" s="11"/>
@@ -3273,7 +3276,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A20" s="10"/>
       <c r="B20" s="9"/>
       <c r="C20" s="11"/>
@@ -3298,7 +3301,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A21" s="10"/>
       <c r="B21" s="9"/>
       <c r="C21" s="11"/>
@@ -3323,7 +3326,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A22" s="10"/>
       <c r="B22" s="9"/>
       <c r="C22" s="11"/>
@@ -3348,7 +3351,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A23" s="10"/>
       <c r="B23" s="9"/>
       <c r="C23" s="11"/>
@@ -3373,7 +3376,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A24" s="10"/>
       <c r="B24" s="9"/>
       <c r="C24" s="11"/>
@@ -3398,7 +3401,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A25" s="10"/>
       <c r="B25" s="9"/>
       <c r="C25" s="11"/>
@@ -3423,7 +3426,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A26" s="10"/>
       <c r="B26" s="9"/>
       <c r="C26" s="11"/>
@@ -3444,7 +3447,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -3465,7 +3468,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -3486,7 +3489,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -3507,7 +3510,7 @@
       <c r="R29" s="11"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -3528,7 +3531,7 @@
       <c r="R30" s="11"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -3549,7 +3552,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="12"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -3570,7 +3573,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="12"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -3591,7 +3594,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="12"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A34" s="10"/>
       <c r="B34" s="14" t="s">
         <v>6</v>
@@ -3629,7 +3632,7 @@
       <c r="R34" s="11"/>
       <c r="S34" s="12"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -3650,7 +3653,7 @@
       <c r="R35" s="11"/>
       <c r="S35" s="12"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -3671,7 +3674,7 @@
       <c r="R36" s="11"/>
       <c r="S36" s="12"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -3692,7 +3695,7 @@
       <c r="R37" s="11"/>
       <c r="S37" s="12"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="14" t="s">
@@ -3723,7 +3726,7 @@
       <c r="R38" s="11"/>
       <c r="S38" s="12"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -3744,7 +3747,7 @@
       <c r="R39" s="11"/>
       <c r="S39" s="12"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -3765,7 +3768,7 @@
       <c r="R40" s="11"/>
       <c r="S40" s="12"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A41" s="10"/>
       <c r="B41" s="14" t="s">
         <v>8</v>
@@ -3796,7 +3799,7 @@
       <c r="R41" s="11"/>
       <c r="S41" s="12"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -3817,7 +3820,7 @@
       <c r="R42" s="11"/>
       <c r="S42" s="12"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -3838,7 +3841,7 @@
       <c r="R43" s="12"/>
       <c r="S43" s="12"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -3859,7 +3862,7 @@
       <c r="R44" s="12"/>
       <c r="S44" s="12"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -3880,7 +3883,7 @@
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A46" s="9"/>
       <c r="B46" s="14" t="s">
         <v>113</v>
@@ -3906,7 +3909,7 @@
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A47" s="9"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
@@ -3925,7 +3928,7 @@
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B74" s="14" t="s">
         <v>3</v>
       </c>
@@ -3946,7 +3949,7 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.25" customWidth="1"/>
@@ -3956,7 +3959,7 @@
     <col min="18" max="18" width="3.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -3977,7 +3980,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -3998,7 +4001,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -4023,7 +4026,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -4061,7 +4064,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -4082,7 +4085,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -4115,7 +4118,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A7" s="10"/>
       <c r="B7" s="9" t="s">
         <v>193</v>
@@ -4146,7 +4149,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A8" s="10"/>
       <c r="B8" s="9" t="s">
         <v>202</v>
@@ -4182,7 +4185,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A9" s="10"/>
       <c r="B9" s="9" t="s">
         <v>146</v>
@@ -4218,7 +4221,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A10" s="10"/>
       <c r="B10" s="9" t="s">
         <v>213</v>
@@ -4252,7 +4255,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A11" s="10"/>
       <c r="B11" s="9" t="s">
         <v>207</v>
@@ -4286,7 +4289,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A12" s="10"/>
       <c r="B12" s="9" t="s">
         <v>208</v>
@@ -4317,7 +4320,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A13" s="10"/>
       <c r="B13" s="9" t="s">
         <v>209</v>
@@ -4348,7 +4351,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A14" s="10"/>
       <c r="B14" s="9" t="s">
         <v>210</v>
@@ -4379,7 +4382,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A15" s="10"/>
       <c r="B15" s="9" t="s">
         <v>216</v>
@@ -4408,7 +4411,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A16" s="10"/>
       <c r="B16" s="9" t="s">
         <v>198</v>
@@ -4437,7 +4440,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -4458,7 +4461,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -4479,7 +4482,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -4500,7 +4503,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A20" s="10"/>
       <c r="B20" s="14" t="s">
         <v>6</v>
@@ -4538,7 +4541,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -4559,7 +4562,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -4580,7 +4583,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -4601,7 +4604,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="14" t="s">
@@ -4632,7 +4635,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -4653,7 +4656,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -4674,7 +4677,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A27" s="10"/>
       <c r="B27" s="14" t="s">
         <v>8</v>
@@ -4705,7 +4708,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -4726,7 +4729,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -4747,7 +4750,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -4768,7 +4771,7 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -4789,7 +4792,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A32" s="9"/>
       <c r="B32" s="14" t="s">
         <v>113</v>
@@ -4815,7 +4818,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A33" s="9"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -4834,7 +4837,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B60" s="14" t="s">
         <v>3</v>
       </c>
@@ -4842,12 +4845,12 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B96">
         <v>3000</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B97">
         <v>2500</v>
       </c>
@@ -4855,7 +4858,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B98">
         <v>2500</v>
       </c>
@@ -4863,17 +4866,17 @@
         <v>600</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B99">
         <v>800</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B100">
         <v>700</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B104">
         <f>SUM(B96:B100)</f>
         <v>9500</v>
@@ -4883,47 +4886,47 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.5">
       <c r="P105">
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.5">
       <c r="P106" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.5">
       <c r="P107" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.5">
       <c r="P108" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.5">
       <c r="P109" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.5">
       <c r="P110" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.5">
       <c r="P111" s="11">
         <v>3.99</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.5">
       <c r="P112" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.5">
       <c r="E113">
         <v>1400</v>
       </c>
@@ -4931,7 +4934,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.5">
       <c r="E114">
         <v>1300</v>
       </c>
@@ -4939,24 +4942,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:16" x14ac:dyDescent="0.5">
       <c r="E115">
         <v>950</v>
       </c>
       <c r="P115" s="11"/>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:16" x14ac:dyDescent="0.5">
       <c r="P116" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:16" x14ac:dyDescent="0.5">
       <c r="E119">
         <f>SUM(E113:E117)</f>
         <v>3650</v>
       </c>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:16" x14ac:dyDescent="0.5">
       <c r="P123">
         <f>SUM(P103:P120)</f>
         <v>516.99</v>
@@ -4975,7 +4978,7 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.25" customWidth="1"/>
@@ -4985,7 +4988,7 @@
     <col min="18" max="18" width="3.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -5006,7 +5009,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -5027,7 +5030,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -5052,7 +5055,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -5090,7 +5093,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -5111,7 +5114,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -5144,7 +5147,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A7" s="10"/>
       <c r="B7" s="9" t="s">
         <v>193</v>
@@ -5177,7 +5180,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A8" s="10"/>
       <c r="B8" s="9" t="s">
         <v>202</v>
@@ -5213,7 +5216,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A9" s="10"/>
       <c r="B9" s="9" t="s">
         <v>146</v>
@@ -5249,7 +5252,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A10" s="10"/>
       <c r="B10" s="9" t="s">
         <v>214</v>
@@ -5283,7 +5286,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="11"/>
@@ -5313,7 +5316,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>
@@ -5340,7 +5343,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -5367,7 +5370,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -5394,7 +5397,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -5419,7 +5422,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="D16" s="11"/>
@@ -5443,7 +5446,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -5464,7 +5467,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -5485,7 +5488,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -5506,7 +5509,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A20" s="10"/>
       <c r="B20" s="14" t="s">
         <v>6</v>
@@ -5544,7 +5547,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -5565,7 +5568,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -5586,7 +5589,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -5607,7 +5610,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="14" t="s">
@@ -5638,7 +5641,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -5659,7 +5662,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -5680,7 +5683,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A27" s="10"/>
       <c r="B27" s="14" t="s">
         <v>8</v>
@@ -5711,7 +5714,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -5732,7 +5735,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -5753,7 +5756,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -5774,7 +5777,7 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -5795,7 +5798,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A32" s="9"/>
       <c r="B32" s="14" t="s">
         <v>113</v>
@@ -5821,7 +5824,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A33" s="9"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -5840,7 +5843,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B60" s="14" t="s">
         <v>3</v>
       </c>
@@ -5848,12 +5851,12 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B96">
         <v>3000</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B97">
         <v>2500</v>
       </c>
@@ -5861,7 +5864,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B98">
         <v>2500</v>
       </c>
@@ -5869,17 +5872,17 @@
         <v>600</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B99">
         <v>800</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B100">
         <v>700</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B104">
         <f>SUM(B96:B100)</f>
         <v>9500</v>
@@ -5889,47 +5892,47 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.5">
       <c r="P105">
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.5">
       <c r="P106" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.5">
       <c r="P107" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.5">
       <c r="P108" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.5">
       <c r="P109" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.5">
       <c r="P110" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.5">
       <c r="P111" s="11">
         <v>3.99</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.5">
       <c r="P112" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.5">
       <c r="E113">
         <v>1400</v>
       </c>
@@ -5937,7 +5940,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.5">
       <c r="E114">
         <v>1300</v>
       </c>
@@ -5945,24 +5948,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:16" x14ac:dyDescent="0.5">
       <c r="E115">
         <v>950</v>
       </c>
       <c r="P115" s="11"/>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:16" x14ac:dyDescent="0.5">
       <c r="P116" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:16" x14ac:dyDescent="0.5">
       <c r="E119">
         <f>SUM(E113:E117)</f>
         <v>3650</v>
       </c>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:16" x14ac:dyDescent="0.5">
       <c r="P123">
         <f>SUM(P103:P120)</f>
         <v>516.99</v>
@@ -5977,11 +5980,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A004D6B5-EDB4-4F00-8178-BEA92D2455E4}">
   <dimension ref="A1:T123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.25" customWidth="1"/>
@@ -5991,7 +5994,7 @@
     <col min="18" max="18" width="3.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -6012,7 +6015,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -6033,7 +6036,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -6058,7 +6061,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -6096,7 +6099,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -6117,7 +6120,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -6150,7 +6153,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A7" s="10"/>
       <c r="B7" s="9" t="s">
         <v>193</v>
@@ -6183,7 +6186,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A8" s="10"/>
       <c r="B8" s="9" t="s">
         <v>202</v>
@@ -6219,7 +6222,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A9" s="10"/>
       <c r="B9" s="9" t="s">
         <v>146</v>
@@ -6255,7 +6258,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A10" s="10"/>
       <c r="B10" s="9" t="s">
         <v>214</v>
@@ -6289,7 +6292,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="11"/>
@@ -6319,7 +6322,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>
@@ -6346,7 +6349,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -6373,7 +6376,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -6400,7 +6403,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -6425,7 +6428,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="D16" s="11"/>
@@ -6449,7 +6452,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -6474,7 +6477,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -6495,7 +6498,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -6516,7 +6519,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A20" s="10"/>
       <c r="B20" s="14" t="s">
         <v>6</v>
@@ -6554,7 +6557,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -6575,7 +6578,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -6596,7 +6599,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -6617,7 +6620,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="14" t="s">
@@ -6648,7 +6651,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -6669,7 +6672,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -6690,7 +6693,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A27" s="10"/>
       <c r="B27" s="14" t="s">
         <v>8</v>
@@ -6721,7 +6724,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -6742,7 +6745,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -6763,7 +6766,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -6784,7 +6787,7 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -6805,7 +6808,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A32" s="9"/>
       <c r="B32" s="14" t="s">
         <v>113</v>
@@ -6831,7 +6834,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A33" s="9"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -6850,7 +6853,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B60" s="14" t="s">
         <v>3</v>
       </c>
@@ -6858,12 +6861,12 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B96">
         <v>3000</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B97">
         <v>2500</v>
       </c>
@@ -6871,7 +6874,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B98">
         <v>2500</v>
       </c>
@@ -6879,17 +6882,17 @@
         <v>600</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B99">
         <v>800</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B100">
         <v>700</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B104">
         <f>SUM(B96:B100)</f>
         <v>9500</v>
@@ -6899,47 +6902,47 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.5">
       <c r="P105">
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.5">
       <c r="P106" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.5">
       <c r="P107" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.5">
       <c r="P108" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.5">
       <c r="P109" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.5">
       <c r="P110" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.5">
       <c r="P111" s="11">
         <v>3.99</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.5">
       <c r="P112" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.5">
       <c r="E113">
         <v>1400</v>
       </c>
@@ -6947,7 +6950,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.5">
       <c r="E114">
         <v>1300</v>
       </c>
@@ -6955,24 +6958,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:16" x14ac:dyDescent="0.5">
       <c r="E115">
         <v>950</v>
       </c>
       <c r="P115" s="11"/>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:16" x14ac:dyDescent="0.5">
       <c r="P116" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:16" x14ac:dyDescent="0.5">
       <c r="E119">
         <f>SUM(E113:E117)</f>
         <v>3650</v>
       </c>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:16" x14ac:dyDescent="0.5">
       <c r="P123">
         <f>SUM(P103:P120)</f>
         <v>516.99</v>
@@ -6987,16 +6990,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B974066F-70AB-4CE0-9413-18C0CA619219}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>204</v>
       </c>
@@ -7010,7 +7013,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>8000</v>
       </c>
@@ -7030,7 +7033,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
       <c r="G3" t="s">
         <v>219</v>
       </c>
@@ -7044,7 +7047,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
       <c r="G4" t="s">
         <v>220</v>
       </c>
@@ -7061,7 +7064,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
       <c r="G5" t="s">
         <v>221</v>
       </c>
@@ -7078,7 +7081,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -7099,7 +7102,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
       <c r="G7" t="s">
         <v>223</v>
       </c>
@@ -7113,7 +7116,13 @@
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="G8" t="s">
+        <v>230</v>
+      </c>
+      <c r="H8">
+        <v>4000</v>
+      </c>
       <c r="M8">
         <v>1409.25</v>
       </c>
@@ -7121,23 +7130,23 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.5">
       <c r="I10" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:15" x14ac:dyDescent="0.5">
       <c r="O17" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="19" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:15" x14ac:dyDescent="0.5">
       <c r="F19" t="s">
         <v>6</v>
       </c>
       <c r="H19">
         <f>SUM(H3:H17)</f>
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="L19">
         <f>SUM(L4:L16)</f>
@@ -7148,7 +7157,7 @@
         <v>6176.22</v>
       </c>
     </row>
-    <row r="23" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:15" x14ac:dyDescent="0.5">
       <c r="L23" t="s">
         <v>164</v>
       </c>
@@ -7168,7 +7177,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7178,18 +7187,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9C44F7-AFBE-4C6B-AF7F-6A7B39EB63FD}">
   <dimension ref="A2:P29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.25" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.5">
       <c r="L2" t="s">
         <v>181</v>
       </c>
@@ -7197,7 +7206,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>162</v>
       </c>
@@ -7230,7 +7239,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.5">
       <c r="L5" t="s">
         <v>182</v>
       </c>
@@ -7244,7 +7253,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>184</v>
       </c>
@@ -7258,7 +7267,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>163</v>
       </c>
@@ -7278,7 +7287,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>183</v>
       </c>
@@ -7292,7 +7301,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>164</v>
       </c>
@@ -7307,7 +7316,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.5">
       <c r="L10" t="s">
         <v>192</v>
       </c>
@@ -7315,12 +7324,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.5">
       <c r="G13" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>166</v>
       </c>
@@ -7329,7 +7338,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -7357,7 +7366,7 @@
         <v>13978</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>163</v>
       </c>
@@ -7371,7 +7380,7 @@
         <v>3820</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>164</v>
       </c>
@@ -7394,12 +7403,12 @@
         <v>6022</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.5">
       <c r="G28" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>166</v>
       </c>
@@ -7421,7 +7430,7 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
@@ -7429,12 +7438,12 @@
     <col min="7" max="7" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A3" s="16" t="s">
         <v>155</v>
       </c>
@@ -7445,7 +7454,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>1.5</v>
       </c>
@@ -7456,7 +7465,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>1.8</v>
       </c>
@@ -7467,7 +7476,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>1.5</v>
       </c>
@@ -7478,7 +7487,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>159</v>
       </c>
@@ -7486,7 +7495,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
       <c r="G11" t="s">
         <v>186</v>
       </c>
@@ -7494,7 +7503,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>160</v>
       </c>
@@ -7509,7 +7518,7 @@
         <v>336000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B13" t="s">
         <v>161</v>
       </c>
@@ -7523,22 +7532,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60023A54-4F93-427E-93E6-1AE8B5C3C1AA}">
   <dimension ref="B3:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="AH1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="4" max="4" width="18.25" customWidth="1"/>
     <col min="6" max="6" width="20.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.5">
       <c r="F3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B4" t="s">
         <v>168</v>
       </c>
@@ -7555,7 +7564,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B5" t="s">
         <v>169</v>
       </c>
@@ -7572,7 +7581,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B6" t="s">
         <v>170</v>
       </c>
@@ -7589,7 +7598,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B7" t="s">
         <v>171</v>
       </c>
@@ -7603,7 +7612,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B8" t="s">
         <v>145</v>
       </c>
@@ -7611,7 +7620,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B9" t="s">
         <v>172</v>
       </c>
@@ -7619,7 +7628,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B10" t="s">
         <v>174</v>
       </c>
@@ -7627,12 +7636,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B11" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B19" t="s">
         <v>175</v>
       </c>
@@ -7658,19 +7667,19 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -7678,7 +7687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -7686,7 +7695,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -7695,10 +7704,10 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -7712,7 +7721,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -7726,7 +7735,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -7740,7 +7749,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -7754,7 +7763,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -7768,7 +7777,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -7782,7 +7791,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -7796,7 +7805,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -7810,7 +7819,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -7824,7 +7833,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -7833,7 +7842,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
@@ -7842,7 +7851,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -7851,7 +7860,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -7859,13 +7868,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A21" s="1"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -7878,7 +7887,7 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.5">
       <c r="B27" t="s">
         <v>15</v>
       </c>
@@ -7887,7 +7896,7 @@
         <v>4156.41</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -7912,14 +7921,14 @@
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -7927,7 +7936,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -7935,7 +7944,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -7944,10 +7953,10 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A4" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -7965,7 +7974,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -7974,7 +7983,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A8" s="1"/>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -7983,7 +7992,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>4</v>
@@ -7992,7 +8001,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>14</v>
@@ -8001,7 +8010,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>2</v>
@@ -8010,7 +8019,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>16</v>
@@ -8019,7 +8028,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>5</v>
@@ -8028,7 +8037,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>21</v>
@@ -8037,7 +8046,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>37</v>
@@ -8046,7 +8055,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>36</v>
@@ -8055,7 +8064,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>38</v>
@@ -8064,7 +8073,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>39</v>
@@ -8073,7 +8082,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>40</v>
@@ -8082,7 +8091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>42</v>
@@ -8091,7 +8100,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A21" s="1"/>
       <c r="D21" s="1" t="s">
         <v>43</v>
@@ -8100,7 +8109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>43</v>
@@ -8109,7 +8118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A23" s="1"/>
       <c r="D23" s="1" t="s">
         <v>44</v>
@@ -8118,7 +8127,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D24" s="1" t="s">
         <v>45</v>
       </c>
@@ -8126,7 +8135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="D25" s="1" t="s">
         <v>37</v>
       </c>
@@ -8134,7 +8143,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="D26" s="1" t="s">
         <v>16</v>
       </c>
@@ -8142,7 +8151,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D27" s="1" t="s">
         <v>36</v>
       </c>
@@ -8150,7 +8159,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D28" s="1" t="s">
         <v>46</v>
       </c>
@@ -8158,7 +8167,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D29" s="1" t="s">
         <v>47</v>
       </c>
@@ -8166,7 +8175,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D30" s="1" t="s">
         <v>27</v>
       </c>
@@ -8174,7 +8183,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D31" s="1" t="s">
         <v>27</v>
       </c>
@@ -8182,7 +8191,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D32" s="1" t="s">
         <v>54</v>
       </c>
@@ -8190,7 +8199,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D33" s="1" t="s">
         <v>50</v>
       </c>
@@ -8198,16 +8207,16 @@
         <v>387</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D36" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A38" s="2" t="s">
         <v>6</v>
       </c>
@@ -8220,7 +8229,7 @@
         <v>3854</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B42" s="2" t="s">
         <v>15</v>
       </c>
@@ -8229,7 +8238,7 @@
         <v>3854</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A45" s="2" t="s">
         <v>8</v>
       </c>
@@ -8238,7 +8247,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A49" s="2" t="s">
         <v>3</v>
       </c>
@@ -8258,7 +8267,7 @@
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8272,14 +8281,14 @@
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -8287,7 +8296,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -8295,7 +8304,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -8304,10 +8313,10 @@
         <v>3946</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -8318,7 +8327,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -8327,7 +8336,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" s="1"/>
       <c r="D8" s="1" t="s">
         <v>21</v>
@@ -8336,7 +8345,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -8345,7 +8354,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>4</v>
@@ -8354,7 +8363,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>5</v>
@@ -8363,7 +8372,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>2</v>
@@ -8372,7 +8381,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -8381,7 +8390,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>39</v>
@@ -8390,7 +8399,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>40</v>
@@ -8399,7 +8408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>48</v>
@@ -8408,7 +8417,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>49</v>
@@ -8417,7 +8426,7 @@
         <v>15.99</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>49</v>
@@ -8426,7 +8435,7 @@
         <v>15.99</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>49</v>
@@ -8435,7 +8444,7 @@
         <v>3.99</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>51</v>
@@ -8444,7 +8453,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A21" s="1"/>
       <c r="D21" s="1" t="s">
         <v>57</v>
@@ -8453,7 +8462,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>52</v>
@@ -8462,7 +8471,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A23" s="1"/>
       <c r="D23" s="1" t="s">
         <v>53</v>
@@ -8471,7 +8480,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A24" s="1"/>
       <c r="D24" s="1" t="s">
         <v>55</v>
@@ -8480,7 +8489,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D25" s="1" t="s">
         <v>56</v>
       </c>
@@ -8488,7 +8497,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D26" s="1" t="s">
         <v>58</v>
       </c>
@@ -8496,7 +8505,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D27" s="1" t="s">
         <v>59</v>
       </c>
@@ -8504,7 +8513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D28" s="1" t="s">
         <v>60</v>
       </c>
@@ -8512,7 +8521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D29" s="1" t="s">
         <v>61</v>
       </c>
@@ -8520,7 +8529,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D30" s="1" t="s">
         <v>62</v>
       </c>
@@ -8528,7 +8537,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D31" s="1" t="s">
         <v>27</v>
       </c>
@@ -8536,7 +8545,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D32" s="1" t="s">
         <v>14</v>
       </c>
@@ -8544,22 +8553,22 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D37" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A39" s="2" t="s">
         <v>6</v>
       </c>
@@ -8572,7 +8581,7 @@
         <v>3898.9699999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B43" s="2" t="s">
         <v>15</v>
       </c>
@@ -8581,7 +8590,7 @@
         <v>3898.9699999999993</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A46" s="2" t="s">
         <v>8</v>
       </c>
@@ -8590,7 +8599,7 @@
         <v>47.030000000000655</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -8611,19 +8620,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -8631,7 +8640,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -8640,10 +8649,10 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -8654,7 +8663,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -8663,7 +8672,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" s="1"/>
       <c r="B8">
         <v>50</v>
@@ -8675,7 +8684,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -8684,7 +8693,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>4</v>
@@ -8693,7 +8702,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>5</v>
@@ -8702,7 +8711,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>2</v>
@@ -8711,7 +8720,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -8720,7 +8729,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>39</v>
@@ -8729,7 +8738,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>40</v>
@@ -8738,7 +8747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>48</v>
@@ -8747,7 +8756,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>49</v>
@@ -8756,7 +8765,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>49</v>
@@ -8765,7 +8774,7 @@
         <v>15.99</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>49</v>
@@ -8774,7 +8783,7 @@
         <v>3.99</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>51</v>
@@ -8783,7 +8792,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A21" s="1"/>
       <c r="D21" s="1" t="s">
         <v>14</v>
@@ -8792,7 +8801,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>52</v>
@@ -8801,7 +8810,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A23" s="1"/>
       <c r="D23" s="1" t="s">
         <v>63</v>
@@ -8810,7 +8819,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A24" s="1"/>
       <c r="D24" s="1" t="s">
         <v>14</v>
@@ -8819,7 +8828,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D25" s="1" t="s">
         <v>64</v>
       </c>
@@ -8827,7 +8836,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D26" s="1" t="s">
         <v>65</v>
       </c>
@@ -8835,40 +8844,40 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
       <c r="D37" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A39" s="2" t="s">
         <v>6</v>
       </c>
@@ -8881,7 +8890,7 @@
         <v>3000.9799999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B43" s="2" t="s">
         <v>15</v>
       </c>
@@ -8890,7 +8899,7 @@
         <v>3050.9799999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A46" s="2" t="s">
         <v>8</v>
       </c>
@@ -8899,7 +8908,7 @@
         <v>-0.97999999999956344</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -8920,7 +8929,7 @@
       <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
@@ -8930,7 +8939,7 @@
     <col min="16" max="16" width="15.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -8938,7 +8947,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -8946,7 +8955,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -8955,7 +8964,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A4" s="1"/>
       <c r="D4" s="5" t="s">
         <v>78</v>
@@ -8964,7 +8973,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>75</v>
@@ -8993,7 +9002,7 @@
       </c>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -9015,7 +9024,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A8" s="1"/>
       <c r="B8">
         <v>25</v>
@@ -9040,7 +9049,7 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A9" s="1"/>
       <c r="B9">
         <v>26</v>
@@ -9060,7 +9069,7 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
       <c r="B10">
         <v>160</v>
@@ -9085,7 +9094,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>5</v>
@@ -9106,7 +9115,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>2</v>
@@ -9121,7 +9130,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -9133,7 +9142,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>39</v>
@@ -9143,7 +9152,7 @@
       </c>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>40</v>
@@ -9153,7 +9162,7 @@
       </c>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>48</v>
@@ -9163,7 +9172,7 @@
       </c>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>49</v>
@@ -9173,7 +9182,7 @@
       </c>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>49</v>
@@ -9186,7 +9195,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>49</v>
@@ -9199,7 +9208,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>51</v>
@@ -9212,7 +9221,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A21" s="1"/>
       <c r="D21" s="1" t="s">
         <v>14</v>
@@ -9225,7 +9234,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>81</v>
@@ -9237,7 +9246,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A23" s="1"/>
       <c r="D23" s="1" t="s">
         <v>82</v>
@@ -9246,7 +9255,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A24" s="1"/>
       <c r="D24" s="1" t="s">
         <v>84</v>
@@ -9259,10 +9268,10 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A25" s="1"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.5">
       <c r="D27" s="1"/>
       <c r="Q27" t="s">
         <v>83</v>
@@ -9272,25 +9281,25 @@
         <v>780.98999999999978</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.5">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.5">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.5">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.5">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.5">
       <c r="N32">
         <f>SUM(N7:N29)</f>
         <v>272</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
@@ -9307,7 +9316,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B37" s="2" t="s">
         <v>15</v>
       </c>
@@ -9316,7 +9325,7 @@
         <v>3066.99</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
@@ -9325,7 +9334,7 @@
         <v>233.01000000000022</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A44" s="2" t="s">
         <v>3</v>
       </c>
@@ -9346,7 +9355,7 @@
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="10.75" style="1"/>
     <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
@@ -9359,7 +9368,7 @@
     <col min="16" max="16" width="15.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -9380,7 +9389,7 @@
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -9401,7 +9410,7 @@
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A3" s="8"/>
       <c r="B3" s="1">
         <v>3030</v>
@@ -9412,7 +9421,7 @@
       </c>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A4" s="8"/>
       <c r="B4" s="1">
         <v>600</v>
@@ -9420,7 +9429,7 @@
       <c r="J4" s="7"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A5" s="8"/>
       <c r="B5" s="1">
         <v>300</v>
@@ -9428,7 +9437,7 @@
       <c r="J5" s="7"/>
       <c r="S5" s="7"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A6" s="8"/>
       <c r="B6" s="1">
         <v>100</v>
@@ -9436,19 +9445,19 @@
       <c r="J6" s="7"/>
       <c r="S6" s="7"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A7" s="8"/>
       <c r="B7" s="1"/>
       <c r="J7" s="7"/>
       <c r="S7" s="7"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A8" s="8"/>
       <c r="B8" s="1"/>
       <c r="J8" s="7"/>
       <c r="S8" s="7"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A9" s="8"/>
       <c r="B9" s="1"/>
       <c r="E9" s="5" t="s">
@@ -9473,13 +9482,13 @@
       </c>
       <c r="S9" s="7"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A10" s="8"/>
       <c r="B10" s="1"/>
       <c r="J10" s="7"/>
       <c r="S10" s="7"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A11" s="8"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
@@ -9511,7 +9520,7 @@
       <c r="Q11" s="2"/>
       <c r="S11" s="7"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A12" s="8"/>
       <c r="B12" s="1"/>
       <c r="E12" s="1" t="s">
@@ -9541,7 +9550,7 @@
       </c>
       <c r="S12" s="7"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A13" s="8"/>
       <c r="B13" s="1" t="s">
         <v>91</v>
@@ -9576,7 +9585,7 @@
       </c>
       <c r="S13" s="7"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A14" s="8"/>
       <c r="B14" s="1" t="s">
         <v>50</v>
@@ -9611,7 +9620,7 @@
       </c>
       <c r="S14" s="7"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A15" s="8"/>
       <c r="B15" s="1" t="s">
         <v>11</v>
@@ -9646,7 +9655,7 @@
       </c>
       <c r="S15" s="7"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A16" s="8"/>
       <c r="B16" s="1" t="s">
         <v>82</v>
@@ -9681,7 +9690,7 @@
       </c>
       <c r="S16" s="7"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A17" s="8"/>
       <c r="B17" s="1" t="s">
         <v>84</v>
@@ -9716,7 +9725,7 @@
       </c>
       <c r="S17" s="7"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A18" s="8"/>
       <c r="B18" s="1" t="s">
         <v>81</v>
@@ -9748,7 +9757,7 @@
       </c>
       <c r="S18" s="7"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A19" s="8"/>
       <c r="B19" s="1"/>
       <c r="E19" s="1" t="s">
@@ -9773,7 +9782,7 @@
       </c>
       <c r="S19" s="7"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A20" s="8"/>
       <c r="B20" s="1"/>
       <c r="E20" s="1" t="s">
@@ -9798,7 +9807,7 @@
       </c>
       <c r="S20" s="7"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A21" s="8"/>
       <c r="B21" s="1"/>
       <c r="E21" s="1" t="s">
@@ -9817,7 +9826,7 @@
       <c r="M21" s="1"/>
       <c r="S21" s="7"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A22" s="8"/>
       <c r="B22" s="1"/>
       <c r="E22" s="1" t="s">
@@ -9836,7 +9845,7 @@
       <c r="M22" s="1"/>
       <c r="S22" s="7"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A23" s="8"/>
       <c r="B23" s="1"/>
       <c r="E23" s="1" t="s">
@@ -9850,7 +9859,7 @@
       <c r="M23" s="1"/>
       <c r="S23" s="7"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A24" s="8"/>
       <c r="B24" s="1"/>
       <c r="E24" s="1" t="s">
@@ -9869,7 +9878,7 @@
       <c r="M24" s="1"/>
       <c r="S24" s="7"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A25" s="8"/>
       <c r="B25" s="1"/>
       <c r="E25" s="1" t="s">
@@ -9888,7 +9897,7 @@
       <c r="M25" s="1"/>
       <c r="S25" s="7"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A26" s="8"/>
       <c r="B26" s="1"/>
       <c r="E26" s="1" t="s">
@@ -9907,7 +9916,7 @@
       <c r="M26" s="1"/>
       <c r="S26" s="7"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A27" s="8"/>
       <c r="B27" s="1"/>
       <c r="E27" s="1" t="s">
@@ -9925,7 +9934,7 @@
       <c r="J27" s="7"/>
       <c r="S27" s="7"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A28" s="8"/>
       <c r="B28" s="1"/>
       <c r="E28" s="1"/>
@@ -9938,7 +9947,7 @@
       <c r="J28" s="7"/>
       <c r="S28" s="7"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A29" s="8"/>
       <c r="B29" s="1"/>
       <c r="E29" s="1"/>
@@ -9951,7 +9960,7 @@
       <c r="J29" s="7"/>
       <c r="S29" s="7"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A30" s="8"/>
       <c r="B30" s="1"/>
       <c r="H30" s="1" t="s">
@@ -9963,7 +9972,7 @@
       <c r="J30" s="7"/>
       <c r="S30" s="7"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A31" s="8"/>
       <c r="H31" s="1" t="s">
         <v>110</v>
@@ -9974,7 +9983,7 @@
       <c r="J31" s="7"/>
       <c r="S31" s="7"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A32" s="8"/>
       <c r="E32" s="1"/>
       <c r="H32" s="1" t="s">
@@ -9986,7 +9995,7 @@
       <c r="J32" s="7"/>
       <c r="S32" s="7"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A33" s="8"/>
       <c r="E33" s="1"/>
       <c r="H33" s="1" t="s">
@@ -9998,30 +10007,30 @@
       <c r="J33" s="7"/>
       <c r="S33" s="7"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A34" s="8"/>
       <c r="E34" s="1"/>
       <c r="J34" s="7"/>
       <c r="S34" s="7"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A35" s="8"/>
       <c r="E35" s="1"/>
       <c r="J35" s="7"/>
       <c r="S35" s="7"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A36" s="8"/>
       <c r="E36" s="1"/>
       <c r="J36" s="7"/>
       <c r="S36" s="7"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A37" s="8"/>
       <c r="J37" s="7"/>
       <c r="S37" s="7"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A38" s="8"/>
       <c r="B38" s="2" t="s">
         <v>6</v>
@@ -10049,22 +10058,22 @@
       </c>
       <c r="S38" s="7"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A39" s="8"/>
       <c r="J39" s="7"/>
       <c r="S39" s="7"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A40" s="8"/>
       <c r="J40" s="7"/>
       <c r="S40" s="7"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A41" s="8"/>
       <c r="J41" s="7"/>
       <c r="S41" s="7"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A42" s="8"/>
       <c r="C42" s="2" t="s">
         <v>15</v>
@@ -10083,17 +10092,17 @@
       </c>
       <c r="S42" s="7"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A43" s="8"/>
       <c r="J43" s="7"/>
       <c r="S43" s="7"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A44" s="8"/>
       <c r="J44" s="7"/>
       <c r="S44" s="7"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A45" s="8"/>
       <c r="B45" s="2" t="s">
         <v>8</v>
@@ -10109,12 +10118,12 @@
       </c>
       <c r="S45" s="7"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A46" s="8"/>
       <c r="J46" s="7"/>
       <c r="S46" s="7"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -10135,7 +10144,7 @@
       <c r="R47" s="7"/>
       <c r="S47" s="7"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -10156,10 +10165,10 @@
       <c r="R48" s="7"/>
       <c r="S48" s="7"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A49"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B51" s="2" t="s">
         <v>3</v>
       </c>
@@ -10170,7 +10179,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M52" t="s">
         <v>106</v>
       </c>
@@ -10178,12 +10187,12 @@
         <v>24.99</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M53" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M54" t="s">
         <v>108</v>
       </c>
@@ -10191,7 +10200,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.5">
       <c r="N61">
         <f>SUM(N51:N57)</f>
         <v>74.989999999999995</v>
@@ -10210,7 +10219,7 @@
       <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.25" customWidth="1"/>
@@ -10219,7 +10228,7 @@
     <col min="18" max="18" width="3.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -10240,7 +10249,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -10261,7 +10270,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -10282,7 +10291,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -10315,7 +10324,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -10336,7 +10345,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -10369,7 +10378,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A7" s="10"/>
       <c r="B7" s="9"/>
       <c r="C7" s="11"/>
@@ -10404,7 +10413,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A8" s="10"/>
       <c r="B8" s="9"/>
       <c r="C8" s="11"/>
@@ -10441,7 +10450,7 @@
       <c r="R8" s="11"/>
       <c r="S8" s="12"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A9" s="10"/>
       <c r="B9" s="9"/>
       <c r="C9" s="11"/>
@@ -10478,7 +10487,7 @@
       <c r="R9" s="11"/>
       <c r="S9" s="12"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="C10" s="11"/>
@@ -10515,7 +10524,7 @@
       <c r="R10" s="11"/>
       <c r="S10" s="12"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="11"/>
@@ -10550,7 +10559,7 @@
       <c r="R11" s="11"/>
       <c r="S11" s="12"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>
@@ -10587,7 +10596,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -10620,7 +10629,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -10647,7 +10656,7 @@
       <c r="R14" s="11"/>
       <c r="S14" s="12"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -10676,7 +10685,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="11"/>
@@ -10705,7 +10714,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -10734,7 +10743,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A18" s="10"/>
       <c r="B18" s="9"/>
       <c r="C18" s="11"/>
@@ -10763,7 +10772,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A19" s="10"/>
       <c r="B19" s="9"/>
       <c r="C19" s="11"/>
@@ -10792,7 +10801,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A20" s="10"/>
       <c r="B20" s="9"/>
       <c r="C20" s="11"/>
@@ -10821,7 +10830,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A21" s="10"/>
       <c r="B21" s="9"/>
       <c r="C21" s="11"/>
@@ -10848,7 +10857,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A22" s="10"/>
       <c r="B22" s="9"/>
       <c r="C22" s="11"/>
@@ -10873,7 +10882,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A23" s="10"/>
       <c r="B23" s="9"/>
       <c r="C23" s="11"/>
@@ -10898,7 +10907,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A24" s="10"/>
       <c r="B24" s="9"/>
       <c r="C24" s="11"/>
@@ -10919,7 +10928,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A25" s="10"/>
       <c r="B25" s="9"/>
       <c r="C25" s="11"/>
@@ -10940,7 +10949,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -10961,7 +10970,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -10982,7 +10991,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -11003,7 +11012,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -11024,7 +11033,7 @@
       <c r="R29" s="11"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -11045,7 +11054,7 @@
       <c r="R30" s="11"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -11066,7 +11075,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="12"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -11087,7 +11096,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="12"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A33" s="10"/>
       <c r="B33" s="14" t="s">
         <v>6</v>
@@ -11125,7 +11134,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="12"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -11146,7 +11155,7 @@
       <c r="R34" s="11"/>
       <c r="S34" s="12"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -11167,7 +11176,7 @@
       <c r="R35" s="11"/>
       <c r="S35" s="12"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -11188,7 +11197,7 @@
       <c r="R36" s="11"/>
       <c r="S36" s="12"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="14" t="s">
@@ -11219,7 +11228,7 @@
       <c r="R37" s="11"/>
       <c r="S37" s="12"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -11240,7 +11249,7 @@
       <c r="R38" s="11"/>
       <c r="S38" s="12"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -11261,7 +11270,7 @@
       <c r="R39" s="11"/>
       <c r="S39" s="12"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A40" s="10"/>
       <c r="B40" s="14" t="s">
         <v>8</v>
@@ -11292,7 +11301,7 @@
       <c r="R40" s="11"/>
       <c r="S40" s="12"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -11313,7 +11322,7 @@
       <c r="R41" s="11"/>
       <c r="S41" s="12"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -11334,7 +11343,7 @@
       <c r="R42" s="12"/>
       <c r="S42" s="12"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -11355,7 +11364,7 @@
       <c r="R43" s="12"/>
       <c r="S43" s="12"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -11376,7 +11385,7 @@
       <c r="R44" s="11"/>
       <c r="S44" s="11"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A45" s="9"/>
       <c r="B45" s="14" t="s">
         <v>113</v>
@@ -11402,7 +11411,7 @@
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A46" s="9"/>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
@@ -11421,7 +11430,7 @@
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.5">
       <c r="N47" t="s">
         <v>122</v>
       </c>
@@ -11429,7 +11438,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.5">
       <c r="N48" t="s">
         <v>125</v>
       </c>
@@ -11437,7 +11446,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="14:16" x14ac:dyDescent="0.5">
       <c r="N49" t="s">
         <v>122</v>
       </c>
@@ -11445,7 +11454,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="14:16" x14ac:dyDescent="0.5">
       <c r="N50" t="s">
         <v>123</v>
       </c>
@@ -11453,7 +11462,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="14:16" x14ac:dyDescent="0.5">
       <c r="N51" t="s">
         <v>126</v>
       </c>
@@ -11464,7 +11473,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="14:16" x14ac:dyDescent="0.5">
       <c r="N52" t="s">
         <v>127</v>
       </c>
@@ -11472,12 +11481,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="14:16" x14ac:dyDescent="0.5">
       <c r="N55" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="58" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="14:16" x14ac:dyDescent="0.5">
       <c r="N58" t="s">
         <v>6</v>
       </c>
@@ -11486,7 +11495,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B73" s="14" t="s">
         <v>3</v>
       </c>

--- a/Budget.xlsx
+++ b/Budget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3c6177e7d3ca184/Documents/git-projet/Document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{B94E59A6-9E4B-4A38-91D1-279266D15B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4297C59-B6A2-464C-9E7B-2C262FF7E58B}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{B94E59A6-9E4B-4A38-91D1-279266D15B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{815D6F2F-017A-452A-AFDA-6F666C7CB8CA}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" firstSheet="11" activeTab="14" xr2:uid="{27B7E826-E620-B34C-81E1-46A3DBC74E62}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" firstSheet="11" activeTab="13" xr2:uid="{27B7E826-E620-B34C-81E1-46A3DBC74E62}"/>
   </bookViews>
   <sheets>
     <sheet name="Fevrier" sheetId="3" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="232">
   <si>
     <t>Loyer</t>
   </si>
@@ -745,6 +745,9 @@
   </si>
   <si>
     <t>octobre</t>
+  </si>
+  <si>
+    <t>tontine</t>
   </si>
 </sst>
 </file>
@@ -886,6 +889,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5980,8 +5987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A004D6B5-EDB4-4F00-8178-BEA92D2455E4}">
   <dimension ref="A1:T123"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -6294,8 +6301,12 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A11" s="10"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="11"/>
+      <c r="B11" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" s="11">
+        <v>250</v>
+      </c>
       <c r="D11" s="11"/>
       <c r="E11" s="9" t="s">
         <v>2</v>
@@ -6526,7 +6537,7 @@
       </c>
       <c r="C20" s="11">
         <f>SUM(C7:C18)</f>
-        <v>2300</v>
+        <v>2550</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
@@ -6628,7 +6639,7 @@
       </c>
       <c r="D24" s="11">
         <f>C20+F20+I20</f>
-        <v>4902</v>
+        <v>5152</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
@@ -6700,7 +6711,7 @@
       </c>
       <c r="C27" s="11">
         <f>G4-D24</f>
-        <v>-1802</v>
+        <v>-2052</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
@@ -6822,7 +6833,7 @@
       <c r="I32" s="11"/>
       <c r="J32" s="11">
         <f>C27+L27</f>
-        <v>-1298</v>
+        <v>-1548</v>
       </c>
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
@@ -6990,7 +7001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B974066F-70AB-4CE0-9413-18C0CA619219}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>

--- a/Budget.xlsx
+++ b/Budget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3c6177e7d3ca184/Documents/git-projet/Document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{B94E59A6-9E4B-4A38-91D1-279266D15B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{815D6F2F-017A-452A-AFDA-6F666C7CB8CA}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{B94E59A6-9E4B-4A38-91D1-279266D15B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1B5D84D-8DFE-42F2-8BB6-A2ABAE050DB1}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" firstSheet="11" activeTab="13" xr2:uid="{27B7E826-E620-B34C-81E1-46A3DBC74E62}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" firstSheet="11" activeTab="14" xr2:uid="{27B7E826-E620-B34C-81E1-46A3DBC74E62}"/>
   </bookViews>
   <sheets>
     <sheet name="Fevrier" sheetId="3" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="233">
   <si>
     <t>Loyer</t>
   </si>
@@ -748,6 +748,9 @@
   </si>
   <si>
     <t>tontine</t>
+  </si>
+  <si>
+    <t>Encaissé</t>
   </si>
 </sst>
 </file>
@@ -892,6 +895,10 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -5987,7 +5994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A004D6B5-EDB4-4F00-8178-BEA92D2455E4}">
   <dimension ref="A1:T123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -7001,8 +7008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B974066F-70AB-4CE0-9413-18C0CA619219}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -7026,13 +7033,13 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A2">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="B2">
         <v>14700</v>
       </c>
-      <c r="C2" t="s">
-        <v>217</v>
+      <c r="C2">
+        <v>3000</v>
       </c>
       <c r="D2">
         <v>350</v>
@@ -7098,7 +7105,7 @@
       </c>
       <c r="B6">
         <f>SUM(A2:G2)</f>
-        <v>23050</v>
+        <v>28050</v>
       </c>
       <c r="G6" t="s">
         <v>222</v>
@@ -7142,16 +7149,28 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="C10">
+        <v>500</v>
+      </c>
       <c r="I10" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="6:15" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.5">
       <c r="O17" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="19" spans="6:15" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>232</v>
+      </c>
+      <c r="B18">
+        <f>A10+B10+C10+D10</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.5">
       <c r="F19" t="s">
         <v>6</v>
       </c>
@@ -7168,7 +7187,16 @@
         <v>6176.22</v>
       </c>
     </row>
-    <row r="23" spans="6:15" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20">
+        <f>B6-B18</f>
+        <v>27550</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.5">
       <c r="L23" t="s">
         <v>164</v>
       </c>

--- a/Budget.xlsx
+++ b/Budget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3c6177e7d3ca184/Documents/git-projet/Document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{B94E59A6-9E4B-4A38-91D1-279266D15B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1B5D84D-8DFE-42F2-8BB6-A2ABAE050DB1}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{B94E59A6-9E4B-4A38-91D1-279266D15B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EE116A2-250F-45B3-A30E-D0BE6B98FACD}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" firstSheet="11" activeTab="14" xr2:uid="{27B7E826-E620-B34C-81E1-46A3DBC74E62}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" firstSheet="11" activeTab="13" xr2:uid="{27B7E826-E620-B34C-81E1-46A3DBC74E62}"/>
   </bookViews>
   <sheets>
     <sheet name="Fevrier" sheetId="3" r:id="rId1"/>
@@ -899,6 +899,10 @@
 </file>
 
 <file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -5994,8 +5998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A004D6B5-EDB4-4F00-8178-BEA92D2455E4}">
   <dimension ref="A1:T123"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -6277,7 +6281,9 @@
       <c r="B10" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C10" s="11"/>
+      <c r="C10" s="11">
+        <v>150</v>
+      </c>
       <c r="D10" s="11"/>
       <c r="E10" s="9" t="s">
         <v>5</v>
@@ -6312,7 +6318,7 @@
         <v>231</v>
       </c>
       <c r="C11" s="11">
-        <v>250</v>
+        <v>1250</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="9" t="s">
@@ -6343,7 +6349,9 @@
     <row r="12" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="11"/>
+      <c r="C12" s="11">
+        <v>-2000</v>
+      </c>
       <c r="D12" s="11"/>
       <c r="E12" s="9" t="s">
         <v>16</v>
@@ -6544,7 +6552,7 @@
       </c>
       <c r="C20" s="11">
         <f>SUM(C7:C18)</f>
-        <v>2550</v>
+        <v>1700</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
@@ -6646,7 +6654,7 @@
       </c>
       <c r="D24" s="11">
         <f>C20+F20+I20</f>
-        <v>5152</v>
+        <v>4302</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
@@ -6718,7 +6726,7 @@
       </c>
       <c r="C27" s="11">
         <f>G4-D24</f>
-        <v>-2052</v>
+        <v>-1202</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
@@ -6840,7 +6848,7 @@
       <c r="I32" s="11"/>
       <c r="J32" s="11">
         <f>C27+L27</f>
-        <v>-1548</v>
+        <v>-698</v>
       </c>
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
@@ -7008,8 +7016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B974066F-70AB-4CE0-9413-18C0CA619219}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -7149,6 +7157,9 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B10">
+        <v>1000</v>
+      </c>
       <c r="C10">
         <v>500</v>
       </c>
@@ -7167,7 +7178,7 @@
       </c>
       <c r="B18">
         <f>A10+B10+C10+D10</f>
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.5">
@@ -7193,7 +7204,7 @@
       </c>
       <c r="B20">
         <f>B6-B18</f>
-        <v>27550</v>
+        <v>26550</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.5">

--- a/Budget.xlsx
+++ b/Budget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3c6177e7d3ca184/Documents/git-projet/Document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{B94E59A6-9E4B-4A38-91D1-279266D15B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EE116A2-250F-45B3-A30E-D0BE6B98FACD}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{B94E59A6-9E4B-4A38-91D1-279266D15B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84D4284E-8BB6-4D15-9DEE-8EC962D5E49D}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" firstSheet="11" activeTab="13" xr2:uid="{27B7E826-E620-B34C-81E1-46A3DBC74E62}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" firstSheet="11" activeTab="14" xr2:uid="{27B7E826-E620-B34C-81E1-46A3DBC74E62}"/>
   </bookViews>
   <sheets>
     <sheet name="Fevrier" sheetId="3" r:id="rId1"/>
@@ -27,11 +27,12 @@
     <sheet name="Aout23" sheetId="25" r:id="rId12"/>
     <sheet name="Sept23" sheetId="29" r:id="rId13"/>
     <sheet name="Octb23" sheetId="30" r:id="rId14"/>
-    <sheet name="Credit" sheetId="28" r:id="rId15"/>
-    <sheet name="Feuil1" sheetId="27" r:id="rId16"/>
-    <sheet name="Terrain" sheetId="18" r:id="rId17"/>
-    <sheet name="Poulailler" sheetId="20" r:id="rId18"/>
-    <sheet name="divers " sheetId="22" r:id="rId19"/>
+    <sheet name="Nov2023" sheetId="31" r:id="rId15"/>
+    <sheet name="Credit" sheetId="28" r:id="rId16"/>
+    <sheet name="Feuil1" sheetId="27" r:id="rId17"/>
+    <sheet name="Terrain" sheetId="18" r:id="rId18"/>
+    <sheet name="Poulailler" sheetId="20" r:id="rId19"/>
+    <sheet name="divers " sheetId="22" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="235">
   <si>
     <t>Loyer</t>
   </si>
@@ -751,6 +752,12 @@
   </si>
   <si>
     <t>Encaissé</t>
+  </si>
+  <si>
+    <t>Deouvert</t>
+  </si>
+  <si>
+    <t>Frere abdoul</t>
   </si>
 </sst>
 </file>
@@ -903,6 +910,10 @@
 </file>
 
 <file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -5998,8 +6009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A004D6B5-EDB4-4F00-8178-BEA92D2455E4}">
   <dimension ref="A1:T123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -7013,6 +7024,1024 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80858377-DA6D-4793-BFDF-E57BFC7E784F}">
+  <dimension ref="A1:T123"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.25" customWidth="1"/>
+    <col min="9" max="9" width="19.75" customWidth="1"/>
+    <col min="11" max="11" width="8.25" customWidth="1"/>
+    <col min="13" max="13" width="18.25" customWidth="1"/>
+    <col min="18" max="18" width="3.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A3" s="10"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="12"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A4" s="10"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="11">
+        <f>H4+I4</f>
+        <v>3100</v>
+      </c>
+      <c r="H4" s="11">
+        <v>1900</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1200</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="11">
+        <v>1480</v>
+      </c>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="12"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A5" s="10"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="12"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A6" s="10"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="15"/>
+      <c r="M6" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="N6" s="15"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="12"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A7" s="10"/>
+      <c r="B7" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="11">
+        <v>1300</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11">
+        <v>882</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="N7" s="11">
+        <v>150</v>
+      </c>
+      <c r="O7" s="11"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="12"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A8" s="10"/>
+      <c r="B8" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="11">
+        <v>72</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="N8" s="11">
+        <v>200</v>
+      </c>
+      <c r="O8" s="11"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="12"/>
+      <c r="T8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A9" s="10"/>
+      <c r="B9" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="11">
+        <v>400</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="F9" s="11">
+        <v>300</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="N9" s="11">
+        <v>200</v>
+      </c>
+      <c r="O9" s="11"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="12"/>
+      <c r="T9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A10" s="10"/>
+      <c r="B10" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="11">
+        <v>283</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="N10" s="11">
+        <v>300</v>
+      </c>
+      <c r="O10" s="11"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="12"/>
+      <c r="T10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A11" s="10"/>
+      <c r="B11" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C11" s="11">
+        <v>-500</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="11">
+        <v>50</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="N11" s="11">
+        <v>100</v>
+      </c>
+      <c r="O11" s="11"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="12"/>
+      <c r="T11">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A12" s="10"/>
+      <c r="B12" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="11">
+        <v>-300</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="11">
+        <v>300</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="N12" s="11">
+        <v>13</v>
+      </c>
+      <c r="O12" s="11"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="12"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A13" s="10"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="11">
+        <v>12</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="N13" s="11">
+        <v>13</v>
+      </c>
+      <c r="O13" s="11"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="12"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A14" s="10"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="11">
+        <v>13</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="12"/>
+      <c r="T14">
+        <f>SUM(T8:T11)</f>
+        <v>560</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A15" s="10"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="F15" s="11">
+        <v>450</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="12"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A16" s="10"/>
+      <c r="B16" s="9"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="F16" s="11">
+        <v>100</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="12"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A17" s="10"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="11">
+        <v>90</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="12"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="12"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="12"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A20" s="10"/>
+      <c r="B20" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="11">
+        <f>SUM(C7:C18)</f>
+        <v>900</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11">
+        <f>SUM(F7:F18)+100</f>
+        <v>2652</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11">
+        <f>SUM(I7:I18)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="12"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11">
+        <f>SUM(N7:N18)</f>
+        <v>976</v>
+      </c>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11">
+        <f>SUM(Q7:Q17)</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="11"/>
+      <c r="S20" s="12"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="12"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="12"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="12"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="11">
+        <f>C20+F20+I20</f>
+        <v>3552</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11">
+        <f>N20+Q20</f>
+        <v>976</v>
+      </c>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="12"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="12"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="12"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A27" s="10"/>
+      <c r="B27" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="C27" s="11">
+        <f>G4-D24</f>
+        <v>-452</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="L27" s="11">
+        <f>O4-P24</f>
+        <v>504</v>
+      </c>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="12"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="12"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A32" s="9"/>
+      <c r="B32" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11">
+        <f>C27+L27</f>
+        <v>52</v>
+      </c>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A33" s="9"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B60" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="11">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B96">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="97" spans="2:16" x14ac:dyDescent="0.5">
+      <c r="B97">
+        <v>2500</v>
+      </c>
+      <c r="J97">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="98" spans="2:16" x14ac:dyDescent="0.5">
+      <c r="B98">
+        <v>2500</v>
+      </c>
+      <c r="J98">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="99" spans="2:16" x14ac:dyDescent="0.5">
+      <c r="B99">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="100" spans="2:16" x14ac:dyDescent="0.5">
+      <c r="B100">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="104" spans="2:16" x14ac:dyDescent="0.5">
+      <c r="B104">
+        <f>SUM(B96:B100)</f>
+        <v>9500</v>
+      </c>
+      <c r="D104">
+        <f>B104-7000</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="105" spans="2:16" x14ac:dyDescent="0.5">
+      <c r="P105">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="106" spans="2:16" x14ac:dyDescent="0.5">
+      <c r="P106" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="2:16" x14ac:dyDescent="0.5">
+      <c r="P107" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="2:16" x14ac:dyDescent="0.5">
+      <c r="P108" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="2:16" x14ac:dyDescent="0.5">
+      <c r="P109" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="2:16" x14ac:dyDescent="0.5">
+      <c r="P110" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="2:16" x14ac:dyDescent="0.5">
+      <c r="P111" s="11">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="112" spans="2:16" x14ac:dyDescent="0.5">
+      <c r="P112" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="5:16" x14ac:dyDescent="0.5">
+      <c r="E113">
+        <v>1400</v>
+      </c>
+      <c r="P113" s="11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="114" spans="5:16" x14ac:dyDescent="0.5">
+      <c r="E114">
+        <v>1300</v>
+      </c>
+      <c r="P114" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="115" spans="5:16" x14ac:dyDescent="0.5">
+      <c r="E115">
+        <v>950</v>
+      </c>
+      <c r="P115" s="11"/>
+    </row>
+    <row r="116" spans="5:16" x14ac:dyDescent="0.5">
+      <c r="P116" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="119" spans="5:16" x14ac:dyDescent="0.5">
+      <c r="E119">
+        <f>SUM(E113:E117)</f>
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="123" spans="5:16" x14ac:dyDescent="0.5">
+      <c r="P123">
+        <f>SUM(P103:P120)</f>
+        <v>516.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B974066F-70AB-4CE0-9413-18C0CA619219}">
   <dimension ref="A1:O23"/>
   <sheetViews>
@@ -7221,7 +8250,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94700D3-58F8-480F-AA59-9339E917FDF7}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7233,7 +8262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9C44F7-AFBE-4C6B-AF7F-6A7B39EB63FD}">
   <dimension ref="A2:P29"/>
   <sheetViews>
@@ -7472,7 +8501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31B0527-2C58-45D2-85E0-B2079F911CE6}">
   <dimension ref="A2:H13"/>
   <sheetViews>
@@ -7571,137 +8600,6 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B13" t="s">
         <v>161</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60023A54-4F93-427E-93E6-1AE8B5C3C1AA}">
-  <dimension ref="B3:H19"/>
-  <sheetViews>
-    <sheetView topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
-  <cols>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
-    <col min="6" max="6" width="20.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="F3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4">
-        <v>308</v>
-      </c>
-      <c r="D4" t="s">
-        <v>173</v>
-      </c>
-      <c r="G4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C5">
-        <v>120</v>
-      </c>
-      <c r="D5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G5" t="s">
-        <v>177</v>
-      </c>
-      <c r="H5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C6">
-        <v>60</v>
-      </c>
-      <c r="D6" t="s">
-        <v>173</v>
-      </c>
-      <c r="G6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H6">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C7">
-        <v>44</v>
-      </c>
-      <c r="G7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B9" t="s">
-        <v>172</v>
-      </c>
-      <c r="C9">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B10" t="s">
-        <v>174</v>
-      </c>
-      <c r="C10">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B19" t="s">
-        <v>175</v>
-      </c>
-      <c r="C19">
-        <f>SUM(C7:C15)</f>
-        <v>206</v>
-      </c>
-      <c r="H19">
-        <f>SUM(H4:H15)</f>
-        <v>2500</v>
       </c>
     </row>
   </sheetData>
@@ -7956,6 +8854,137 @@
       </c>
       <c r="X30">
         <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60023A54-4F93-427E-93E6-1AE8B5C3C1AA}">
+  <dimension ref="B3:H19"/>
+  <sheetViews>
+    <sheetView topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col min="6" max="6" width="20.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="F3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4">
+        <v>308</v>
+      </c>
+      <c r="D4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5">
+        <v>120</v>
+      </c>
+      <c r="D5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G5" t="s">
+        <v>177</v>
+      </c>
+      <c r="H5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6">
+        <v>60</v>
+      </c>
+      <c r="D6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G6" t="s">
+        <v>178</v>
+      </c>
+      <c r="H6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19">
+        <f>SUM(C7:C15)</f>
+        <v>206</v>
+      </c>
+      <c r="H19">
+        <f>SUM(H4:H15)</f>
+        <v>2500</v>
       </c>
     </row>
   </sheetData>

--- a/Budget.xlsx
+++ b/Budget.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3c6177e7d3ca184/Documents/git-projet/Document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{B94E59A6-9E4B-4A38-91D1-279266D15B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84D4284E-8BB6-4D15-9DEE-8EC962D5E49D}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{B94E59A6-9E4B-4A38-91D1-279266D15B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{468337E4-AA2C-4B74-A923-B0106BEAB1C0}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" firstSheet="11" activeTab="14" xr2:uid="{27B7E826-E620-B34C-81E1-46A3DBC74E62}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="236">
   <si>
     <t>Loyer</t>
   </si>
@@ -758,6 +758,9 @@
   </si>
   <si>
     <t>Frere abdoul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forage </t>
   </si>
 </sst>
 </file>
@@ -914,6 +917,10 @@
 </file>
 
 <file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -7028,7 +7035,7 @@
   <dimension ref="A1:T123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -7406,8 +7413,12 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A13" s="10"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="11"/>
+      <c r="B13" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C13" s="11">
+        <v>380</v>
+      </c>
       <c r="D13" s="11"/>
       <c r="E13" s="9" t="s">
         <v>39</v>
@@ -7581,7 +7592,7 @@
       </c>
       <c r="C20" s="11">
         <f>SUM(C7:C18)</f>
-        <v>900</v>
+        <v>1280</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
@@ -7683,7 +7694,7 @@
       </c>
       <c r="D24" s="11">
         <f>C20+F20+I20</f>
-        <v>3552</v>
+        <v>3932</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
@@ -7755,7 +7766,7 @@
       </c>
       <c r="C27" s="11">
         <f>G4-D24</f>
-        <v>-452</v>
+        <v>-832</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
@@ -7877,7 +7888,7 @@
       <c r="I32" s="11"/>
       <c r="J32" s="11">
         <f>C27+L27</f>
-        <v>52</v>
+        <v>-328</v>
       </c>
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>

--- a/Budget.xlsx
+++ b/Budget.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3c6177e7d3ca184/Documents/git-projet/Document/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acgue\Documents\git_projet\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{B94E59A6-9E4B-4A38-91D1-279266D15B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{468337E4-AA2C-4B74-A923-B0106BEAB1C0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7F4C22-270E-40F5-A687-D8E852E641AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" firstSheet="11" activeTab="14" xr2:uid="{27B7E826-E620-B34C-81E1-46A3DBC74E62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="11" activeTab="15" xr2:uid="{27B7E826-E620-B34C-81E1-46A3DBC74E62}"/>
   </bookViews>
   <sheets>
     <sheet name="Fevrier" sheetId="3" r:id="rId1"/>
@@ -28,11 +28,12 @@
     <sheet name="Sept23" sheetId="29" r:id="rId13"/>
     <sheet name="Octb23" sheetId="30" r:id="rId14"/>
     <sheet name="Nov2023" sheetId="31" r:id="rId15"/>
-    <sheet name="Credit" sheetId="28" r:id="rId16"/>
-    <sheet name="Feuil1" sheetId="27" r:id="rId17"/>
-    <sheet name="Terrain" sheetId="18" r:id="rId18"/>
-    <sheet name="Poulailler" sheetId="20" r:id="rId19"/>
-    <sheet name="divers " sheetId="22" r:id="rId20"/>
+    <sheet name="Dec2023" sheetId="32" r:id="rId16"/>
+    <sheet name="Credit" sheetId="28" r:id="rId17"/>
+    <sheet name="Feuil1" sheetId="27" r:id="rId18"/>
+    <sheet name="Terrain" sheetId="18" r:id="rId19"/>
+    <sheet name="Poulailler" sheetId="20" r:id="rId20"/>
+    <sheet name="divers " sheetId="22" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="238">
   <si>
     <t>Loyer</t>
   </si>
@@ -761,6 +762,12 @@
   </si>
   <si>
     <t xml:space="preserve">Forage </t>
+  </si>
+  <si>
+    <t>papier kayar</t>
+  </si>
+  <si>
+    <t>pneu</t>
   </si>
 </sst>
 </file>
@@ -1227,14 +1234,14 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1242,7 +1249,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1250,7 +1257,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1259,13 +1266,13 @@
         <v>3375</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1276,7 +1283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1290,7 +1297,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1304,7 +1311,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1318,7 +1325,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1332,7 +1339,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -1346,7 +1353,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1360,7 +1367,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1374,7 +1381,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1388,7 +1395,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -1397,7 +1404,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -1406,7 +1413,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1415,7 +1422,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -1430,7 +1437,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>15</v>
       </c>
@@ -1439,7 +1446,7 @@
         <v>3446.18</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
@@ -1461,7 +1468,7 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.25" customWidth="1"/>
@@ -1470,7 +1477,7 @@
     <col min="18" max="18" width="3.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1491,7 +1498,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -1512,7 +1519,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -1533,7 +1540,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -1566,7 +1573,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -1587,7 +1594,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -1620,7 +1627,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="9"/>
       <c r="C7" s="11"/>
@@ -1657,7 +1664,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="9"/>
       <c r="C8" s="11"/>
@@ -1686,7 +1693,7 @@
       <c r="R8" s="11"/>
       <c r="S8" s="12"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="9"/>
       <c r="C9" s="11"/>
@@ -1723,7 +1730,7 @@
       <c r="R9" s="11"/>
       <c r="S9" s="12"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="C10" s="11"/>
@@ -1760,7 +1767,7 @@
       <c r="R10" s="11"/>
       <c r="S10" s="12"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="11"/>
@@ -1797,7 +1804,7 @@
       <c r="R11" s="11"/>
       <c r="S11" s="12"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>
@@ -1834,7 +1841,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -1867,7 +1874,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -1898,7 +1905,7 @@
       <c r="R14" s="11"/>
       <c r="S14" s="12"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -1931,7 +1938,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="11"/>
@@ -1964,7 +1971,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -1997,7 +2004,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="9"/>
       <c r="C18" s="11"/>
@@ -2030,7 +2037,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="9"/>
       <c r="C19" s="11"/>
@@ -2059,7 +2066,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="9"/>
       <c r="C20" s="11"/>
@@ -2086,7 +2093,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="9"/>
       <c r="C21" s="11"/>
@@ -2115,7 +2122,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="9"/>
       <c r="C22" s="11"/>
@@ -2140,7 +2147,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="9"/>
       <c r="C23" s="11"/>
@@ -2165,7 +2172,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="9"/>
       <c r="C24" s="11"/>
@@ -2190,7 +2197,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="9"/>
       <c r="C25" s="11"/>
@@ -2213,7 +2220,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="9"/>
       <c r="C26" s="11"/>
@@ -2238,7 +2245,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -2263,7 +2270,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -2288,7 +2295,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -2309,7 +2316,7 @@
       <c r="R29" s="11"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -2330,7 +2337,7 @@
       <c r="R30" s="11"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -2351,7 +2358,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="12"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -2372,7 +2379,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="12"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -2393,7 +2400,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="12"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="14" t="s">
         <v>6</v>
@@ -2431,7 +2438,7 @@
       <c r="R34" s="11"/>
       <c r="S34" s="12"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -2452,7 +2459,7 @@
       <c r="R35" s="11"/>
       <c r="S35" s="12"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -2473,7 +2480,7 @@
       <c r="R36" s="11"/>
       <c r="S36" s="12"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -2494,7 +2501,7 @@
       <c r="R37" s="11"/>
       <c r="S37" s="12"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="14" t="s">
@@ -2525,7 +2532,7 @@
       <c r="R38" s="11"/>
       <c r="S38" s="12"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -2546,7 +2553,7 @@
       <c r="R39" s="11"/>
       <c r="S39" s="12"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -2567,7 +2574,7 @@
       <c r="R40" s="11"/>
       <c r="S40" s="12"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="14" t="s">
         <v>8</v>
@@ -2598,7 +2605,7 @@
       <c r="R41" s="11"/>
       <c r="S41" s="12"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -2619,7 +2626,7 @@
       <c r="R42" s="11"/>
       <c r="S42" s="12"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -2640,7 +2647,7 @@
       <c r="R43" s="12"/>
       <c r="S43" s="12"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -2661,7 +2668,7 @@
       <c r="R44" s="12"/>
       <c r="S44" s="12"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -2682,7 +2689,7 @@
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="14" t="s">
         <v>113</v>
@@ -2708,7 +2715,7 @@
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
@@ -2727,7 +2734,7 @@
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="14" t="s">
         <v>3</v>
       </c>
@@ -2748,7 +2755,7 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.25" customWidth="1"/>
@@ -2759,7 +2766,7 @@
     <col min="18" max="18" width="3.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -2780,7 +2787,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -2801,7 +2808,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -2822,7 +2829,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -2855,7 +2862,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -2876,7 +2883,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -2909,7 +2916,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="9"/>
       <c r="C7" s="11">
@@ -2948,7 +2955,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="9"/>
       <c r="C8" s="11"/>
@@ -2981,7 +2988,7 @@
       <c r="R8" s="11"/>
       <c r="S8" s="12"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="9"/>
       <c r="C9" s="11"/>
@@ -3018,7 +3025,7 @@
       <c r="R9" s="11"/>
       <c r="S9" s="12"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="C10" s="11"/>
@@ -3052,7 +3059,7 @@
       <c r="R10" s="11"/>
       <c r="S10" s="12"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="11"/>
@@ -3086,7 +3093,7 @@
       <c r="R11" s="11"/>
       <c r="S11" s="12"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>
@@ -3123,7 +3130,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -3160,7 +3167,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -3187,7 +3194,7 @@
       <c r="R14" s="11"/>
       <c r="S14" s="12"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -3212,7 +3219,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="11"/>
@@ -3237,7 +3244,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -3262,7 +3269,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="9"/>
       <c r="C18" s="11"/>
@@ -3287,7 +3294,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="9"/>
       <c r="C19" s="11"/>
@@ -3312,7 +3319,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="9"/>
       <c r="C20" s="11"/>
@@ -3337,7 +3344,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="9"/>
       <c r="C21" s="11"/>
@@ -3362,7 +3369,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="9"/>
       <c r="C22" s="11"/>
@@ -3387,7 +3394,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="9"/>
       <c r="C23" s="11"/>
@@ -3412,7 +3419,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="9"/>
       <c r="C24" s="11"/>
@@ -3437,7 +3444,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="9"/>
       <c r="C25" s="11"/>
@@ -3462,7 +3469,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="9"/>
       <c r="C26" s="11"/>
@@ -3483,7 +3490,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -3504,7 +3511,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -3525,7 +3532,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -3546,7 +3553,7 @@
       <c r="R29" s="11"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -3567,7 +3574,7 @@
       <c r="R30" s="11"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -3588,7 +3595,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="12"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -3609,7 +3616,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="12"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -3630,7 +3637,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="12"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="14" t="s">
         <v>6</v>
@@ -3668,7 +3675,7 @@
       <c r="R34" s="11"/>
       <c r="S34" s="12"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -3689,7 +3696,7 @@
       <c r="R35" s="11"/>
       <c r="S35" s="12"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -3710,7 +3717,7 @@
       <c r="R36" s="11"/>
       <c r="S36" s="12"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -3731,7 +3738,7 @@
       <c r="R37" s="11"/>
       <c r="S37" s="12"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="14" t="s">
@@ -3762,7 +3769,7 @@
       <c r="R38" s="11"/>
       <c r="S38" s="12"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -3783,7 +3790,7 @@
       <c r="R39" s="11"/>
       <c r="S39" s="12"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -3804,7 +3811,7 @@
       <c r="R40" s="11"/>
       <c r="S40" s="12"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="14" t="s">
         <v>8</v>
@@ -3835,7 +3842,7 @@
       <c r="R41" s="11"/>
       <c r="S41" s="12"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -3856,7 +3863,7 @@
       <c r="R42" s="11"/>
       <c r="S42" s="12"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -3877,7 +3884,7 @@
       <c r="R43" s="12"/>
       <c r="S43" s="12"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -3898,7 +3905,7 @@
       <c r="R44" s="12"/>
       <c r="S44" s="12"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -3919,7 +3926,7 @@
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="14" t="s">
         <v>113</v>
@@ -3945,7 +3952,7 @@
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
@@ -3964,7 +3971,7 @@
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="14" t="s">
         <v>3</v>
       </c>
@@ -3985,7 +3992,7 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.25" customWidth="1"/>
@@ -3995,7 +4002,7 @@
     <col min="18" max="18" width="3.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -4016,7 +4023,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -4037,7 +4044,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -4062,7 +4069,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -4100,7 +4107,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -4121,7 +4128,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -4154,7 +4161,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="9" t="s">
         <v>193</v>
@@ -4185,7 +4192,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="9" t="s">
         <v>202</v>
@@ -4221,7 +4228,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="9" t="s">
         <v>146</v>
@@ -4257,7 +4264,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="9" t="s">
         <v>213</v>
@@ -4291,7 +4298,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="9" t="s">
         <v>207</v>
@@ -4325,7 +4332,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="9" t="s">
         <v>208</v>
@@ -4356,7 +4363,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="9" t="s">
         <v>209</v>
@@ -4387,7 +4394,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="9" t="s">
         <v>210</v>
@@ -4418,7 +4425,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="9" t="s">
         <v>216</v>
@@ -4447,7 +4454,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="9" t="s">
         <v>198</v>
@@ -4476,7 +4483,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -4497,7 +4504,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -4518,7 +4525,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -4539,7 +4546,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="14" t="s">
         <v>6</v>
@@ -4577,7 +4584,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -4598,7 +4605,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -4619,7 +4626,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -4640,7 +4647,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="14" t="s">
@@ -4671,7 +4678,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -4692,7 +4699,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -4713,7 +4720,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="14" t="s">
         <v>8</v>
@@ -4744,7 +4751,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -4765,7 +4772,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -4786,7 +4793,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -4807,7 +4814,7 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -4828,7 +4835,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="14" t="s">
         <v>113</v>
@@ -4854,7 +4861,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -4873,7 +4880,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="14" t="s">
         <v>3</v>
       </c>
@@ -4881,12 +4888,12 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>3000</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>2500</v>
       </c>
@@ -4894,7 +4901,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>2500</v>
       </c>
@@ -4902,17 +4909,17 @@
         <v>600</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>800</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>700</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B104">
         <f>SUM(B96:B100)</f>
         <v>9500</v>
@@ -4922,47 +4929,47 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P105">
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P106" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P107" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P108" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P109" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P110" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P111" s="11">
         <v>3.99</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P112" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.5">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E113">
         <v>1400</v>
       </c>
@@ -4970,7 +4977,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.5">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E114">
         <v>1300</v>
       </c>
@@ -4978,24 +4985,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.5">
+    <row r="115" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E115">
         <v>950</v>
       </c>
       <c r="P115" s="11"/>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.5">
+    <row r="116" spans="5:16" x14ac:dyDescent="0.25">
       <c r="P116" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.5">
+    <row r="119" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E119">
         <f>SUM(E113:E117)</f>
         <v>3650</v>
       </c>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.5">
+    <row r="123" spans="5:16" x14ac:dyDescent="0.25">
       <c r="P123">
         <f>SUM(P103:P120)</f>
         <v>516.99</v>
@@ -5014,7 +5021,7 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.25" customWidth="1"/>
@@ -5024,7 +5031,7 @@
     <col min="18" max="18" width="3.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -5045,7 +5052,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -5066,7 +5073,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -5091,7 +5098,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -5129,7 +5136,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -5150,7 +5157,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -5183,7 +5190,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="9" t="s">
         <v>193</v>
@@ -5216,7 +5223,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="9" t="s">
         <v>202</v>
@@ -5252,7 +5259,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="9" t="s">
         <v>146</v>
@@ -5288,7 +5295,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="9" t="s">
         <v>214</v>
@@ -5322,7 +5329,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="11"/>
@@ -5352,7 +5359,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>
@@ -5379,7 +5386,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -5406,7 +5413,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -5433,7 +5440,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -5458,7 +5465,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="D16" s="11"/>
@@ -5482,7 +5489,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -5503,7 +5510,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -5524,7 +5531,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -5545,7 +5552,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="14" t="s">
         <v>6</v>
@@ -5583,7 +5590,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -5604,7 +5611,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -5625,7 +5632,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -5646,7 +5653,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="14" t="s">
@@ -5677,7 +5684,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -5698,7 +5705,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -5719,7 +5726,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="14" t="s">
         <v>8</v>
@@ -5750,7 +5757,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -5771,7 +5778,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -5792,7 +5799,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -5813,7 +5820,7 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -5834,7 +5841,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="14" t="s">
         <v>113</v>
@@ -5860,7 +5867,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -5879,7 +5886,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="14" t="s">
         <v>3</v>
       </c>
@@ -5887,12 +5894,12 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>3000</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>2500</v>
       </c>
@@ -5900,7 +5907,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>2500</v>
       </c>
@@ -5908,17 +5915,17 @@
         <v>600</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>800</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>700</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B104">
         <f>SUM(B96:B100)</f>
         <v>9500</v>
@@ -5928,47 +5935,47 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P105">
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P106" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P107" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P108" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P109" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P110" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P111" s="11">
         <v>3.99</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P112" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.5">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E113">
         <v>1400</v>
       </c>
@@ -5976,7 +5983,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.5">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E114">
         <v>1300</v>
       </c>
@@ -5984,24 +5991,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.5">
+    <row r="115" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E115">
         <v>950</v>
       </c>
       <c r="P115" s="11"/>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.5">
+    <row r="116" spans="5:16" x14ac:dyDescent="0.25">
       <c r="P116" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.5">
+    <row r="119" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E119">
         <f>SUM(E113:E117)</f>
         <v>3650</v>
       </c>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.5">
+    <row r="123" spans="5:16" x14ac:dyDescent="0.25">
       <c r="P123">
         <f>SUM(P103:P120)</f>
         <v>516.99</v>
@@ -6020,7 +6027,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.25" customWidth="1"/>
@@ -6030,7 +6037,7 @@
     <col min="18" max="18" width="3.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -6051,7 +6058,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -6072,7 +6079,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -6097,7 +6104,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -6135,7 +6142,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -6156,7 +6163,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -6189,7 +6196,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="9" t="s">
         <v>193</v>
@@ -6222,7 +6229,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="9" t="s">
         <v>202</v>
@@ -6258,7 +6265,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="9" t="s">
         <v>146</v>
@@ -6294,7 +6301,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="9" t="s">
         <v>214</v>
@@ -6330,7 +6337,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="9" t="s">
         <v>231</v>
@@ -6364,7 +6371,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11">
@@ -6393,7 +6400,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -6420,7 +6427,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -6447,7 +6454,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -6472,7 +6479,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="D16" s="11"/>
@@ -6496,7 +6503,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -6521,7 +6528,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -6542,7 +6549,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -6563,7 +6570,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="14" t="s">
         <v>6</v>
@@ -6601,7 +6608,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -6622,7 +6629,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -6643,7 +6650,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -6664,7 +6671,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="14" t="s">
@@ -6695,7 +6702,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -6716,7 +6723,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -6737,7 +6744,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="14" t="s">
         <v>8</v>
@@ -6768,7 +6775,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -6789,7 +6796,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -6810,7 +6817,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -6831,7 +6838,7 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -6852,7 +6859,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="14" t="s">
         <v>113</v>
@@ -6878,7 +6885,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -6897,7 +6904,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="14" t="s">
         <v>3</v>
       </c>
@@ -6905,12 +6912,12 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>3000</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>2500</v>
       </c>
@@ -6918,7 +6925,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>2500</v>
       </c>
@@ -6926,17 +6933,17 @@
         <v>600</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>800</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>700</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B104">
         <f>SUM(B96:B100)</f>
         <v>9500</v>
@@ -6946,47 +6953,47 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P105">
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P106" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P107" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P108" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P109" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P110" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P111" s="11">
         <v>3.99</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P112" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.5">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E113">
         <v>1400</v>
       </c>
@@ -6994,7 +7001,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.5">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E114">
         <v>1300</v>
       </c>
@@ -7002,24 +7009,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.5">
+    <row r="115" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E115">
         <v>950</v>
       </c>
       <c r="P115" s="11"/>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.5">
+    <row r="116" spans="5:16" x14ac:dyDescent="0.25">
       <c r="P116" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.5">
+    <row r="119" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E119">
         <f>SUM(E113:E117)</f>
         <v>3650</v>
       </c>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.5">
+    <row r="123" spans="5:16" x14ac:dyDescent="0.25">
       <c r="P123">
         <f>SUM(P103:P120)</f>
         <v>516.99</v>
@@ -7034,11 +7041,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80858377-DA6D-4793-BFDF-E57BFC7E784F}">
   <dimension ref="A1:T123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.25" customWidth="1"/>
@@ -7048,7 +7055,7 @@
     <col min="18" max="18" width="3.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -7069,7 +7076,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -7090,7 +7097,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -7115,7 +7122,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -7153,7 +7160,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -7174,7 +7181,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -7207,7 +7214,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="9" t="s">
         <v>193</v>
@@ -7240,7 +7247,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="9" t="s">
         <v>202</v>
@@ -7276,7 +7283,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="9" t="s">
         <v>146</v>
@@ -7312,7 +7319,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="9" t="s">
         <v>214</v>
@@ -7346,7 +7353,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="9" t="s">
         <v>205</v>
@@ -7380,7 +7387,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="9" t="s">
         <v>234</v>
@@ -7411,7 +7418,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="9" t="s">
         <v>235</v>
@@ -7442,10 +7449,14 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="11"/>
+      <c r="B14" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C14" s="11">
+        <v>198</v>
+      </c>
       <c r="D14" s="11"/>
       <c r="E14" s="9" t="s">
         <v>40</v>
@@ -7469,10 +7480,14 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="11"/>
+      <c r="B15" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15" s="11">
+        <v>192</v>
+      </c>
       <c r="D15" s="11"/>
       <c r="E15" s="9" t="s">
         <v>195</v>
@@ -7494,9 +7509,14 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
-      <c r="B16" s="9"/>
+      <c r="B16" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C16" s="11">
+        <v>202</v>
+      </c>
       <c r="D16" s="11"/>
       <c r="E16" s="9" t="s">
         <v>203</v>
@@ -7518,7 +7538,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -7543,7 +7563,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -7564,7 +7584,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -7585,14 +7605,14 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="11">
         <f>SUM(C7:C18)</f>
-        <v>1280</v>
+        <v>1872</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
@@ -7623,7 +7643,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -7644,7 +7664,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -7665,7 +7685,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -7686,7 +7706,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="14" t="s">
@@ -7694,7 +7714,7 @@
       </c>
       <c r="D24" s="11">
         <f>C20+F20+I20</f>
-        <v>3932</v>
+        <v>4524</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
@@ -7717,7 +7737,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -7738,7 +7758,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -7759,14 +7779,14 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="14" t="s">
         <v>233</v>
       </c>
       <c r="C27" s="11">
         <f>G4-D24</f>
-        <v>-832</v>
+        <v>-1424</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
@@ -7790,7 +7810,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -7811,7 +7831,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -7832,7 +7852,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -7853,7 +7873,7 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -7874,7 +7894,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="14" t="s">
         <v>113</v>
@@ -7888,7 +7908,7 @@
       <c r="I32" s="11"/>
       <c r="J32" s="11">
         <f>C27+L27</f>
-        <v>-328</v>
+        <v>-920</v>
       </c>
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
@@ -7900,7 +7920,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -7919,7 +7939,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="14" t="s">
         <v>3</v>
       </c>
@@ -7927,12 +7947,12 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>3000</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>2500</v>
       </c>
@@ -7940,7 +7960,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>2500</v>
       </c>
@@ -7948,17 +7968,17 @@
         <v>600</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>800</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>700</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B104">
         <f>SUM(B96:B100)</f>
         <v>9500</v>
@@ -7968,47 +7988,47 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P105">
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P106" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P107" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P108" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P109" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P110" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P111" s="11">
         <v>3.99</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P112" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.5">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E113">
         <v>1400</v>
       </c>
@@ -8016,7 +8036,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.5">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E114">
         <v>1300</v>
       </c>
@@ -8024,24 +8044,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.5">
+    <row r="115" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E115">
         <v>950</v>
       </c>
       <c r="P115" s="11"/>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.5">
+    <row r="116" spans="5:16" x14ac:dyDescent="0.25">
       <c r="P116" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.5">
+    <row r="119" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E119">
         <f>SUM(E113:E117)</f>
         <v>3650</v>
       </c>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.5">
+    <row r="123" spans="5:16" x14ac:dyDescent="0.25">
       <c r="P123">
         <f>SUM(P103:P120)</f>
         <v>516.99</v>
@@ -8053,6 +8073,1015 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8954BA60-EBA4-4FC7-A38C-A5D075E1C354}">
+  <dimension ref="A1:T123"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.25" customWidth="1"/>
+    <col min="9" max="9" width="19.75" customWidth="1"/>
+    <col min="11" max="11" width="8.25" customWidth="1"/>
+    <col min="13" max="13" width="18.25" customWidth="1"/>
+    <col min="18" max="18" width="3.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="12"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="11">
+        <f>H4+I4</f>
+        <v>3100</v>
+      </c>
+      <c r="H4" s="11">
+        <v>1900</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1200</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="11">
+        <v>1480</v>
+      </c>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="12"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="12"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="15"/>
+      <c r="M6" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="N6" s="15"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="12"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="11">
+        <v>1400</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11">
+        <v>882</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="N7" s="11">
+        <v>150</v>
+      </c>
+      <c r="O7" s="11"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="12"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="11">
+        <v>72</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="N8" s="11">
+        <v>200</v>
+      </c>
+      <c r="O8" s="11"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="12"/>
+      <c r="T8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="11">
+        <v>150</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="F9" s="11">
+        <v>300</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="N9" s="11">
+        <v>200</v>
+      </c>
+      <c r="O9" s="11"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="12"/>
+      <c r="T9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="11">
+        <v>283</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="N10" s="11">
+        <v>300</v>
+      </c>
+      <c r="O10" s="11"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="12"/>
+      <c r="T10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="11">
+        <v>50</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="N11" s="11">
+        <v>100</v>
+      </c>
+      <c r="O11" s="11"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="12"/>
+      <c r="T11">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="11">
+        <v>300</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="N12" s="11">
+        <v>13</v>
+      </c>
+      <c r="O12" s="11"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="12"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="11">
+        <v>12</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="N13" s="11">
+        <v>13</v>
+      </c>
+      <c r="O13" s="11"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="12"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="11">
+        <v>13</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="12"/>
+      <c r="T14">
+        <f>SUM(T8:T11)</f>
+        <v>560</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="12"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="F16" s="11">
+        <v>100</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="12"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="11">
+        <v>90</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="12"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="12"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="12"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="11">
+        <f>SUM(C7:C18)</f>
+        <v>1550</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11">
+        <f>SUM(F7:F18)+100</f>
+        <v>2202</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11">
+        <f>SUM(I7:I18)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="12"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11">
+        <f>SUM(N7:N18)</f>
+        <v>976</v>
+      </c>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11">
+        <f>SUM(Q7:Q17)</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="11"/>
+      <c r="S20" s="12"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="12"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="12"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="12"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="11">
+        <f>C20+F20+I20</f>
+        <v>3752</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11">
+        <f>N20+Q20</f>
+        <v>976</v>
+      </c>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="12"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="12"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="12"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="C27" s="11">
+        <f>G4-D24</f>
+        <v>-652</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="L27" s="11">
+        <f>O4-P24</f>
+        <v>504</v>
+      </c>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="12"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="12"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
+      <c r="B32" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11">
+        <f>C27+L27</f>
+        <v>-148</v>
+      </c>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="11">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>2500</v>
+      </c>
+      <c r="J97">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>2500</v>
+      </c>
+      <c r="J98">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <f>SUM(B96:B100)</f>
+        <v>9500</v>
+      </c>
+      <c r="D104">
+        <f>B104-7000</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P105">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P106" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P107" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P108" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P109" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P110" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P111" s="11">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P112" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E113">
+        <v>1400</v>
+      </c>
+      <c r="P113" s="11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="114" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E114">
+        <v>1300</v>
+      </c>
+      <c r="P114" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="115" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E115">
+        <v>950</v>
+      </c>
+      <c r="P115" s="11"/>
+    </row>
+    <row r="116" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="P116" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="119" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E119">
+        <f>SUM(E113:E117)</f>
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="123" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="P123">
+        <f>SUM(P103:P120)</f>
+        <v>516.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B974066F-70AB-4CE0-9413-18C0CA619219}">
   <dimension ref="A1:O23"/>
   <sheetViews>
@@ -8060,12 +9089,12 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>204</v>
       </c>
@@ -8079,7 +9108,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10000</v>
       </c>
@@ -8099,7 +9128,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
         <v>219</v>
       </c>
@@ -8113,7 +9142,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
         <v>220</v>
       </c>
@@ -8130,7 +9159,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
         <v>221</v>
       </c>
@@ -8147,7 +9176,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -8168,7 +9197,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
         <v>223</v>
       </c>
@@ -8182,7 +9211,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
         <v>230</v>
       </c>
@@ -8196,7 +9225,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>1000</v>
       </c>
@@ -8207,12 +9236,12 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O17" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>232</v>
       </c>
@@ -8221,7 +9250,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>6</v>
       </c>
@@ -8238,7 +9267,7 @@
         <v>6176.22</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>99</v>
       </c>
@@ -8247,7 +9276,7 @@
         <v>26550</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L23" t="s">
         <v>164</v>
       </c>
@@ -8261,19 +9290,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94700D3-58F8-480F-AA59-9339E917FDF7}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9C44F7-AFBE-4C6B-AF7F-6A7B39EB63FD}">
   <dimension ref="A2:P29"/>
   <sheetViews>
@@ -8281,14 +9310,14 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.25" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L2" t="s">
         <v>181</v>
       </c>
@@ -8296,7 +9325,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>162</v>
       </c>
@@ -8329,7 +9358,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L5" t="s">
         <v>182</v>
       </c>
@@ -8343,7 +9372,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>184</v>
       </c>
@@ -8357,7 +9386,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>163</v>
       </c>
@@ -8377,7 +9406,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>183</v>
       </c>
@@ -8391,7 +9420,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>164</v>
       </c>
@@ -8406,7 +9435,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L10" t="s">
         <v>192</v>
       </c>
@@ -8414,12 +9443,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>166</v>
       </c>
@@ -8428,7 +9457,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -8456,7 +9485,7 @@
         <v>13978</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>163</v>
       </c>
@@ -8470,7 +9499,7 @@
         <v>3820</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>164</v>
       </c>
@@ -8493,124 +9522,18 @@
         <v>6022</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G28" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>166</v>
       </c>
       <c r="C29">
         <f>B24+E24</f>
         <v>3540</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31B0527-2C58-45D2-85E0-B2079F911CE6}">
-  <dimension ref="A2:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
-  <cols>
-    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
-    <col min="7" max="7" width="13.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A4">
-        <v>1.5</v>
-      </c>
-      <c r="B4">
-        <v>2250</v>
-      </c>
-      <c r="C4">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A5">
-        <v>1.8</v>
-      </c>
-      <c r="B5">
-        <v>2500</v>
-      </c>
-      <c r="C5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A6">
-        <v>1.5</v>
-      </c>
-      <c r="B6">
-        <v>2800</v>
-      </c>
-      <c r="C6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A10" t="s">
-        <v>159</v>
-      </c>
-      <c r="G10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="G11" t="s">
-        <v>186</v>
-      </c>
-      <c r="H11">
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A12" t="s">
-        <v>160</v>
-      </c>
-      <c r="B12">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>28000</v>
-      </c>
-      <c r="D12">
-        <f>B12*C12</f>
-        <v>336000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B13" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -8626,19 +9549,19 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -8646,7 +9569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -8654,7 +9577,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -8663,10 +9586,10 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -8680,7 +9603,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -8694,7 +9617,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -8708,7 +9631,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -8722,7 +9645,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -8736,7 +9659,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -8750,7 +9673,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -8764,7 +9687,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -8778,7 +9701,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -8792,7 +9715,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -8801,7 +9724,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
@@ -8810,7 +9733,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -8819,7 +9742,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -8827,13 +9750,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -8846,7 +9769,7 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>15</v>
       </c>
@@ -8855,7 +9778,7 @@
         <v>4156.41</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -8873,6 +9796,112 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31B0527-2C58-45D2-85E0-B2079F911CE6}">
+  <dimension ref="A2:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="7" max="7" width="13.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1.5</v>
+      </c>
+      <c r="B4">
+        <v>2250</v>
+      </c>
+      <c r="C4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1.8</v>
+      </c>
+      <c r="B5">
+        <v>2500</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1.5</v>
+      </c>
+      <c r="B6">
+        <v>2800</v>
+      </c>
+      <c r="C6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>159</v>
+      </c>
+      <c r="G10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>186</v>
+      </c>
+      <c r="H11">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>28000</v>
+      </c>
+      <c r="D12">
+        <f>B12*C12</f>
+        <v>336000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60023A54-4F93-427E-93E6-1AE8B5C3C1AA}">
   <dimension ref="B3:H19"/>
   <sheetViews>
@@ -8880,18 +9909,18 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="18.25" customWidth="1"/>
     <col min="6" max="6" width="20.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>168</v>
       </c>
@@ -8908,7 +9937,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>169</v>
       </c>
@@ -8925,7 +9954,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>170</v>
       </c>
@@ -8942,7 +9971,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>171</v>
       </c>
@@ -8956,7 +9985,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>145</v>
       </c>
@@ -8964,7 +9993,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>172</v>
       </c>
@@ -8972,7 +10001,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>174</v>
       </c>
@@ -8980,12 +10009,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>175</v>
       </c>
@@ -9011,14 +10040,14 @@
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -9026,7 +10055,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -9034,7 +10063,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -9043,10 +10072,10 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -9064,7 +10093,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -9073,7 +10102,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -9082,7 +10111,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>4</v>
@@ -9091,7 +10120,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>14</v>
@@ -9100,7 +10129,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>2</v>
@@ -9109,7 +10138,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>16</v>
@@ -9118,7 +10147,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>5</v>
@@ -9127,7 +10156,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>21</v>
@@ -9136,7 +10165,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>37</v>
@@ -9145,7 +10174,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>36</v>
@@ -9154,7 +10183,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>38</v>
@@ -9163,7 +10192,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>39</v>
@@ -9172,7 +10201,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>40</v>
@@ -9181,7 +10210,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>42</v>
@@ -9190,7 +10219,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="D21" s="1" t="s">
         <v>43</v>
@@ -9199,7 +10228,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>43</v>
@@ -9208,7 +10237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="D23" s="1" t="s">
         <v>44</v>
@@ -9217,7 +10246,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D24" s="1" t="s">
         <v>45</v>
       </c>
@@ -9225,7 +10254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D25" s="1" t="s">
         <v>37</v>
       </c>
@@ -9233,7 +10262,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D26" s="1" t="s">
         <v>16</v>
       </c>
@@ -9241,7 +10270,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D27" s="1" t="s">
         <v>36</v>
       </c>
@@ -9249,7 +10278,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D28" s="1" t="s">
         <v>46</v>
       </c>
@@ -9257,7 +10286,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="s">
         <v>47</v>
       </c>
@@ -9265,7 +10294,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D30" s="1" t="s">
         <v>27</v>
       </c>
@@ -9273,7 +10302,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D31" s="1" t="s">
         <v>27</v>
       </c>
@@ -9281,7 +10310,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D32" s="1" t="s">
         <v>54</v>
       </c>
@@ -9289,7 +10318,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D33" s="1" t="s">
         <v>50</v>
       </c>
@@ -9297,16 +10326,16 @@
         <v>387</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>6</v>
       </c>
@@ -9319,7 +10348,7 @@
         <v>3854</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>15</v>
       </c>
@@ -9328,7 +10357,7 @@
         <v>3854</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>8</v>
       </c>
@@ -9337,7 +10366,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>3</v>
       </c>
@@ -9357,7 +10386,7 @@
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9371,14 +10400,14 @@
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -9386,7 +10415,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -9394,7 +10423,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -9403,10 +10432,10 @@
         <v>3946</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -9417,7 +10446,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -9426,7 +10455,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="D8" s="1" t="s">
         <v>21</v>
@@ -9435,7 +10464,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -9444,7 +10473,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>4</v>
@@ -9453,7 +10482,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>5</v>
@@ -9462,7 +10491,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>2</v>
@@ -9471,7 +10500,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -9480,7 +10509,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>39</v>
@@ -9489,7 +10518,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>40</v>
@@ -9498,7 +10527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>48</v>
@@ -9507,7 +10536,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>49</v>
@@ -9516,7 +10545,7 @@
         <v>15.99</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>49</v>
@@ -9525,7 +10554,7 @@
         <v>15.99</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>49</v>
@@ -9534,7 +10563,7 @@
         <v>3.99</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>51</v>
@@ -9543,7 +10572,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="D21" s="1" t="s">
         <v>57</v>
@@ -9552,7 +10581,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>52</v>
@@ -9561,7 +10590,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="D23" s="1" t="s">
         <v>53</v>
@@ -9570,7 +10599,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="D24" s="1" t="s">
         <v>55</v>
@@ -9579,7 +10608,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D25" s="1" t="s">
         <v>56</v>
       </c>
@@ -9587,7 +10616,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D26" s="1" t="s">
         <v>58</v>
       </c>
@@ -9595,7 +10624,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D27" s="1" t="s">
         <v>59</v>
       </c>
@@ -9603,7 +10632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D28" s="1" t="s">
         <v>60</v>
       </c>
@@ -9611,7 +10640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="s">
         <v>61</v>
       </c>
@@ -9619,7 +10648,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D30" s="1" t="s">
         <v>62</v>
       </c>
@@ -9627,7 +10656,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D31" s="1" t="s">
         <v>27</v>
       </c>
@@ -9635,7 +10664,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D32" s="1" t="s">
         <v>14</v>
       </c>
@@ -9643,22 +10672,22 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>6</v>
       </c>
@@ -9671,7 +10700,7 @@
         <v>3898.9699999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>15</v>
       </c>
@@ -9680,7 +10709,7 @@
         <v>3898.9699999999993</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>8</v>
       </c>
@@ -9689,7 +10718,7 @@
         <v>47.030000000000655</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -9710,19 +10739,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -9730,7 +10759,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -9739,10 +10768,10 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -9753,7 +10782,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -9762,7 +10791,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8">
         <v>50</v>
@@ -9774,7 +10803,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -9783,7 +10812,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>4</v>
@@ -9792,7 +10821,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>5</v>
@@ -9801,7 +10830,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>2</v>
@@ -9810,7 +10839,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -9819,7 +10848,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>39</v>
@@ -9828,7 +10857,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>40</v>
@@ -9837,7 +10866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>48</v>
@@ -9846,7 +10875,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>49</v>
@@ -9855,7 +10884,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>49</v>
@@ -9864,7 +10893,7 @@
         <v>15.99</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>49</v>
@@ -9873,7 +10902,7 @@
         <v>3.99</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>51</v>
@@ -9882,7 +10911,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="D21" s="1" t="s">
         <v>14</v>
@@ -9891,7 +10920,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>52</v>
@@ -9900,7 +10929,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="D23" s="1" t="s">
         <v>63</v>
@@ -9909,7 +10938,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="D24" s="1" t="s">
         <v>14</v>
@@ -9918,7 +10947,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D25" s="1" t="s">
         <v>64</v>
       </c>
@@ -9926,7 +10955,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D26" s="1" t="s">
         <v>65</v>
       </c>
@@ -9934,40 +10963,40 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>6</v>
       </c>
@@ -9980,7 +11009,7 @@
         <v>3000.9799999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>15</v>
       </c>
@@ -9989,7 +11018,7 @@
         <v>3050.9799999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>8</v>
       </c>
@@ -9998,7 +11027,7 @@
         <v>-0.97999999999956344</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -10019,7 +11048,7 @@
       <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
@@ -10029,7 +11058,7 @@
     <col min="16" max="16" width="15.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -10037,7 +11066,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -10045,7 +11074,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -10054,7 +11083,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="D4" s="5" t="s">
         <v>78</v>
@@ -10063,7 +11092,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>75</v>
@@ -10092,7 +11121,7 @@
       </c>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -10114,7 +11143,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8">
         <v>25</v>
@@ -10139,7 +11168,7 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9">
         <v>26</v>
@@ -10159,7 +11188,7 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10">
         <v>160</v>
@@ -10184,7 +11213,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>5</v>
@@ -10205,7 +11234,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>2</v>
@@ -10220,7 +11249,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -10232,7 +11261,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>39</v>
@@ -10242,7 +11271,7 @@
       </c>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>40</v>
@@ -10252,7 +11281,7 @@
       </c>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>48</v>
@@ -10262,7 +11291,7 @@
       </c>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>49</v>
@@ -10272,7 +11301,7 @@
       </c>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>49</v>
@@ -10285,7 +11314,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>49</v>
@@ -10298,7 +11327,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>51</v>
@@ -10311,7 +11340,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="D21" s="1" t="s">
         <v>14</v>
@@ -10324,7 +11353,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>81</v>
@@ -10336,7 +11365,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="D23" s="1" t="s">
         <v>82</v>
@@ -10345,7 +11374,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="D24" s="1" t="s">
         <v>84</v>
@@ -10358,10 +11387,10 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
       <c r="Q27" t="s">
         <v>83</v>
@@ -10371,25 +11400,25 @@
         <v>780.98999999999978</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="N32">
         <f>SUM(N7:N29)</f>
         <v>272</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
@@ -10406,7 +11435,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>15</v>
       </c>
@@ -10415,7 +11444,7 @@
         <v>3066.99</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
@@ -10424,7 +11453,7 @@
         <v>233.01000000000022</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>3</v>
       </c>
@@ -10445,7 +11474,7 @@
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.75" style="1"/>
     <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
@@ -10458,7 +11487,7 @@
     <col min="16" max="16" width="15.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -10479,7 +11508,7 @@
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -10500,7 +11529,7 @@
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="1">
         <v>3030</v>
@@ -10511,7 +11540,7 @@
       </c>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="1">
         <v>600</v>
@@ -10519,7 +11548,7 @@
       <c r="J4" s="7"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="1">
         <v>300</v>
@@ -10527,7 +11556,7 @@
       <c r="J5" s="7"/>
       <c r="S5" s="7"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="1">
         <v>100</v>
@@ -10535,19 +11564,19 @@
       <c r="J6" s="7"/>
       <c r="S6" s="7"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="1"/>
       <c r="J7" s="7"/>
       <c r="S7" s="7"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="1"/>
       <c r="J8" s="7"/>
       <c r="S8" s="7"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="1"/>
       <c r="E9" s="5" t="s">
@@ -10572,13 +11601,13 @@
       </c>
       <c r="S9" s="7"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="1"/>
       <c r="J10" s="7"/>
       <c r="S10" s="7"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
@@ -10610,7 +11639,7 @@
       <c r="Q11" s="2"/>
       <c r="S11" s="7"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="1"/>
       <c r="E12" s="1" t="s">
@@ -10640,7 +11669,7 @@
       </c>
       <c r="S12" s="7"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="1" t="s">
         <v>91</v>
@@ -10675,7 +11704,7 @@
       </c>
       <c r="S13" s="7"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="1" t="s">
         <v>50</v>
@@ -10710,7 +11739,7 @@
       </c>
       <c r="S14" s="7"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="1" t="s">
         <v>11</v>
@@ -10745,7 +11774,7 @@
       </c>
       <c r="S15" s="7"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="1" t="s">
         <v>82</v>
@@ -10780,7 +11809,7 @@
       </c>
       <c r="S16" s="7"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="1" t="s">
         <v>84</v>
@@ -10815,7 +11844,7 @@
       </c>
       <c r="S17" s="7"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="1" t="s">
         <v>81</v>
@@ -10847,7 +11876,7 @@
       </c>
       <c r="S18" s="7"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="1"/>
       <c r="E19" s="1" t="s">
@@ -10872,7 +11901,7 @@
       </c>
       <c r="S19" s="7"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="1"/>
       <c r="E20" s="1" t="s">
@@ -10897,7 +11926,7 @@
       </c>
       <c r="S20" s="7"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="1"/>
       <c r="E21" s="1" t="s">
@@ -10916,7 +11945,7 @@
       <c r="M21" s="1"/>
       <c r="S21" s="7"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="1"/>
       <c r="E22" s="1" t="s">
@@ -10935,7 +11964,7 @@
       <c r="M22" s="1"/>
       <c r="S22" s="7"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="1"/>
       <c r="E23" s="1" t="s">
@@ -10949,7 +11978,7 @@
       <c r="M23" s="1"/>
       <c r="S23" s="7"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="1"/>
       <c r="E24" s="1" t="s">
@@ -10968,7 +11997,7 @@
       <c r="M24" s="1"/>
       <c r="S24" s="7"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="1"/>
       <c r="E25" s="1" t="s">
@@ -10987,7 +12016,7 @@
       <c r="M25" s="1"/>
       <c r="S25" s="7"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="1"/>
       <c r="E26" s="1" t="s">
@@ -11006,7 +12035,7 @@
       <c r="M26" s="1"/>
       <c r="S26" s="7"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="1"/>
       <c r="E27" s="1" t="s">
@@ -11024,7 +12053,7 @@
       <c r="J27" s="7"/>
       <c r="S27" s="7"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="1"/>
       <c r="E28" s="1"/>
@@ -11037,7 +12066,7 @@
       <c r="J28" s="7"/>
       <c r="S28" s="7"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="1"/>
       <c r="E29" s="1"/>
@@ -11050,7 +12079,7 @@
       <c r="J29" s="7"/>
       <c r="S29" s="7"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="1"/>
       <c r="H30" s="1" t="s">
@@ -11062,7 +12091,7 @@
       <c r="J30" s="7"/>
       <c r="S30" s="7"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="H31" s="1" t="s">
         <v>110</v>
@@ -11073,7 +12102,7 @@
       <c r="J31" s="7"/>
       <c r="S31" s="7"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="E32" s="1"/>
       <c r="H32" s="1" t="s">
@@ -11085,7 +12114,7 @@
       <c r="J32" s="7"/>
       <c r="S32" s="7"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="E33" s="1"/>
       <c r="H33" s="1" t="s">
@@ -11097,30 +12126,30 @@
       <c r="J33" s="7"/>
       <c r="S33" s="7"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="E34" s="1"/>
       <c r="J34" s="7"/>
       <c r="S34" s="7"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="E35" s="1"/>
       <c r="J35" s="7"/>
       <c r="S35" s="7"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="E36" s="1"/>
       <c r="J36" s="7"/>
       <c r="S36" s="7"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="J37" s="7"/>
       <c r="S37" s="7"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="2" t="s">
         <v>6</v>
@@ -11148,22 +12177,22 @@
       </c>
       <c r="S38" s="7"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="J39" s="7"/>
       <c r="S39" s="7"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="J40" s="7"/>
       <c r="S40" s="7"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="J41" s="7"/>
       <c r="S41" s="7"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="C42" s="2" t="s">
         <v>15</v>
@@ -11182,17 +12211,17 @@
       </c>
       <c r="S42" s="7"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="J43" s="7"/>
       <c r="S43" s="7"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="J44" s="7"/>
       <c r="S44" s="7"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="2" t="s">
         <v>8</v>
@@ -11208,12 +12237,12 @@
       </c>
       <c r="S45" s="7"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="J46" s="7"/>
       <c r="S46" s="7"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -11234,7 +12263,7 @@
       <c r="R47" s="7"/>
       <c r="S47" s="7"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -11255,10 +12284,10 @@
       <c r="R48" s="7"/>
       <c r="S48" s="7"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>3</v>
       </c>
@@ -11269,7 +12298,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M52" t="s">
         <v>106</v>
       </c>
@@ -11277,12 +12306,12 @@
         <v>24.99</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M53" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M54" t="s">
         <v>108</v>
       </c>
@@ -11290,7 +12319,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N61">
         <f>SUM(N51:N57)</f>
         <v>74.989999999999995</v>
@@ -11309,7 +12338,7 @@
       <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.25" customWidth="1"/>
@@ -11318,7 +12347,7 @@
     <col min="18" max="18" width="3.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -11339,7 +12368,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -11360,7 +12389,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -11381,7 +12410,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -11414,7 +12443,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -11435,7 +12464,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -11468,7 +12497,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="9"/>
       <c r="C7" s="11"/>
@@ -11503,7 +12532,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="9"/>
       <c r="C8" s="11"/>
@@ -11540,7 +12569,7 @@
       <c r="R8" s="11"/>
       <c r="S8" s="12"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="9"/>
       <c r="C9" s="11"/>
@@ -11577,7 +12606,7 @@
       <c r="R9" s="11"/>
       <c r="S9" s="12"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="C10" s="11"/>
@@ -11614,7 +12643,7 @@
       <c r="R10" s="11"/>
       <c r="S10" s="12"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="11"/>
@@ -11649,7 +12678,7 @@
       <c r="R11" s="11"/>
       <c r="S11" s="12"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>
@@ -11686,7 +12715,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -11719,7 +12748,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -11746,7 +12775,7 @@
       <c r="R14" s="11"/>
       <c r="S14" s="12"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -11775,7 +12804,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="11"/>
@@ -11804,7 +12833,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -11833,7 +12862,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="9"/>
       <c r="C18" s="11"/>
@@ -11862,7 +12891,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="9"/>
       <c r="C19" s="11"/>
@@ -11891,7 +12920,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="9"/>
       <c r="C20" s="11"/>
@@ -11920,7 +12949,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="9"/>
       <c r="C21" s="11"/>
@@ -11947,7 +12976,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="9"/>
       <c r="C22" s="11"/>
@@ -11972,7 +13001,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="9"/>
       <c r="C23" s="11"/>
@@ -11997,7 +13026,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="9"/>
       <c r="C24" s="11"/>
@@ -12018,7 +13047,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="9"/>
       <c r="C25" s="11"/>
@@ -12039,7 +13068,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -12060,7 +13089,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -12081,7 +13110,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -12102,7 +13131,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -12123,7 +13152,7 @@
       <c r="R29" s="11"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -12144,7 +13173,7 @@
       <c r="R30" s="11"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -12165,7 +13194,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="12"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -12186,7 +13215,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="12"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="14" t="s">
         <v>6</v>
@@ -12224,7 +13253,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="12"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -12245,7 +13274,7 @@
       <c r="R34" s="11"/>
       <c r="S34" s="12"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -12266,7 +13295,7 @@
       <c r="R35" s="11"/>
       <c r="S35" s="12"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -12287,7 +13316,7 @@
       <c r="R36" s="11"/>
       <c r="S36" s="12"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="14" t="s">
@@ -12318,7 +13347,7 @@
       <c r="R37" s="11"/>
       <c r="S37" s="12"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -12339,7 +13368,7 @@
       <c r="R38" s="11"/>
       <c r="S38" s="12"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -12360,7 +13389,7 @@
       <c r="R39" s="11"/>
       <c r="S39" s="12"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="14" t="s">
         <v>8</v>
@@ -12391,7 +13420,7 @@
       <c r="R40" s="11"/>
       <c r="S40" s="12"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -12412,7 +13441,7 @@
       <c r="R41" s="11"/>
       <c r="S41" s="12"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -12433,7 +13462,7 @@
       <c r="R42" s="12"/>
       <c r="S42" s="12"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -12454,7 +13483,7 @@
       <c r="R43" s="12"/>
       <c r="S43" s="12"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -12475,7 +13504,7 @@
       <c r="R44" s="11"/>
       <c r="S44" s="11"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="14" t="s">
         <v>113</v>
@@ -12501,7 +13530,7 @@
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
@@ -12520,7 +13549,7 @@
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="N47" t="s">
         <v>122</v>
       </c>
@@ -12528,7 +13557,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="N48" t="s">
         <v>125</v>
       </c>
@@ -12536,7 +13565,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="14:16" x14ac:dyDescent="0.5">
+    <row r="49" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N49" t="s">
         <v>122</v>
       </c>
@@ -12544,7 +13573,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="14:16" x14ac:dyDescent="0.5">
+    <row r="50" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N50" t="s">
         <v>123</v>
       </c>
@@ -12552,7 +13581,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="14:16" x14ac:dyDescent="0.5">
+    <row r="51" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N51" t="s">
         <v>126</v>
       </c>
@@ -12563,7 +13592,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="14:16" x14ac:dyDescent="0.5">
+    <row r="52" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N52" t="s">
         <v>127</v>
       </c>
@@ -12571,12 +13600,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="14:16" x14ac:dyDescent="0.5">
+    <row r="55" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N55" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="58" spans="14:16" x14ac:dyDescent="0.5">
+    <row r="58" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N58" t="s">
         <v>6</v>
       </c>
@@ -12585,7 +13614,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="14" t="s">
         <v>3</v>
       </c>

--- a/Budget.xlsx
+++ b/Budget.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acgue\Documents\git_projet\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acgue\Documents\git-project\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7F4C22-270E-40F5-A687-D8E852E641AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D72DC0-CF90-498D-B721-1085BEFFB754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="11" activeTab="15" xr2:uid="{27B7E826-E620-B34C-81E1-46A3DBC74E62}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="11" activeTab="18" xr2:uid="{27B7E826-E620-B34C-81E1-46A3DBC74E62}"/>
   </bookViews>
   <sheets>
     <sheet name="Fevrier" sheetId="3" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="239">
   <si>
     <t>Loyer</t>
   </si>
@@ -728,24 +728,9 @@
     <t>mars</t>
   </si>
   <si>
-    <t>Mohamed NIANG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Credit </t>
-  </si>
-  <si>
-    <t>debit</t>
-  </si>
-  <si>
     <t>s</t>
   </si>
   <si>
-    <t>virement</t>
-  </si>
-  <si>
-    <t>achat</t>
-  </si>
-  <si>
     <t>octobre</t>
   </si>
   <si>
@@ -768,6 +753,24 @@
   </si>
   <si>
     <t>pneu</t>
+  </si>
+  <si>
+    <t>rifaye</t>
+  </si>
+  <si>
+    <t>novembre</t>
+  </si>
+  <si>
+    <t>decembre</t>
+  </si>
+  <si>
+    <t>fatim</t>
+  </si>
+  <si>
+    <t>yaba</t>
+  </si>
+  <si>
+    <t>idi</t>
   </si>
 </sst>
 </file>
@@ -806,7 +809,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -861,6 +864,18 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -874,7 +889,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -894,6 +909,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -909,26 +926,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1234,14 +1231,14 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1249,7 +1246,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1257,7 +1254,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1266,13 +1263,13 @@
         <v>3375</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1283,7 +1280,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1297,7 +1294,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1311,7 +1308,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1325,7 +1322,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1339,7 +1336,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -1353,7 +1350,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1367,7 +1364,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1381,7 +1378,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1395,7 +1392,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -1404,7 +1401,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,7 +1410,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1422,7 +1419,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -1437,7 +1434,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>15</v>
       </c>
@@ -1446,7 +1443,7 @@
         <v>3446.18</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
@@ -1468,16 +1465,16 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.25" customWidth="1"/>
-    <col min="11" max="11" width="8.25" customWidth="1"/>
-    <col min="13" max="13" width="18.25" customWidth="1"/>
-    <col min="18" max="18" width="3.75" customWidth="1"/>
+    <col min="2" max="2" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.19921875" customWidth="1"/>
+    <col min="11" max="11" width="8.19921875" customWidth="1"/>
+    <col min="13" max="13" width="18.19921875" customWidth="1"/>
+    <col min="18" max="18" width="3.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1498,7 +1495,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -1519,7 +1516,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -1540,7 +1537,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -1573,7 +1570,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -1594,7 +1591,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -1627,7 +1624,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="9"/>
       <c r="C7" s="11"/>
@@ -1664,7 +1661,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="9"/>
       <c r="C8" s="11"/>
@@ -1693,7 +1690,7 @@
       <c r="R8" s="11"/>
       <c r="S8" s="12"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="9"/>
       <c r="C9" s="11"/>
@@ -1730,7 +1727,7 @@
       <c r="R9" s="11"/>
       <c r="S9" s="12"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="C10" s="11"/>
@@ -1767,7 +1764,7 @@
       <c r="R10" s="11"/>
       <c r="S10" s="12"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="11"/>
@@ -1804,7 +1801,7 @@
       <c r="R11" s="11"/>
       <c r="S11" s="12"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>
@@ -1841,7 +1838,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -1874,7 +1871,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -1905,7 +1902,7 @@
       <c r="R14" s="11"/>
       <c r="S14" s="12"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -1938,7 +1935,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="11"/>
@@ -1971,7 +1968,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -2004,7 +2001,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="9"/>
       <c r="C18" s="11"/>
@@ -2037,7 +2034,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="9"/>
       <c r="C19" s="11"/>
@@ -2066,7 +2063,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="9"/>
       <c r="C20" s="11"/>
@@ -2093,7 +2090,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="9"/>
       <c r="C21" s="11"/>
@@ -2122,7 +2119,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="9"/>
       <c r="C22" s="11"/>
@@ -2147,7 +2144,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="9"/>
       <c r="C23" s="11"/>
@@ -2172,7 +2169,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="9"/>
       <c r="C24" s="11"/>
@@ -2197,7 +2194,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="9"/>
       <c r="C25" s="11"/>
@@ -2220,7 +2217,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="9"/>
       <c r="C26" s="11"/>
@@ -2245,7 +2242,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -2270,7 +2267,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -2295,7 +2292,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -2316,7 +2313,7 @@
       <c r="R29" s="11"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -2337,7 +2334,7 @@
       <c r="R30" s="11"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -2358,7 +2355,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="12"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -2379,7 +2376,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="12"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -2400,7 +2397,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="12"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="14" t="s">
         <v>6</v>
@@ -2438,7 +2435,7 @@
       <c r="R34" s="11"/>
       <c r="S34" s="12"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -2459,7 +2456,7 @@
       <c r="R35" s="11"/>
       <c r="S35" s="12"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -2480,7 +2477,7 @@
       <c r="R36" s="11"/>
       <c r="S36" s="12"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -2501,7 +2498,7 @@
       <c r="R37" s="11"/>
       <c r="S37" s="12"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="14" t="s">
@@ -2532,7 +2529,7 @@
       <c r="R38" s="11"/>
       <c r="S38" s="12"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -2553,7 +2550,7 @@
       <c r="R39" s="11"/>
       <c r="S39" s="12"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -2574,7 +2571,7 @@
       <c r="R40" s="11"/>
       <c r="S40" s="12"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
       <c r="B41" s="14" t="s">
         <v>8</v>
@@ -2605,7 +2602,7 @@
       <c r="R41" s="11"/>
       <c r="S41" s="12"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -2626,7 +2623,7 @@
       <c r="R42" s="11"/>
       <c r="S42" s="12"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -2647,7 +2644,7 @@
       <c r="R43" s="12"/>
       <c r="S43" s="12"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -2668,7 +2665,7 @@
       <c r="R44" s="12"/>
       <c r="S44" s="12"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -2689,7 +2686,7 @@
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="14" t="s">
         <v>113</v>
@@ -2715,7 +2712,7 @@
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
@@ -2734,7 +2731,7 @@
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B74" s="14" t="s">
         <v>3</v>
       </c>
@@ -2755,18 +2752,18 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.25" customWidth="1"/>
-    <col min="8" max="8" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.25" customWidth="1"/>
-    <col min="13" max="13" width="18.25" customWidth="1"/>
-    <col min="16" max="16" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.75" customWidth="1"/>
+    <col min="2" max="2" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.19921875" customWidth="1"/>
+    <col min="8" max="8" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.19921875" customWidth="1"/>
+    <col min="13" max="13" width="18.19921875" customWidth="1"/>
+    <col min="16" max="16" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -2787,7 +2784,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -2808,7 +2805,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -2829,7 +2826,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -2862,7 +2859,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -2883,7 +2880,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -2916,7 +2913,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="9"/>
       <c r="C7" s="11">
@@ -2955,7 +2952,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="9"/>
       <c r="C8" s="11"/>
@@ -2988,7 +2985,7 @@
       <c r="R8" s="11"/>
       <c r="S8" s="12"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="9"/>
       <c r="C9" s="11"/>
@@ -3025,7 +3022,7 @@
       <c r="R9" s="11"/>
       <c r="S9" s="12"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="C10" s="11"/>
@@ -3059,7 +3056,7 @@
       <c r="R10" s="11"/>
       <c r="S10" s="12"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="11"/>
@@ -3093,7 +3090,7 @@
       <c r="R11" s="11"/>
       <c r="S11" s="12"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>
@@ -3130,7 +3127,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -3167,7 +3164,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -3194,7 +3191,7 @@
       <c r="R14" s="11"/>
       <c r="S14" s="12"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -3219,7 +3216,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="11"/>
@@ -3244,7 +3241,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -3269,7 +3266,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="9"/>
       <c r="C18" s="11"/>
@@ -3294,7 +3291,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="9"/>
       <c r="C19" s="11"/>
@@ -3319,7 +3316,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="9"/>
       <c r="C20" s="11"/>
@@ -3344,7 +3341,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="9"/>
       <c r="C21" s="11"/>
@@ -3369,7 +3366,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="9"/>
       <c r="C22" s="11"/>
@@ -3394,7 +3391,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="9"/>
       <c r="C23" s="11"/>
@@ -3419,7 +3416,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="9"/>
       <c r="C24" s="11"/>
@@ -3444,7 +3441,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="9"/>
       <c r="C25" s="11"/>
@@ -3469,7 +3466,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="9"/>
       <c r="C26" s="11"/>
@@ -3490,7 +3487,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -3511,7 +3508,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -3532,7 +3529,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -3553,7 +3550,7 @@
       <c r="R29" s="11"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -3574,7 +3571,7 @@
       <c r="R30" s="11"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -3595,7 +3592,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="12"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -3616,7 +3613,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="12"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -3637,7 +3634,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="12"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="14" t="s">
         <v>6</v>
@@ -3675,7 +3672,7 @@
       <c r="R34" s="11"/>
       <c r="S34" s="12"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -3696,7 +3693,7 @@
       <c r="R35" s="11"/>
       <c r="S35" s="12"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -3717,7 +3714,7 @@
       <c r="R36" s="11"/>
       <c r="S36" s="12"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -3738,7 +3735,7 @@
       <c r="R37" s="11"/>
       <c r="S37" s="12"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="14" t="s">
@@ -3769,7 +3766,7 @@
       <c r="R38" s="11"/>
       <c r="S38" s="12"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -3790,7 +3787,7 @@
       <c r="R39" s="11"/>
       <c r="S39" s="12"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -3811,7 +3808,7 @@
       <c r="R40" s="11"/>
       <c r="S40" s="12"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
       <c r="B41" s="14" t="s">
         <v>8</v>
@@ -3842,7 +3839,7 @@
       <c r="R41" s="11"/>
       <c r="S41" s="12"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -3863,7 +3860,7 @@
       <c r="R42" s="11"/>
       <c r="S42" s="12"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -3884,7 +3881,7 @@
       <c r="R43" s="12"/>
       <c r="S43" s="12"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -3905,7 +3902,7 @@
       <c r="R44" s="12"/>
       <c r="S44" s="12"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -3926,7 +3923,7 @@
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="14" t="s">
         <v>113</v>
@@ -3952,7 +3949,7 @@
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
@@ -3971,7 +3968,7 @@
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B74" s="14" t="s">
         <v>3</v>
       </c>
@@ -3992,17 +3989,17 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.25" customWidth="1"/>
-    <col min="9" max="9" width="19.75" customWidth="1"/>
-    <col min="11" max="11" width="8.25" customWidth="1"/>
-    <col min="13" max="13" width="18.25" customWidth="1"/>
-    <col min="18" max="18" width="3.75" customWidth="1"/>
+    <col min="2" max="2" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.19921875" customWidth="1"/>
+    <col min="9" max="9" width="19.69921875" customWidth="1"/>
+    <col min="11" max="11" width="8.19921875" customWidth="1"/>
+    <col min="13" max="13" width="18.19921875" customWidth="1"/>
+    <col min="18" max="18" width="3.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -4023,7 +4020,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -4044,7 +4041,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -4069,7 +4066,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -4107,7 +4104,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -4128,7 +4125,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -4161,7 +4158,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="9" t="s">
         <v>193</v>
@@ -4192,7 +4189,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="9" t="s">
         <v>202</v>
@@ -4228,7 +4225,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="9" t="s">
         <v>146</v>
@@ -4264,7 +4261,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="9" t="s">
         <v>213</v>
@@ -4298,7 +4295,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="9" t="s">
         <v>207</v>
@@ -4332,7 +4329,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="9" t="s">
         <v>208</v>
@@ -4363,7 +4360,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="9" t="s">
         <v>209</v>
@@ -4394,7 +4391,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="9" t="s">
         <v>210</v>
@@ -4425,7 +4422,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="9" t="s">
         <v>216</v>
@@ -4454,7 +4451,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="9" t="s">
         <v>198</v>
@@ -4483,7 +4480,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -4504,7 +4501,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -4525,7 +4522,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -4546,7 +4543,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="14" t="s">
         <v>6</v>
@@ -4584,7 +4581,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -4605,7 +4602,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -4626,7 +4623,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -4647,7 +4644,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="14" t="s">
@@ -4678,7 +4675,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -4699,7 +4696,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -4720,7 +4717,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="14" t="s">
         <v>8</v>
@@ -4751,7 +4748,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -4772,7 +4769,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -4793,7 +4790,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -4814,7 +4811,7 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -4835,7 +4832,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="14" t="s">
         <v>113</v>
@@ -4861,7 +4858,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -4880,7 +4877,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" s="14" t="s">
         <v>3</v>
       </c>
@@ -4888,12 +4885,12 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B96">
         <v>3000</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B97">
         <v>2500</v>
       </c>
@@ -4901,7 +4898,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B98">
         <v>2500</v>
       </c>
@@ -4909,17 +4906,17 @@
         <v>600</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B99">
         <v>800</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B100">
         <v>700</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B104">
         <f>SUM(B96:B100)</f>
         <v>9500</v>
@@ -4929,47 +4926,47 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P105">
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P106" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P107" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P108" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P109" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P110" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P111" s="11">
         <v>3.99</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P112" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E113">
         <v>1400</v>
       </c>
@@ -4977,7 +4974,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E114">
         <v>1300</v>
       </c>
@@ -4985,24 +4982,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E115">
         <v>950</v>
       </c>
       <c r="P115" s="11"/>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:16" x14ac:dyDescent="0.3">
       <c r="P116" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E119">
         <f>SUM(E113:E117)</f>
         <v>3650</v>
       </c>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:16" x14ac:dyDescent="0.3">
       <c r="P123">
         <f>SUM(P103:P120)</f>
         <v>516.99</v>
@@ -5021,17 +5018,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.25" customWidth="1"/>
-    <col min="9" max="9" width="19.75" customWidth="1"/>
-    <col min="11" max="11" width="8.25" customWidth="1"/>
-    <col min="13" max="13" width="18.25" customWidth="1"/>
-    <col min="18" max="18" width="3.75" customWidth="1"/>
+    <col min="2" max="2" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.19921875" customWidth="1"/>
+    <col min="9" max="9" width="19.69921875" customWidth="1"/>
+    <col min="11" max="11" width="8.19921875" customWidth="1"/>
+    <col min="13" max="13" width="18.19921875" customWidth="1"/>
+    <col min="18" max="18" width="3.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -5052,7 +5049,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -5073,7 +5070,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -5098,7 +5095,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -5136,7 +5133,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -5157,7 +5154,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -5190,7 +5187,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="9" t="s">
         <v>193</v>
@@ -5223,7 +5220,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="9" t="s">
         <v>202</v>
@@ -5259,7 +5256,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="9" t="s">
         <v>146</v>
@@ -5295,7 +5292,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="9" t="s">
         <v>214</v>
@@ -5329,7 +5326,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="11"/>
@@ -5359,7 +5356,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>
@@ -5386,7 +5383,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -5413,7 +5410,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -5440,7 +5437,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -5465,7 +5462,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="D16" s="11"/>
@@ -5489,7 +5486,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -5510,7 +5507,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -5531,7 +5528,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -5552,7 +5549,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="14" t="s">
         <v>6</v>
@@ -5590,7 +5587,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -5611,7 +5608,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -5632,7 +5629,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -5653,7 +5650,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="14" t="s">
@@ -5684,7 +5681,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -5705,7 +5702,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -5726,7 +5723,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="14" t="s">
         <v>8</v>
@@ -5757,7 +5754,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -5778,7 +5775,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -5799,7 +5796,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -5820,7 +5817,7 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -5841,7 +5838,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="14" t="s">
         <v>113</v>
@@ -5867,7 +5864,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -5886,7 +5883,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" s="14" t="s">
         <v>3</v>
       </c>
@@ -5894,12 +5891,12 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B96">
         <v>3000</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B97">
         <v>2500</v>
       </c>
@@ -5907,7 +5904,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B98">
         <v>2500</v>
       </c>
@@ -5915,17 +5912,17 @@
         <v>600</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B99">
         <v>800</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B100">
         <v>700</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B104">
         <f>SUM(B96:B100)</f>
         <v>9500</v>
@@ -5935,47 +5932,47 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P105">
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P106" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P107" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P108" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P109" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P110" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P111" s="11">
         <v>3.99</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P112" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E113">
         <v>1400</v>
       </c>
@@ -5983,7 +5980,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E114">
         <v>1300</v>
       </c>
@@ -5991,24 +5988,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E115">
         <v>950</v>
       </c>
       <c r="P115" s="11"/>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:16" x14ac:dyDescent="0.3">
       <c r="P116" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E119">
         <f>SUM(E113:E117)</f>
         <v>3650</v>
       </c>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:16" x14ac:dyDescent="0.3">
       <c r="P123">
         <f>SUM(P103:P120)</f>
         <v>516.99</v>
@@ -6027,17 +6024,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.25" customWidth="1"/>
-    <col min="9" max="9" width="19.75" customWidth="1"/>
-    <col min="11" max="11" width="8.25" customWidth="1"/>
-    <col min="13" max="13" width="18.25" customWidth="1"/>
-    <col min="18" max="18" width="3.75" customWidth="1"/>
+    <col min="2" max="2" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.19921875" customWidth="1"/>
+    <col min="9" max="9" width="19.69921875" customWidth="1"/>
+    <col min="11" max="11" width="8.19921875" customWidth="1"/>
+    <col min="13" max="13" width="18.19921875" customWidth="1"/>
+    <col min="18" max="18" width="3.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -6058,7 +6055,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -6079,7 +6076,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -6104,7 +6101,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -6142,7 +6139,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -6163,7 +6160,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -6196,7 +6193,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="9" t="s">
         <v>193</v>
@@ -6229,7 +6226,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="9" t="s">
         <v>202</v>
@@ -6265,7 +6262,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="9" t="s">
         <v>146</v>
@@ -6301,7 +6298,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="9" t="s">
         <v>214</v>
@@ -6337,10 +6334,10 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="9" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C11" s="11">
         <v>1250</v>
@@ -6371,7 +6368,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11">
@@ -6400,7 +6397,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -6427,7 +6424,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -6454,7 +6451,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -6479,7 +6476,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="D16" s="11"/>
@@ -6503,7 +6500,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -6528,7 +6525,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -6549,7 +6546,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -6570,7 +6567,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="14" t="s">
         <v>6</v>
@@ -6608,7 +6605,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -6629,7 +6626,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -6650,7 +6647,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -6671,7 +6668,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="14" t="s">
@@ -6702,7 +6699,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -6723,7 +6720,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -6744,7 +6741,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="14" t="s">
         <v>8</v>
@@ -6775,7 +6772,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -6796,7 +6793,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -6817,7 +6814,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -6838,7 +6835,7 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -6859,7 +6856,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="14" t="s">
         <v>113</v>
@@ -6885,7 +6882,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -6904,7 +6901,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" s="14" t="s">
         <v>3</v>
       </c>
@@ -6912,12 +6909,12 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B96">
         <v>3000</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B97">
         <v>2500</v>
       </c>
@@ -6925,7 +6922,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B98">
         <v>2500</v>
       </c>
@@ -6933,17 +6930,17 @@
         <v>600</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B99">
         <v>800</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B100">
         <v>700</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B104">
         <f>SUM(B96:B100)</f>
         <v>9500</v>
@@ -6953,47 +6950,47 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P105">
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P106" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P107" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P108" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P109" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P110" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P111" s="11">
         <v>3.99</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P112" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E113">
         <v>1400</v>
       </c>
@@ -7001,7 +6998,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E114">
         <v>1300</v>
       </c>
@@ -7009,24 +7006,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E115">
         <v>950</v>
       </c>
       <c r="P115" s="11"/>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:16" x14ac:dyDescent="0.3">
       <c r="P116" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E119">
         <f>SUM(E113:E117)</f>
         <v>3650</v>
       </c>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:16" x14ac:dyDescent="0.3">
       <c r="P123">
         <f>SUM(P103:P120)</f>
         <v>516.99</v>
@@ -7041,21 +7038,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80858377-DA6D-4793-BFDF-E57BFC7E784F}">
   <dimension ref="A1:T123"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.25" customWidth="1"/>
-    <col min="9" max="9" width="19.75" customWidth="1"/>
-    <col min="11" max="11" width="8.25" customWidth="1"/>
-    <col min="13" max="13" width="18.25" customWidth="1"/>
-    <col min="18" max="18" width="3.75" customWidth="1"/>
+    <col min="2" max="2" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.19921875" customWidth="1"/>
+    <col min="9" max="9" width="19.69921875" customWidth="1"/>
+    <col min="11" max="11" width="8.19921875" customWidth="1"/>
+    <col min="13" max="13" width="18.19921875" customWidth="1"/>
+    <col min="18" max="18" width="3.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -7076,7 +7073,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -7097,7 +7094,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -7122,7 +7119,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -7160,7 +7157,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -7181,7 +7178,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -7214,7 +7211,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="9" t="s">
         <v>193</v>
@@ -7247,7 +7244,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="9" t="s">
         <v>202</v>
@@ -7283,7 +7280,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="9" t="s">
         <v>146</v>
@@ -7319,7 +7316,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="9" t="s">
         <v>214</v>
@@ -7353,7 +7350,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="9" t="s">
         <v>205</v>
@@ -7387,10 +7384,10 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="9" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C12" s="11">
         <v>-300</v>
@@ -7418,10 +7415,10 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="9" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C13" s="11">
         <v>380</v>
@@ -7449,10 +7446,10 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="9" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C14" s="11">
         <v>198</v>
@@ -7480,10 +7477,10 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="9" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C15" s="11">
         <v>192</v>
@@ -7509,10 +7506,10 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="9" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C16" s="11">
         <v>202</v>
@@ -7538,7 +7535,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -7563,7 +7560,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -7584,7 +7581,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -7605,7 +7602,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="14" t="s">
         <v>6</v>
@@ -7643,7 +7640,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -7664,7 +7661,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -7685,7 +7682,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -7706,7 +7703,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="14" t="s">
@@ -7737,7 +7734,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -7758,7 +7755,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -7779,10 +7776,10 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="14" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C27" s="11">
         <f>G4-D24</f>
@@ -7810,7 +7807,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -7831,7 +7828,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -7852,7 +7849,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -7873,7 +7870,7 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -7894,7 +7891,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="14" t="s">
         <v>113</v>
@@ -7920,7 +7917,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -7939,7 +7936,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" s="14" t="s">
         <v>3</v>
       </c>
@@ -7947,12 +7944,12 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B96">
         <v>3000</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B97">
         <v>2500</v>
       </c>
@@ -7960,7 +7957,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B98">
         <v>2500</v>
       </c>
@@ -7968,17 +7965,17 @@
         <v>600</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B99">
         <v>800</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B100">
         <v>700</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B104">
         <f>SUM(B96:B100)</f>
         <v>9500</v>
@@ -7988,47 +7985,47 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P105">
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P106" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P107" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P108" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P109" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P110" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P111" s="11">
         <v>3.99</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P112" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E113">
         <v>1400</v>
       </c>
@@ -8036,7 +8033,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E114">
         <v>1300</v>
       </c>
@@ -8044,24 +8041,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E115">
         <v>950</v>
       </c>
       <c r="P115" s="11"/>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:16" x14ac:dyDescent="0.3">
       <c r="P116" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E119">
         <f>SUM(E113:E117)</f>
         <v>3650</v>
       </c>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:16" x14ac:dyDescent="0.3">
       <c r="P123">
         <f>SUM(P103:P120)</f>
         <v>516.99</v>
@@ -8076,21 +8073,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8954BA60-EBA4-4FC7-A38C-A5D075E1C354}">
   <dimension ref="A1:T123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.25" customWidth="1"/>
-    <col min="9" max="9" width="19.75" customWidth="1"/>
-    <col min="11" max="11" width="8.25" customWidth="1"/>
-    <col min="13" max="13" width="18.25" customWidth="1"/>
-    <col min="18" max="18" width="3.75" customWidth="1"/>
+    <col min="2" max="2" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.19921875" customWidth="1"/>
+    <col min="9" max="9" width="19.69921875" customWidth="1"/>
+    <col min="11" max="11" width="8.19921875" customWidth="1"/>
+    <col min="13" max="13" width="18.19921875" customWidth="1"/>
+    <col min="18" max="18" width="3.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -8111,7 +8108,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -8132,7 +8129,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -8157,7 +8154,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -8195,7 +8192,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -8216,7 +8213,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -8249,7 +8246,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="9" t="s">
         <v>193</v>
@@ -8282,7 +8279,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="9" t="s">
         <v>202</v>
@@ -8318,7 +8315,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="9" t="s">
         <v>146</v>
@@ -8354,7 +8351,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="9" t="s">
         <v>214</v>
@@ -8388,10 +8385,14 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="11"/>
+      <c r="B11" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C11" s="11">
+        <v>-500</v>
+      </c>
       <c r="D11" s="11"/>
       <c r="E11" s="9" t="s">
         <v>2</v>
@@ -8418,7 +8419,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>
@@ -8445,7 +8446,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -8472,7 +8473,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -8499,7 +8500,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -8522,7 +8523,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="11"/>
@@ -8547,7 +8548,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -8572,7 +8573,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -8593,7 +8594,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -8614,14 +8615,14 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="11">
         <f>SUM(C7:C18)</f>
-        <v>1550</v>
+        <v>1050</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
@@ -8652,7 +8653,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -8673,7 +8674,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -8694,7 +8695,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -8715,7 +8716,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="14" t="s">
@@ -8723,7 +8724,7 @@
       </c>
       <c r="D24" s="11">
         <f>C20+F20+I20</f>
-        <v>3752</v>
+        <v>3252</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
@@ -8746,7 +8747,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -8767,7 +8768,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -8788,14 +8789,14 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="14" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C27" s="11">
         <f>G4-D24</f>
-        <v>-652</v>
+        <v>-152</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
@@ -8819,7 +8820,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -8840,7 +8841,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -8861,7 +8862,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -8882,7 +8883,7 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -8903,7 +8904,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="14" t="s">
         <v>113</v>
@@ -8917,7 +8918,7 @@
       <c r="I32" s="11"/>
       <c r="J32" s="11">
         <f>C27+L27</f>
-        <v>-148</v>
+        <v>352</v>
       </c>
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
@@ -8929,7 +8930,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -8948,7 +8949,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" s="14" t="s">
         <v>3</v>
       </c>
@@ -8956,12 +8957,12 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B96">
         <v>3000</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B97">
         <v>2500</v>
       </c>
@@ -8969,7 +8970,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B98">
         <v>2500</v>
       </c>
@@ -8977,17 +8978,17 @@
         <v>600</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B99">
         <v>800</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B100">
         <v>700</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B104">
         <f>SUM(B96:B100)</f>
         <v>9500</v>
@@ -8997,47 +8998,47 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P105">
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P106" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P107" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P108" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P109" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P110" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P111" s="11">
         <v>3.99</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P112" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E113">
         <v>1400</v>
       </c>
@@ -9045,7 +9046,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E114">
         <v>1300</v>
       </c>
@@ -9053,24 +9054,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E115">
         <v>950</v>
       </c>
       <c r="P115" s="11"/>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:16" x14ac:dyDescent="0.3">
       <c r="P116" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E119">
         <f>SUM(E113:E117)</f>
         <v>3650</v>
       </c>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:16" x14ac:dyDescent="0.3">
       <c r="P123">
         <f>SUM(P103:P120)</f>
         <v>516.99</v>
@@ -9083,18 +9084,18 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B974066F-70AB-4CE0-9413-18C0CA619219}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>204</v>
       </c>
@@ -9108,9 +9109,9 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="B2">
         <v>14700</v>
@@ -9124,65 +9125,38 @@
       <c r="G2" t="s">
         <v>218</v>
       </c>
-      <c r="L2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G3" t="s">
         <v>219</v>
       </c>
       <c r="H3">
         <v>3000</v>
       </c>
-      <c r="L3" t="s">
-        <v>225</v>
-      </c>
-      <c r="M3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G4" t="s">
         <v>220</v>
       </c>
       <c r="H4">
         <v>4000</v>
       </c>
-      <c r="L4">
-        <v>6100</v>
-      </c>
-      <c r="M4">
-        <v>2000</v>
-      </c>
-      <c r="N4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G5" t="s">
         <v>221</v>
       </c>
       <c r="H5">
         <v>3000</v>
       </c>
-      <c r="L5">
-        <v>76.22</v>
-      </c>
-      <c r="M5">
-        <v>1187.5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
         <f>SUM(A2:G2)</f>
-        <v>28050</v>
+        <v>29550</v>
       </c>
       <c r="G6" t="s">
         <v>222</v>
@@ -9190,99 +9164,252 @@
       <c r="H6">
         <v>5000</v>
       </c>
-      <c r="M6">
-        <v>950</v>
-      </c>
-      <c r="N6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G7" t="s">
         <v>223</v>
       </c>
       <c r="H7">
         <v>4000</v>
       </c>
-      <c r="M7">
-        <v>629.47</v>
-      </c>
-      <c r="N7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G8" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H8">
         <v>4000</v>
       </c>
-      <c r="M8">
-        <v>1409.25</v>
-      </c>
-      <c r="N8" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>1000</v>
-      </c>
-      <c r="C10">
-        <v>500</v>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>234</v>
+      </c>
+      <c r="H9">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>235</v>
+      </c>
+      <c r="H10">
+        <v>3000</v>
       </c>
       <c r="I10" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="O17" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>232</v>
-      </c>
-      <c r="B18">
-        <f>A10+B10+C10+D10</f>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F19" t="s">
         <v>6</v>
       </c>
       <c r="H19">
         <f>SUM(H3:H17)</f>
-        <v>23000</v>
-      </c>
-      <c r="L19">
-        <f>SUM(L4:L16)</f>
-        <v>6176.22</v>
-      </c>
-      <c r="M19">
-        <f>SUM(M4:M16)</f>
-        <v>6176.22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>99</v>
       </c>
       <c r="B20">
-        <f>B6-B18</f>
-        <v>26550</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="L23" t="s">
-        <v>164</v>
-      </c>
-      <c r="M23">
-        <f>L19-M19</f>
+        <f>B6-F41</f>
+        <v>26050</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="F26" s="17"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17">
+        <v>1000</v>
+      </c>
+      <c r="D27" s="17">
+        <v>500</v>
+      </c>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17">
         <v>0</v>
+      </c>
+      <c r="D28" s="17">
+        <v>500</v>
+      </c>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17">
+        <v>1000</v>
+      </c>
+      <c r="D29" s="17">
+        <v>500</v>
+      </c>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="18">
+        <f>SUM(B27:B39)</f>
+        <v>0</v>
+      </c>
+      <c r="C41" s="18">
+        <f t="shared" ref="C41:E41" si="0">SUM(C27:C39)</f>
+        <v>2000</v>
+      </c>
+      <c r="D41" s="18">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="E41" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="18">
+        <f>SUM(B41:E41)</f>
+        <v>3500</v>
       </c>
     </row>
   </sheetData>
@@ -9296,7 +9423,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9306,18 +9433,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9C44F7-AFBE-4C6B-AF7F-6A7B39EB63FD}">
   <dimension ref="A2:P29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="L2" t="s">
         <v>181</v>
       </c>
@@ -9325,7 +9452,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>162</v>
       </c>
@@ -9358,7 +9485,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="L5" t="s">
         <v>182</v>
       </c>
@@ -9372,7 +9499,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>184</v>
       </c>
@@ -9386,7 +9513,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>163</v>
       </c>
@@ -9406,7 +9533,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>183</v>
       </c>
@@ -9420,7 +9547,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>164</v>
       </c>
@@ -9435,7 +9562,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="L10" t="s">
         <v>192</v>
       </c>
@@ -9443,12 +9570,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="G13" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>166</v>
       </c>
@@ -9457,7 +9584,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -9485,7 +9612,7 @@
         <v>13978</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>163</v>
       </c>
@@ -9499,7 +9626,7 @@
         <v>3820</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>164</v>
       </c>
@@ -9522,12 +9649,12 @@
         <v>6022</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G28" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>166</v>
       </c>
@@ -9549,19 +9676,19 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -9569,7 +9696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -9577,7 +9704,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -9586,10 +9713,10 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -9603,7 +9730,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -9617,7 +9744,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -9631,7 +9758,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -9645,7 +9772,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -9659,7 +9786,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -9673,7 +9800,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -9687,7 +9814,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -9701,7 +9828,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -9715,7 +9842,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -9724,7 +9851,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
@@ -9733,7 +9860,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -9742,7 +9869,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -9750,13 +9877,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -9769,7 +9896,7 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>15</v>
       </c>
@@ -9778,7 +9905,7 @@
         <v>4156.41</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -9803,20 +9930,20 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.69921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
-    <col min="7" max="7" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.8984375" customWidth="1"/>
+    <col min="7" max="7" width="13.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>155</v>
       </c>
@@ -9827,7 +9954,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1.5</v>
       </c>
@@ -9838,7 +9965,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1.8</v>
       </c>
@@ -9849,7 +9976,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1.5</v>
       </c>
@@ -9860,7 +9987,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>159</v>
       </c>
@@ -9868,7 +9995,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G11" t="s">
         <v>186</v>
       </c>
@@ -9876,7 +10003,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>160</v>
       </c>
@@ -9891,7 +10018,7 @@
         <v>336000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>161</v>
       </c>
@@ -9909,18 +10036,18 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
-    <col min="6" max="6" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.19921875" customWidth="1"/>
+    <col min="6" max="6" width="20.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>168</v>
       </c>
@@ -9937,7 +10064,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>169</v>
       </c>
@@ -9954,7 +10081,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>170</v>
       </c>
@@ -9971,7 +10098,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>171</v>
       </c>
@@ -9985,7 +10112,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>145</v>
       </c>
@@ -9993,7 +10120,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>172</v>
       </c>
@@ -10001,7 +10128,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>174</v>
       </c>
@@ -10009,12 +10136,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>175</v>
       </c>
@@ -10040,14 +10167,14 @@
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -10055,7 +10182,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -10063,7 +10190,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -10072,10 +10199,10 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -10093,7 +10220,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -10102,7 +10229,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -10111,7 +10238,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>4</v>
@@ -10120,7 +10247,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>14</v>
@@ -10129,7 +10256,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>2</v>
@@ -10138,7 +10265,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>16</v>
@@ -10147,7 +10274,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>5</v>
@@ -10156,7 +10283,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>21</v>
@@ -10165,7 +10292,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>37</v>
@@ -10174,7 +10301,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>36</v>
@@ -10183,7 +10310,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>38</v>
@@ -10192,7 +10319,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>39</v>
@@ -10201,7 +10328,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>40</v>
@@ -10210,7 +10337,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>42</v>
@@ -10219,7 +10346,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="D21" s="1" t="s">
         <v>43</v>
@@ -10228,7 +10355,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>43</v>
@@ -10237,7 +10364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="D23" s="1" t="s">
         <v>44</v>
@@ -10246,7 +10373,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D24" s="1" t="s">
         <v>45</v>
       </c>
@@ -10254,7 +10381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D25" s="1" t="s">
         <v>37</v>
       </c>
@@ -10262,7 +10389,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D26" s="1" t="s">
         <v>16</v>
       </c>
@@ -10270,7 +10397,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D27" s="1" t="s">
         <v>36</v>
       </c>
@@ -10278,7 +10405,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D28" s="1" t="s">
         <v>46</v>
       </c>
@@ -10286,7 +10413,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D29" s="1" t="s">
         <v>47</v>
       </c>
@@ -10294,7 +10421,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D30" s="1" t="s">
         <v>27</v>
       </c>
@@ -10302,7 +10429,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D31" s="1" t="s">
         <v>27</v>
       </c>
@@ -10310,7 +10437,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D32" s="1" t="s">
         <v>54</v>
       </c>
@@ -10318,7 +10445,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D33" s="1" t="s">
         <v>50</v>
       </c>
@@ -10326,16 +10453,16 @@
         <v>387</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D36" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>6</v>
       </c>
@@ -10348,7 +10475,7 @@
         <v>3854</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
         <v>15</v>
       </c>
@@ -10357,7 +10484,7 @@
         <v>3854</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>8</v>
       </c>
@@ -10366,7 +10493,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>3</v>
       </c>
@@ -10386,7 +10513,7 @@
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10400,14 +10527,14 @@
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -10415,7 +10542,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -10423,7 +10550,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -10432,10 +10559,10 @@
         <v>3946</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -10446,7 +10573,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -10455,7 +10582,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="D8" s="1" t="s">
         <v>21</v>
@@ -10464,7 +10591,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -10473,7 +10600,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>4</v>
@@ -10482,7 +10609,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>5</v>
@@ -10491,7 +10618,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>2</v>
@@ -10500,7 +10627,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -10509,7 +10636,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>39</v>
@@ -10518,7 +10645,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>40</v>
@@ -10527,7 +10654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>48</v>
@@ -10536,7 +10663,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>49</v>
@@ -10545,7 +10672,7 @@
         <v>15.99</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>49</v>
@@ -10554,7 +10681,7 @@
         <v>15.99</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>49</v>
@@ -10563,7 +10690,7 @@
         <v>3.99</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>51</v>
@@ -10572,7 +10699,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="D21" s="1" t="s">
         <v>57</v>
@@ -10581,7 +10708,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>52</v>
@@ -10590,7 +10717,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="D23" s="1" t="s">
         <v>53</v>
@@ -10599,7 +10726,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="D24" s="1" t="s">
         <v>55</v>
@@ -10608,7 +10735,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D25" s="1" t="s">
         <v>56</v>
       </c>
@@ -10616,7 +10743,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D26" s="1" t="s">
         <v>58</v>
       </c>
@@ -10624,7 +10751,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D27" s="1" t="s">
         <v>59</v>
       </c>
@@ -10632,7 +10759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D28" s="1" t="s">
         <v>60</v>
       </c>
@@ -10640,7 +10767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D29" s="1" t="s">
         <v>61</v>
       </c>
@@ -10648,7 +10775,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D30" s="1" t="s">
         <v>62</v>
       </c>
@@ -10656,7 +10783,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D31" s="1" t="s">
         <v>27</v>
       </c>
@@ -10664,7 +10791,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D32" s="1" t="s">
         <v>14</v>
       </c>
@@ -10672,22 +10799,22 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>6</v>
       </c>
@@ -10700,7 +10827,7 @@
         <v>3898.9699999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
         <v>15</v>
       </c>
@@ -10709,7 +10836,7 @@
         <v>3898.9699999999993</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>8</v>
       </c>
@@ -10718,7 +10845,7 @@
         <v>47.030000000000655</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -10739,19 +10866,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -10759,7 +10886,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -10768,10 +10895,10 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -10782,7 +10909,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -10791,7 +10918,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8">
         <v>50</v>
@@ -10803,7 +10930,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -10812,7 +10939,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>4</v>
@@ -10821,7 +10948,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>5</v>
@@ -10830,7 +10957,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>2</v>
@@ -10839,7 +10966,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -10848,7 +10975,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>39</v>
@@ -10857,7 +10984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>40</v>
@@ -10866,7 +10993,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>48</v>
@@ -10875,7 +11002,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>49</v>
@@ -10884,7 +11011,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>49</v>
@@ -10893,7 +11020,7 @@
         <v>15.99</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>49</v>
@@ -10902,7 +11029,7 @@
         <v>3.99</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>51</v>
@@ -10911,7 +11038,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="D21" s="1" t="s">
         <v>14</v>
@@ -10920,7 +11047,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>52</v>
@@ -10929,7 +11056,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="D23" s="1" t="s">
         <v>63</v>
@@ -10938,7 +11065,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="D24" s="1" t="s">
         <v>14</v>
@@ -10947,7 +11074,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D25" s="1" t="s">
         <v>64</v>
       </c>
@@ -10955,7 +11082,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D26" s="1" t="s">
         <v>65</v>
       </c>
@@ -10963,40 +11090,40 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>6</v>
       </c>
@@ -11009,7 +11136,7 @@
         <v>3000.9799999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
         <v>15</v>
       </c>
@@ -11018,7 +11145,7 @@
         <v>3050.9799999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>8</v>
       </c>
@@ -11027,7 +11154,7 @@
         <v>-0.97999999999956344</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -11048,17 +11175,17 @@
       <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.69921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -11066,7 +11193,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -11074,7 +11201,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -11083,7 +11210,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="D4" s="5" t="s">
         <v>78</v>
@@ -11092,7 +11219,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>75</v>
@@ -11121,7 +11248,7 @@
       </c>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -11143,7 +11270,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8">
         <v>25</v>
@@ -11168,7 +11295,7 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9">
         <v>26</v>
@@ -11188,7 +11315,7 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10">
         <v>160</v>
@@ -11213,7 +11340,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>5</v>
@@ -11234,7 +11361,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>2</v>
@@ -11249,7 +11376,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -11261,7 +11388,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>39</v>
@@ -11271,7 +11398,7 @@
       </c>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>40</v>
@@ -11281,7 +11408,7 @@
       </c>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>48</v>
@@ -11291,7 +11418,7 @@
       </c>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>49</v>
@@ -11301,7 +11428,7 @@
       </c>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>49</v>
@@ -11314,7 +11441,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>49</v>
@@ -11327,7 +11454,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>51</v>
@@ -11340,7 +11467,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="D21" s="1" t="s">
         <v>14</v>
@@ -11353,7 +11480,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>81</v>
@@ -11365,7 +11492,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="D23" s="1" t="s">
         <v>82</v>
@@ -11374,7 +11501,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="D24" s="1" t="s">
         <v>84</v>
@@ -11387,10 +11514,10 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D27" s="1"/>
       <c r="Q27" t="s">
         <v>83</v>
@@ -11400,25 +11527,25 @@
         <v>780.98999999999978</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="N32">
         <f>SUM(N7:N29)</f>
         <v>272</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
@@ -11435,7 +11562,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
         <v>15</v>
       </c>
@@ -11444,7 +11571,7 @@
         <v>3066.99</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
@@ -11453,7 +11580,7 @@
         <v>233.01000000000022</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>3</v>
       </c>
@@ -11474,20 +11601,20 @@
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.75" style="1"/>
-    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.69921875" style="1"/>
+    <col min="2" max="2" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.69921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.25" customWidth="1"/>
+    <col min="10" max="10" width="11.19921875" customWidth="1"/>
     <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -11508,7 +11635,7 @@
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -11529,7 +11656,7 @@
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="1">
         <v>3030</v>
@@ -11540,7 +11667,7 @@
       </c>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="1">
         <v>600</v>
@@ -11548,7 +11675,7 @@
       <c r="J4" s="7"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="1">
         <v>300</v>
@@ -11556,7 +11683,7 @@
       <c r="J5" s="7"/>
       <c r="S5" s="7"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="1">
         <v>100</v>
@@ -11564,19 +11691,19 @@
       <c r="J6" s="7"/>
       <c r="S6" s="7"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="1"/>
       <c r="J7" s="7"/>
       <c r="S7" s="7"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="1"/>
       <c r="J8" s="7"/>
       <c r="S8" s="7"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="1"/>
       <c r="E9" s="5" t="s">
@@ -11601,13 +11728,13 @@
       </c>
       <c r="S9" s="7"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="1"/>
       <c r="J10" s="7"/>
       <c r="S10" s="7"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
@@ -11639,7 +11766,7 @@
       <c r="Q11" s="2"/>
       <c r="S11" s="7"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="1"/>
       <c r="E12" s="1" t="s">
@@ -11669,7 +11796,7 @@
       </c>
       <c r="S12" s="7"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="1" t="s">
         <v>91</v>
@@ -11704,7 +11831,7 @@
       </c>
       <c r="S13" s="7"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="1" t="s">
         <v>50</v>
@@ -11739,7 +11866,7 @@
       </c>
       <c r="S14" s="7"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="1" t="s">
         <v>11</v>
@@ -11774,7 +11901,7 @@
       </c>
       <c r="S15" s="7"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="1" t="s">
         <v>82</v>
@@ -11809,7 +11936,7 @@
       </c>
       <c r="S16" s="7"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="1" t="s">
         <v>84</v>
@@ -11844,7 +11971,7 @@
       </c>
       <c r="S17" s="7"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="1" t="s">
         <v>81</v>
@@ -11876,7 +12003,7 @@
       </c>
       <c r="S18" s="7"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="1"/>
       <c r="E19" s="1" t="s">
@@ -11901,7 +12028,7 @@
       </c>
       <c r="S19" s="7"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="1"/>
       <c r="E20" s="1" t="s">
@@ -11926,7 +12053,7 @@
       </c>
       <c r="S20" s="7"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="1"/>
       <c r="E21" s="1" t="s">
@@ -11945,7 +12072,7 @@
       <c r="M21" s="1"/>
       <c r="S21" s="7"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="1"/>
       <c r="E22" s="1" t="s">
@@ -11964,7 +12091,7 @@
       <c r="M22" s="1"/>
       <c r="S22" s="7"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="1"/>
       <c r="E23" s="1" t="s">
@@ -11978,7 +12105,7 @@
       <c r="M23" s="1"/>
       <c r="S23" s="7"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="1"/>
       <c r="E24" s="1" t="s">
@@ -11997,7 +12124,7 @@
       <c r="M24" s="1"/>
       <c r="S24" s="7"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="1"/>
       <c r="E25" s="1" t="s">
@@ -12016,7 +12143,7 @@
       <c r="M25" s="1"/>
       <c r="S25" s="7"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="1"/>
       <c r="E26" s="1" t="s">
@@ -12035,7 +12162,7 @@
       <c r="M26" s="1"/>
       <c r="S26" s="7"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="1"/>
       <c r="E27" s="1" t="s">
@@ -12053,7 +12180,7 @@
       <c r="J27" s="7"/>
       <c r="S27" s="7"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="1"/>
       <c r="E28" s="1"/>
@@ -12066,7 +12193,7 @@
       <c r="J28" s="7"/>
       <c r="S28" s="7"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="1"/>
       <c r="E29" s="1"/>
@@ -12079,7 +12206,7 @@
       <c r="J29" s="7"/>
       <c r="S29" s="7"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="1"/>
       <c r="H30" s="1" t="s">
@@ -12091,7 +12218,7 @@
       <c r="J30" s="7"/>
       <c r="S30" s="7"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="H31" s="1" t="s">
         <v>110</v>
@@ -12102,7 +12229,7 @@
       <c r="J31" s="7"/>
       <c r="S31" s="7"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="E32" s="1"/>
       <c r="H32" s="1" t="s">
@@ -12114,7 +12241,7 @@
       <c r="J32" s="7"/>
       <c r="S32" s="7"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="E33" s="1"/>
       <c r="H33" s="1" t="s">
@@ -12126,30 +12253,30 @@
       <c r="J33" s="7"/>
       <c r="S33" s="7"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="E34" s="1"/>
       <c r="J34" s="7"/>
       <c r="S34" s="7"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="E35" s="1"/>
       <c r="J35" s="7"/>
       <c r="S35" s="7"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="E36" s="1"/>
       <c r="J36" s="7"/>
       <c r="S36" s="7"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="J37" s="7"/>
       <c r="S37" s="7"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" s="2" t="s">
         <v>6</v>
@@ -12177,22 +12304,22 @@
       </c>
       <c r="S38" s="7"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
       <c r="J39" s="7"/>
       <c r="S39" s="7"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
       <c r="J40" s="7"/>
       <c r="S40" s="7"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
       <c r="J41" s="7"/>
       <c r="S41" s="7"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
       <c r="C42" s="2" t="s">
         <v>15</v>
@@ -12211,17 +12338,17 @@
       </c>
       <c r="S42" s="7"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
       <c r="J43" s="7"/>
       <c r="S43" s="7"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
       <c r="J44" s="7"/>
       <c r="S44" s="7"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
       <c r="B45" s="2" t="s">
         <v>8</v>
@@ -12237,12 +12364,12 @@
       </c>
       <c r="S45" s="7"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
       <c r="J46" s="7"/>
       <c r="S46" s="7"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -12263,7 +12390,7 @@
       <c r="R47" s="7"/>
       <c r="S47" s="7"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -12284,10 +12411,10 @@
       <c r="R48" s="7"/>
       <c r="S48" s="7"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B51" s="2" t="s">
         <v>3</v>
       </c>
@@ -12298,7 +12425,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M52" t="s">
         <v>106</v>
       </c>
@@ -12306,12 +12433,12 @@
         <v>24.99</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M53" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M54" t="s">
         <v>108</v>
       </c>
@@ -12319,7 +12446,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N61">
         <f>SUM(N51:N57)</f>
         <v>74.989999999999995</v>
@@ -12338,16 +12465,16 @@
       <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.25" customWidth="1"/>
-    <col min="11" max="11" width="8.25" customWidth="1"/>
-    <col min="13" max="13" width="18.25" customWidth="1"/>
-    <col min="18" max="18" width="3.75" customWidth="1"/>
+    <col min="2" max="2" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.19921875" customWidth="1"/>
+    <col min="11" max="11" width="8.19921875" customWidth="1"/>
+    <col min="13" max="13" width="18.19921875" customWidth="1"/>
+    <col min="18" max="18" width="3.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -12368,7 +12495,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -12389,7 +12516,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -12410,7 +12537,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -12443,7 +12570,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -12464,7 +12591,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -12497,7 +12624,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="9"/>
       <c r="C7" s="11"/>
@@ -12532,7 +12659,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="9"/>
       <c r="C8" s="11"/>
@@ -12569,7 +12696,7 @@
       <c r="R8" s="11"/>
       <c r="S8" s="12"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="9"/>
       <c r="C9" s="11"/>
@@ -12606,7 +12733,7 @@
       <c r="R9" s="11"/>
       <c r="S9" s="12"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="C10" s="11"/>
@@ -12643,7 +12770,7 @@
       <c r="R10" s="11"/>
       <c r="S10" s="12"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="11"/>
@@ -12678,7 +12805,7 @@
       <c r="R11" s="11"/>
       <c r="S11" s="12"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>
@@ -12715,7 +12842,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -12748,7 +12875,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -12775,7 +12902,7 @@
       <c r="R14" s="11"/>
       <c r="S14" s="12"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -12804,7 +12931,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="11"/>
@@ -12833,7 +12960,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -12862,7 +12989,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="9"/>
       <c r="C18" s="11"/>
@@ -12891,7 +13018,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="9"/>
       <c r="C19" s="11"/>
@@ -12920,7 +13047,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="9"/>
       <c r="C20" s="11"/>
@@ -12949,7 +13076,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="9"/>
       <c r="C21" s="11"/>
@@ -12976,7 +13103,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="9"/>
       <c r="C22" s="11"/>
@@ -13001,7 +13128,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="9"/>
       <c r="C23" s="11"/>
@@ -13026,7 +13153,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="9"/>
       <c r="C24" s="11"/>
@@ -13047,7 +13174,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="9"/>
       <c r="C25" s="11"/>
@@ -13068,7 +13195,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -13089,7 +13216,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -13110,7 +13237,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -13131,7 +13258,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -13152,7 +13279,7 @@
       <c r="R29" s="11"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -13173,7 +13300,7 @@
       <c r="R30" s="11"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -13194,7 +13321,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="12"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -13215,7 +13342,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="12"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="14" t="s">
         <v>6</v>
@@ -13253,7 +13380,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="12"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -13274,7 +13401,7 @@
       <c r="R34" s="11"/>
       <c r="S34" s="12"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -13295,7 +13422,7 @@
       <c r="R35" s="11"/>
       <c r="S35" s="12"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -13316,7 +13443,7 @@
       <c r="R36" s="11"/>
       <c r="S36" s="12"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="14" t="s">
@@ -13347,7 +13474,7 @@
       <c r="R37" s="11"/>
       <c r="S37" s="12"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -13368,7 +13495,7 @@
       <c r="R38" s="11"/>
       <c r="S38" s="12"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -13389,7 +13516,7 @@
       <c r="R39" s="11"/>
       <c r="S39" s="12"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="14" t="s">
         <v>8</v>
@@ -13420,7 +13547,7 @@
       <c r="R40" s="11"/>
       <c r="S40" s="12"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -13441,7 +13568,7 @@
       <c r="R41" s="11"/>
       <c r="S41" s="12"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -13462,7 +13589,7 @@
       <c r="R42" s="12"/>
       <c r="S42" s="12"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -13483,7 +13610,7 @@
       <c r="R43" s="12"/>
       <c r="S43" s="12"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -13504,7 +13631,7 @@
       <c r="R44" s="11"/>
       <c r="S44" s="11"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="9"/>
       <c r="B45" s="14" t="s">
         <v>113</v>
@@ -13530,7 +13657,7 @@
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
@@ -13549,7 +13676,7 @@
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="N47" t="s">
         <v>122</v>
       </c>
@@ -13557,7 +13684,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="N48" t="s">
         <v>125</v>
       </c>
@@ -13565,7 +13692,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N49" t="s">
         <v>122</v>
       </c>
@@ -13573,7 +13700,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N50" t="s">
         <v>123</v>
       </c>
@@ -13581,7 +13708,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N51" t="s">
         <v>126</v>
       </c>
@@ -13592,7 +13719,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N52" t="s">
         <v>127</v>
       </c>
@@ -13600,12 +13727,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N55" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="58" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N58" t="s">
         <v>6</v>
       </c>
@@ -13614,7 +13741,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B73" s="14" t="s">
         <v>3</v>
       </c>

--- a/Budget.xlsx
+++ b/Budget.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acgue\Documents\git-project\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D72DC0-CF90-498D-B721-1085BEFFB754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD4FED6-D196-4D32-A953-BDEE7D220372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="11" activeTab="18" xr2:uid="{27B7E826-E620-B34C-81E1-46A3DBC74E62}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="15" xr2:uid="{27B7E826-E620-B34C-81E1-46A3DBC74E62}"/>
   </bookViews>
   <sheets>
     <sheet name="Fevrier" sheetId="3" r:id="rId1"/>
@@ -29,11 +29,12 @@
     <sheet name="Octb23" sheetId="30" r:id="rId14"/>
     <sheet name="Nov2023" sheetId="31" r:id="rId15"/>
     <sheet name="Dec2023" sheetId="32" r:id="rId16"/>
-    <sheet name="Credit" sheetId="28" r:id="rId17"/>
-    <sheet name="Feuil1" sheetId="27" r:id="rId18"/>
-    <sheet name="Terrain" sheetId="18" r:id="rId19"/>
-    <sheet name="Poulailler" sheetId="20" r:id="rId20"/>
-    <sheet name="divers " sheetId="22" r:id="rId21"/>
+    <sheet name="JAN24" sheetId="33" r:id="rId17"/>
+    <sheet name="Credit" sheetId="28" r:id="rId18"/>
+    <sheet name="Feuil1" sheetId="27" r:id="rId19"/>
+    <sheet name="Terrain" sheetId="18" r:id="rId20"/>
+    <sheet name="Poulailler" sheetId="20" r:id="rId21"/>
+    <sheet name="divers " sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="241">
   <si>
     <t>Loyer</t>
   </si>
@@ -771,6 +772,12 @@
   </si>
   <si>
     <t>idi</t>
+  </si>
+  <si>
+    <t>opel</t>
+  </si>
+  <si>
+    <t>kia</t>
   </si>
 </sst>
 </file>
@@ -8073,8 +8080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8954BA60-EBA4-4FC7-A38C-A5D075E1C354}">
   <dimension ref="A1:T123"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8421,8 +8428,12 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="11"/>
+      <c r="B12" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C12" s="11">
+        <v>100</v>
+      </c>
       <c r="D12" s="11"/>
       <c r="E12" s="9" t="s">
         <v>16</v>
@@ -8448,8 +8459,12 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="11"/>
+      <c r="B13" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C13" s="11">
+        <v>120</v>
+      </c>
       <c r="D13" s="11"/>
       <c r="E13" s="9" t="s">
         <v>39</v>
@@ -8622,7 +8637,7 @@
       </c>
       <c r="C20" s="11">
         <f>SUM(C7:C18)</f>
-        <v>1050</v>
+        <v>1270</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
@@ -8724,7 +8739,7 @@
       </c>
       <c r="D24" s="11">
         <f>C20+F20+I20</f>
-        <v>3252</v>
+        <v>3472</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
@@ -8796,7 +8811,7 @@
       </c>
       <c r="C27" s="11">
         <f>G4-D24</f>
-        <v>-152</v>
+        <v>-372</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
@@ -8918,7 +8933,7 @@
       <c r="I32" s="11"/>
       <c r="J32" s="11">
         <f>C27+L27</f>
-        <v>352</v>
+        <v>132</v>
       </c>
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
@@ -9083,11 +9098,1026 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3955CB3-126C-4293-8B88-AAD682FCCD60}">
+  <dimension ref="A1:T123"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.19921875" customWidth="1"/>
+    <col min="9" max="9" width="19.69921875" customWidth="1"/>
+    <col min="11" max="11" width="8.19921875" customWidth="1"/>
+    <col min="13" max="13" width="18.19921875" customWidth="1"/>
+    <col min="18" max="18" width="3.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="10"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="12"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="11">
+        <f>H4+I4</f>
+        <v>3100</v>
+      </c>
+      <c r="H4" s="11">
+        <v>1900</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1200</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="11">
+        <v>1480</v>
+      </c>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="12"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="12"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="15"/>
+      <c r="M6" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="N6" s="15"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="12"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="11">
+        <v>380</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11">
+        <v>882</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="N7" s="11">
+        <v>150</v>
+      </c>
+      <c r="O7" s="11"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="12"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="11">
+        <v>72</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="N8" s="11">
+        <v>200</v>
+      </c>
+      <c r="O8" s="11"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="12"/>
+      <c r="T8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="11">
+        <v>200</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="F9" s="11">
+        <v>300</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="N9" s="11">
+        <v>200</v>
+      </c>
+      <c r="O9" s="11"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="12"/>
+      <c r="T9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="11">
+        <v>283</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="N10" s="11">
+        <v>300</v>
+      </c>
+      <c r="O10" s="11"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="12"/>
+      <c r="T10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="11">
+        <v>50</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="N11" s="11">
+        <v>100</v>
+      </c>
+      <c r="O11" s="11"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="12"/>
+      <c r="T11">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="11">
+        <v>300</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="N12" s="11">
+        <v>13</v>
+      </c>
+      <c r="O12" s="11"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="12"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="11">
+        <v>12</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="N13" s="11">
+        <v>13</v>
+      </c>
+      <c r="O13" s="11"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="12"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="11">
+        <v>13</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="12"/>
+      <c r="T14">
+        <f>SUM(T8:T11)</f>
+        <v>560</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="12"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="F16" s="11">
+        <v>100</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="12"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="11">
+        <v>90</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="12"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="12"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="12"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="11">
+        <f>SUM(C7:C18)</f>
+        <v>580</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11">
+        <f>SUM(F7:F18)+150</f>
+        <v>2252</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11">
+        <f>SUM(I7:I18)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="12"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11">
+        <f>SUM(N7:N18)</f>
+        <v>976</v>
+      </c>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11">
+        <f>SUM(Q7:Q17)</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="11"/>
+      <c r="S20" s="12"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="12"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="12"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="12"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="11">
+        <f>C20+F20+I20</f>
+        <v>2832</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11">
+        <f>N20+Q20</f>
+        <v>976</v>
+      </c>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="12"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="12"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="12"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="10"/>
+      <c r="B27" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="C27" s="11">
+        <f>G4-D24</f>
+        <v>268</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="L27" s="11">
+        <f>O4-P24</f>
+        <v>504</v>
+      </c>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="12"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="12"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="9"/>
+      <c r="B32" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11">
+        <f>C27+L27</f>
+        <v>772</v>
+      </c>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" s="9"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B60" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="11">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="97" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <v>2500</v>
+      </c>
+      <c r="J97">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="98" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <v>2500</v>
+      </c>
+      <c r="J98">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="99" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B99">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="100" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B100">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="104" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B104">
+        <f>SUM(B96:B100)</f>
+        <v>9500</v>
+      </c>
+      <c r="D104">
+        <f>B104-7000</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="105" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="P105">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="106" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="P106" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="P107" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="P108" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="P109" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="P110" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="P111" s="11">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="112" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="P112" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E113">
+        <v>1400</v>
+      </c>
+      <c r="P113" s="11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="114" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E114">
+        <v>1300</v>
+      </c>
+      <c r="P114" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="115" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E115">
+        <v>950</v>
+      </c>
+      <c r="P115" s="11"/>
+    </row>
+    <row r="116" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="P116" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="119" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E119">
+        <f>SUM(E113:E117)</f>
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="123" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="P123">
+        <f>SUM(P103:P120)</f>
+        <v>516.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B974066F-70AB-4CE0-9413-18C0CA619219}">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:N23"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -9417,7 +10447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94700D3-58F8-480F-AA59-9339E917FDF7}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -9425,245 +10455,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9C44F7-AFBE-4C6B-AF7F-6A7B39EB63FD}">
-  <dimension ref="A2:P29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.09765625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L2" t="s">
-        <v>181</v>
-      </c>
-      <c r="O2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B4">
-        <v>15000</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4">
-        <v>5000</v>
-      </c>
-      <c r="H4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4">
-        <f>B4+E4</f>
-        <v>20000</v>
-      </c>
-      <c r="L4" t="s">
-        <v>182</v>
-      </c>
-      <c r="M4">
-        <v>3102</v>
-      </c>
-      <c r="O4" t="s">
-        <v>190</v>
-      </c>
-      <c r="P4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L5" t="s">
-        <v>182</v>
-      </c>
-      <c r="M5">
-        <v>3057</v>
-      </c>
-      <c r="O5" t="s">
-        <v>191</v>
-      </c>
-      <c r="P5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B6">
-        <v>2300</v>
-      </c>
-      <c r="L6" t="s">
-        <v>187</v>
-      </c>
-      <c r="M6">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B7">
-        <v>4600</v>
-      </c>
-      <c r="D7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E7">
-        <v>4500</v>
-      </c>
-      <c r="L7" t="s">
-        <v>182</v>
-      </c>
-      <c r="M7">
-        <v>3834</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>183</v>
-      </c>
-      <c r="B8">
-        <v>2260</v>
-      </c>
-      <c r="L8" t="s">
-        <v>188</v>
-      </c>
-      <c r="M8">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9">
-        <f>E4-E7</f>
-        <v>500</v>
-      </c>
-      <c r="M9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L10" t="s">
-        <v>192</v>
-      </c>
-      <c r="M10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="G13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>166</v>
-      </c>
-      <c r="C14">
-        <f>B9+E9</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B19">
-        <v>10000</v>
-      </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19">
-        <v>5000</v>
-      </c>
-      <c r="H19" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19">
-        <f>B19+E19</f>
-        <v>15000</v>
-      </c>
-      <c r="L19" t="s">
-        <v>175</v>
-      </c>
-      <c r="M19">
-        <f>SUM(M4:M14)</f>
-        <v>13978</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>163</v>
-      </c>
-      <c r="B22">
-        <v>7640</v>
-      </c>
-      <c r="D22" t="s">
-        <v>165</v>
-      </c>
-      <c r="E22">
-        <v>3820</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>164</v>
-      </c>
-      <c r="B24">
-        <f>B19-B22</f>
-        <v>2360</v>
-      </c>
-      <c r="D24" t="s">
-        <v>99</v>
-      </c>
-      <c r="E24">
-        <f>E19-E22</f>
-        <v>1180</v>
-      </c>
-      <c r="L24" t="s">
-        <v>99</v>
-      </c>
-      <c r="M24">
-        <f>I4-M19</f>
-        <v>6022</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G28" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>166</v>
-      </c>
-      <c r="C29">
-        <f>B24+E24</f>
-        <v>3540</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9923,6 +10714,245 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9C44F7-AFBE-4C6B-AF7F-6A7B39EB63FD}">
+  <dimension ref="A2:P29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.09765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4">
+        <v>15000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>5000</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <f>B4+E4</f>
+        <v>20000</v>
+      </c>
+      <c r="L4" t="s">
+        <v>182</v>
+      </c>
+      <c r="M4">
+        <v>3102</v>
+      </c>
+      <c r="O4" t="s">
+        <v>190</v>
+      </c>
+      <c r="P4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L5" t="s">
+        <v>182</v>
+      </c>
+      <c r="M5">
+        <v>3057</v>
+      </c>
+      <c r="O5" t="s">
+        <v>191</v>
+      </c>
+      <c r="P5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6">
+        <v>2300</v>
+      </c>
+      <c r="L6" t="s">
+        <v>187</v>
+      </c>
+      <c r="M6">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7">
+        <v>4600</v>
+      </c>
+      <c r="D7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7">
+        <v>4500</v>
+      </c>
+      <c r="L7" t="s">
+        <v>182</v>
+      </c>
+      <c r="M7">
+        <v>3834</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8">
+        <v>2260</v>
+      </c>
+      <c r="L8" t="s">
+        <v>188</v>
+      </c>
+      <c r="M8">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9">
+        <f>E4-E7</f>
+        <v>500</v>
+      </c>
+      <c r="M9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L10" t="s">
+        <v>192</v>
+      </c>
+      <c r="M10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14">
+        <f>B9+E9</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19">
+        <v>10000</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19">
+        <v>5000</v>
+      </c>
+      <c r="H19" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19">
+        <f>B19+E19</f>
+        <v>15000</v>
+      </c>
+      <c r="L19" t="s">
+        <v>175</v>
+      </c>
+      <c r="M19">
+        <f>SUM(M4:M14)</f>
+        <v>13978</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>163</v>
+      </c>
+      <c r="B22">
+        <v>7640</v>
+      </c>
+      <c r="D22" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22">
+        <v>3820</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>164</v>
+      </c>
+      <c r="B24">
+        <f>B19-B22</f>
+        <v>2360</v>
+      </c>
+      <c r="D24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24">
+        <f>E19-E22</f>
+        <v>1180</v>
+      </c>
+      <c r="L24" t="s">
+        <v>99</v>
+      </c>
+      <c r="M24">
+        <f>I4-M19</f>
+        <v>6022</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29">
+        <f>B24+E24</f>
+        <v>3540</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31B0527-2C58-45D2-85E0-B2079F911CE6}">
   <dimension ref="A2:H13"/>
   <sheetViews>
@@ -10028,7 +11058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60023A54-4F93-427E-93E6-1AE8B5C3C1AA}">
   <dimension ref="B3:H19"/>
   <sheetViews>

--- a/Budget.xlsx
+++ b/Budget.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acgue\Documents\git-project\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Projet-git\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD4FED6-D196-4D32-A953-BDEE7D220372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC20E544-FF7B-4F65-9DA0-CF301D3D3797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="15" xr2:uid="{27B7E826-E620-B34C-81E1-46A3DBC74E62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="15" activeTab="16" xr2:uid="{27B7E826-E620-B34C-81E1-46A3DBC74E62}"/>
   </bookViews>
   <sheets>
     <sheet name="Fevrier" sheetId="3" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="242">
   <si>
     <t>Loyer</t>
   </si>
@@ -778,6 +778,9 @@
   </si>
   <si>
     <t>kia</t>
+  </si>
+  <si>
+    <t>janvier</t>
   </si>
 </sst>
 </file>
@@ -1238,14 +1241,14 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1253,7 +1256,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1261,7 +1264,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1270,13 +1273,13 @@
         <v>3375</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1287,7 +1290,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1301,7 +1304,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,7 +1318,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1329,7 +1332,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1343,7 +1346,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -1357,7 +1360,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1371,7 +1374,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1385,7 +1388,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1399,7 +1402,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -1408,7 +1411,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -1417,7 +1420,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1426,7 +1429,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -1441,7 +1444,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>15</v>
       </c>
@@ -1450,7 +1453,7 @@
         <v>3446.18</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
@@ -1472,16 +1475,16 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.19921875" customWidth="1"/>
-    <col min="11" max="11" width="8.19921875" customWidth="1"/>
-    <col min="13" max="13" width="18.19921875" customWidth="1"/>
-    <col min="18" max="18" width="3.69921875" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" customWidth="1"/>
+    <col min="13" max="13" width="18.1640625" customWidth="1"/>
+    <col min="18" max="18" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1502,7 +1505,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -1523,7 +1526,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -1544,7 +1547,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -1577,7 +1580,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -1598,7 +1601,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -1631,7 +1634,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
       <c r="B7" s="9"/>
       <c r="C7" s="11"/>
@@ -1668,7 +1671,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="10"/>
       <c r="B8" s="9"/>
       <c r="C8" s="11"/>
@@ -1697,7 +1700,7 @@
       <c r="R8" s="11"/>
       <c r="S8" s="12"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="9"/>
       <c r="C9" s="11"/>
@@ -1734,7 +1737,7 @@
       <c r="R9" s="11"/>
       <c r="S9" s="12"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="C10" s="11"/>
@@ -1771,7 +1774,7 @@
       <c r="R10" s="11"/>
       <c r="S10" s="12"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="11"/>
@@ -1808,7 +1811,7 @@
       <c r="R11" s="11"/>
       <c r="S11" s="12"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>
@@ -1845,7 +1848,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -1878,7 +1881,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -1909,7 +1912,7 @@
       <c r="R14" s="11"/>
       <c r="S14" s="12"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -1942,7 +1945,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="11"/>
@@ -1975,7 +1978,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -2008,7 +2011,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" s="9"/>
       <c r="C18" s="11"/>
@@ -2041,7 +2044,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="10"/>
       <c r="B19" s="9"/>
       <c r="C19" s="11"/>
@@ -2070,7 +2073,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="10"/>
       <c r="B20" s="9"/>
       <c r="C20" s="11"/>
@@ -2097,7 +2100,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="9"/>
       <c r="C21" s="11"/>
@@ -2126,7 +2129,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="B22" s="9"/>
       <c r="C22" s="11"/>
@@ -2151,7 +2154,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="9"/>
       <c r="C23" s="11"/>
@@ -2176,7 +2179,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="9"/>
       <c r="C24" s="11"/>
@@ -2201,7 +2204,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="9"/>
       <c r="C25" s="11"/>
@@ -2224,7 +2227,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="9"/>
       <c r="C26" s="11"/>
@@ -2249,7 +2252,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -2274,7 +2277,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -2299,7 +2302,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -2320,7 +2323,7 @@
       <c r="R29" s="11"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -2341,7 +2344,7 @@
       <c r="R30" s="11"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -2362,7 +2365,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="12"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -2383,7 +2386,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="12"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -2404,7 +2407,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="12"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="10"/>
       <c r="B34" s="14" t="s">
         <v>6</v>
@@ -2442,7 +2445,7 @@
       <c r="R34" s="11"/>
       <c r="S34" s="12"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -2463,7 +2466,7 @@
       <c r="R35" s="11"/>
       <c r="S35" s="12"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -2484,7 +2487,7 @@
       <c r="R36" s="11"/>
       <c r="S36" s="12"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -2505,7 +2508,7 @@
       <c r="R37" s="11"/>
       <c r="S37" s="12"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="14" t="s">
@@ -2536,7 +2539,7 @@
       <c r="R38" s="11"/>
       <c r="S38" s="12"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -2557,7 +2560,7 @@
       <c r="R39" s="11"/>
       <c r="S39" s="12"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -2578,7 +2581,7 @@
       <c r="R40" s="11"/>
       <c r="S40" s="12"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="10"/>
       <c r="B41" s="14" t="s">
         <v>8</v>
@@ -2609,7 +2612,7 @@
       <c r="R41" s="11"/>
       <c r="S41" s="12"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -2630,7 +2633,7 @@
       <c r="R42" s="11"/>
       <c r="S42" s="12"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -2651,7 +2654,7 @@
       <c r="R43" s="12"/>
       <c r="S43" s="12"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -2672,7 +2675,7 @@
       <c r="R44" s="12"/>
       <c r="S44" s="12"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -2693,7 +2696,7 @@
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="9"/>
       <c r="B46" s="14" t="s">
         <v>113</v>
@@ -2719,7 +2722,7 @@
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="9"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
@@ -2738,7 +2741,7 @@
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B74" s="14" t="s">
         <v>3</v>
       </c>
@@ -2759,18 +2762,18 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.19921875" customWidth="1"/>
-    <col min="8" max="8" width="15.69921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.19921875" customWidth="1"/>
-    <col min="13" max="13" width="18.19921875" customWidth="1"/>
-    <col min="16" max="16" width="15.69921875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.69921875" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" customWidth="1"/>
+    <col min="13" max="13" width="18.1640625" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -2791,7 +2794,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -2812,7 +2815,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -2833,7 +2836,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -2866,7 +2869,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -2887,7 +2890,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -2920,7 +2923,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
       <c r="B7" s="9"/>
       <c r="C7" s="11">
@@ -2959,7 +2962,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="10"/>
       <c r="B8" s="9"/>
       <c r="C8" s="11"/>
@@ -2992,7 +2995,7 @@
       <c r="R8" s="11"/>
       <c r="S8" s="12"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="9"/>
       <c r="C9" s="11"/>
@@ -3029,7 +3032,7 @@
       <c r="R9" s="11"/>
       <c r="S9" s="12"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="C10" s="11"/>
@@ -3063,7 +3066,7 @@
       <c r="R10" s="11"/>
       <c r="S10" s="12"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="11"/>
@@ -3097,7 +3100,7 @@
       <c r="R11" s="11"/>
       <c r="S11" s="12"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>
@@ -3134,7 +3137,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -3171,7 +3174,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -3198,7 +3201,7 @@
       <c r="R14" s="11"/>
       <c r="S14" s="12"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -3223,7 +3226,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="11"/>
@@ -3248,7 +3251,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -3273,7 +3276,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" s="9"/>
       <c r="C18" s="11"/>
@@ -3298,7 +3301,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="10"/>
       <c r="B19" s="9"/>
       <c r="C19" s="11"/>
@@ -3323,7 +3326,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="10"/>
       <c r="B20" s="9"/>
       <c r="C20" s="11"/>
@@ -3348,7 +3351,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="9"/>
       <c r="C21" s="11"/>
@@ -3373,7 +3376,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="B22" s="9"/>
       <c r="C22" s="11"/>
@@ -3398,7 +3401,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="9"/>
       <c r="C23" s="11"/>
@@ -3423,7 +3426,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="9"/>
       <c r="C24" s="11"/>
@@ -3448,7 +3451,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="9"/>
       <c r="C25" s="11"/>
@@ -3473,7 +3476,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="9"/>
       <c r="C26" s="11"/>
@@ -3494,7 +3497,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -3515,7 +3518,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -3536,7 +3539,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -3557,7 +3560,7 @@
       <c r="R29" s="11"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -3578,7 +3581,7 @@
       <c r="R30" s="11"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -3599,7 +3602,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="12"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -3620,7 +3623,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="12"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -3641,7 +3644,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="12"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="10"/>
       <c r="B34" s="14" t="s">
         <v>6</v>
@@ -3679,7 +3682,7 @@
       <c r="R34" s="11"/>
       <c r="S34" s="12"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -3700,7 +3703,7 @@
       <c r="R35" s="11"/>
       <c r="S35" s="12"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -3721,7 +3724,7 @@
       <c r="R36" s="11"/>
       <c r="S36" s="12"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -3742,7 +3745,7 @@
       <c r="R37" s="11"/>
       <c r="S37" s="12"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="14" t="s">
@@ -3773,7 +3776,7 @@
       <c r="R38" s="11"/>
       <c r="S38" s="12"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -3794,7 +3797,7 @@
       <c r="R39" s="11"/>
       <c r="S39" s="12"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -3815,7 +3818,7 @@
       <c r="R40" s="11"/>
       <c r="S40" s="12"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="10"/>
       <c r="B41" s="14" t="s">
         <v>8</v>
@@ -3846,7 +3849,7 @@
       <c r="R41" s="11"/>
       <c r="S41" s="12"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -3867,7 +3870,7 @@
       <c r="R42" s="11"/>
       <c r="S42" s="12"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -3888,7 +3891,7 @@
       <c r="R43" s="12"/>
       <c r="S43" s="12"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -3909,7 +3912,7 @@
       <c r="R44" s="12"/>
       <c r="S44" s="12"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -3930,7 +3933,7 @@
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="9"/>
       <c r="B46" s="14" t="s">
         <v>113</v>
@@ -3956,7 +3959,7 @@
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="9"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
@@ -3975,7 +3978,7 @@
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B74" s="14" t="s">
         <v>3</v>
       </c>
@@ -3996,17 +3999,17 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.19921875" customWidth="1"/>
-    <col min="9" max="9" width="19.69921875" customWidth="1"/>
-    <col min="11" max="11" width="8.19921875" customWidth="1"/>
-    <col min="13" max="13" width="18.19921875" customWidth="1"/>
-    <col min="18" max="18" width="3.69921875" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" customWidth="1"/>
+    <col min="13" max="13" width="18.1640625" customWidth="1"/>
+    <col min="18" max="18" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -4027,7 +4030,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -4048,7 +4051,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -4073,7 +4076,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -4111,7 +4114,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -4132,7 +4135,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -4165,7 +4168,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
       <c r="B7" s="9" t="s">
         <v>193</v>
@@ -4196,7 +4199,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="10"/>
       <c r="B8" s="9" t="s">
         <v>202</v>
@@ -4232,7 +4235,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="9" t="s">
         <v>146</v>
@@ -4268,7 +4271,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="9" t="s">
         <v>213</v>
@@ -4302,7 +4305,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="B11" s="9" t="s">
         <v>207</v>
@@ -4336,7 +4339,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="B12" s="9" t="s">
         <v>208</v>
@@ -4367,7 +4370,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="B13" s="9" t="s">
         <v>209</v>
@@ -4398,7 +4401,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
       <c r="B14" s="9" t="s">
         <v>210</v>
@@ -4429,7 +4432,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="9" t="s">
         <v>216</v>
@@ -4458,7 +4461,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="9" t="s">
         <v>198</v>
@@ -4487,7 +4490,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -4508,7 +4511,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -4529,7 +4532,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -4550,7 +4553,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="10"/>
       <c r="B20" s="14" t="s">
         <v>6</v>
@@ -4588,7 +4591,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -4609,7 +4612,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -4630,7 +4633,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -4651,7 +4654,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="14" t="s">
@@ -4682,7 +4685,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -4703,7 +4706,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -4724,7 +4727,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
       <c r="B27" s="14" t="s">
         <v>8</v>
@@ -4755,7 +4758,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -4776,7 +4779,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -4797,7 +4800,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -4818,7 +4821,7 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -4839,7 +4842,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="14" t="s">
         <v>113</v>
@@ -4865,7 +4868,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="9"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -4884,7 +4887,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60" s="14" t="s">
         <v>3</v>
       </c>
@@ -4892,12 +4895,12 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B96">
         <v>3000</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B97">
         <v>2500</v>
       </c>
@@ -4905,7 +4908,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B98">
         <v>2500</v>
       </c>
@@ -4913,17 +4916,17 @@
         <v>600</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B99">
         <v>800</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B100">
         <v>700</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B104">
         <f>SUM(B96:B100)</f>
         <v>9500</v>
@@ -4933,47 +4936,47 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P105">
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P106" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P107" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P108" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P109" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P110" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P111" s="11">
         <v>3.99</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P112" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E113">
         <v>1400</v>
       </c>
@@ -4981,7 +4984,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E114">
         <v>1300</v>
       </c>
@@ -4989,24 +4992,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E115">
         <v>950</v>
       </c>
       <c r="P115" s="11"/>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="5:16" x14ac:dyDescent="0.35">
       <c r="P116" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E119">
         <f>SUM(E113:E117)</f>
         <v>3650</v>
       </c>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="5:16" x14ac:dyDescent="0.35">
       <c r="P123">
         <f>SUM(P103:P120)</f>
         <v>516.99</v>
@@ -5025,17 +5028,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.19921875" customWidth="1"/>
-    <col min="9" max="9" width="19.69921875" customWidth="1"/>
-    <col min="11" max="11" width="8.19921875" customWidth="1"/>
-    <col min="13" max="13" width="18.19921875" customWidth="1"/>
-    <col min="18" max="18" width="3.69921875" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" customWidth="1"/>
+    <col min="13" max="13" width="18.1640625" customWidth="1"/>
+    <col min="18" max="18" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -5056,7 +5059,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -5077,7 +5080,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -5102,7 +5105,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -5140,7 +5143,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -5161,7 +5164,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -5194,7 +5197,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
       <c r="B7" s="9" t="s">
         <v>193</v>
@@ -5227,7 +5230,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="10"/>
       <c r="B8" s="9" t="s">
         <v>202</v>
@@ -5263,7 +5266,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="9" t="s">
         <v>146</v>
@@ -5299,7 +5302,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="9" t="s">
         <v>214</v>
@@ -5333,7 +5336,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="11"/>
@@ -5363,7 +5366,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>
@@ -5390,7 +5393,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -5417,7 +5420,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -5444,7 +5447,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -5469,7 +5472,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="D16" s="11"/>
@@ -5493,7 +5496,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -5514,7 +5517,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -5535,7 +5538,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -5556,7 +5559,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="10"/>
       <c r="B20" s="14" t="s">
         <v>6</v>
@@ -5594,7 +5597,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -5615,7 +5618,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -5636,7 +5639,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -5657,7 +5660,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="14" t="s">
@@ -5688,7 +5691,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -5709,7 +5712,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -5730,7 +5733,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
       <c r="B27" s="14" t="s">
         <v>8</v>
@@ -5761,7 +5764,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -5782,7 +5785,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -5803,7 +5806,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -5824,7 +5827,7 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -5845,7 +5848,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="14" t="s">
         <v>113</v>
@@ -5871,7 +5874,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="9"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -5890,7 +5893,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60" s="14" t="s">
         <v>3</v>
       </c>
@@ -5898,12 +5901,12 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B96">
         <v>3000</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B97">
         <v>2500</v>
       </c>
@@ -5911,7 +5914,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B98">
         <v>2500</v>
       </c>
@@ -5919,17 +5922,17 @@
         <v>600</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B99">
         <v>800</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B100">
         <v>700</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B104">
         <f>SUM(B96:B100)</f>
         <v>9500</v>
@@ -5939,47 +5942,47 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P105">
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P106" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P107" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P108" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P109" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P110" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P111" s="11">
         <v>3.99</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P112" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E113">
         <v>1400</v>
       </c>
@@ -5987,7 +5990,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E114">
         <v>1300</v>
       </c>
@@ -5995,24 +5998,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E115">
         <v>950</v>
       </c>
       <c r="P115" s="11"/>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="5:16" x14ac:dyDescent="0.35">
       <c r="P116" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E119">
         <f>SUM(E113:E117)</f>
         <v>3650</v>
       </c>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="5:16" x14ac:dyDescent="0.35">
       <c r="P123">
         <f>SUM(P103:P120)</f>
         <v>516.99</v>
@@ -6031,17 +6034,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.19921875" customWidth="1"/>
-    <col min="9" max="9" width="19.69921875" customWidth="1"/>
-    <col min="11" max="11" width="8.19921875" customWidth="1"/>
-    <col min="13" max="13" width="18.19921875" customWidth="1"/>
-    <col min="18" max="18" width="3.69921875" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" customWidth="1"/>
+    <col min="13" max="13" width="18.1640625" customWidth="1"/>
+    <col min="18" max="18" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -6062,7 +6065,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -6083,7 +6086,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -6108,7 +6111,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -6146,7 +6149,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -6167,7 +6170,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -6200,7 +6203,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
       <c r="B7" s="9" t="s">
         <v>193</v>
@@ -6233,7 +6236,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="10"/>
       <c r="B8" s="9" t="s">
         <v>202</v>
@@ -6269,7 +6272,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="9" t="s">
         <v>146</v>
@@ -6305,7 +6308,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="9" t="s">
         <v>214</v>
@@ -6341,7 +6344,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="B11" s="9" t="s">
         <v>226</v>
@@ -6375,7 +6378,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11">
@@ -6404,7 +6407,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -6431,7 +6434,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -6458,7 +6461,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -6483,7 +6486,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="D16" s="11"/>
@@ -6507,7 +6510,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -6532,7 +6535,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -6553,7 +6556,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -6574,7 +6577,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="10"/>
       <c r="B20" s="14" t="s">
         <v>6</v>
@@ -6612,7 +6615,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -6633,7 +6636,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -6654,7 +6657,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -6675,7 +6678,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="14" t="s">
@@ -6706,7 +6709,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -6727,7 +6730,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -6748,7 +6751,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
       <c r="B27" s="14" t="s">
         <v>8</v>
@@ -6779,7 +6782,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -6800,7 +6803,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -6821,7 +6824,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -6842,7 +6845,7 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -6863,7 +6866,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="14" t="s">
         <v>113</v>
@@ -6889,7 +6892,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="9"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -6908,7 +6911,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60" s="14" t="s">
         <v>3</v>
       </c>
@@ -6916,12 +6919,12 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B96">
         <v>3000</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B97">
         <v>2500</v>
       </c>
@@ -6929,7 +6932,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B98">
         <v>2500</v>
       </c>
@@ -6937,17 +6940,17 @@
         <v>600</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B99">
         <v>800</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B100">
         <v>700</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B104">
         <f>SUM(B96:B100)</f>
         <v>9500</v>
@@ -6957,47 +6960,47 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P105">
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P106" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P107" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P108" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P109" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P110" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P111" s="11">
         <v>3.99</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P112" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E113">
         <v>1400</v>
       </c>
@@ -7005,7 +7008,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E114">
         <v>1300</v>
       </c>
@@ -7013,24 +7016,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E115">
         <v>950</v>
       </c>
       <c r="P115" s="11"/>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="5:16" x14ac:dyDescent="0.35">
       <c r="P116" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E119">
         <f>SUM(E113:E117)</f>
         <v>3650</v>
       </c>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="5:16" x14ac:dyDescent="0.35">
       <c r="P123">
         <f>SUM(P103:P120)</f>
         <v>516.99</v>
@@ -7049,17 +7052,17 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.19921875" customWidth="1"/>
-    <col min="9" max="9" width="19.69921875" customWidth="1"/>
-    <col min="11" max="11" width="8.19921875" customWidth="1"/>
-    <col min="13" max="13" width="18.19921875" customWidth="1"/>
-    <col min="18" max="18" width="3.69921875" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" customWidth="1"/>
+    <col min="13" max="13" width="18.1640625" customWidth="1"/>
+    <col min="18" max="18" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -7080,7 +7083,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -7101,7 +7104,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -7126,7 +7129,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -7164,7 +7167,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -7185,7 +7188,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -7218,7 +7221,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
       <c r="B7" s="9" t="s">
         <v>193</v>
@@ -7251,7 +7254,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="10"/>
       <c r="B8" s="9" t="s">
         <v>202</v>
@@ -7287,7 +7290,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="9" t="s">
         <v>146</v>
@@ -7323,7 +7326,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="9" t="s">
         <v>214</v>
@@ -7357,7 +7360,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="B11" s="9" t="s">
         <v>205</v>
@@ -7391,7 +7394,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="B12" s="9" t="s">
         <v>229</v>
@@ -7422,7 +7425,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="B13" s="9" t="s">
         <v>230</v>
@@ -7453,7 +7456,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
       <c r="B14" s="9" t="s">
         <v>231</v>
@@ -7484,7 +7487,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="9" t="s">
         <v>232</v>
@@ -7513,7 +7516,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="9" t="s">
         <v>232</v>
@@ -7542,7 +7545,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -7567,7 +7570,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -7588,7 +7591,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -7609,7 +7612,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="10"/>
       <c r="B20" s="14" t="s">
         <v>6</v>
@@ -7647,7 +7650,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -7668,7 +7671,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -7689,7 +7692,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -7710,7 +7713,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="14" t="s">
@@ -7741,7 +7744,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -7762,7 +7765,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -7783,7 +7786,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
       <c r="B27" s="14" t="s">
         <v>228</v>
@@ -7814,7 +7817,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -7835,7 +7838,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -7856,7 +7859,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -7877,7 +7880,7 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -7898,7 +7901,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="14" t="s">
         <v>113</v>
@@ -7924,7 +7927,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="9"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -7943,7 +7946,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60" s="14" t="s">
         <v>3</v>
       </c>
@@ -7951,12 +7954,12 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B96">
         <v>3000</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B97">
         <v>2500</v>
       </c>
@@ -7964,7 +7967,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B98">
         <v>2500</v>
       </c>
@@ -7972,17 +7975,17 @@
         <v>600</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B99">
         <v>800</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B100">
         <v>700</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B104">
         <f>SUM(B96:B100)</f>
         <v>9500</v>
@@ -7992,47 +7995,47 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P105">
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P106" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P107" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P108" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P109" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P110" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P111" s="11">
         <v>3.99</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P112" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E113">
         <v>1400</v>
       </c>
@@ -8040,7 +8043,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E114">
         <v>1300</v>
       </c>
@@ -8048,24 +8051,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E115">
         <v>950</v>
       </c>
       <c r="P115" s="11"/>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="5:16" x14ac:dyDescent="0.35">
       <c r="P116" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E119">
         <f>SUM(E113:E117)</f>
         <v>3650</v>
       </c>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="5:16" x14ac:dyDescent="0.35">
       <c r="P123">
         <f>SUM(P103:P120)</f>
         <v>516.99</v>
@@ -8080,21 +8083,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8954BA60-EBA4-4FC7-A38C-A5D075E1C354}">
   <dimension ref="A1:T123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.19921875" customWidth="1"/>
-    <col min="9" max="9" width="19.69921875" customWidth="1"/>
-    <col min="11" max="11" width="8.19921875" customWidth="1"/>
-    <col min="13" max="13" width="18.19921875" customWidth="1"/>
-    <col min="18" max="18" width="3.69921875" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" customWidth="1"/>
+    <col min="13" max="13" width="18.1640625" customWidth="1"/>
+    <col min="18" max="18" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -8115,7 +8118,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -8136,7 +8139,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -8161,7 +8164,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -8199,7 +8202,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -8220,7 +8223,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -8253,7 +8256,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
       <c r="B7" s="9" t="s">
         <v>193</v>
@@ -8286,7 +8289,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="10"/>
       <c r="B8" s="9" t="s">
         <v>202</v>
@@ -8322,7 +8325,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="9" t="s">
         <v>146</v>
@@ -8358,7 +8361,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="9" t="s">
         <v>214</v>
@@ -8392,7 +8395,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="B11" s="9" t="s">
         <v>233</v>
@@ -8426,7 +8429,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="B12" s="9" t="s">
         <v>239</v>
@@ -8457,7 +8460,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="B13" s="9" t="s">
         <v>240</v>
@@ -8488,7 +8491,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -8515,7 +8518,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -8538,7 +8541,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="11"/>
@@ -8563,7 +8566,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -8588,7 +8591,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -8609,7 +8612,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -8630,7 +8633,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="10"/>
       <c r="B20" s="14" t="s">
         <v>6</v>
@@ -8668,7 +8671,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -8689,7 +8692,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -8710,7 +8713,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -8731,7 +8734,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="14" t="s">
@@ -8762,7 +8765,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -8783,7 +8786,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -8804,7 +8807,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
       <c r="B27" s="14" t="s">
         <v>228</v>
@@ -8835,7 +8838,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -8856,7 +8859,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -8877,7 +8880,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -8898,7 +8901,7 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -8919,7 +8922,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="14" t="s">
         <v>113</v>
@@ -8945,7 +8948,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="9"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -8964,7 +8967,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60" s="14" t="s">
         <v>3</v>
       </c>
@@ -8972,12 +8975,12 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B96">
         <v>3000</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B97">
         <v>2500</v>
       </c>
@@ -8985,7 +8988,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B98">
         <v>2500</v>
       </c>
@@ -8993,17 +8996,17 @@
         <v>600</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B99">
         <v>800</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B100">
         <v>700</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B104">
         <f>SUM(B96:B100)</f>
         <v>9500</v>
@@ -9013,47 +9016,47 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P105">
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P106" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P107" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P108" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P109" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P110" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P111" s="11">
         <v>3.99</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P112" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E113">
         <v>1400</v>
       </c>
@@ -9061,7 +9064,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E114">
         <v>1300</v>
       </c>
@@ -9069,24 +9072,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E115">
         <v>950</v>
       </c>
       <c r="P115" s="11"/>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="5:16" x14ac:dyDescent="0.35">
       <c r="P116" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E119">
         <f>SUM(E113:E117)</f>
         <v>3650</v>
       </c>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="5:16" x14ac:dyDescent="0.35">
       <c r="P123">
         <f>SUM(P103:P120)</f>
         <v>516.99</v>
@@ -9101,21 +9104,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3955CB3-126C-4293-8B88-AAD682FCCD60}">
   <dimension ref="A1:T123"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.19921875" customWidth="1"/>
-    <col min="9" max="9" width="19.69921875" customWidth="1"/>
-    <col min="11" max="11" width="8.19921875" customWidth="1"/>
-    <col min="13" max="13" width="18.19921875" customWidth="1"/>
-    <col min="18" max="18" width="3.69921875" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" customWidth="1"/>
+    <col min="13" max="13" width="18.1640625" customWidth="1"/>
+    <col min="18" max="18" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -9136,7 +9139,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -9157,7 +9160,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -9182,7 +9185,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -9220,7 +9223,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -9241,7 +9244,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -9274,7 +9277,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
       <c r="B7" s="9" t="s">
         <v>193</v>
@@ -9307,7 +9310,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="10"/>
       <c r="B8" s="9" t="s">
         <v>202</v>
@@ -9343,7 +9346,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="9" t="s">
         <v>146</v>
@@ -9379,7 +9382,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="9" t="s">
         <v>214</v>
@@ -9413,7 +9416,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="B11" s="9" t="s">
         <v>233</v>
@@ -9445,7 +9448,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="B12" s="9" t="s">
         <v>239</v>
@@ -9474,7 +9477,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="B13" s="9" t="s">
         <v>240</v>
@@ -9503,7 +9506,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -9530,7 +9533,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -9553,7 +9556,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="11"/>
@@ -9578,7 +9581,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -9603,7 +9606,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -9624,7 +9627,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -9645,7 +9648,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="10"/>
       <c r="B20" s="14" t="s">
         <v>6</v>
@@ -9683,7 +9686,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -9704,7 +9707,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -9725,7 +9728,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -9746,7 +9749,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="14" t="s">
@@ -9777,7 +9780,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -9798,7 +9801,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -9819,7 +9822,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
       <c r="B27" s="14" t="s">
         <v>228</v>
@@ -9850,7 +9853,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -9871,7 +9874,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -9892,7 +9895,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -9913,7 +9916,7 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -9934,7 +9937,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="14" t="s">
         <v>113</v>
@@ -9960,7 +9963,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="9"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -9979,7 +9982,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60" s="14" t="s">
         <v>3</v>
       </c>
@@ -9987,12 +9990,12 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B96">
         <v>3000</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B97">
         <v>2500</v>
       </c>
@@ -10000,7 +10003,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B98">
         <v>2500</v>
       </c>
@@ -10008,17 +10011,17 @@
         <v>600</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B99">
         <v>800</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B100">
         <v>700</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B104">
         <f>SUM(B96:B100)</f>
         <v>9500</v>
@@ -10028,47 +10031,47 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P105">
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P106" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P107" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P108" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P109" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P110" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P111" s="11">
         <v>3.99</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P112" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E113">
         <v>1400</v>
       </c>
@@ -10076,7 +10079,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E114">
         <v>1300</v>
       </c>
@@ -10084,24 +10087,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E115">
         <v>950</v>
       </c>
       <c r="P115" s="11"/>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="5:16" x14ac:dyDescent="0.35">
       <c r="P116" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E119">
         <f>SUM(E113:E117)</f>
         <v>3650</v>
       </c>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="5:16" x14ac:dyDescent="0.35">
       <c r="P123">
         <f>SUM(P103:P120)</f>
         <v>516.99</v>
@@ -10116,16 +10119,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B974066F-70AB-4CE0-9413-18C0CA619219}">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>204</v>
       </c>
@@ -10139,7 +10142,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>11500</v>
       </c>
@@ -10156,7 +10159,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G3" t="s">
         <v>219</v>
       </c>
@@ -10164,7 +10167,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G4" t="s">
         <v>220</v>
       </c>
@@ -10172,7 +10175,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G5" t="s">
         <v>221</v>
       </c>
@@ -10180,7 +10183,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -10195,7 +10198,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G7" t="s">
         <v>223</v>
       </c>
@@ -10203,7 +10206,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G8" t="s">
         <v>225</v>
       </c>
@@ -10211,7 +10214,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G9" t="s">
         <v>234</v>
       </c>
@@ -10219,7 +10222,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G10" t="s">
         <v>235</v>
       </c>
@@ -10230,12 +10233,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="O17" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="F19" t="s">
         <v>6</v>
       </c>
@@ -10244,16 +10247,16 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>99</v>
       </c>
       <c r="B20">
         <f>B6-F41</f>
-        <v>26050</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+        <v>25550</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
         <v>227</v>
       </c>
@@ -10263,7 +10266,7 @@
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -10271,7 +10274,7 @@
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="18"/>
       <c r="B26" s="18" t="s">
         <v>236</v>
@@ -10287,7 +10290,7 @@
       </c>
       <c r="F26" s="17"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
         <v>225</v>
       </c>
@@ -10301,7 +10304,7 @@
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
         <v>234</v>
       </c>
@@ -10315,7 +10318,7 @@
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
         <v>235</v>
       </c>
@@ -10329,15 +10332,21 @@
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A30" s="17" t="s">
+        <v>241</v>
+      </c>
       <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
+      <c r="C30" s="17">
+        <v>0</v>
+      </c>
+      <c r="D30" s="17">
+        <v>500</v>
+      </c>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -10345,7 +10354,7 @@
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -10353,7 +10362,7 @@
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -10361,7 +10370,7 @@
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -10369,7 +10378,7 @@
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -10377,7 +10386,7 @@
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="17"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -10385,7 +10394,7 @@
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -10393,7 +10402,7 @@
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -10401,7 +10410,7 @@
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -10409,7 +10418,7 @@
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -10417,7 +10426,7 @@
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="18" t="s">
         <v>6</v>
       </c>
@@ -10431,7 +10440,7 @@
       </c>
       <c r="D41" s="18">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E41" s="18">
         <f t="shared" si="0"/>
@@ -10439,7 +10448,7 @@
       </c>
       <c r="F41" s="18">
         <f>SUM(B41:E41)</f>
-        <v>3500</v>
+        <v>4000</v>
       </c>
     </row>
   </sheetData>
@@ -10453,7 +10462,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10467,19 +10476,19 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -10487,7 +10496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -10495,7 +10504,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -10504,10 +10513,10 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -10521,7 +10530,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -10535,7 +10544,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -10549,7 +10558,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -10563,7 +10572,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -10577,7 +10586,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -10591,7 +10600,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -10605,7 +10614,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -10619,7 +10628,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -10633,7 +10642,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -10642,7 +10651,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
@@ -10651,7 +10660,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -10660,7 +10669,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -10668,13 +10677,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -10687,7 +10696,7 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>15</v>
       </c>
@@ -10696,7 +10705,7 @@
         <v>4156.41</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -10721,14 +10730,14 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="L2" t="s">
         <v>181</v>
       </c>
@@ -10736,7 +10745,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>162</v>
       </c>
@@ -10769,7 +10778,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="L5" t="s">
         <v>182</v>
       </c>
@@ -10783,7 +10792,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>184</v>
       </c>
@@ -10797,7 +10806,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>163</v>
       </c>
@@ -10817,7 +10826,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>183</v>
       </c>
@@ -10831,7 +10840,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>164</v>
       </c>
@@ -10846,7 +10855,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="L10" t="s">
         <v>192</v>
       </c>
@@ -10854,12 +10863,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G13" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>166</v>
       </c>
@@ -10868,7 +10877,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -10896,7 +10905,7 @@
         <v>13978</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>163</v>
       </c>
@@ -10910,7 +10919,7 @@
         <v>3820</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>164</v>
       </c>
@@ -10933,12 +10942,12 @@
         <v>6022</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="G28" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>166</v>
       </c>
@@ -10960,20 +10969,20 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="17.8984375" customWidth="1"/>
-    <col min="7" max="7" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.9140625" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>155</v>
       </c>
@@ -10984,7 +10993,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1.5</v>
       </c>
@@ -10995,7 +11004,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1.8</v>
       </c>
@@ -11006,7 +11015,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1.5</v>
       </c>
@@ -11017,7 +11026,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>159</v>
       </c>
@@ -11025,7 +11034,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G11" t="s">
         <v>186</v>
       </c>
@@ -11033,7 +11042,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>160</v>
       </c>
@@ -11048,7 +11057,7 @@
         <v>336000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>161</v>
       </c>
@@ -11066,18 +11075,18 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="18.19921875" customWidth="1"/>
-    <col min="6" max="6" width="20.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>168</v>
       </c>
@@ -11094,7 +11103,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>169</v>
       </c>
@@ -11111,7 +11120,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>170</v>
       </c>
@@ -11128,7 +11137,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>171</v>
       </c>
@@ -11142,7 +11151,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>145</v>
       </c>
@@ -11150,7 +11159,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>172</v>
       </c>
@@ -11158,7 +11167,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>174</v>
       </c>
@@ -11166,12 +11175,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>175</v>
       </c>
@@ -11197,14 +11206,14 @@
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -11212,7 +11221,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -11220,7 +11229,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -11229,10 +11238,10 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -11250,7 +11259,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -11259,7 +11268,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -11268,7 +11277,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>4</v>
@@ -11277,7 +11286,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>14</v>
@@ -11286,7 +11295,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>2</v>
@@ -11295,7 +11304,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>16</v>
@@ -11304,7 +11313,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>5</v>
@@ -11313,7 +11322,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>21</v>
@@ -11322,7 +11331,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>37</v>
@@ -11331,7 +11340,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>36</v>
@@ -11340,7 +11349,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>38</v>
@@ -11349,7 +11358,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>39</v>
@@ -11358,7 +11367,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>40</v>
@@ -11367,7 +11376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>42</v>
@@ -11376,7 +11385,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="D21" s="1" t="s">
         <v>43</v>
@@ -11385,7 +11394,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>43</v>
@@ -11394,7 +11403,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="D23" s="1" t="s">
         <v>44</v>
@@ -11403,7 +11412,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D24" s="1" t="s">
         <v>45</v>
       </c>
@@ -11411,7 +11420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D25" s="1" t="s">
         <v>37</v>
       </c>
@@ -11419,7 +11428,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D26" s="1" t="s">
         <v>16</v>
       </c>
@@ -11427,7 +11436,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D27" s="1" t="s">
         <v>36</v>
       </c>
@@ -11435,7 +11444,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D28" s="1" t="s">
         <v>46</v>
       </c>
@@ -11443,7 +11452,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D29" s="1" t="s">
         <v>47</v>
       </c>
@@ -11451,7 +11460,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D30" s="1" t="s">
         <v>27</v>
       </c>
@@ -11459,7 +11468,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D31" s="1" t="s">
         <v>27</v>
       </c>
@@ -11467,7 +11476,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D32" s="1" t="s">
         <v>54</v>
       </c>
@@ -11475,7 +11484,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D33" s="1" t="s">
         <v>50</v>
       </c>
@@ -11483,16 +11492,16 @@
         <v>387</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D36" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>6</v>
       </c>
@@ -11505,7 +11514,7 @@
         <v>3854</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B42" s="2" t="s">
         <v>15</v>
       </c>
@@ -11514,7 +11523,7 @@
         <v>3854</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>8</v>
       </c>
@@ -11523,7 +11532,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>3</v>
       </c>
@@ -11543,7 +11552,7 @@
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11557,14 +11566,14 @@
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -11572,7 +11581,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -11580,7 +11589,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -11589,10 +11598,10 @@
         <v>3946</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -11603,7 +11612,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -11612,7 +11621,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="D8" s="1" t="s">
         <v>21</v>
@@ -11621,7 +11630,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -11630,7 +11639,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>4</v>
@@ -11639,7 +11648,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>5</v>
@@ -11648,7 +11657,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>2</v>
@@ -11657,7 +11666,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -11666,7 +11675,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>39</v>
@@ -11675,7 +11684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>40</v>
@@ -11684,7 +11693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>48</v>
@@ -11693,7 +11702,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>49</v>
@@ -11702,7 +11711,7 @@
         <v>15.99</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>49</v>
@@ -11711,7 +11720,7 @@
         <v>15.99</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>49</v>
@@ -11720,7 +11729,7 @@
         <v>3.99</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>51</v>
@@ -11729,7 +11738,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="D21" s="1" t="s">
         <v>57</v>
@@ -11738,7 +11747,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>52</v>
@@ -11747,7 +11756,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="D23" s="1" t="s">
         <v>53</v>
@@ -11756,7 +11765,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="D24" s="1" t="s">
         <v>55</v>
@@ -11765,7 +11774,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D25" s="1" t="s">
         <v>56</v>
       </c>
@@ -11773,7 +11782,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D26" s="1" t="s">
         <v>58</v>
       </c>
@@ -11781,7 +11790,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D27" s="1" t="s">
         <v>59</v>
       </c>
@@ -11789,7 +11798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D28" s="1" t="s">
         <v>60</v>
       </c>
@@ -11797,7 +11806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D29" s="1" t="s">
         <v>61</v>
       </c>
@@ -11805,7 +11814,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D30" s="1" t="s">
         <v>62</v>
       </c>
@@ -11813,7 +11822,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D31" s="1" t="s">
         <v>27</v>
       </c>
@@ -11821,7 +11830,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D32" s="1" t="s">
         <v>14</v>
       </c>
@@ -11829,22 +11838,22 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D37" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>6</v>
       </c>
@@ -11857,7 +11866,7 @@
         <v>3898.9699999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B43" s="2" t="s">
         <v>15</v>
       </c>
@@ -11866,7 +11875,7 @@
         <v>3898.9699999999993</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>8</v>
       </c>
@@ -11875,7 +11884,7 @@
         <v>47.030000000000655</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -11896,19 +11905,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -11916,7 +11925,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -11925,10 +11934,10 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -11939,7 +11948,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -11948,7 +11957,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8">
         <v>50</v>
@@ -11960,7 +11969,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -11969,7 +11978,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>4</v>
@@ -11978,7 +11987,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>5</v>
@@ -11987,7 +11996,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>2</v>
@@ -11996,7 +12005,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -12005,7 +12014,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>39</v>
@@ -12014,7 +12023,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>40</v>
@@ -12023,7 +12032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>48</v>
@@ -12032,7 +12041,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>49</v>
@@ -12041,7 +12050,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>49</v>
@@ -12050,7 +12059,7 @@
         <v>15.99</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>49</v>
@@ -12059,7 +12068,7 @@
         <v>3.99</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>51</v>
@@ -12068,7 +12077,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="D21" s="1" t="s">
         <v>14</v>
@@ -12077,7 +12086,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>52</v>
@@ -12086,7 +12095,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="D23" s="1" t="s">
         <v>63</v>
@@ -12095,7 +12104,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="D24" s="1" t="s">
         <v>14</v>
@@ -12104,7 +12113,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D25" s="1" t="s">
         <v>64</v>
       </c>
@@ -12112,7 +12121,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D26" s="1" t="s">
         <v>65</v>
       </c>
@@ -12120,40 +12129,40 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D37" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>6</v>
       </c>
@@ -12166,7 +12175,7 @@
         <v>3000.9799999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B43" s="2" t="s">
         <v>15</v>
       </c>
@@ -12175,7 +12184,7 @@
         <v>3050.9799999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>8</v>
       </c>
@@ -12184,7 +12193,7 @@
         <v>-0.97999999999956344</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -12205,17 +12214,17 @@
       <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -12223,7 +12232,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -12231,7 +12240,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -12240,7 +12249,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="D4" s="5" t="s">
         <v>78</v>
@@ -12249,7 +12258,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>75</v>
@@ -12278,7 +12287,7 @@
       </c>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -12300,7 +12309,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8">
         <v>25</v>
@@ -12325,7 +12334,7 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9">
         <v>26</v>
@@ -12345,7 +12354,7 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10">
         <v>160</v>
@@ -12370,7 +12379,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>5</v>
@@ -12391,7 +12400,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>2</v>
@@ -12406,7 +12415,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -12418,7 +12427,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>39</v>
@@ -12428,7 +12437,7 @@
       </c>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>40</v>
@@ -12438,7 +12447,7 @@
       </c>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>48</v>
@@ -12448,7 +12457,7 @@
       </c>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>49</v>
@@ -12458,7 +12467,7 @@
       </c>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>49</v>
@@ -12471,7 +12480,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>49</v>
@@ -12484,7 +12493,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>51</v>
@@ -12497,7 +12506,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="D21" s="1" t="s">
         <v>14</v>
@@ -12510,7 +12519,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>81</v>
@@ -12522,7 +12531,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="D23" s="1" t="s">
         <v>82</v>
@@ -12531,7 +12540,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="D24" s="1" t="s">
         <v>84</v>
@@ -12544,10 +12553,10 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D27" s="1"/>
       <c r="Q27" t="s">
         <v>83</v>
@@ -12557,25 +12566,25 @@
         <v>780.98999999999978</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="N32">
         <f>SUM(N7:N29)</f>
         <v>272</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
@@ -12592,7 +12601,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B37" s="2" t="s">
         <v>15</v>
       </c>
@@ -12601,7 +12610,7 @@
         <v>3066.99</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
@@ -12610,7 +12619,7 @@
         <v>233.01000000000022</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>3</v>
       </c>
@@ -12631,20 +12640,20 @@
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.69921875" style="1"/>
-    <col min="2" max="2" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.19921875" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" customWidth="1"/>
     <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -12665,7 +12674,7 @@
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -12686,7 +12695,7 @@
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="8"/>
       <c r="B3" s="1">
         <v>3030</v>
@@ -12697,7 +12706,7 @@
       </c>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
       <c r="B4" s="1">
         <v>600</v>
@@ -12705,7 +12714,7 @@
       <c r="J4" s="7"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
       <c r="B5" s="1">
         <v>300</v>
@@ -12713,7 +12722,7 @@
       <c r="J5" s="7"/>
       <c r="S5" s="7"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
       <c r="B6" s="1">
         <v>100</v>
@@ -12721,19 +12730,19 @@
       <c r="J6" s="7"/>
       <c r="S6" s="7"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="B7" s="1"/>
       <c r="J7" s="7"/>
       <c r="S7" s="7"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
       <c r="B8" s="1"/>
       <c r="J8" s="7"/>
       <c r="S8" s="7"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
       <c r="B9" s="1"/>
       <c r="E9" s="5" t="s">
@@ -12758,13 +12767,13 @@
       </c>
       <c r="S9" s="7"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
       <c r="B10" s="1"/>
       <c r="J10" s="7"/>
       <c r="S10" s="7"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
@@ -12796,7 +12805,7 @@
       <c r="Q11" s="2"/>
       <c r="S11" s="7"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="1"/>
       <c r="E12" s="1" t="s">
@@ -12826,7 +12835,7 @@
       </c>
       <c r="S12" s="7"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
       <c r="B13" s="1" t="s">
         <v>91</v>
@@ -12861,7 +12870,7 @@
       </c>
       <c r="S13" s="7"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
       <c r="B14" s="1" t="s">
         <v>50</v>
@@ -12896,7 +12905,7 @@
       </c>
       <c r="S14" s="7"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
       <c r="B15" s="1" t="s">
         <v>11</v>
@@ -12931,7 +12940,7 @@
       </c>
       <c r="S15" s="7"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
       <c r="B16" s="1" t="s">
         <v>82</v>
@@ -12966,7 +12975,7 @@
       </c>
       <c r="S16" s="7"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
       <c r="B17" s="1" t="s">
         <v>84</v>
@@ -13001,7 +13010,7 @@
       </c>
       <c r="S17" s="7"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
       <c r="B18" s="1" t="s">
         <v>81</v>
@@ -13033,7 +13042,7 @@
       </c>
       <c r="S18" s="7"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
       <c r="B19" s="1"/>
       <c r="E19" s="1" t="s">
@@ -13058,7 +13067,7 @@
       </c>
       <c r="S19" s="7"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
       <c r="B20" s="1"/>
       <c r="E20" s="1" t="s">
@@ -13083,7 +13092,7 @@
       </c>
       <c r="S20" s="7"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
       <c r="B21" s="1"/>
       <c r="E21" s="1" t="s">
@@ -13102,7 +13111,7 @@
       <c r="M21" s="1"/>
       <c r="S21" s="7"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
       <c r="B22" s="1"/>
       <c r="E22" s="1" t="s">
@@ -13121,7 +13130,7 @@
       <c r="M22" s="1"/>
       <c r="S22" s="7"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
       <c r="B23" s="1"/>
       <c r="E23" s="1" t="s">
@@ -13135,7 +13144,7 @@
       <c r="M23" s="1"/>
       <c r="S23" s="7"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
       <c r="B24" s="1"/>
       <c r="E24" s="1" t="s">
@@ -13154,7 +13163,7 @@
       <c r="M24" s="1"/>
       <c r="S24" s="7"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
       <c r="B25" s="1"/>
       <c r="E25" s="1" t="s">
@@ -13173,7 +13182,7 @@
       <c r="M25" s="1"/>
       <c r="S25" s="7"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
       <c r="B26" s="1"/>
       <c r="E26" s="1" t="s">
@@ -13192,7 +13201,7 @@
       <c r="M26" s="1"/>
       <c r="S26" s="7"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
       <c r="B27" s="1"/>
       <c r="E27" s="1" t="s">
@@ -13210,7 +13219,7 @@
       <c r="J27" s="7"/>
       <c r="S27" s="7"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="8"/>
       <c r="B28" s="1"/>
       <c r="E28" s="1"/>
@@ -13223,7 +13232,7 @@
       <c r="J28" s="7"/>
       <c r="S28" s="7"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
       <c r="B29" s="1"/>
       <c r="E29" s="1"/>
@@ -13236,7 +13245,7 @@
       <c r="J29" s="7"/>
       <c r="S29" s="7"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
       <c r="B30" s="1"/>
       <c r="H30" s="1" t="s">
@@ -13248,7 +13257,7 @@
       <c r="J30" s="7"/>
       <c r="S30" s="7"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="8"/>
       <c r="H31" s="1" t="s">
         <v>110</v>
@@ -13259,7 +13268,7 @@
       <c r="J31" s="7"/>
       <c r="S31" s="7"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
       <c r="E32" s="1"/>
       <c r="H32" s="1" t="s">
@@ -13271,7 +13280,7 @@
       <c r="J32" s="7"/>
       <c r="S32" s="7"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="8"/>
       <c r="E33" s="1"/>
       <c r="H33" s="1" t="s">
@@ -13283,30 +13292,30 @@
       <c r="J33" s="7"/>
       <c r="S33" s="7"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="8"/>
       <c r="E34" s="1"/>
       <c r="J34" s="7"/>
       <c r="S34" s="7"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="8"/>
       <c r="E35" s="1"/>
       <c r="J35" s="7"/>
       <c r="S35" s="7"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="8"/>
       <c r="E36" s="1"/>
       <c r="J36" s="7"/>
       <c r="S36" s="7"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="8"/>
       <c r="J37" s="7"/>
       <c r="S37" s="7"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="8"/>
       <c r="B38" s="2" t="s">
         <v>6</v>
@@ -13334,22 +13343,22 @@
       </c>
       <c r="S38" s="7"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="8"/>
       <c r="J39" s="7"/>
       <c r="S39" s="7"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="8"/>
       <c r="J40" s="7"/>
       <c r="S40" s="7"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="8"/>
       <c r="J41" s="7"/>
       <c r="S41" s="7"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="8"/>
       <c r="C42" s="2" t="s">
         <v>15</v>
@@ -13368,17 +13377,17 @@
       </c>
       <c r="S42" s="7"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="8"/>
       <c r="J43" s="7"/>
       <c r="S43" s="7"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="8"/>
       <c r="J44" s="7"/>
       <c r="S44" s="7"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="8"/>
       <c r="B45" s="2" t="s">
         <v>8</v>
@@ -13394,12 +13403,12 @@
       </c>
       <c r="S45" s="7"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
       <c r="J46" s="7"/>
       <c r="S46" s="7"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -13420,7 +13429,7 @@
       <c r="R47" s="7"/>
       <c r="S47" s="7"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -13441,10 +13450,10 @@
       <c r="R48" s="7"/>
       <c r="S48" s="7"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B51" s="2" t="s">
         <v>3</v>
       </c>
@@ -13455,7 +13464,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="M52" t="s">
         <v>106</v>
       </c>
@@ -13463,12 +13472,12 @@
         <v>24.99</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="M53" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="M54" t="s">
         <v>108</v>
       </c>
@@ -13476,7 +13485,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="N61">
         <f>SUM(N51:N57)</f>
         <v>74.989999999999995</v>
@@ -13495,16 +13504,16 @@
       <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.19921875" customWidth="1"/>
-    <col min="11" max="11" width="8.19921875" customWidth="1"/>
-    <col min="13" max="13" width="18.19921875" customWidth="1"/>
-    <col min="18" max="18" width="3.69921875" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" customWidth="1"/>
+    <col min="13" max="13" width="18.1640625" customWidth="1"/>
+    <col min="18" max="18" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -13525,7 +13534,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -13546,7 +13555,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -13567,7 +13576,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -13600,7 +13609,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -13621,7 +13630,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -13654,7 +13663,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
       <c r="B7" s="9"/>
       <c r="C7" s="11"/>
@@ -13689,7 +13698,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="10"/>
       <c r="B8" s="9"/>
       <c r="C8" s="11"/>
@@ -13726,7 +13735,7 @@
       <c r="R8" s="11"/>
       <c r="S8" s="12"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="9"/>
       <c r="C9" s="11"/>
@@ -13763,7 +13772,7 @@
       <c r="R9" s="11"/>
       <c r="S9" s="12"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="C10" s="11"/>
@@ -13800,7 +13809,7 @@
       <c r="R10" s="11"/>
       <c r="S10" s="12"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="11"/>
@@ -13835,7 +13844,7 @@
       <c r="R11" s="11"/>
       <c r="S11" s="12"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>
@@ -13872,7 +13881,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -13905,7 +13914,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -13932,7 +13941,7 @@
       <c r="R14" s="11"/>
       <c r="S14" s="12"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -13961,7 +13970,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="11"/>
@@ -13990,7 +13999,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -14019,7 +14028,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" s="9"/>
       <c r="C18" s="11"/>
@@ -14048,7 +14057,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="10"/>
       <c r="B19" s="9"/>
       <c r="C19" s="11"/>
@@ -14077,7 +14086,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="10"/>
       <c r="B20" s="9"/>
       <c r="C20" s="11"/>
@@ -14106,7 +14115,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="9"/>
       <c r="C21" s="11"/>
@@ -14133,7 +14142,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="B22" s="9"/>
       <c r="C22" s="11"/>
@@ -14158,7 +14167,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="9"/>
       <c r="C23" s="11"/>
@@ -14183,7 +14192,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="9"/>
       <c r="C24" s="11"/>
@@ -14204,7 +14213,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="9"/>
       <c r="C25" s="11"/>
@@ -14225,7 +14234,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -14246,7 +14255,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -14267,7 +14276,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -14288,7 +14297,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -14309,7 +14318,7 @@
       <c r="R29" s="11"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -14330,7 +14339,7 @@
       <c r="R30" s="11"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -14351,7 +14360,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="12"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -14372,7 +14381,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="12"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="10"/>
       <c r="B33" s="14" t="s">
         <v>6</v>
@@ -14410,7 +14419,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="12"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -14431,7 +14440,7 @@
       <c r="R34" s="11"/>
       <c r="S34" s="12"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -14452,7 +14461,7 @@
       <c r="R35" s="11"/>
       <c r="S35" s="12"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -14473,7 +14482,7 @@
       <c r="R36" s="11"/>
       <c r="S36" s="12"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="14" t="s">
@@ -14504,7 +14513,7 @@
       <c r="R37" s="11"/>
       <c r="S37" s="12"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -14525,7 +14534,7 @@
       <c r="R38" s="11"/>
       <c r="S38" s="12"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -14546,7 +14555,7 @@
       <c r="R39" s="11"/>
       <c r="S39" s="12"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="10"/>
       <c r="B40" s="14" t="s">
         <v>8</v>
@@ -14577,7 +14586,7 @@
       <c r="R40" s="11"/>
       <c r="S40" s="12"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -14598,7 +14607,7 @@
       <c r="R41" s="11"/>
       <c r="S41" s="12"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -14619,7 +14628,7 @@
       <c r="R42" s="12"/>
       <c r="S42" s="12"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -14640,7 +14649,7 @@
       <c r="R43" s="12"/>
       <c r="S43" s="12"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -14661,7 +14670,7 @@
       <c r="R44" s="11"/>
       <c r="S44" s="11"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="9"/>
       <c r="B45" s="14" t="s">
         <v>113</v>
@@ -14687,7 +14696,7 @@
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="9"/>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
@@ -14706,7 +14715,7 @@
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="N47" t="s">
         <v>122</v>
       </c>
@@ -14714,7 +14723,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="N48" t="s">
         <v>125</v>
       </c>
@@ -14722,7 +14731,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="14:16" x14ac:dyDescent="0.35">
       <c r="N49" t="s">
         <v>122</v>
       </c>
@@ -14730,7 +14739,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="14:16" x14ac:dyDescent="0.35">
       <c r="N50" t="s">
         <v>123</v>
       </c>
@@ -14738,7 +14747,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="14:16" x14ac:dyDescent="0.35">
       <c r="N51" t="s">
         <v>126</v>
       </c>
@@ -14749,7 +14758,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="14:16" x14ac:dyDescent="0.35">
       <c r="N52" t="s">
         <v>127</v>
       </c>
@@ -14757,12 +14766,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="14:16" x14ac:dyDescent="0.35">
       <c r="N55" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="58" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="14:16" x14ac:dyDescent="0.35">
       <c r="N58" t="s">
         <v>6</v>
       </c>
@@ -14771,7 +14780,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B73" s="14" t="s">
         <v>3</v>
       </c>

--- a/Budget.xlsx
+++ b/Budget.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Projet-git\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AG_AUTOMATION\Documents\projet-git\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC20E544-FF7B-4F65-9DA0-CF301D3D3797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A2E7B9-281F-4862-AA0B-7C036F8A9969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="15" activeTab="16" xr2:uid="{27B7E826-E620-B34C-81E1-46A3DBC74E62}"/>
+    <workbookView xWindow="19080" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="15" activeTab="17" xr2:uid="{27B7E826-E620-B34C-81E1-46A3DBC74E62}"/>
   </bookViews>
   <sheets>
     <sheet name="Fevrier" sheetId="3" r:id="rId1"/>
@@ -30,11 +30,12 @@
     <sheet name="Nov2023" sheetId="31" r:id="rId15"/>
     <sheet name="Dec2023" sheetId="32" r:id="rId16"/>
     <sheet name="JAN24" sheetId="33" r:id="rId17"/>
-    <sheet name="Credit" sheetId="28" r:id="rId18"/>
-    <sheet name="Feuil1" sheetId="27" r:id="rId19"/>
-    <sheet name="Terrain" sheetId="18" r:id="rId20"/>
-    <sheet name="Poulailler" sheetId="20" r:id="rId21"/>
-    <sheet name="divers " sheetId="22" r:id="rId22"/>
+    <sheet name="FEV24" sheetId="34" r:id="rId18"/>
+    <sheet name="Credit" sheetId="28" r:id="rId19"/>
+    <sheet name="Contruction " sheetId="27" r:id="rId20"/>
+    <sheet name="Terrain" sheetId="18" r:id="rId21"/>
+    <sheet name="Poulailler" sheetId="20" r:id="rId22"/>
+    <sheet name="divers " sheetId="22" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="249">
   <si>
     <t>Loyer</t>
   </si>
@@ -781,6 +782,27 @@
   </si>
   <si>
     <t>janvier</t>
+  </si>
+  <si>
+    <t>fatou</t>
+  </si>
+  <si>
+    <t>fevrier</t>
+  </si>
+  <si>
+    <t>avril</t>
+  </si>
+  <si>
+    <t>juin</t>
+  </si>
+  <si>
+    <t>Devis Oumar</t>
+  </si>
+  <si>
+    <t>Déjà recu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wave </t>
   </si>
 </sst>
 </file>
@@ -1241,14 +1263,14 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1256,7 +1278,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1264,7 +1286,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1273,13 +1295,13 @@
         <v>3375</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1290,7 +1312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1304,7 +1326,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1318,7 +1340,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1332,7 +1354,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1346,7 +1368,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -1360,7 +1382,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1374,7 +1396,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1388,7 +1410,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1402,7 +1424,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -1411,7 +1433,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -1420,7 +1442,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1429,7 +1451,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -1444,7 +1466,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>15</v>
       </c>
@@ -1453,7 +1475,7 @@
         <v>3446.18</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
@@ -1475,16 +1497,16 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" customWidth="1"/>
-    <col min="11" max="11" width="8.1640625" customWidth="1"/>
-    <col min="13" max="13" width="18.1640625" customWidth="1"/>
-    <col min="18" max="18" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="11" max="11" width="8.125" customWidth="1"/>
+    <col min="13" max="13" width="18.125" customWidth="1"/>
+    <col min="18" max="18" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1505,7 +1527,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -1526,7 +1548,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -1547,7 +1569,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -1580,7 +1602,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -1601,7 +1623,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -1634,7 +1656,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="9"/>
       <c r="C7" s="11"/>
@@ -1671,7 +1693,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="9"/>
       <c r="C8" s="11"/>
@@ -1700,7 +1722,7 @@
       <c r="R8" s="11"/>
       <c r="S8" s="12"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="9"/>
       <c r="C9" s="11"/>
@@ -1737,7 +1759,7 @@
       <c r="R9" s="11"/>
       <c r="S9" s="12"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="C10" s="11"/>
@@ -1774,7 +1796,7 @@
       <c r="R10" s="11"/>
       <c r="S10" s="12"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="11"/>
@@ -1811,7 +1833,7 @@
       <c r="R11" s="11"/>
       <c r="S11" s="12"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>
@@ -1848,7 +1870,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -1881,7 +1903,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -1912,7 +1934,7 @@
       <c r="R14" s="11"/>
       <c r="S14" s="12"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -1945,7 +1967,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="11"/>
@@ -1978,7 +2000,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -2011,7 +2033,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="9"/>
       <c r="C18" s="11"/>
@@ -2044,7 +2066,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="9"/>
       <c r="C19" s="11"/>
@@ -2073,7 +2095,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="9"/>
       <c r="C20" s="11"/>
@@ -2100,7 +2122,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="9"/>
       <c r="C21" s="11"/>
@@ -2129,7 +2151,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="9"/>
       <c r="C22" s="11"/>
@@ -2154,7 +2176,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="9"/>
       <c r="C23" s="11"/>
@@ -2179,7 +2201,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="9"/>
       <c r="C24" s="11"/>
@@ -2204,7 +2226,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="9"/>
       <c r="C25" s="11"/>
@@ -2227,7 +2249,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="9"/>
       <c r="C26" s="11"/>
@@ -2252,7 +2274,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -2277,7 +2299,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -2302,7 +2324,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -2323,7 +2345,7 @@
       <c r="R29" s="11"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -2344,7 +2366,7 @@
       <c r="R30" s="11"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -2365,7 +2387,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="12"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -2386,7 +2408,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="12"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -2407,7 +2429,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="12"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="14" t="s">
         <v>6</v>
@@ -2445,7 +2467,7 @@
       <c r="R34" s="11"/>
       <c r="S34" s="12"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -2466,7 +2488,7 @@
       <c r="R35" s="11"/>
       <c r="S35" s="12"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -2487,7 +2509,7 @@
       <c r="R36" s="11"/>
       <c r="S36" s="12"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -2508,7 +2530,7 @@
       <c r="R37" s="11"/>
       <c r="S37" s="12"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="14" t="s">
@@ -2539,7 +2561,7 @@
       <c r="R38" s="11"/>
       <c r="S38" s="12"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -2560,7 +2582,7 @@
       <c r="R39" s="11"/>
       <c r="S39" s="12"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -2581,7 +2603,7 @@
       <c r="R40" s="11"/>
       <c r="S40" s="12"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="14" t="s">
         <v>8</v>
@@ -2612,7 +2634,7 @@
       <c r="R41" s="11"/>
       <c r="S41" s="12"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -2633,7 +2655,7 @@
       <c r="R42" s="11"/>
       <c r="S42" s="12"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -2654,7 +2676,7 @@
       <c r="R43" s="12"/>
       <c r="S43" s="12"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -2675,7 +2697,7 @@
       <c r="R44" s="12"/>
       <c r="S44" s="12"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -2696,7 +2718,7 @@
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="14" t="s">
         <v>113</v>
@@ -2722,7 +2744,7 @@
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
@@ -2741,7 +2763,7 @@
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="14" t="s">
         <v>3</v>
       </c>
@@ -2762,18 +2784,18 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.1640625" customWidth="1"/>
-    <col min="13" max="13" width="18.1640625" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="8" max="8" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.125" customWidth="1"/>
+    <col min="13" max="13" width="18.125" customWidth="1"/>
+    <col min="16" max="16" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -2794,7 +2816,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -2815,7 +2837,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -2836,7 +2858,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -2869,7 +2891,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -2890,7 +2912,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -2923,7 +2945,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="9"/>
       <c r="C7" s="11">
@@ -2962,7 +2984,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="9"/>
       <c r="C8" s="11"/>
@@ -2995,7 +3017,7 @@
       <c r="R8" s="11"/>
       <c r="S8" s="12"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="9"/>
       <c r="C9" s="11"/>
@@ -3032,7 +3054,7 @@
       <c r="R9" s="11"/>
       <c r="S9" s="12"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="C10" s="11"/>
@@ -3066,7 +3088,7 @@
       <c r="R10" s="11"/>
       <c r="S10" s="12"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="11"/>
@@ -3100,7 +3122,7 @@
       <c r="R11" s="11"/>
       <c r="S11" s="12"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>
@@ -3137,7 +3159,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -3174,7 +3196,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -3201,7 +3223,7 @@
       <c r="R14" s="11"/>
       <c r="S14" s="12"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -3226,7 +3248,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="11"/>
@@ -3251,7 +3273,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -3276,7 +3298,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="9"/>
       <c r="C18" s="11"/>
@@ -3301,7 +3323,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="9"/>
       <c r="C19" s="11"/>
@@ -3326,7 +3348,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="9"/>
       <c r="C20" s="11"/>
@@ -3351,7 +3373,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="9"/>
       <c r="C21" s="11"/>
@@ -3376,7 +3398,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="9"/>
       <c r="C22" s="11"/>
@@ -3401,7 +3423,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="9"/>
       <c r="C23" s="11"/>
@@ -3426,7 +3448,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="9"/>
       <c r="C24" s="11"/>
@@ -3451,7 +3473,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="9"/>
       <c r="C25" s="11"/>
@@ -3476,7 +3498,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="9"/>
       <c r="C26" s="11"/>
@@ -3497,7 +3519,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -3518,7 +3540,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -3539,7 +3561,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -3560,7 +3582,7 @@
       <c r="R29" s="11"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -3581,7 +3603,7 @@
       <c r="R30" s="11"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -3602,7 +3624,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="12"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -3623,7 +3645,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="12"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -3644,7 +3666,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="12"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="14" t="s">
         <v>6</v>
@@ -3682,7 +3704,7 @@
       <c r="R34" s="11"/>
       <c r="S34" s="12"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -3703,7 +3725,7 @@
       <c r="R35" s="11"/>
       <c r="S35" s="12"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -3724,7 +3746,7 @@
       <c r="R36" s="11"/>
       <c r="S36" s="12"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -3745,7 +3767,7 @@
       <c r="R37" s="11"/>
       <c r="S37" s="12"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="14" t="s">
@@ -3776,7 +3798,7 @@
       <c r="R38" s="11"/>
       <c r="S38" s="12"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -3797,7 +3819,7 @@
       <c r="R39" s="11"/>
       <c r="S39" s="12"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -3818,7 +3840,7 @@
       <c r="R40" s="11"/>
       <c r="S40" s="12"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="14" t="s">
         <v>8</v>
@@ -3849,7 +3871,7 @@
       <c r="R41" s="11"/>
       <c r="S41" s="12"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -3870,7 +3892,7 @@
       <c r="R42" s="11"/>
       <c r="S42" s="12"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -3891,7 +3913,7 @@
       <c r="R43" s="12"/>
       <c r="S43" s="12"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -3912,7 +3934,7 @@
       <c r="R44" s="12"/>
       <c r="S44" s="12"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -3933,7 +3955,7 @@
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="14" t="s">
         <v>113</v>
@@ -3959,7 +3981,7 @@
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
@@ -3978,7 +4000,7 @@
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="14" t="s">
         <v>3</v>
       </c>
@@ -3999,17 +4021,17 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" customWidth="1"/>
-    <col min="11" max="11" width="8.1640625" customWidth="1"/>
-    <col min="13" max="13" width="18.1640625" customWidth="1"/>
-    <col min="18" max="18" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="9" max="9" width="19.625" customWidth="1"/>
+    <col min="11" max="11" width="8.125" customWidth="1"/>
+    <col min="13" max="13" width="18.125" customWidth="1"/>
+    <col min="18" max="18" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -4030,7 +4052,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -4051,7 +4073,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -4076,7 +4098,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -4114,7 +4136,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -4135,7 +4157,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -4168,7 +4190,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="9" t="s">
         <v>193</v>
@@ -4199,7 +4221,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="9" t="s">
         <v>202</v>
@@ -4235,7 +4257,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="9" t="s">
         <v>146</v>
@@ -4271,7 +4293,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="9" t="s">
         <v>213</v>
@@ -4305,7 +4327,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="9" t="s">
         <v>207</v>
@@ -4339,7 +4361,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="9" t="s">
         <v>208</v>
@@ -4370,7 +4392,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="9" t="s">
         <v>209</v>
@@ -4401,7 +4423,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="9" t="s">
         <v>210</v>
@@ -4432,7 +4454,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="9" t="s">
         <v>216</v>
@@ -4461,7 +4483,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="9" t="s">
         <v>198</v>
@@ -4490,7 +4512,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -4511,7 +4533,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -4532,7 +4554,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -4553,7 +4575,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="14" t="s">
         <v>6</v>
@@ -4591,7 +4613,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -4612,7 +4634,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -4633,7 +4655,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -4654,7 +4676,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="14" t="s">
@@ -4685,7 +4707,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -4706,7 +4728,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -4727,7 +4749,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="14" t="s">
         <v>8</v>
@@ -4758,7 +4780,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -4779,7 +4801,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -4800,7 +4822,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -4821,7 +4843,7 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -4842,7 +4864,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="14" t="s">
         <v>113</v>
@@ -4868,7 +4890,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -4887,7 +4909,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="14" t="s">
         <v>3</v>
       </c>
@@ -4895,12 +4917,12 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>3000</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>2500</v>
       </c>
@@ -4908,7 +4930,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>2500</v>
       </c>
@@ -4916,17 +4938,17 @@
         <v>600</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>800</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>700</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B104">
         <f>SUM(B96:B100)</f>
         <v>9500</v>
@@ -4936,47 +4958,47 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P105">
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P106" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P107" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P108" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P109" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P110" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P111" s="11">
         <v>3.99</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P112" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E113">
         <v>1400</v>
       </c>
@@ -4984,7 +5006,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E114">
         <v>1300</v>
       </c>
@@ -4992,24 +5014,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="115" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E115">
         <v>950</v>
       </c>
       <c r="P115" s="11"/>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="116" spans="5:16" x14ac:dyDescent="0.25">
       <c r="P116" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="119" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E119">
         <f>SUM(E113:E117)</f>
         <v>3650</v>
       </c>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="123" spans="5:16" x14ac:dyDescent="0.25">
       <c r="P123">
         <f>SUM(P103:P120)</f>
         <v>516.99</v>
@@ -5028,17 +5050,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" customWidth="1"/>
-    <col min="11" max="11" width="8.1640625" customWidth="1"/>
-    <col min="13" max="13" width="18.1640625" customWidth="1"/>
-    <col min="18" max="18" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="9" max="9" width="19.625" customWidth="1"/>
+    <col min="11" max="11" width="8.125" customWidth="1"/>
+    <col min="13" max="13" width="18.125" customWidth="1"/>
+    <col min="18" max="18" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -5059,7 +5081,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -5080,7 +5102,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -5105,7 +5127,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -5143,7 +5165,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -5164,7 +5186,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -5197,7 +5219,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="9" t="s">
         <v>193</v>
@@ -5230,7 +5252,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="9" t="s">
         <v>202</v>
@@ -5266,7 +5288,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="9" t="s">
         <v>146</v>
@@ -5302,7 +5324,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="9" t="s">
         <v>214</v>
@@ -5336,7 +5358,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="11"/>
@@ -5366,7 +5388,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>
@@ -5393,7 +5415,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -5420,7 +5442,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -5447,7 +5469,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -5472,7 +5494,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="D16" s="11"/>
@@ -5496,7 +5518,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -5517,7 +5539,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -5538,7 +5560,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -5559,7 +5581,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="14" t="s">
         <v>6</v>
@@ -5597,7 +5619,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -5618,7 +5640,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -5639,7 +5661,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -5660,7 +5682,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="14" t="s">
@@ -5691,7 +5713,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -5712,7 +5734,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -5733,7 +5755,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="14" t="s">
         <v>8</v>
@@ -5764,7 +5786,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -5785,7 +5807,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -5806,7 +5828,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -5827,7 +5849,7 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -5848,7 +5870,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="14" t="s">
         <v>113</v>
@@ -5874,7 +5896,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -5893,7 +5915,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="14" t="s">
         <v>3</v>
       </c>
@@ -5901,12 +5923,12 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>3000</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>2500</v>
       </c>
@@ -5914,7 +5936,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>2500</v>
       </c>
@@ -5922,17 +5944,17 @@
         <v>600</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>800</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>700</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B104">
         <f>SUM(B96:B100)</f>
         <v>9500</v>
@@ -5942,47 +5964,47 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P105">
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P106" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P107" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P108" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P109" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P110" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P111" s="11">
         <v>3.99</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P112" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E113">
         <v>1400</v>
       </c>
@@ -5990,7 +6012,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E114">
         <v>1300</v>
       </c>
@@ -5998,24 +6020,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="115" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E115">
         <v>950</v>
       </c>
       <c r="P115" s="11"/>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="116" spans="5:16" x14ac:dyDescent="0.25">
       <c r="P116" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="119" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E119">
         <f>SUM(E113:E117)</f>
         <v>3650</v>
       </c>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="123" spans="5:16" x14ac:dyDescent="0.25">
       <c r="P123">
         <f>SUM(P103:P120)</f>
         <v>516.99</v>
@@ -6034,17 +6056,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" customWidth="1"/>
-    <col min="11" max="11" width="8.1640625" customWidth="1"/>
-    <col min="13" max="13" width="18.1640625" customWidth="1"/>
-    <col min="18" max="18" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="9" max="9" width="19.625" customWidth="1"/>
+    <col min="11" max="11" width="8.125" customWidth="1"/>
+    <col min="13" max="13" width="18.125" customWidth="1"/>
+    <col min="18" max="18" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -6065,7 +6087,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -6086,7 +6108,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -6111,7 +6133,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -6149,7 +6171,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -6170,7 +6192,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -6203,7 +6225,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="9" t="s">
         <v>193</v>
@@ -6236,7 +6258,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="9" t="s">
         <v>202</v>
@@ -6272,7 +6294,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="9" t="s">
         <v>146</v>
@@ -6308,7 +6330,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="9" t="s">
         <v>214</v>
@@ -6344,7 +6366,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="9" t="s">
         <v>226</v>
@@ -6378,7 +6400,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11">
@@ -6407,7 +6429,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -6434,7 +6456,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -6461,7 +6483,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -6486,7 +6508,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="D16" s="11"/>
@@ -6510,7 +6532,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -6535,7 +6557,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -6556,7 +6578,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -6577,7 +6599,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="14" t="s">
         <v>6</v>
@@ -6615,7 +6637,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -6636,7 +6658,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -6657,7 +6679,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -6678,7 +6700,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="14" t="s">
@@ -6709,7 +6731,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -6730,7 +6752,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -6751,7 +6773,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="14" t="s">
         <v>8</v>
@@ -6782,7 +6804,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -6803,7 +6825,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -6824,7 +6846,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -6845,7 +6867,7 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -6866,7 +6888,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="14" t="s">
         <v>113</v>
@@ -6892,7 +6914,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -6911,7 +6933,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="14" t="s">
         <v>3</v>
       </c>
@@ -6919,12 +6941,12 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>3000</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>2500</v>
       </c>
@@ -6932,7 +6954,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>2500</v>
       </c>
@@ -6940,17 +6962,17 @@
         <v>600</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>800</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>700</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B104">
         <f>SUM(B96:B100)</f>
         <v>9500</v>
@@ -6960,47 +6982,47 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P105">
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P106" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P107" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P108" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P109" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P110" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P111" s="11">
         <v>3.99</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P112" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E113">
         <v>1400</v>
       </c>
@@ -7008,7 +7030,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E114">
         <v>1300</v>
       </c>
@@ -7016,24 +7038,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="115" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E115">
         <v>950</v>
       </c>
       <c r="P115" s="11"/>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="116" spans="5:16" x14ac:dyDescent="0.25">
       <c r="P116" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="119" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E119">
         <f>SUM(E113:E117)</f>
         <v>3650</v>
       </c>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="123" spans="5:16" x14ac:dyDescent="0.25">
       <c r="P123">
         <f>SUM(P103:P120)</f>
         <v>516.99</v>
@@ -7052,17 +7074,17 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" customWidth="1"/>
-    <col min="11" max="11" width="8.1640625" customWidth="1"/>
-    <col min="13" max="13" width="18.1640625" customWidth="1"/>
-    <col min="18" max="18" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="9" max="9" width="19.625" customWidth="1"/>
+    <col min="11" max="11" width="8.125" customWidth="1"/>
+    <col min="13" max="13" width="18.125" customWidth="1"/>
+    <col min="18" max="18" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -7083,7 +7105,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -7104,7 +7126,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -7129,7 +7151,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -7167,7 +7189,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -7188,7 +7210,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -7221,7 +7243,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="9" t="s">
         <v>193</v>
@@ -7254,7 +7276,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="9" t="s">
         <v>202</v>
@@ -7290,7 +7312,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="9" t="s">
         <v>146</v>
@@ -7326,7 +7348,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="9" t="s">
         <v>214</v>
@@ -7360,7 +7382,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="9" t="s">
         <v>205</v>
@@ -7394,7 +7416,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="9" t="s">
         <v>229</v>
@@ -7425,7 +7447,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="9" t="s">
         <v>230</v>
@@ -7456,7 +7478,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="9" t="s">
         <v>231</v>
@@ -7487,7 +7509,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="9" t="s">
         <v>232</v>
@@ -7516,7 +7538,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="9" t="s">
         <v>232</v>
@@ -7545,7 +7567,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -7570,7 +7592,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -7591,7 +7613,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -7612,7 +7634,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="14" t="s">
         <v>6</v>
@@ -7650,7 +7672,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -7671,7 +7693,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -7692,7 +7714,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -7713,7 +7735,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="14" t="s">
@@ -7744,7 +7766,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -7765,7 +7787,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -7786,7 +7808,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="14" t="s">
         <v>228</v>
@@ -7817,7 +7839,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -7838,7 +7860,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -7859,7 +7881,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -7880,7 +7902,7 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -7901,7 +7923,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="14" t="s">
         <v>113</v>
@@ -7927,7 +7949,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -7946,7 +7968,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="14" t="s">
         <v>3</v>
       </c>
@@ -7954,12 +7976,12 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>3000</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>2500</v>
       </c>
@@ -7967,7 +7989,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>2500</v>
       </c>
@@ -7975,17 +7997,17 @@
         <v>600</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>800</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>700</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B104">
         <f>SUM(B96:B100)</f>
         <v>9500</v>
@@ -7995,47 +8017,47 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P105">
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P106" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P107" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P108" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P109" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P110" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P111" s="11">
         <v>3.99</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P112" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E113">
         <v>1400</v>
       </c>
@@ -8043,7 +8065,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E114">
         <v>1300</v>
       </c>
@@ -8051,24 +8073,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="115" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E115">
         <v>950</v>
       </c>
       <c r="P115" s="11"/>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="116" spans="5:16" x14ac:dyDescent="0.25">
       <c r="P116" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="119" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E119">
         <f>SUM(E113:E117)</f>
         <v>3650</v>
       </c>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="123" spans="5:16" x14ac:dyDescent="0.25">
       <c r="P123">
         <f>SUM(P103:P120)</f>
         <v>516.99</v>
@@ -8087,17 +8109,17 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" customWidth="1"/>
-    <col min="11" max="11" width="8.1640625" customWidth="1"/>
-    <col min="13" max="13" width="18.1640625" customWidth="1"/>
-    <col min="18" max="18" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="9" max="9" width="19.625" customWidth="1"/>
+    <col min="11" max="11" width="8.125" customWidth="1"/>
+    <col min="13" max="13" width="18.125" customWidth="1"/>
+    <col min="18" max="18" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -8118,7 +8140,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -8139,7 +8161,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -8164,7 +8186,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -8202,7 +8224,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -8223,7 +8245,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -8256,7 +8278,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="9" t="s">
         <v>193</v>
@@ -8289,7 +8311,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="9" t="s">
         <v>202</v>
@@ -8325,7 +8347,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="9" t="s">
         <v>146</v>
@@ -8361,7 +8383,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="9" t="s">
         <v>214</v>
@@ -8395,7 +8417,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="9" t="s">
         <v>233</v>
@@ -8429,7 +8451,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="9" t="s">
         <v>239</v>
@@ -8460,7 +8482,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="9" t="s">
         <v>240</v>
@@ -8491,7 +8513,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -8518,7 +8540,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -8541,7 +8563,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="11"/>
@@ -8566,7 +8588,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -8591,7 +8613,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -8612,7 +8634,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -8633,7 +8655,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="14" t="s">
         <v>6</v>
@@ -8671,7 +8693,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -8692,7 +8714,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -8713,7 +8735,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -8734,7 +8756,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="14" t="s">
@@ -8765,7 +8787,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -8786,7 +8808,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -8807,7 +8829,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="14" t="s">
         <v>228</v>
@@ -8838,7 +8860,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -8859,7 +8881,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -8880,7 +8902,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -8901,7 +8923,7 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -8922,7 +8944,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="14" t="s">
         <v>113</v>
@@ -8948,7 +8970,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -8967,7 +8989,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="14" t="s">
         <v>3</v>
       </c>
@@ -8975,12 +8997,12 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>3000</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>2500</v>
       </c>
@@ -8988,7 +9010,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>2500</v>
       </c>
@@ -8996,17 +9018,17 @@
         <v>600</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>800</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>700</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B104">
         <f>SUM(B96:B100)</f>
         <v>9500</v>
@@ -9016,47 +9038,47 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P105">
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P106" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P107" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P108" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P109" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P110" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P111" s="11">
         <v>3.99</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P112" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E113">
         <v>1400</v>
       </c>
@@ -9064,7 +9086,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E114">
         <v>1300</v>
       </c>
@@ -9072,24 +9094,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="115" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E115">
         <v>950</v>
       </c>
       <c r="P115" s="11"/>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="116" spans="5:16" x14ac:dyDescent="0.25">
       <c r="P116" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="119" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E119">
         <f>SUM(E113:E117)</f>
         <v>3650</v>
       </c>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="123" spans="5:16" x14ac:dyDescent="0.25">
       <c r="P123">
         <f>SUM(P103:P120)</f>
         <v>516.99</v>
@@ -9104,21 +9126,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3955CB3-126C-4293-8B88-AAD682FCCD60}">
   <dimension ref="A1:T123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" customWidth="1"/>
-    <col min="11" max="11" width="8.1640625" customWidth="1"/>
-    <col min="13" max="13" width="18.1640625" customWidth="1"/>
-    <col min="18" max="18" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="9" max="9" width="19.625" customWidth="1"/>
+    <col min="11" max="11" width="8.125" customWidth="1"/>
+    <col min="13" max="13" width="18.125" customWidth="1"/>
+    <col min="18" max="18" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -9139,7 +9161,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -9160,7 +9182,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -9185,7 +9207,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -9223,7 +9245,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -9244,7 +9266,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -9277,7 +9299,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="9" t="s">
         <v>193</v>
@@ -9310,7 +9332,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="9" t="s">
         <v>202</v>
@@ -9346,7 +9368,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="9" t="s">
         <v>146</v>
@@ -9382,7 +9404,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="9" t="s">
         <v>214</v>
@@ -9416,7 +9438,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="9" t="s">
         <v>233</v>
@@ -9448,7 +9470,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="9" t="s">
         <v>239</v>
@@ -9477,7 +9499,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="9" t="s">
         <v>240</v>
@@ -9506,7 +9528,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -9533,7 +9555,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -9556,7 +9578,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="11"/>
@@ -9581,7 +9603,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -9606,7 +9628,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -9627,7 +9649,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -9648,7 +9670,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="14" t="s">
         <v>6</v>
@@ -9686,7 +9708,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -9707,7 +9729,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -9728,7 +9750,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -9749,7 +9771,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="14" t="s">
@@ -9780,7 +9802,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -9801,7 +9823,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -9822,7 +9844,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="14" t="s">
         <v>228</v>
@@ -9853,7 +9875,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -9874,7 +9896,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -9895,7 +9917,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -9916,7 +9938,7 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -9937,7 +9959,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="14" t="s">
         <v>113</v>
@@ -9963,7 +9985,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -9982,7 +10004,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="14" t="s">
         <v>3</v>
       </c>
@@ -9990,12 +10012,12 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>3000</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>2500</v>
       </c>
@@ -10003,7 +10025,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>2500</v>
       </c>
@@ -10011,17 +10033,17 @@
         <v>600</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>800</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>700</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B104">
         <f>SUM(B96:B100)</f>
         <v>9500</v>
@@ -10031,47 +10053,47 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P105">
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P106" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P107" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P108" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P109" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P110" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P111" s="11">
         <v>3.99</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P112" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E113">
         <v>1400</v>
       </c>
@@ -10079,7 +10101,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E114">
         <v>1300</v>
       </c>
@@ -10087,24 +10109,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="115" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E115">
         <v>950</v>
       </c>
       <c r="P115" s="11"/>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="116" spans="5:16" x14ac:dyDescent="0.25">
       <c r="P116" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="119" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E119">
         <f>SUM(E113:E117)</f>
         <v>3650</v>
       </c>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="123" spans="5:16" x14ac:dyDescent="0.25">
       <c r="P123">
         <f>SUM(P103:P120)</f>
         <v>516.99</v>
@@ -10116,19 +10138,1024 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A96170-A85A-4424-A731-7674D842F02C}">
+  <dimension ref="A1:T123"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="9" max="9" width="19.625" customWidth="1"/>
+    <col min="11" max="11" width="8.125" customWidth="1"/>
+    <col min="13" max="13" width="18.125" customWidth="1"/>
+    <col min="18" max="18" width="3.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="12"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="11">
+        <f>H4+I4</f>
+        <v>1900</v>
+      </c>
+      <c r="H4" s="11">
+        <v>1900</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="11">
+        <v>1480</v>
+      </c>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="12"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="12"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="15"/>
+      <c r="M6" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="N6" s="15"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="12"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11">
+        <v>882</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="N7" s="11">
+        <v>150</v>
+      </c>
+      <c r="O7" s="11"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="12"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="11">
+        <v>72</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="N8" s="11">
+        <v>200</v>
+      </c>
+      <c r="O8" s="11"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="12"/>
+      <c r="T8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="11">
+        <v>200</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="F9" s="11">
+        <v>300</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="N9" s="11">
+        <v>200</v>
+      </c>
+      <c r="O9" s="11"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="12"/>
+      <c r="T9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="11">
+        <v>283</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="N10" s="11">
+        <v>300</v>
+      </c>
+      <c r="O10" s="11"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="12"/>
+      <c r="T10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="11">
+        <v>50</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="N11" s="11">
+        <v>100</v>
+      </c>
+      <c r="O11" s="11"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="12"/>
+      <c r="T11">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="11">
+        <v>300</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="N12" s="11">
+        <v>13</v>
+      </c>
+      <c r="O12" s="11"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="12"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="11">
+        <v>12</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="N13" s="11">
+        <v>13</v>
+      </c>
+      <c r="O13" s="11"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="12"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="11">
+        <v>13</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="12"/>
+      <c r="T14">
+        <f>SUM(T8:T11)</f>
+        <v>560</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="F15" s="11">
+        <v>450</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="12"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="F16" s="11">
+        <v>100</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="12"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="11">
+        <v>90</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="12"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="12"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="12"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="11">
+        <f>SUM(C7:C18)</f>
+        <v>200</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11">
+        <f>SUM(F7:F18)+150</f>
+        <v>2702</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11">
+        <f>SUM(I7:I18)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="12"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11">
+        <f>SUM(N7:N18)</f>
+        <v>976</v>
+      </c>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11">
+        <f>SUM(Q7:Q17)</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="11"/>
+      <c r="S20" s="12"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="12"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="12"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="12"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="11">
+        <f>C20+F20+I20</f>
+        <v>2902</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11">
+        <f>N20+Q20</f>
+        <v>976</v>
+      </c>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="12"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="12"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="12"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="C27" s="11">
+        <f>G4-D24</f>
+        <v>-1002</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="L27" s="11">
+        <f>O4-P24</f>
+        <v>504</v>
+      </c>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="12"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="12"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
+      <c r="B32" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11">
+        <f>C27+L27</f>
+        <v>-498</v>
+      </c>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="11">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>2500</v>
+      </c>
+      <c r="J97">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>2500</v>
+      </c>
+      <c r="J98">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <f>SUM(B96:B100)</f>
+        <v>9500</v>
+      </c>
+      <c r="D104">
+        <f>B104-7000</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P105">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P106" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P107" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P108" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P109" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P110" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P111" s="11">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P112" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E113">
+        <v>1400</v>
+      </c>
+      <c r="P113" s="11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="114" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E114">
+        <v>1300</v>
+      </c>
+      <c r="P114" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="115" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E115">
+        <v>950</v>
+      </c>
+      <c r="P115" s="11"/>
+    </row>
+    <row r="116" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="P116" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="119" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E119">
+        <f>SUM(E113:E117)</f>
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="123" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="P123">
+        <f>SUM(P103:P120)</f>
+        <v>516.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B974066F-70AB-4CE0-9413-18C0CA619219}">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>204</v>
       </c>
@@ -10141,8 +11168,11 @@
       <c r="D1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11500</v>
       </c>
@@ -10155,11 +11185,14 @@
       <c r="D2">
         <v>350</v>
       </c>
+      <c r="E2">
+        <v>1300</v>
+      </c>
       <c r="G2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
         <v>219</v>
       </c>
@@ -10167,7 +11200,10 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>2500</v>
+      </c>
       <c r="G4" t="s">
         <v>220</v>
       </c>
@@ -10175,7 +11211,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
         <v>221</v>
       </c>
@@ -10183,13 +11219,13 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
         <f>SUM(A2:G2)</f>
-        <v>29550</v>
+        <v>30850</v>
       </c>
       <c r="G6" t="s">
         <v>222</v>
@@ -10198,7 +11234,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
         <v>223</v>
       </c>
@@ -10206,7 +11242,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
         <v>225</v>
       </c>
@@ -10214,7 +11250,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G9" t="s">
         <v>234</v>
       </c>
@@ -10222,7 +11258,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
         <v>235</v>
       </c>
@@ -10233,30 +11269,38 @@
         <v>224</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>241</v>
+      </c>
+      <c r="H11">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O17" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>6</v>
       </c>
       <c r="H19">
         <f>SUM(H3:H17)</f>
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>99</v>
       </c>
       <c r="B20">
         <f>B6-F41</f>
-        <v>25550</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+        <v>25350</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>227</v>
       </c>
@@ -10266,7 +11310,7 @@
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -10274,7 +11318,7 @@
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26" s="18" t="s">
         <v>236</v>
@@ -10290,7 +11334,7 @@
       </c>
       <c r="F26" s="17"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>225</v>
       </c>
@@ -10304,7 +11348,7 @@
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>234</v>
       </c>
@@ -10318,7 +11362,7 @@
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>235</v>
       </c>
@@ -10332,7 +11376,7 @@
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>241</v>
       </c>
@@ -10346,47 +11390,61 @@
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A31" s="17"/>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>243</v>
+      </c>
       <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
+      <c r="C31" s="17">
+        <v>1000</v>
+      </c>
+      <c r="D31" s="17">
+        <v>500</v>
+      </c>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A32" s="17"/>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>223</v>
+      </c>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="17"/>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
+        <v>244</v>
+      </c>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="17"/>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>222</v>
+      </c>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="17"/>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>245</v>
+      </c>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -10394,7 +11452,7 @@
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -10402,7 +11460,7 @@
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -10410,7 +11468,7 @@
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -10418,7 +11476,7 @@
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -10426,7 +11484,7 @@
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>6</v>
       </c>
@@ -10436,11 +11494,11 @@
       </c>
       <c r="C41" s="18">
         <f t="shared" ref="C41:E41" si="0">SUM(C27:C39)</f>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="D41" s="18">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="E41" s="18">
         <f t="shared" si="0"/>
@@ -10448,22 +11506,10 @@
       </c>
       <c r="F41" s="18">
         <f>SUM(B41:E41)</f>
-        <v>4000</v>
+        <v>5500</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94700D3-58F8-480F-AA59-9339E917FDF7}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10476,19 +11522,19 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -10496,7 +11542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -10504,7 +11550,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -10513,10 +11559,10 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -10530,7 +11576,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -10544,7 +11590,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -10558,7 +11604,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -10572,7 +11618,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -10586,7 +11632,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -10600,7 +11646,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -10614,7 +11660,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -10628,7 +11674,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -10642,7 +11688,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -10651,7 +11697,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
@@ -10660,7 +11706,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -10669,7 +11715,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -10677,13 +11723,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -10696,7 +11742,7 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>15</v>
       </c>
@@ -10705,7 +11751,7 @@
         <v>4156.41</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -10723,6 +11769,66 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94700D3-58F8-480F-AA59-9339E917FDF7}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4700000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E2">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E3">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>175</v>
+      </c>
+      <c r="E20">
+        <f>SUM(E2:E15)</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26">
+        <f>A2-E20</f>
+        <v>3700000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9C44F7-AFBE-4C6B-AF7F-6A7B39EB63FD}">
   <dimension ref="A2:P29"/>
   <sheetViews>
@@ -10730,14 +11836,14 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.4140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L2" t="s">
         <v>181</v>
       </c>
@@ -10745,7 +11851,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>162</v>
       </c>
@@ -10778,7 +11884,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L5" t="s">
         <v>182</v>
       </c>
@@ -10792,7 +11898,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>184</v>
       </c>
@@ -10806,7 +11912,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>163</v>
       </c>
@@ -10826,7 +11932,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>183</v>
       </c>
@@ -10840,7 +11946,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>164</v>
       </c>
@@ -10855,7 +11961,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L10" t="s">
         <v>192</v>
       </c>
@@ -10863,12 +11969,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>166</v>
       </c>
@@ -10877,7 +11983,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -10905,7 +12011,7 @@
         <v>13978</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>163</v>
       </c>
@@ -10919,7 +12025,7 @@
         <v>3820</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>164</v>
       </c>
@@ -10942,12 +12048,12 @@
         <v>6022</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G28" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>166</v>
       </c>
@@ -10961,7 +12067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31B0527-2C58-45D2-85E0-B2079F911CE6}">
   <dimension ref="A2:H13"/>
   <sheetViews>
@@ -10969,20 +12075,20 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="17.9140625" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="7" max="7" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>155</v>
       </c>
@@ -10993,7 +12099,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.5</v>
       </c>
@@ -11004,7 +12110,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.8</v>
       </c>
@@ -11015,7 +12121,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1.5</v>
       </c>
@@ -11026,7 +12132,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>159</v>
       </c>
@@ -11034,7 +12140,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G11" t="s">
         <v>186</v>
       </c>
@@ -11042,7 +12148,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>160</v>
       </c>
@@ -11057,7 +12163,7 @@
         <v>336000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>161</v>
       </c>
@@ -11067,26 +12173,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60023A54-4F93-427E-93E6-1AE8B5C3C1AA}">
   <dimension ref="B3:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="AH1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="18.1640625" customWidth="1"/>
-    <col min="6" max="6" width="20.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="6" max="6" width="20.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>168</v>
       </c>
@@ -11103,7 +12209,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>169</v>
       </c>
@@ -11120,7 +12226,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>170</v>
       </c>
@@ -11137,7 +12243,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>171</v>
       </c>
@@ -11151,7 +12257,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>145</v>
       </c>
@@ -11159,7 +12265,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>172</v>
       </c>
@@ -11167,7 +12273,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>174</v>
       </c>
@@ -11175,12 +12281,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>175</v>
       </c>
@@ -11206,14 +12312,14 @@
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -11221,7 +12327,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -11229,7 +12335,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -11238,10 +12344,10 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -11259,7 +12365,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -11268,7 +12374,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -11277,7 +12383,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>4</v>
@@ -11286,7 +12392,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>14</v>
@@ -11295,7 +12401,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>2</v>
@@ -11304,7 +12410,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>16</v>
@@ -11313,7 +12419,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>5</v>
@@ -11322,7 +12428,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>21</v>
@@ -11331,7 +12437,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>37</v>
@@ -11340,7 +12446,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>36</v>
@@ -11349,7 +12455,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>38</v>
@@ -11358,7 +12464,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>39</v>
@@ -11367,7 +12473,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>40</v>
@@ -11376,7 +12482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>42</v>
@@ -11385,7 +12491,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="D21" s="1" t="s">
         <v>43</v>
@@ -11394,7 +12500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>43</v>
@@ -11403,7 +12509,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="D23" s="1" t="s">
         <v>44</v>
@@ -11412,7 +12518,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D24" s="1" t="s">
         <v>45</v>
       </c>
@@ -11420,7 +12526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D25" s="1" t="s">
         <v>37</v>
       </c>
@@ -11428,7 +12534,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D26" s="1" t="s">
         <v>16</v>
       </c>
@@ -11436,7 +12542,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D27" s="1" t="s">
         <v>36</v>
       </c>
@@ -11444,7 +12550,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D28" s="1" t="s">
         <v>46</v>
       </c>
@@ -11452,7 +12558,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="s">
         <v>47</v>
       </c>
@@ -11460,7 +12566,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D30" s="1" t="s">
         <v>27</v>
       </c>
@@ -11468,7 +12574,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D31" s="1" t="s">
         <v>27</v>
       </c>
@@ -11476,7 +12582,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D32" s="1" t="s">
         <v>54</v>
       </c>
@@ -11484,7 +12590,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D33" s="1" t="s">
         <v>50</v>
       </c>
@@ -11492,16 +12598,16 @@
         <v>387</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>6</v>
       </c>
@@ -11514,7 +12620,7 @@
         <v>3854</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>15</v>
       </c>
@@ -11523,7 +12629,7 @@
         <v>3854</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>8</v>
       </c>
@@ -11532,7 +12638,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>3</v>
       </c>
@@ -11552,7 +12658,7 @@
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11566,14 +12672,14 @@
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -11581,7 +12687,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -11589,7 +12695,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -11598,10 +12704,10 @@
         <v>3946</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -11612,7 +12718,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -11621,7 +12727,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="D8" s="1" t="s">
         <v>21</v>
@@ -11630,7 +12736,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -11639,7 +12745,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>4</v>
@@ -11648,7 +12754,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>5</v>
@@ -11657,7 +12763,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>2</v>
@@ -11666,7 +12772,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -11675,7 +12781,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>39</v>
@@ -11684,7 +12790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>40</v>
@@ -11693,7 +12799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>48</v>
@@ -11702,7 +12808,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>49</v>
@@ -11711,7 +12817,7 @@
         <v>15.99</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>49</v>
@@ -11720,7 +12826,7 @@
         <v>15.99</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>49</v>
@@ -11729,7 +12835,7 @@
         <v>3.99</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>51</v>
@@ -11738,7 +12844,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="D21" s="1" t="s">
         <v>57</v>
@@ -11747,7 +12853,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>52</v>
@@ -11756,7 +12862,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="D23" s="1" t="s">
         <v>53</v>
@@ -11765,7 +12871,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="D24" s="1" t="s">
         <v>55</v>
@@ -11774,7 +12880,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D25" s="1" t="s">
         <v>56</v>
       </c>
@@ -11782,7 +12888,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D26" s="1" t="s">
         <v>58</v>
       </c>
@@ -11790,7 +12896,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D27" s="1" t="s">
         <v>59</v>
       </c>
@@ -11798,7 +12904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D28" s="1" t="s">
         <v>60</v>
       </c>
@@ -11806,7 +12912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="s">
         <v>61</v>
       </c>
@@ -11814,7 +12920,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D30" s="1" t="s">
         <v>62</v>
       </c>
@@ -11822,7 +12928,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D31" s="1" t="s">
         <v>27</v>
       </c>
@@ -11830,7 +12936,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D32" s="1" t="s">
         <v>14</v>
       </c>
@@ -11838,22 +12944,22 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>6</v>
       </c>
@@ -11866,7 +12972,7 @@
         <v>3898.9699999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>15</v>
       </c>
@@ -11875,7 +12981,7 @@
         <v>3898.9699999999993</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>8</v>
       </c>
@@ -11884,7 +12990,7 @@
         <v>47.030000000000655</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -11905,19 +13011,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -11925,7 +13031,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -11934,10 +13040,10 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -11948,7 +13054,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -11957,7 +13063,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8">
         <v>50</v>
@@ -11969,7 +13075,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -11978,7 +13084,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>4</v>
@@ -11987,7 +13093,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>5</v>
@@ -11996,7 +13102,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>2</v>
@@ -12005,7 +13111,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -12014,7 +13120,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>39</v>
@@ -12023,7 +13129,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>40</v>
@@ -12032,7 +13138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>48</v>
@@ -12041,7 +13147,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>49</v>
@@ -12050,7 +13156,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>49</v>
@@ -12059,7 +13165,7 @@
         <v>15.99</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>49</v>
@@ -12068,7 +13174,7 @@
         <v>3.99</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>51</v>
@@ -12077,7 +13183,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="D21" s="1" t="s">
         <v>14</v>
@@ -12086,7 +13192,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>52</v>
@@ -12095,7 +13201,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="D23" s="1" t="s">
         <v>63</v>
@@ -12104,7 +13210,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="D24" s="1" t="s">
         <v>14</v>
@@ -12113,7 +13219,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D25" s="1" t="s">
         <v>64</v>
       </c>
@@ -12121,7 +13227,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D26" s="1" t="s">
         <v>65</v>
       </c>
@@ -12129,40 +13235,40 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>6</v>
       </c>
@@ -12175,7 +13281,7 @@
         <v>3000.9799999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>15</v>
       </c>
@@ -12184,7 +13290,7 @@
         <v>3050.9799999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>8</v>
       </c>
@@ -12193,7 +13299,7 @@
         <v>-0.97999999999956344</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -12214,17 +13320,17 @@
       <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -12232,7 +13338,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -12240,7 +13346,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -12249,7 +13355,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="D4" s="5" t="s">
         <v>78</v>
@@ -12258,7 +13364,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>75</v>
@@ -12287,7 +13393,7 @@
       </c>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -12309,7 +13415,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8">
         <v>25</v>
@@ -12334,7 +13440,7 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9">
         <v>26</v>
@@ -12354,7 +13460,7 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10">
         <v>160</v>
@@ -12379,7 +13485,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>5</v>
@@ -12400,7 +13506,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>2</v>
@@ -12415,7 +13521,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -12427,7 +13533,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>39</v>
@@ -12437,7 +13543,7 @@
       </c>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>40</v>
@@ -12447,7 +13553,7 @@
       </c>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>48</v>
@@ -12457,7 +13563,7 @@
       </c>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>49</v>
@@ -12467,7 +13573,7 @@
       </c>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>49</v>
@@ -12480,7 +13586,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>49</v>
@@ -12493,7 +13599,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>51</v>
@@ -12506,7 +13612,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="D21" s="1" t="s">
         <v>14</v>
@@ -12519,7 +13625,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>81</v>
@@ -12531,7 +13637,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="D23" s="1" t="s">
         <v>82</v>
@@ -12540,7 +13646,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="D24" s="1" t="s">
         <v>84</v>
@@ -12553,10 +13659,10 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
       <c r="Q27" t="s">
         <v>83</v>
@@ -12566,25 +13672,25 @@
         <v>780.98999999999978</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="N32">
         <f>SUM(N7:N29)</f>
         <v>272</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
@@ -12601,7 +13707,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>15</v>
       </c>
@@ -12610,7 +13716,7 @@
         <v>3066.99</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
@@ -12619,7 +13725,7 @@
         <v>233.01000000000022</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>3</v>
       </c>
@@ -12640,20 +13746,20 @@
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="1"/>
+    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" customWidth="1"/>
+    <col min="10" max="10" width="11.125" customWidth="1"/>
     <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -12674,7 +13780,7 @@
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -12695,7 +13801,7 @@
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="1">
         <v>3030</v>
@@ -12706,7 +13812,7 @@
       </c>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="1">
         <v>600</v>
@@ -12714,7 +13820,7 @@
       <c r="J4" s="7"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="1">
         <v>300</v>
@@ -12722,7 +13828,7 @@
       <c r="J5" s="7"/>
       <c r="S5" s="7"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="1">
         <v>100</v>
@@ -12730,19 +13836,19 @@
       <c r="J6" s="7"/>
       <c r="S6" s="7"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="1"/>
       <c r="J7" s="7"/>
       <c r="S7" s="7"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="1"/>
       <c r="J8" s="7"/>
       <c r="S8" s="7"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="1"/>
       <c r="E9" s="5" t="s">
@@ -12767,13 +13873,13 @@
       </c>
       <c r="S9" s="7"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="1"/>
       <c r="J10" s="7"/>
       <c r="S10" s="7"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
@@ -12805,7 +13911,7 @@
       <c r="Q11" s="2"/>
       <c r="S11" s="7"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="1"/>
       <c r="E12" s="1" t="s">
@@ -12835,7 +13941,7 @@
       </c>
       <c r="S12" s="7"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="1" t="s">
         <v>91</v>
@@ -12870,7 +13976,7 @@
       </c>
       <c r="S13" s="7"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="1" t="s">
         <v>50</v>
@@ -12905,7 +14011,7 @@
       </c>
       <c r="S14" s="7"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="1" t="s">
         <v>11</v>
@@ -12940,7 +14046,7 @@
       </c>
       <c r="S15" s="7"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="1" t="s">
         <v>82</v>
@@ -12975,7 +14081,7 @@
       </c>
       <c r="S16" s="7"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="1" t="s">
         <v>84</v>
@@ -13010,7 +14116,7 @@
       </c>
       <c r="S17" s="7"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="1" t="s">
         <v>81</v>
@@ -13042,7 +14148,7 @@
       </c>
       <c r="S18" s="7"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="1"/>
       <c r="E19" s="1" t="s">
@@ -13067,7 +14173,7 @@
       </c>
       <c r="S19" s="7"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="1"/>
       <c r="E20" s="1" t="s">
@@ -13092,7 +14198,7 @@
       </c>
       <c r="S20" s="7"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="1"/>
       <c r="E21" s="1" t="s">
@@ -13111,7 +14217,7 @@
       <c r="M21" s="1"/>
       <c r="S21" s="7"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="1"/>
       <c r="E22" s="1" t="s">
@@ -13130,7 +14236,7 @@
       <c r="M22" s="1"/>
       <c r="S22" s="7"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="1"/>
       <c r="E23" s="1" t="s">
@@ -13144,7 +14250,7 @@
       <c r="M23" s="1"/>
       <c r="S23" s="7"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="1"/>
       <c r="E24" s="1" t="s">
@@ -13163,7 +14269,7 @@
       <c r="M24" s="1"/>
       <c r="S24" s="7"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="1"/>
       <c r="E25" s="1" t="s">
@@ -13182,7 +14288,7 @@
       <c r="M25" s="1"/>
       <c r="S25" s="7"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="1"/>
       <c r="E26" s="1" t="s">
@@ -13201,7 +14307,7 @@
       <c r="M26" s="1"/>
       <c r="S26" s="7"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="1"/>
       <c r="E27" s="1" t="s">
@@ -13219,7 +14325,7 @@
       <c r="J27" s="7"/>
       <c r="S27" s="7"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="1"/>
       <c r="E28" s="1"/>
@@ -13232,7 +14338,7 @@
       <c r="J28" s="7"/>
       <c r="S28" s="7"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="1"/>
       <c r="E29" s="1"/>
@@ -13245,7 +14351,7 @@
       <c r="J29" s="7"/>
       <c r="S29" s="7"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="1"/>
       <c r="H30" s="1" t="s">
@@ -13257,7 +14363,7 @@
       <c r="J30" s="7"/>
       <c r="S30" s="7"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="H31" s="1" t="s">
         <v>110</v>
@@ -13268,7 +14374,7 @@
       <c r="J31" s="7"/>
       <c r="S31" s="7"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="E32" s="1"/>
       <c r="H32" s="1" t="s">
@@ -13280,7 +14386,7 @@
       <c r="J32" s="7"/>
       <c r="S32" s="7"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="E33" s="1"/>
       <c r="H33" s="1" t="s">
@@ -13292,30 +14398,30 @@
       <c r="J33" s="7"/>
       <c r="S33" s="7"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="E34" s="1"/>
       <c r="J34" s="7"/>
       <c r="S34" s="7"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="E35" s="1"/>
       <c r="J35" s="7"/>
       <c r="S35" s="7"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="E36" s="1"/>
       <c r="J36" s="7"/>
       <c r="S36" s="7"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="J37" s="7"/>
       <c r="S37" s="7"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="2" t="s">
         <v>6</v>
@@ -13343,22 +14449,22 @@
       </c>
       <c r="S38" s="7"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="J39" s="7"/>
       <c r="S39" s="7"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="J40" s="7"/>
       <c r="S40" s="7"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="J41" s="7"/>
       <c r="S41" s="7"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="C42" s="2" t="s">
         <v>15</v>
@@ -13377,17 +14483,17 @@
       </c>
       <c r="S42" s="7"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="J43" s="7"/>
       <c r="S43" s="7"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="J44" s="7"/>
       <c r="S44" s="7"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="2" t="s">
         <v>8</v>
@@ -13403,12 +14509,12 @@
       </c>
       <c r="S45" s="7"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="J46" s="7"/>
       <c r="S46" s="7"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -13429,7 +14535,7 @@
       <c r="R47" s="7"/>
       <c r="S47" s="7"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -13450,10 +14556,10 @@
       <c r="R48" s="7"/>
       <c r="S48" s="7"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>3</v>
       </c>
@@ -13464,7 +14570,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M52" t="s">
         <v>106</v>
       </c>
@@ -13472,12 +14578,12 @@
         <v>24.99</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M53" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M54" t="s">
         <v>108</v>
       </c>
@@ -13485,7 +14591,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N61">
         <f>SUM(N51:N57)</f>
         <v>74.989999999999995</v>
@@ -13504,16 +14610,16 @@
       <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" customWidth="1"/>
-    <col min="11" max="11" width="8.1640625" customWidth="1"/>
-    <col min="13" max="13" width="18.1640625" customWidth="1"/>
-    <col min="18" max="18" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="11" max="11" width="8.125" customWidth="1"/>
+    <col min="13" max="13" width="18.125" customWidth="1"/>
+    <col min="18" max="18" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -13534,7 +14640,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -13555,7 +14661,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -13576,7 +14682,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -13609,7 +14715,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -13630,7 +14736,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -13663,7 +14769,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="9"/>
       <c r="C7" s="11"/>
@@ -13698,7 +14804,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="9"/>
       <c r="C8" s="11"/>
@@ -13735,7 +14841,7 @@
       <c r="R8" s="11"/>
       <c r="S8" s="12"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="9"/>
       <c r="C9" s="11"/>
@@ -13772,7 +14878,7 @@
       <c r="R9" s="11"/>
       <c r="S9" s="12"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="C10" s="11"/>
@@ -13809,7 +14915,7 @@
       <c r="R10" s="11"/>
       <c r="S10" s="12"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="11"/>
@@ -13844,7 +14950,7 @@
       <c r="R11" s="11"/>
       <c r="S11" s="12"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>
@@ -13881,7 +14987,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -13914,7 +15020,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -13941,7 +15047,7 @@
       <c r="R14" s="11"/>
       <c r="S14" s="12"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -13970,7 +15076,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="11"/>
@@ -13999,7 +15105,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -14028,7 +15134,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="9"/>
       <c r="C18" s="11"/>
@@ -14057,7 +15163,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="9"/>
       <c r="C19" s="11"/>
@@ -14086,7 +15192,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="9"/>
       <c r="C20" s="11"/>
@@ -14115,7 +15221,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="9"/>
       <c r="C21" s="11"/>
@@ -14142,7 +15248,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="9"/>
       <c r="C22" s="11"/>
@@ -14167,7 +15273,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="9"/>
       <c r="C23" s="11"/>
@@ -14192,7 +15298,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="9"/>
       <c r="C24" s="11"/>
@@ -14213,7 +15319,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="9"/>
       <c r="C25" s="11"/>
@@ -14234,7 +15340,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -14255,7 +15361,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -14276,7 +15382,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -14297,7 +15403,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -14318,7 +15424,7 @@
       <c r="R29" s="11"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -14339,7 +15445,7 @@
       <c r="R30" s="11"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -14360,7 +15466,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="12"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -14381,7 +15487,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="12"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="14" t="s">
         <v>6</v>
@@ -14419,7 +15525,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="12"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -14440,7 +15546,7 @@
       <c r="R34" s="11"/>
       <c r="S34" s="12"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -14461,7 +15567,7 @@
       <c r="R35" s="11"/>
       <c r="S35" s="12"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -14482,7 +15588,7 @@
       <c r="R36" s="11"/>
       <c r="S36" s="12"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="14" t="s">
@@ -14513,7 +15619,7 @@
       <c r="R37" s="11"/>
       <c r="S37" s="12"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -14534,7 +15640,7 @@
       <c r="R38" s="11"/>
       <c r="S38" s="12"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -14555,7 +15661,7 @@
       <c r="R39" s="11"/>
       <c r="S39" s="12"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="14" t="s">
         <v>8</v>
@@ -14586,7 +15692,7 @@
       <c r="R40" s="11"/>
       <c r="S40" s="12"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -14607,7 +15713,7 @@
       <c r="R41" s="11"/>
       <c r="S41" s="12"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -14628,7 +15734,7 @@
       <c r="R42" s="12"/>
       <c r="S42" s="12"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -14649,7 +15755,7 @@
       <c r="R43" s="12"/>
       <c r="S43" s="12"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -14670,7 +15776,7 @@
       <c r="R44" s="11"/>
       <c r="S44" s="11"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="14" t="s">
         <v>113</v>
@@ -14696,7 +15802,7 @@
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
@@ -14715,7 +15821,7 @@
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="N47" t="s">
         <v>122</v>
       </c>
@@ -14723,7 +15829,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="N48" t="s">
         <v>125</v>
       </c>
@@ -14731,7 +15837,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="14:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N49" t="s">
         <v>122</v>
       </c>
@@ -14739,7 +15845,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="14:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N50" t="s">
         <v>123</v>
       </c>
@@ -14747,7 +15853,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="14:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N51" t="s">
         <v>126</v>
       </c>
@@ -14758,7 +15864,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="14:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N52" t="s">
         <v>127</v>
       </c>
@@ -14766,12 +15872,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="14:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N55" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="58" spans="14:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N58" t="s">
         <v>6</v>
       </c>
@@ -14780,7 +15886,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="14" t="s">
         <v>3</v>
       </c>

--- a/Budget.xlsx
+++ b/Budget.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AG_AUTOMATION\Documents\projet-git\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Projet-git\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A2E7B9-281F-4862-AA0B-7C036F8A9969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EBC3E6-A562-41DF-9346-0216866EB6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="15" activeTab="17" xr2:uid="{27B7E826-E620-B34C-81E1-46A3DBC74E62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="15" activeTab="19" xr2:uid="{27B7E826-E620-B34C-81E1-46A3DBC74E62}"/>
   </bookViews>
   <sheets>
     <sheet name="Fevrier" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <sheet name="JAN24" sheetId="33" r:id="rId17"/>
     <sheet name="FEV24" sheetId="34" r:id="rId18"/>
     <sheet name="Credit" sheetId="28" r:id="rId19"/>
-    <sheet name="Contruction " sheetId="27" r:id="rId20"/>
+    <sheet name="Construction " sheetId="27" r:id="rId20"/>
     <sheet name="Terrain" sheetId="18" r:id="rId21"/>
     <sheet name="Poulailler" sheetId="20" r:id="rId22"/>
     <sheet name="divers " sheetId="22" r:id="rId23"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="264">
   <si>
     <t>Loyer</t>
   </si>
@@ -803,6 +803,51 @@
   </si>
   <si>
     <t xml:space="preserve">Wave </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depense </t>
+  </si>
+  <si>
+    <t>5tone10sac</t>
+  </si>
+  <si>
+    <t>Beton 6/8</t>
+  </si>
+  <si>
+    <t>Avance Moleur</t>
+  </si>
+  <si>
+    <t>Avance charrette</t>
+  </si>
+  <si>
+    <t>Barigo avance</t>
+  </si>
+  <si>
+    <t>Moleur reste</t>
+  </si>
+  <si>
+    <t>Charrette este</t>
+  </si>
+  <si>
+    <t>2 barigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location chambre </t>
+  </si>
+  <si>
+    <t>2 rouloeau tyau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total depense </t>
+  </si>
+  <si>
+    <t>Avance Oumar</t>
+  </si>
+  <si>
+    <t>Reste Theorique</t>
+  </si>
+  <si>
+    <t>Reste reel</t>
   </si>
 </sst>
 </file>
@@ -1263,14 +1308,14 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1278,7 +1323,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1286,7 +1331,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1295,13 +1340,13 @@
         <v>3375</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1312,7 +1357,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1326,7 +1371,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,7 +1385,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1354,7 +1399,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1368,7 +1413,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -1382,7 +1427,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,7 +1441,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1410,7 +1455,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1424,7 +1469,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -1433,7 +1478,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -1442,7 +1487,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1451,7 +1496,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -1466,7 +1511,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>15</v>
       </c>
@@ -1475,7 +1520,7 @@
         <v>3446.18</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
@@ -1497,16 +1542,16 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.125" customWidth="1"/>
-    <col min="11" max="11" width="8.125" customWidth="1"/>
-    <col min="13" max="13" width="18.125" customWidth="1"/>
-    <col min="18" max="18" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.08203125" customWidth="1"/>
+    <col min="11" max="11" width="8.08203125" customWidth="1"/>
+    <col min="13" max="13" width="18.08203125" customWidth="1"/>
+    <col min="18" max="18" width="3.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1527,7 +1572,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -1548,7 +1593,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -1569,7 +1614,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -1602,7 +1647,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -1623,7 +1668,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -1656,7 +1701,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
       <c r="B7" s="9"/>
       <c r="C7" s="11"/>
@@ -1693,7 +1738,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="10"/>
       <c r="B8" s="9"/>
       <c r="C8" s="11"/>
@@ -1722,7 +1767,7 @@
       <c r="R8" s="11"/>
       <c r="S8" s="12"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="9"/>
       <c r="C9" s="11"/>
@@ -1759,7 +1804,7 @@
       <c r="R9" s="11"/>
       <c r="S9" s="12"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="C10" s="11"/>
@@ -1796,7 +1841,7 @@
       <c r="R10" s="11"/>
       <c r="S10" s="12"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="11"/>
@@ -1833,7 +1878,7 @@
       <c r="R11" s="11"/>
       <c r="S11" s="12"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>
@@ -1870,7 +1915,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -1903,7 +1948,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -1934,7 +1979,7 @@
       <c r="R14" s="11"/>
       <c r="S14" s="12"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -1967,7 +2012,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="11"/>
@@ -2000,7 +2045,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -2033,7 +2078,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" s="9"/>
       <c r="C18" s="11"/>
@@ -2066,7 +2111,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="10"/>
       <c r="B19" s="9"/>
       <c r="C19" s="11"/>
@@ -2095,7 +2140,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="10"/>
       <c r="B20" s="9"/>
       <c r="C20" s="11"/>
@@ -2122,7 +2167,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="9"/>
       <c r="C21" s="11"/>
@@ -2151,7 +2196,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="B22" s="9"/>
       <c r="C22" s="11"/>
@@ -2176,7 +2221,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="9"/>
       <c r="C23" s="11"/>
@@ -2201,7 +2246,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="9"/>
       <c r="C24" s="11"/>
@@ -2226,7 +2271,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="9"/>
       <c r="C25" s="11"/>
@@ -2249,7 +2294,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="9"/>
       <c r="C26" s="11"/>
@@ -2274,7 +2319,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -2299,7 +2344,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -2324,7 +2369,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -2345,7 +2390,7 @@
       <c r="R29" s="11"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -2366,7 +2411,7 @@
       <c r="R30" s="11"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -2387,7 +2432,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="12"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -2408,7 +2453,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="12"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -2429,7 +2474,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="12"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="10"/>
       <c r="B34" s="14" t="s">
         <v>6</v>
@@ -2467,7 +2512,7 @@
       <c r="R34" s="11"/>
       <c r="S34" s="12"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -2488,7 +2533,7 @@
       <c r="R35" s="11"/>
       <c r="S35" s="12"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -2509,7 +2554,7 @@
       <c r="R36" s="11"/>
       <c r="S36" s="12"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -2530,7 +2575,7 @@
       <c r="R37" s="11"/>
       <c r="S37" s="12"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="14" t="s">
@@ -2561,7 +2606,7 @@
       <c r="R38" s="11"/>
       <c r="S38" s="12"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -2582,7 +2627,7 @@
       <c r="R39" s="11"/>
       <c r="S39" s="12"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -2603,7 +2648,7 @@
       <c r="R40" s="11"/>
       <c r="S40" s="12"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="10"/>
       <c r="B41" s="14" t="s">
         <v>8</v>
@@ -2634,7 +2679,7 @@
       <c r="R41" s="11"/>
       <c r="S41" s="12"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -2655,7 +2700,7 @@
       <c r="R42" s="11"/>
       <c r="S42" s="12"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -2676,7 +2721,7 @@
       <c r="R43" s="12"/>
       <c r="S43" s="12"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -2697,7 +2742,7 @@
       <c r="R44" s="12"/>
       <c r="S44" s="12"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -2718,7 +2763,7 @@
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="9"/>
       <c r="B46" s="14" t="s">
         <v>113</v>
@@ -2744,7 +2789,7 @@
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="9"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
@@ -2763,7 +2808,7 @@
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B74" s="14" t="s">
         <v>3</v>
       </c>
@@ -2784,18 +2829,18 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.125" customWidth="1"/>
-    <col min="8" max="8" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.125" customWidth="1"/>
-    <col min="13" max="13" width="18.125" customWidth="1"/>
-    <col min="16" max="16" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.08203125" customWidth="1"/>
+    <col min="8" max="8" width="15.58203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.08203125" customWidth="1"/>
+    <col min="13" max="13" width="18.08203125" customWidth="1"/>
+    <col min="16" max="16" width="15.58203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -2816,7 +2861,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -2837,7 +2882,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -2858,7 +2903,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -2891,7 +2936,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -2912,7 +2957,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -2945,7 +2990,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
       <c r="B7" s="9"/>
       <c r="C7" s="11">
@@ -2984,7 +3029,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="10"/>
       <c r="B8" s="9"/>
       <c r="C8" s="11"/>
@@ -3017,7 +3062,7 @@
       <c r="R8" s="11"/>
       <c r="S8" s="12"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="9"/>
       <c r="C9" s="11"/>
@@ -3054,7 +3099,7 @@
       <c r="R9" s="11"/>
       <c r="S9" s="12"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="C10" s="11"/>
@@ -3088,7 +3133,7 @@
       <c r="R10" s="11"/>
       <c r="S10" s="12"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="11"/>
@@ -3122,7 +3167,7 @@
       <c r="R11" s="11"/>
       <c r="S11" s="12"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>
@@ -3159,7 +3204,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -3196,7 +3241,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -3223,7 +3268,7 @@
       <c r="R14" s="11"/>
       <c r="S14" s="12"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -3248,7 +3293,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="11"/>
@@ -3273,7 +3318,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -3298,7 +3343,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" s="9"/>
       <c r="C18" s="11"/>
@@ -3323,7 +3368,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="10"/>
       <c r="B19" s="9"/>
       <c r="C19" s="11"/>
@@ -3348,7 +3393,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="10"/>
       <c r="B20" s="9"/>
       <c r="C20" s="11"/>
@@ -3373,7 +3418,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="9"/>
       <c r="C21" s="11"/>
@@ -3398,7 +3443,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="B22" s="9"/>
       <c r="C22" s="11"/>
@@ -3423,7 +3468,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="9"/>
       <c r="C23" s="11"/>
@@ -3448,7 +3493,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="9"/>
       <c r="C24" s="11"/>
@@ -3473,7 +3518,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="9"/>
       <c r="C25" s="11"/>
@@ -3498,7 +3543,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="9"/>
       <c r="C26" s="11"/>
@@ -3519,7 +3564,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -3540,7 +3585,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -3561,7 +3606,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -3582,7 +3627,7 @@
       <c r="R29" s="11"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -3603,7 +3648,7 @@
       <c r="R30" s="11"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -3624,7 +3669,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="12"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -3645,7 +3690,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="12"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -3666,7 +3711,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="12"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="10"/>
       <c r="B34" s="14" t="s">
         <v>6</v>
@@ -3704,7 +3749,7 @@
       <c r="R34" s="11"/>
       <c r="S34" s="12"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -3725,7 +3770,7 @@
       <c r="R35" s="11"/>
       <c r="S35" s="12"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -3746,7 +3791,7 @@
       <c r="R36" s="11"/>
       <c r="S36" s="12"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -3767,7 +3812,7 @@
       <c r="R37" s="11"/>
       <c r="S37" s="12"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="14" t="s">
@@ -3798,7 +3843,7 @@
       <c r="R38" s="11"/>
       <c r="S38" s="12"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -3819,7 +3864,7 @@
       <c r="R39" s="11"/>
       <c r="S39" s="12"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -3840,7 +3885,7 @@
       <c r="R40" s="11"/>
       <c r="S40" s="12"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="10"/>
       <c r="B41" s="14" t="s">
         <v>8</v>
@@ -3871,7 +3916,7 @@
       <c r="R41" s="11"/>
       <c r="S41" s="12"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -3892,7 +3937,7 @@
       <c r="R42" s="11"/>
       <c r="S42" s="12"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -3913,7 +3958,7 @@
       <c r="R43" s="12"/>
       <c r="S43" s="12"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -3934,7 +3979,7 @@
       <c r="R44" s="12"/>
       <c r="S44" s="12"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -3955,7 +4000,7 @@
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="9"/>
       <c r="B46" s="14" t="s">
         <v>113</v>
@@ -3981,7 +4026,7 @@
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="9"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
@@ -4000,7 +4045,7 @@
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B74" s="14" t="s">
         <v>3</v>
       </c>
@@ -4021,17 +4066,17 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.125" customWidth="1"/>
-    <col min="9" max="9" width="19.625" customWidth="1"/>
-    <col min="11" max="11" width="8.125" customWidth="1"/>
-    <col min="13" max="13" width="18.125" customWidth="1"/>
-    <col min="18" max="18" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.08203125" customWidth="1"/>
+    <col min="9" max="9" width="19.58203125" customWidth="1"/>
+    <col min="11" max="11" width="8.08203125" customWidth="1"/>
+    <col min="13" max="13" width="18.08203125" customWidth="1"/>
+    <col min="18" max="18" width="3.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -4052,7 +4097,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -4073,7 +4118,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -4098,7 +4143,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -4136,7 +4181,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -4157,7 +4202,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -4190,7 +4235,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
       <c r="B7" s="9" t="s">
         <v>193</v>
@@ -4221,7 +4266,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="10"/>
       <c r="B8" s="9" t="s">
         <v>202</v>
@@ -4257,7 +4302,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="9" t="s">
         <v>146</v>
@@ -4293,7 +4338,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="9" t="s">
         <v>213</v>
@@ -4327,7 +4372,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="B11" s="9" t="s">
         <v>207</v>
@@ -4361,7 +4406,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="B12" s="9" t="s">
         <v>208</v>
@@ -4392,7 +4437,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="B13" s="9" t="s">
         <v>209</v>
@@ -4423,7 +4468,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
       <c r="B14" s="9" t="s">
         <v>210</v>
@@ -4454,7 +4499,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="9" t="s">
         <v>216</v>
@@ -4483,7 +4528,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="9" t="s">
         <v>198</v>
@@ -4512,7 +4557,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -4533,7 +4578,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -4554,7 +4599,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -4575,7 +4620,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="10"/>
       <c r="B20" s="14" t="s">
         <v>6</v>
@@ -4613,7 +4658,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -4634,7 +4679,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -4655,7 +4700,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -4676,7 +4721,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="14" t="s">
@@ -4707,7 +4752,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -4728,7 +4773,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -4749,7 +4794,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
       <c r="B27" s="14" t="s">
         <v>8</v>
@@ -4780,7 +4825,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -4801,7 +4846,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -4822,7 +4867,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -4843,7 +4888,7 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -4864,7 +4909,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="14" t="s">
         <v>113</v>
@@ -4890,7 +4935,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="9"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -4909,7 +4954,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60" s="14" t="s">
         <v>3</v>
       </c>
@@ -4917,12 +4962,12 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B96">
         <v>3000</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B97">
         <v>2500</v>
       </c>
@@ -4930,7 +4975,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B98">
         <v>2500</v>
       </c>
@@ -4938,17 +4983,17 @@
         <v>600</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B99">
         <v>800</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B100">
         <v>700</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B104">
         <f>SUM(B96:B100)</f>
         <v>9500</v>
@@ -4958,47 +5003,47 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P105">
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P106" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P107" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P108" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P109" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P110" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P111" s="11">
         <v>3.99</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P112" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E113">
         <v>1400</v>
       </c>
@@ -5006,7 +5051,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E114">
         <v>1300</v>
       </c>
@@ -5014,24 +5059,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E115">
         <v>950</v>
       </c>
       <c r="P115" s="11"/>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:16" x14ac:dyDescent="0.35">
       <c r="P116" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E119">
         <f>SUM(E113:E117)</f>
         <v>3650</v>
       </c>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:16" x14ac:dyDescent="0.35">
       <c r="P123">
         <f>SUM(P103:P120)</f>
         <v>516.99</v>
@@ -5050,17 +5095,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.125" customWidth="1"/>
-    <col min="9" max="9" width="19.625" customWidth="1"/>
-    <col min="11" max="11" width="8.125" customWidth="1"/>
-    <col min="13" max="13" width="18.125" customWidth="1"/>
-    <col min="18" max="18" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.08203125" customWidth="1"/>
+    <col min="9" max="9" width="19.58203125" customWidth="1"/>
+    <col min="11" max="11" width="8.08203125" customWidth="1"/>
+    <col min="13" max="13" width="18.08203125" customWidth="1"/>
+    <col min="18" max="18" width="3.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -5081,7 +5126,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -5102,7 +5147,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -5127,7 +5172,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -5165,7 +5210,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -5186,7 +5231,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -5219,7 +5264,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
       <c r="B7" s="9" t="s">
         <v>193</v>
@@ -5252,7 +5297,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="10"/>
       <c r="B8" s="9" t="s">
         <v>202</v>
@@ -5288,7 +5333,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="9" t="s">
         <v>146</v>
@@ -5324,7 +5369,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="9" t="s">
         <v>214</v>
@@ -5358,7 +5403,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="11"/>
@@ -5388,7 +5433,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>
@@ -5415,7 +5460,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -5442,7 +5487,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -5469,7 +5514,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -5494,7 +5539,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="D16" s="11"/>
@@ -5518,7 +5563,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -5539,7 +5584,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -5560,7 +5605,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -5581,7 +5626,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="10"/>
       <c r="B20" s="14" t="s">
         <v>6</v>
@@ -5619,7 +5664,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -5640,7 +5685,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -5661,7 +5706,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -5682,7 +5727,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="14" t="s">
@@ -5713,7 +5758,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -5734,7 +5779,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -5755,7 +5800,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
       <c r="B27" s="14" t="s">
         <v>8</v>
@@ -5786,7 +5831,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -5807,7 +5852,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -5828,7 +5873,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -5849,7 +5894,7 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -5870,7 +5915,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="14" t="s">
         <v>113</v>
@@ -5896,7 +5941,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="9"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -5915,7 +5960,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60" s="14" t="s">
         <v>3</v>
       </c>
@@ -5923,12 +5968,12 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B96">
         <v>3000</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B97">
         <v>2500</v>
       </c>
@@ -5936,7 +5981,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B98">
         <v>2500</v>
       </c>
@@ -5944,17 +5989,17 @@
         <v>600</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B99">
         <v>800</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B100">
         <v>700</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B104">
         <f>SUM(B96:B100)</f>
         <v>9500</v>
@@ -5964,47 +6009,47 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P105">
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P106" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P107" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P108" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P109" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P110" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P111" s="11">
         <v>3.99</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P112" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E113">
         <v>1400</v>
       </c>
@@ -6012,7 +6057,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E114">
         <v>1300</v>
       </c>
@@ -6020,24 +6065,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E115">
         <v>950</v>
       </c>
       <c r="P115" s="11"/>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:16" x14ac:dyDescent="0.35">
       <c r="P116" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E119">
         <f>SUM(E113:E117)</f>
         <v>3650</v>
       </c>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:16" x14ac:dyDescent="0.35">
       <c r="P123">
         <f>SUM(P103:P120)</f>
         <v>516.99</v>
@@ -6056,17 +6101,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.125" customWidth="1"/>
-    <col min="9" max="9" width="19.625" customWidth="1"/>
-    <col min="11" max="11" width="8.125" customWidth="1"/>
-    <col min="13" max="13" width="18.125" customWidth="1"/>
-    <col min="18" max="18" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.08203125" customWidth="1"/>
+    <col min="9" max="9" width="19.58203125" customWidth="1"/>
+    <col min="11" max="11" width="8.08203125" customWidth="1"/>
+    <col min="13" max="13" width="18.08203125" customWidth="1"/>
+    <col min="18" max="18" width="3.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -6087,7 +6132,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -6108,7 +6153,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -6133,7 +6178,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -6171,7 +6216,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -6192,7 +6237,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -6225,7 +6270,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
       <c r="B7" s="9" t="s">
         <v>193</v>
@@ -6258,7 +6303,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="10"/>
       <c r="B8" s="9" t="s">
         <v>202</v>
@@ -6294,7 +6339,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="9" t="s">
         <v>146</v>
@@ -6330,7 +6375,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="9" t="s">
         <v>214</v>
@@ -6366,7 +6411,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="B11" s="9" t="s">
         <v>226</v>
@@ -6400,7 +6445,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11">
@@ -6429,7 +6474,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -6456,7 +6501,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -6483,7 +6528,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -6508,7 +6553,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="D16" s="11"/>
@@ -6532,7 +6577,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -6557,7 +6602,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -6578,7 +6623,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -6599,7 +6644,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="10"/>
       <c r="B20" s="14" t="s">
         <v>6</v>
@@ -6637,7 +6682,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -6658,7 +6703,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -6679,7 +6724,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -6700,7 +6745,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="14" t="s">
@@ -6731,7 +6776,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -6752,7 +6797,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -6773,7 +6818,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
       <c r="B27" s="14" t="s">
         <v>8</v>
@@ -6804,7 +6849,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -6825,7 +6870,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -6846,7 +6891,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -6867,7 +6912,7 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -6888,7 +6933,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="14" t="s">
         <v>113</v>
@@ -6914,7 +6959,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="9"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -6933,7 +6978,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60" s="14" t="s">
         <v>3</v>
       </c>
@@ -6941,12 +6986,12 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B96">
         <v>3000</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B97">
         <v>2500</v>
       </c>
@@ -6954,7 +6999,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B98">
         <v>2500</v>
       </c>
@@ -6962,17 +7007,17 @@
         <v>600</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B99">
         <v>800</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B100">
         <v>700</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B104">
         <f>SUM(B96:B100)</f>
         <v>9500</v>
@@ -6982,47 +7027,47 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P105">
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P106" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P107" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P108" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P109" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P110" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P111" s="11">
         <v>3.99</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P112" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E113">
         <v>1400</v>
       </c>
@@ -7030,7 +7075,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E114">
         <v>1300</v>
       </c>
@@ -7038,24 +7083,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E115">
         <v>950</v>
       </c>
       <c r="P115" s="11"/>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:16" x14ac:dyDescent="0.35">
       <c r="P116" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E119">
         <f>SUM(E113:E117)</f>
         <v>3650</v>
       </c>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:16" x14ac:dyDescent="0.35">
       <c r="P123">
         <f>SUM(P103:P120)</f>
         <v>516.99</v>
@@ -7074,17 +7119,17 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.125" customWidth="1"/>
-    <col min="9" max="9" width="19.625" customWidth="1"/>
-    <col min="11" max="11" width="8.125" customWidth="1"/>
-    <col min="13" max="13" width="18.125" customWidth="1"/>
-    <col min="18" max="18" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.08203125" customWidth="1"/>
+    <col min="9" max="9" width="19.58203125" customWidth="1"/>
+    <col min="11" max="11" width="8.08203125" customWidth="1"/>
+    <col min="13" max="13" width="18.08203125" customWidth="1"/>
+    <col min="18" max="18" width="3.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -7105,7 +7150,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -7126,7 +7171,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -7151,7 +7196,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -7189,7 +7234,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -7210,7 +7255,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -7243,7 +7288,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
       <c r="B7" s="9" t="s">
         <v>193</v>
@@ -7276,7 +7321,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="10"/>
       <c r="B8" s="9" t="s">
         <v>202</v>
@@ -7312,7 +7357,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="9" t="s">
         <v>146</v>
@@ -7348,7 +7393,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="9" t="s">
         <v>214</v>
@@ -7382,7 +7427,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="B11" s="9" t="s">
         <v>205</v>
@@ -7416,7 +7461,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="B12" s="9" t="s">
         <v>229</v>
@@ -7447,7 +7492,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="B13" s="9" t="s">
         <v>230</v>
@@ -7478,7 +7523,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
       <c r="B14" s="9" t="s">
         <v>231</v>
@@ -7509,7 +7554,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="9" t="s">
         <v>232</v>
@@ -7538,7 +7583,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="9" t="s">
         <v>232</v>
@@ -7567,7 +7612,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -7592,7 +7637,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -7613,7 +7658,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -7634,7 +7679,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="10"/>
       <c r="B20" s="14" t="s">
         <v>6</v>
@@ -7672,7 +7717,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -7693,7 +7738,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -7714,7 +7759,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -7735,7 +7780,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="14" t="s">
@@ -7766,7 +7811,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -7787,7 +7832,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -7808,7 +7853,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
       <c r="B27" s="14" t="s">
         <v>228</v>
@@ -7839,7 +7884,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -7860,7 +7905,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -7881,7 +7926,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -7902,7 +7947,7 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -7923,7 +7968,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="14" t="s">
         <v>113</v>
@@ -7949,7 +7994,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="9"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -7968,7 +8013,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60" s="14" t="s">
         <v>3</v>
       </c>
@@ -7976,12 +8021,12 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B96">
         <v>3000</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B97">
         <v>2500</v>
       </c>
@@ -7989,7 +8034,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B98">
         <v>2500</v>
       </c>
@@ -7997,17 +8042,17 @@
         <v>600</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B99">
         <v>800</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B100">
         <v>700</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B104">
         <f>SUM(B96:B100)</f>
         <v>9500</v>
@@ -8017,47 +8062,47 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P105">
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P106" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P107" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P108" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P109" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P110" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P111" s="11">
         <v>3.99</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P112" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E113">
         <v>1400</v>
       </c>
@@ -8065,7 +8110,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E114">
         <v>1300</v>
       </c>
@@ -8073,24 +8118,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E115">
         <v>950</v>
       </c>
       <c r="P115" s="11"/>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:16" x14ac:dyDescent="0.35">
       <c r="P116" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E119">
         <f>SUM(E113:E117)</f>
         <v>3650</v>
       </c>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:16" x14ac:dyDescent="0.35">
       <c r="P123">
         <f>SUM(P103:P120)</f>
         <v>516.99</v>
@@ -8109,17 +8154,17 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.125" customWidth="1"/>
-    <col min="9" max="9" width="19.625" customWidth="1"/>
-    <col min="11" max="11" width="8.125" customWidth="1"/>
-    <col min="13" max="13" width="18.125" customWidth="1"/>
-    <col min="18" max="18" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.08203125" customWidth="1"/>
+    <col min="9" max="9" width="19.58203125" customWidth="1"/>
+    <col min="11" max="11" width="8.08203125" customWidth="1"/>
+    <col min="13" max="13" width="18.08203125" customWidth="1"/>
+    <col min="18" max="18" width="3.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -8140,7 +8185,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -8161,7 +8206,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -8186,7 +8231,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -8224,7 +8269,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -8245,7 +8290,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -8278,7 +8323,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
       <c r="B7" s="9" t="s">
         <v>193</v>
@@ -8311,7 +8356,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="10"/>
       <c r="B8" s="9" t="s">
         <v>202</v>
@@ -8347,7 +8392,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="9" t="s">
         <v>146</v>
@@ -8383,7 +8428,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="9" t="s">
         <v>214</v>
@@ -8417,7 +8462,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="B11" s="9" t="s">
         <v>233</v>
@@ -8451,7 +8496,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="B12" s="9" t="s">
         <v>239</v>
@@ -8482,7 +8527,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="B13" s="9" t="s">
         <v>240</v>
@@ -8513,7 +8558,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -8540,7 +8585,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -8563,7 +8608,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="11"/>
@@ -8588,7 +8633,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -8613,7 +8658,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -8634,7 +8679,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -8655,7 +8700,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="10"/>
       <c r="B20" s="14" t="s">
         <v>6</v>
@@ -8693,7 +8738,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -8714,7 +8759,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -8735,7 +8780,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -8756,7 +8801,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="14" t="s">
@@ -8787,7 +8832,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -8808,7 +8853,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -8829,7 +8874,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
       <c r="B27" s="14" t="s">
         <v>228</v>
@@ -8860,7 +8905,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -8881,7 +8926,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -8902,7 +8947,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -8923,7 +8968,7 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -8944,7 +8989,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="14" t="s">
         <v>113</v>
@@ -8970,7 +9015,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="9"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -8989,7 +9034,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60" s="14" t="s">
         <v>3</v>
       </c>
@@ -8997,12 +9042,12 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B96">
         <v>3000</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B97">
         <v>2500</v>
       </c>
@@ -9010,7 +9055,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B98">
         <v>2500</v>
       </c>
@@ -9018,17 +9063,17 @@
         <v>600</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B99">
         <v>800</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B100">
         <v>700</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B104">
         <f>SUM(B96:B100)</f>
         <v>9500</v>
@@ -9038,47 +9083,47 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P105">
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P106" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P107" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P108" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P109" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P110" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P111" s="11">
         <v>3.99</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P112" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E113">
         <v>1400</v>
       </c>
@@ -9086,7 +9131,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E114">
         <v>1300</v>
       </c>
@@ -9094,24 +9139,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E115">
         <v>950</v>
       </c>
       <c r="P115" s="11"/>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:16" x14ac:dyDescent="0.35">
       <c r="P116" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E119">
         <f>SUM(E113:E117)</f>
         <v>3650</v>
       </c>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:16" x14ac:dyDescent="0.35">
       <c r="P123">
         <f>SUM(P103:P120)</f>
         <v>516.99</v>
@@ -9130,17 +9175,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.125" customWidth="1"/>
-    <col min="9" max="9" width="19.625" customWidth="1"/>
-    <col min="11" max="11" width="8.125" customWidth="1"/>
-    <col min="13" max="13" width="18.125" customWidth="1"/>
-    <col min="18" max="18" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.08203125" customWidth="1"/>
+    <col min="9" max="9" width="19.58203125" customWidth="1"/>
+    <col min="11" max="11" width="8.08203125" customWidth="1"/>
+    <col min="13" max="13" width="18.08203125" customWidth="1"/>
+    <col min="18" max="18" width="3.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -9161,7 +9206,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -9182,7 +9227,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -9207,7 +9252,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -9245,7 +9290,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -9266,7 +9311,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -9299,7 +9344,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
       <c r="B7" s="9" t="s">
         <v>193</v>
@@ -9332,7 +9377,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="10"/>
       <c r="B8" s="9" t="s">
         <v>202</v>
@@ -9368,7 +9413,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="9" t="s">
         <v>146</v>
@@ -9404,7 +9449,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="9" t="s">
         <v>214</v>
@@ -9438,7 +9483,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="B11" s="9" t="s">
         <v>233</v>
@@ -9470,7 +9515,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="B12" s="9" t="s">
         <v>239</v>
@@ -9499,7 +9544,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="B13" s="9" t="s">
         <v>240</v>
@@ -9528,7 +9573,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -9555,7 +9600,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -9578,7 +9623,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="11"/>
@@ -9603,7 +9648,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -9628,7 +9673,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -9649,7 +9694,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -9670,7 +9715,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="10"/>
       <c r="B20" s="14" t="s">
         <v>6</v>
@@ -9708,7 +9753,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -9729,7 +9774,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -9750,7 +9795,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -9771,7 +9816,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="14" t="s">
@@ -9802,7 +9847,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -9823,7 +9868,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -9844,7 +9889,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
       <c r="B27" s="14" t="s">
         <v>228</v>
@@ -9875,7 +9920,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -9896,7 +9941,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -9917,7 +9962,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -9938,7 +9983,7 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -9959,7 +10004,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="14" t="s">
         <v>113</v>
@@ -9985,7 +10030,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="9"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -10004,7 +10049,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60" s="14" t="s">
         <v>3</v>
       </c>
@@ -10012,12 +10057,12 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B96">
         <v>3000</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B97">
         <v>2500</v>
       </c>
@@ -10025,7 +10070,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B98">
         <v>2500</v>
       </c>
@@ -10033,17 +10078,17 @@
         <v>600</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B99">
         <v>800</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B100">
         <v>700</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B104">
         <f>SUM(B96:B100)</f>
         <v>9500</v>
@@ -10053,47 +10098,47 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P105">
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P106" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P107" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P108" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P109" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P110" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P111" s="11">
         <v>3.99</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P112" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E113">
         <v>1400</v>
       </c>
@@ -10101,7 +10146,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E114">
         <v>1300</v>
       </c>
@@ -10109,24 +10154,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E115">
         <v>950</v>
       </c>
       <c r="P115" s="11"/>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:16" x14ac:dyDescent="0.35">
       <c r="P116" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E119">
         <f>SUM(E113:E117)</f>
         <v>3650</v>
       </c>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:16" x14ac:dyDescent="0.35">
       <c r="P123">
         <f>SUM(P103:P120)</f>
         <v>516.99</v>
@@ -10141,21 +10186,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A96170-A85A-4424-A731-7674D842F02C}">
   <dimension ref="A1:T123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.125" customWidth="1"/>
-    <col min="9" max="9" width="19.625" customWidth="1"/>
-    <col min="11" max="11" width="8.125" customWidth="1"/>
-    <col min="13" max="13" width="18.125" customWidth="1"/>
-    <col min="18" max="18" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.08203125" customWidth="1"/>
+    <col min="9" max="9" width="19.58203125" customWidth="1"/>
+    <col min="11" max="11" width="8.08203125" customWidth="1"/>
+    <col min="13" max="13" width="18.08203125" customWidth="1"/>
+    <col min="18" max="18" width="3.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -10176,7 +10221,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -10197,7 +10242,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -10222,7 +10267,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -10258,7 +10303,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -10279,7 +10324,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -10312,7 +10357,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
       <c r="B7" s="9" t="s">
         <v>193</v>
@@ -10345,7 +10390,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="10"/>
       <c r="B8" s="9"/>
       <c r="C8" s="11" t="s">
@@ -10379,7 +10424,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="9" t="s">
         <v>146</v>
@@ -10415,7 +10460,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="C10" s="11"/>
@@ -10447,7 +10492,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="11"/>
@@ -10477,7 +10522,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>
@@ -10504,7 +10549,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -10531,7 +10576,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -10558,7 +10603,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -10583,7 +10628,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="11"/>
@@ -10608,7 +10653,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -10633,7 +10678,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -10654,7 +10699,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -10675,7 +10720,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="10"/>
       <c r="B20" s="14" t="s">
         <v>6</v>
@@ -10713,7 +10758,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -10734,7 +10779,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -10755,7 +10800,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -10776,7 +10821,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="14" t="s">
@@ -10807,7 +10852,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -10828,7 +10873,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -10849,7 +10894,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
       <c r="B27" s="14" t="s">
         <v>228</v>
@@ -10880,7 +10925,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -10901,7 +10946,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -10922,7 +10967,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -10943,7 +10988,7 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -10964,7 +11009,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="14" t="s">
         <v>113</v>
@@ -10990,7 +11035,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="9"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -11009,7 +11054,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60" s="14" t="s">
         <v>3</v>
       </c>
@@ -11017,12 +11062,12 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B96">
         <v>3000</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B97">
         <v>2500</v>
       </c>
@@ -11030,7 +11075,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B98">
         <v>2500</v>
       </c>
@@ -11038,17 +11083,17 @@
         <v>600</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B99">
         <v>800</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B100">
         <v>700</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B104">
         <f>SUM(B96:B100)</f>
         <v>9500</v>
@@ -11058,47 +11103,47 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P105">
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P106" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P107" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P108" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P109" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P110" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P111" s="11">
         <v>3.99</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P112" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E113">
         <v>1400</v>
       </c>
@@ -11106,7 +11151,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E114">
         <v>1300</v>
       </c>
@@ -11114,24 +11159,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E115">
         <v>950</v>
       </c>
       <c r="P115" s="11"/>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:16" x14ac:dyDescent="0.35">
       <c r="P116" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E119">
         <f>SUM(E113:E117)</f>
         <v>3650</v>
       </c>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:16" x14ac:dyDescent="0.35">
       <c r="P123">
         <f>SUM(P103:P120)</f>
         <v>516.99</v>
@@ -11150,12 +11195,12 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>204</v>
       </c>
@@ -11172,7 +11217,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>11500</v>
       </c>
@@ -11192,7 +11237,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G3" t="s">
         <v>219</v>
       </c>
@@ -11200,7 +11245,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C4">
         <v>2500</v>
       </c>
@@ -11211,7 +11256,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G5" t="s">
         <v>221</v>
       </c>
@@ -11219,7 +11264,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -11234,7 +11279,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G7" t="s">
         <v>223</v>
       </c>
@@ -11242,7 +11287,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G8" t="s">
         <v>225</v>
       </c>
@@ -11250,7 +11295,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G9" t="s">
         <v>234</v>
       </c>
@@ -11258,7 +11303,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G10" t="s">
         <v>235</v>
       </c>
@@ -11269,7 +11314,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G11" t="s">
         <v>241</v>
       </c>
@@ -11277,12 +11322,12 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="O17" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="F19" t="s">
         <v>6</v>
       </c>
@@ -11291,7 +11336,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>99</v>
       </c>
@@ -11300,7 +11345,7 @@
         <v>25350</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
         <v>227</v>
       </c>
@@ -11310,7 +11355,7 @@
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -11318,7 +11363,7 @@
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="18"/>
       <c r="B26" s="18" t="s">
         <v>236</v>
@@ -11334,7 +11379,7 @@
       </c>
       <c r="F26" s="17"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
         <v>225</v>
       </c>
@@ -11348,7 +11393,7 @@
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
         <v>234</v>
       </c>
@@ -11362,7 +11407,7 @@
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
         <v>235</v>
       </c>
@@ -11376,7 +11421,7 @@
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
         <v>241</v>
       </c>
@@ -11390,7 +11435,7 @@
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
         <v>243</v>
       </c>
@@ -11404,7 +11449,7 @@
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
         <v>223</v>
       </c>
@@ -11414,7 +11459,7 @@
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
         <v>244</v>
       </c>
@@ -11424,7 +11469,7 @@
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="17" t="s">
         <v>222</v>
       </c>
@@ -11434,7 +11479,7 @@
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
         <v>245</v>
       </c>
@@ -11444,7 +11489,7 @@
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="17"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -11452,7 +11497,7 @@
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -11460,7 +11505,7 @@
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -11468,7 +11513,7 @@
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -11476,7 +11521,7 @@
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -11484,7 +11529,7 @@
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="18" t="s">
         <v>6</v>
       </c>
@@ -11522,19 +11567,19 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -11542,7 +11587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -11550,7 +11595,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -11559,10 +11604,10 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -11576,7 +11621,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -11590,7 +11635,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -11604,7 +11649,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -11618,7 +11663,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -11632,7 +11677,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -11646,7 +11691,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -11660,7 +11705,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -11674,7 +11719,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -11688,7 +11733,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -11697,7 +11742,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
@@ -11706,7 +11751,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -11715,7 +11760,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -11723,13 +11768,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -11742,7 +11787,7 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>15</v>
       </c>
@@ -11751,7 +11796,7 @@
         <v>4156.41</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -11770,23 +11815,34 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94700D3-58F8-480F-AA59-9339E917FDF7}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>246</v>
       </c>
       <c r="D1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>249</v>
+      </c>
+      <c r="L1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>4700000</v>
       </c>
@@ -11796,31 +11852,134 @@
       <c r="E2">
         <v>500000</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J2">
+        <v>418000</v>
+      </c>
+      <c r="L2">
+        <f>SUM(J2:J50)</f>
+        <v>1300000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D3" t="s">
         <v>248</v>
       </c>
       <c r="E3">
         <v>500000</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>251</v>
+      </c>
+      <c r="J3">
+        <v>432000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E4">
+        <v>300000</v>
+      </c>
+      <c r="H4" t="s">
+        <v>252</v>
+      </c>
+      <c r="J4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H5" t="s">
+        <v>253</v>
+      </c>
+      <c r="J5">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H6" t="s">
+        <v>254</v>
+      </c>
+      <c r="J6">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H7" t="s">
+        <v>255</v>
+      </c>
+      <c r="J7">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H8" t="s">
+        <v>256</v>
+      </c>
+      <c r="J8">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H9" t="s">
+        <v>257</v>
+      </c>
+      <c r="J9">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H10" t="s">
+        <v>258</v>
+      </c>
+      <c r="J10">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H11" t="s">
+        <v>259</v>
+      </c>
+      <c r="J11">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H12" t="s">
+        <v>261</v>
+      </c>
+      <c r="J12">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D20" t="s">
         <v>175</v>
       </c>
       <c r="E20">
         <f>SUM(E2:E15)</f>
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1300000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>262</v>
       </c>
       <c r="B26">
         <f>A2-E20</f>
-        <v>3700000</v>
+        <v>3400000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>263</v>
+      </c>
+      <c r="B27">
+        <f>A2-L2</f>
+        <v>3400000</v>
       </c>
     </row>
   </sheetData>
@@ -11836,14 +11995,14 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="L2" t="s">
         <v>181</v>
       </c>
@@ -11851,7 +12010,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>162</v>
       </c>
@@ -11884,7 +12043,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="L5" t="s">
         <v>182</v>
       </c>
@@ -11898,7 +12057,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>184</v>
       </c>
@@ -11912,7 +12071,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>163</v>
       </c>
@@ -11932,7 +12091,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>183</v>
       </c>
@@ -11946,7 +12105,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>164</v>
       </c>
@@ -11961,7 +12120,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="L10" t="s">
         <v>192</v>
       </c>
@@ -11969,12 +12128,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G13" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>166</v>
       </c>
@@ -11983,7 +12142,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -12011,7 +12170,7 @@
         <v>13978</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>163</v>
       </c>
@@ -12025,7 +12184,7 @@
         <v>3820</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>164</v>
       </c>
@@ -12048,12 +12207,12 @@
         <v>6022</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="G28" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>166</v>
       </c>
@@ -12075,20 +12234,20 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.58203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
-    <col min="7" max="7" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="7" max="7" width="13.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>155</v>
       </c>
@@ -12099,7 +12258,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1.5</v>
       </c>
@@ -12110,7 +12269,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1.8</v>
       </c>
@@ -12121,7 +12280,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1.5</v>
       </c>
@@ -12132,7 +12291,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>159</v>
       </c>
@@ -12140,7 +12299,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G11" t="s">
         <v>186</v>
       </c>
@@ -12148,7 +12307,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>160</v>
       </c>
@@ -12163,7 +12322,7 @@
         <v>336000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>161</v>
       </c>
@@ -12181,18 +12340,18 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="18.125" customWidth="1"/>
-    <col min="6" max="6" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.08203125" customWidth="1"/>
+    <col min="6" max="6" width="20.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>168</v>
       </c>
@@ -12209,7 +12368,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>169</v>
       </c>
@@ -12226,7 +12385,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>170</v>
       </c>
@@ -12243,7 +12402,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>171</v>
       </c>
@@ -12257,7 +12416,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>145</v>
       </c>
@@ -12265,7 +12424,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>172</v>
       </c>
@@ -12273,7 +12432,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>174</v>
       </c>
@@ -12281,12 +12440,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>175</v>
       </c>
@@ -12312,14 +12471,14 @@
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.08203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -12327,7 +12486,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -12335,7 +12494,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -12344,10 +12503,10 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -12365,7 +12524,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -12374,7 +12533,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -12383,7 +12542,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>4</v>
@@ -12392,7 +12551,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>14</v>
@@ -12401,7 +12560,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>2</v>
@@ -12410,7 +12569,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>16</v>
@@ -12419,7 +12578,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>5</v>
@@ -12428,7 +12587,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>21</v>
@@ -12437,7 +12596,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>37</v>
@@ -12446,7 +12605,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>36</v>
@@ -12455,7 +12614,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>38</v>
@@ -12464,7 +12623,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>39</v>
@@ -12473,7 +12632,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>40</v>
@@ -12482,7 +12641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>42</v>
@@ -12491,7 +12650,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="D21" s="1" t="s">
         <v>43</v>
@@ -12500,7 +12659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>43</v>
@@ -12509,7 +12668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="D23" s="1" t="s">
         <v>44</v>
@@ -12518,7 +12677,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D24" s="1" t="s">
         <v>45</v>
       </c>
@@ -12526,7 +12685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D25" s="1" t="s">
         <v>37</v>
       </c>
@@ -12534,7 +12693,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D26" s="1" t="s">
         <v>16</v>
       </c>
@@ -12542,7 +12701,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D27" s="1" t="s">
         <v>36</v>
       </c>
@@ -12550,7 +12709,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D28" s="1" t="s">
         <v>46</v>
       </c>
@@ -12558,7 +12717,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D29" s="1" t="s">
         <v>47</v>
       </c>
@@ -12566,7 +12725,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D30" s="1" t="s">
         <v>27</v>
       </c>
@@ -12574,7 +12733,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D31" s="1" t="s">
         <v>27</v>
       </c>
@@ -12582,7 +12741,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D32" s="1" t="s">
         <v>54</v>
       </c>
@@ -12590,7 +12749,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D33" s="1" t="s">
         <v>50</v>
       </c>
@@ -12598,16 +12757,16 @@
         <v>387</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D36" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>6</v>
       </c>
@@ -12620,7 +12779,7 @@
         <v>3854</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B42" s="2" t="s">
         <v>15</v>
       </c>
@@ -12629,7 +12788,7 @@
         <v>3854</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>8</v>
       </c>
@@ -12638,7 +12797,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>3</v>
       </c>
@@ -12658,7 +12817,7 @@
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12672,14 +12831,14 @@
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -12687,7 +12846,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -12695,7 +12854,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -12704,10 +12863,10 @@
         <v>3946</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -12718,7 +12877,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -12727,7 +12886,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="D8" s="1" t="s">
         <v>21</v>
@@ -12736,7 +12895,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -12745,7 +12904,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>4</v>
@@ -12754,7 +12913,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>5</v>
@@ -12763,7 +12922,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>2</v>
@@ -12772,7 +12931,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -12781,7 +12940,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>39</v>
@@ -12790,7 +12949,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>40</v>
@@ -12799,7 +12958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>48</v>
@@ -12808,7 +12967,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>49</v>
@@ -12817,7 +12976,7 @@
         <v>15.99</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>49</v>
@@ -12826,7 +12985,7 @@
         <v>15.99</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>49</v>
@@ -12835,7 +12994,7 @@
         <v>3.99</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>51</v>
@@ -12844,7 +13003,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="D21" s="1" t="s">
         <v>57</v>
@@ -12853,7 +13012,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>52</v>
@@ -12862,7 +13021,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="D23" s="1" t="s">
         <v>53</v>
@@ -12871,7 +13030,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="D24" s="1" t="s">
         <v>55</v>
@@ -12880,7 +13039,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D25" s="1" t="s">
         <v>56</v>
       </c>
@@ -12888,7 +13047,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D26" s="1" t="s">
         <v>58</v>
       </c>
@@ -12896,7 +13055,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D27" s="1" t="s">
         <v>59</v>
       </c>
@@ -12904,7 +13063,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D28" s="1" t="s">
         <v>60</v>
       </c>
@@ -12912,7 +13071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D29" s="1" t="s">
         <v>61</v>
       </c>
@@ -12920,7 +13079,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D30" s="1" t="s">
         <v>62</v>
       </c>
@@ -12928,7 +13087,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D31" s="1" t="s">
         <v>27</v>
       </c>
@@ -12936,7 +13095,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D32" s="1" t="s">
         <v>14</v>
       </c>
@@ -12944,22 +13103,22 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D37" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>6</v>
       </c>
@@ -12972,7 +13131,7 @@
         <v>3898.9699999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B43" s="2" t="s">
         <v>15</v>
       </c>
@@ -12981,7 +13140,7 @@
         <v>3898.9699999999993</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>8</v>
       </c>
@@ -12990,7 +13149,7 @@
         <v>47.030000000000655</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -13011,19 +13170,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -13031,7 +13190,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -13040,10 +13199,10 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -13054,7 +13213,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -13063,7 +13222,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8">
         <v>50</v>
@@ -13075,7 +13234,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -13084,7 +13243,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>4</v>
@@ -13093,7 +13252,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>5</v>
@@ -13102,7 +13261,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>2</v>
@@ -13111,7 +13270,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -13120,7 +13279,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>39</v>
@@ -13129,7 +13288,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>40</v>
@@ -13138,7 +13297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>48</v>
@@ -13147,7 +13306,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>49</v>
@@ -13156,7 +13315,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>49</v>
@@ -13165,7 +13324,7 @@
         <v>15.99</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>49</v>
@@ -13174,7 +13333,7 @@
         <v>3.99</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>51</v>
@@ -13183,7 +13342,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="D21" s="1" t="s">
         <v>14</v>
@@ -13192,7 +13351,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>52</v>
@@ -13201,7 +13360,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="D23" s="1" t="s">
         <v>63</v>
@@ -13210,7 +13369,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="D24" s="1" t="s">
         <v>14</v>
@@ -13219,7 +13378,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D25" s="1" t="s">
         <v>64</v>
       </c>
@@ -13227,7 +13386,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D26" s="1" t="s">
         <v>65</v>
       </c>
@@ -13235,40 +13394,40 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D37" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>6</v>
       </c>
@@ -13281,7 +13440,7 @@
         <v>3000.9799999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B43" s="2" t="s">
         <v>15</v>
       </c>
@@ -13290,7 +13449,7 @@
         <v>3050.9799999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>8</v>
       </c>
@@ -13299,7 +13458,7 @@
         <v>-0.97999999999956344</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -13320,17 +13479,17 @@
       <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.58203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -13338,7 +13497,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -13346,7 +13505,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -13355,7 +13514,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="D4" s="5" t="s">
         <v>78</v>
@@ -13364,7 +13523,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>75</v>
@@ -13393,7 +13552,7 @@
       </c>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -13415,7 +13574,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8">
         <v>25</v>
@@ -13440,7 +13599,7 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9">
         <v>26</v>
@@ -13460,7 +13619,7 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10">
         <v>160</v>
@@ -13485,7 +13644,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>5</v>
@@ -13506,7 +13665,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>2</v>
@@ -13521,7 +13680,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -13533,7 +13692,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>39</v>
@@ -13543,7 +13702,7 @@
       </c>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>40</v>
@@ -13553,7 +13712,7 @@
       </c>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>48</v>
@@ -13563,7 +13722,7 @@
       </c>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>49</v>
@@ -13573,7 +13732,7 @@
       </c>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>49</v>
@@ -13586,7 +13745,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>49</v>
@@ -13599,7 +13758,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>51</v>
@@ -13612,7 +13771,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="D21" s="1" t="s">
         <v>14</v>
@@ -13625,7 +13784,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>81</v>
@@ -13637,7 +13796,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="D23" s="1" t="s">
         <v>82</v>
@@ -13646,7 +13805,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="D24" s="1" t="s">
         <v>84</v>
@@ -13659,10 +13818,10 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D27" s="1"/>
       <c r="Q27" t="s">
         <v>83</v>
@@ -13672,25 +13831,25 @@
         <v>780.98999999999978</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="N32">
         <f>SUM(N7:N29)</f>
         <v>272</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
@@ -13707,7 +13866,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B37" s="2" t="s">
         <v>15</v>
       </c>
@@ -13716,7 +13875,7 @@
         <v>3066.99</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
@@ -13725,7 +13884,7 @@
         <v>233.01000000000022</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>3</v>
       </c>
@@ -13746,20 +13905,20 @@
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="1"/>
-    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.58203125" style="1"/>
+    <col min="2" max="2" width="13.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.58203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.125" customWidth="1"/>
+    <col min="10" max="10" width="11.08203125" customWidth="1"/>
     <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -13780,7 +13939,7 @@
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -13801,7 +13960,7 @@
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="8"/>
       <c r="B3" s="1">
         <v>3030</v>
@@ -13812,7 +13971,7 @@
       </c>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
       <c r="B4" s="1">
         <v>600</v>
@@ -13820,7 +13979,7 @@
       <c r="J4" s="7"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
       <c r="B5" s="1">
         <v>300</v>
@@ -13828,7 +13987,7 @@
       <c r="J5" s="7"/>
       <c r="S5" s="7"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
       <c r="B6" s="1">
         <v>100</v>
@@ -13836,19 +13995,19 @@
       <c r="J6" s="7"/>
       <c r="S6" s="7"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="B7" s="1"/>
       <c r="J7" s="7"/>
       <c r="S7" s="7"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
       <c r="B8" s="1"/>
       <c r="J8" s="7"/>
       <c r="S8" s="7"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
       <c r="B9" s="1"/>
       <c r="E9" s="5" t="s">
@@ -13873,13 +14032,13 @@
       </c>
       <c r="S9" s="7"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
       <c r="B10" s="1"/>
       <c r="J10" s="7"/>
       <c r="S10" s="7"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
@@ -13911,7 +14070,7 @@
       <c r="Q11" s="2"/>
       <c r="S11" s="7"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="1"/>
       <c r="E12" s="1" t="s">
@@ -13941,7 +14100,7 @@
       </c>
       <c r="S12" s="7"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
       <c r="B13" s="1" t="s">
         <v>91</v>
@@ -13976,7 +14135,7 @@
       </c>
       <c r="S13" s="7"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
       <c r="B14" s="1" t="s">
         <v>50</v>
@@ -14011,7 +14170,7 @@
       </c>
       <c r="S14" s="7"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
       <c r="B15" s="1" t="s">
         <v>11</v>
@@ -14046,7 +14205,7 @@
       </c>
       <c r="S15" s="7"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
       <c r="B16" s="1" t="s">
         <v>82</v>
@@ -14081,7 +14240,7 @@
       </c>
       <c r="S16" s="7"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
       <c r="B17" s="1" t="s">
         <v>84</v>
@@ -14116,7 +14275,7 @@
       </c>
       <c r="S17" s="7"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
       <c r="B18" s="1" t="s">
         <v>81</v>
@@ -14148,7 +14307,7 @@
       </c>
       <c r="S18" s="7"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
       <c r="B19" s="1"/>
       <c r="E19" s="1" t="s">
@@ -14173,7 +14332,7 @@
       </c>
       <c r="S19" s="7"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
       <c r="B20" s="1"/>
       <c r="E20" s="1" t="s">
@@ -14198,7 +14357,7 @@
       </c>
       <c r="S20" s="7"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
       <c r="B21" s="1"/>
       <c r="E21" s="1" t="s">
@@ -14217,7 +14376,7 @@
       <c r="M21" s="1"/>
       <c r="S21" s="7"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
       <c r="B22" s="1"/>
       <c r="E22" s="1" t="s">
@@ -14236,7 +14395,7 @@
       <c r="M22" s="1"/>
       <c r="S22" s="7"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
       <c r="B23" s="1"/>
       <c r="E23" s="1" t="s">
@@ -14250,7 +14409,7 @@
       <c r="M23" s="1"/>
       <c r="S23" s="7"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
       <c r="B24" s="1"/>
       <c r="E24" s="1" t="s">
@@ -14269,7 +14428,7 @@
       <c r="M24" s="1"/>
       <c r="S24" s="7"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
       <c r="B25" s="1"/>
       <c r="E25" s="1" t="s">
@@ -14288,7 +14447,7 @@
       <c r="M25" s="1"/>
       <c r="S25" s="7"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
       <c r="B26" s="1"/>
       <c r="E26" s="1" t="s">
@@ -14307,7 +14466,7 @@
       <c r="M26" s="1"/>
       <c r="S26" s="7"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
       <c r="B27" s="1"/>
       <c r="E27" s="1" t="s">
@@ -14325,7 +14484,7 @@
       <c r="J27" s="7"/>
       <c r="S27" s="7"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="8"/>
       <c r="B28" s="1"/>
       <c r="E28" s="1"/>
@@ -14338,7 +14497,7 @@
       <c r="J28" s="7"/>
       <c r="S28" s="7"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
       <c r="B29" s="1"/>
       <c r="E29" s="1"/>
@@ -14351,7 +14510,7 @@
       <c r="J29" s="7"/>
       <c r="S29" s="7"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
       <c r="B30" s="1"/>
       <c r="H30" s="1" t="s">
@@ -14363,7 +14522,7 @@
       <c r="J30" s="7"/>
       <c r="S30" s="7"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="8"/>
       <c r="H31" s="1" t="s">
         <v>110</v>
@@ -14374,7 +14533,7 @@
       <c r="J31" s="7"/>
       <c r="S31" s="7"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
       <c r="E32" s="1"/>
       <c r="H32" s="1" t="s">
@@ -14386,7 +14545,7 @@
       <c r="J32" s="7"/>
       <c r="S32" s="7"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="8"/>
       <c r="E33" s="1"/>
       <c r="H33" s="1" t="s">
@@ -14398,30 +14557,30 @@
       <c r="J33" s="7"/>
       <c r="S33" s="7"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="8"/>
       <c r="E34" s="1"/>
       <c r="J34" s="7"/>
       <c r="S34" s="7"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="8"/>
       <c r="E35" s="1"/>
       <c r="J35" s="7"/>
       <c r="S35" s="7"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="8"/>
       <c r="E36" s="1"/>
       <c r="J36" s="7"/>
       <c r="S36" s="7"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="8"/>
       <c r="J37" s="7"/>
       <c r="S37" s="7"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="8"/>
       <c r="B38" s="2" t="s">
         <v>6</v>
@@ -14449,22 +14608,22 @@
       </c>
       <c r="S38" s="7"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="8"/>
       <c r="J39" s="7"/>
       <c r="S39" s="7"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="8"/>
       <c r="J40" s="7"/>
       <c r="S40" s="7"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="8"/>
       <c r="J41" s="7"/>
       <c r="S41" s="7"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="8"/>
       <c r="C42" s="2" t="s">
         <v>15</v>
@@ -14483,17 +14642,17 @@
       </c>
       <c r="S42" s="7"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="8"/>
       <c r="J43" s="7"/>
       <c r="S43" s="7"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="8"/>
       <c r="J44" s="7"/>
       <c r="S44" s="7"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="8"/>
       <c r="B45" s="2" t="s">
         <v>8</v>
@@ -14509,12 +14668,12 @@
       </c>
       <c r="S45" s="7"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
       <c r="J46" s="7"/>
       <c r="S46" s="7"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -14535,7 +14694,7 @@
       <c r="R47" s="7"/>
       <c r="S47" s="7"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -14556,10 +14715,10 @@
       <c r="R48" s="7"/>
       <c r="S48" s="7"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B51" s="2" t="s">
         <v>3</v>
       </c>
@@ -14570,7 +14729,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="M52" t="s">
         <v>106</v>
       </c>
@@ -14578,12 +14737,12 @@
         <v>24.99</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="M53" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="M54" t="s">
         <v>108</v>
       </c>
@@ -14591,7 +14750,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="N61">
         <f>SUM(N51:N57)</f>
         <v>74.989999999999995</v>
@@ -14610,16 +14769,16 @@
       <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.125" customWidth="1"/>
-    <col min="11" max="11" width="8.125" customWidth="1"/>
-    <col min="13" max="13" width="18.125" customWidth="1"/>
-    <col min="18" max="18" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.08203125" customWidth="1"/>
+    <col min="11" max="11" width="8.08203125" customWidth="1"/>
+    <col min="13" max="13" width="18.08203125" customWidth="1"/>
+    <col min="18" max="18" width="3.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -14640,7 +14799,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -14661,7 +14820,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -14682,7 +14841,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -14715,7 +14874,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -14736,7 +14895,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -14769,7 +14928,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
       <c r="B7" s="9"/>
       <c r="C7" s="11"/>
@@ -14804,7 +14963,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="10"/>
       <c r="B8" s="9"/>
       <c r="C8" s="11"/>
@@ -14841,7 +15000,7 @@
       <c r="R8" s="11"/>
       <c r="S8" s="12"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="9"/>
       <c r="C9" s="11"/>
@@ -14878,7 +15037,7 @@
       <c r="R9" s="11"/>
       <c r="S9" s="12"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="C10" s="11"/>
@@ -14915,7 +15074,7 @@
       <c r="R10" s="11"/>
       <c r="S10" s="12"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="11"/>
@@ -14950,7 +15109,7 @@
       <c r="R11" s="11"/>
       <c r="S11" s="12"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>
@@ -14987,7 +15146,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -15020,7 +15179,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -15047,7 +15206,7 @@
       <c r="R14" s="11"/>
       <c r="S14" s="12"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -15076,7 +15235,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="11"/>
@@ -15105,7 +15264,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -15134,7 +15293,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" s="9"/>
       <c r="C18" s="11"/>
@@ -15163,7 +15322,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="10"/>
       <c r="B19" s="9"/>
       <c r="C19" s="11"/>
@@ -15192,7 +15351,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="10"/>
       <c r="B20" s="9"/>
       <c r="C20" s="11"/>
@@ -15221,7 +15380,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="9"/>
       <c r="C21" s="11"/>
@@ -15248,7 +15407,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="B22" s="9"/>
       <c r="C22" s="11"/>
@@ -15273,7 +15432,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="9"/>
       <c r="C23" s="11"/>
@@ -15298,7 +15457,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="9"/>
       <c r="C24" s="11"/>
@@ -15319,7 +15478,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="9"/>
       <c r="C25" s="11"/>
@@ -15340,7 +15499,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -15361,7 +15520,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -15382,7 +15541,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -15403,7 +15562,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -15424,7 +15583,7 @@
       <c r="R29" s="11"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -15445,7 +15604,7 @@
       <c r="R30" s="11"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -15466,7 +15625,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="12"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -15487,7 +15646,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="12"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="10"/>
       <c r="B33" s="14" t="s">
         <v>6</v>
@@ -15525,7 +15684,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="12"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -15546,7 +15705,7 @@
       <c r="R34" s="11"/>
       <c r="S34" s="12"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -15567,7 +15726,7 @@
       <c r="R35" s="11"/>
       <c r="S35" s="12"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -15588,7 +15747,7 @@
       <c r="R36" s="11"/>
       <c r="S36" s="12"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="14" t="s">
@@ -15619,7 +15778,7 @@
       <c r="R37" s="11"/>
       <c r="S37" s="12"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -15640,7 +15799,7 @@
       <c r="R38" s="11"/>
       <c r="S38" s="12"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -15661,7 +15820,7 @@
       <c r="R39" s="11"/>
       <c r="S39" s="12"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="10"/>
       <c r="B40" s="14" t="s">
         <v>8</v>
@@ -15692,7 +15851,7 @@
       <c r="R40" s="11"/>
       <c r="S40" s="12"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -15713,7 +15872,7 @@
       <c r="R41" s="11"/>
       <c r="S41" s="12"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -15734,7 +15893,7 @@
       <c r="R42" s="12"/>
       <c r="S42" s="12"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -15755,7 +15914,7 @@
       <c r="R43" s="12"/>
       <c r="S43" s="12"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -15776,7 +15935,7 @@
       <c r="R44" s="11"/>
       <c r="S44" s="11"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="9"/>
       <c r="B45" s="14" t="s">
         <v>113</v>
@@ -15802,7 +15961,7 @@
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="9"/>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
@@ -15821,7 +15980,7 @@
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="N47" t="s">
         <v>122</v>
       </c>
@@ -15829,7 +15988,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="N48" t="s">
         <v>125</v>
       </c>
@@ -15837,7 +15996,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="14:16" x14ac:dyDescent="0.35">
       <c r="N49" t="s">
         <v>122</v>
       </c>
@@ -15845,7 +16004,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="14:16" x14ac:dyDescent="0.35">
       <c r="N50" t="s">
         <v>123</v>
       </c>
@@ -15853,7 +16012,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="14:16" x14ac:dyDescent="0.35">
       <c r="N51" t="s">
         <v>126</v>
       </c>
@@ -15864,7 +16023,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="14:16" x14ac:dyDescent="0.35">
       <c r="N52" t="s">
         <v>127</v>
       </c>
@@ -15872,12 +16031,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="14:16" x14ac:dyDescent="0.35">
       <c r="N55" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="58" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="14:16" x14ac:dyDescent="0.35">
       <c r="N58" t="s">
         <v>6</v>
       </c>
@@ -15886,7 +16045,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B73" s="14" t="s">
         <v>3</v>
       </c>

--- a/Budget.xlsx
+++ b/Budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Projet-git\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EBC3E6-A562-41DF-9346-0216866EB6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B68BE5D-EA74-4369-A966-C9CC1D28032B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="15" activeTab="19" xr2:uid="{27B7E826-E620-B34C-81E1-46A3DBC74E62}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="265">
   <si>
     <t>Loyer</t>
   </si>
@@ -848,6 +848,9 @@
   </si>
   <si>
     <t>Reste reel</t>
+  </si>
+  <si>
+    <t>Tuyau</t>
   </si>
 </sst>
 </file>
@@ -11818,7 +11821,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -11860,7 +11863,7 @@
       </c>
       <c r="L2">
         <f>SUM(J2:J50)</f>
-        <v>1300000</v>
+        <v>1316000</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -11892,6 +11895,12 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E5">
+        <v>16000</v>
+      </c>
       <c r="H5" t="s">
         <v>253</v>
       </c>
@@ -11955,13 +11964,21 @@
         <v>125000</v>
       </c>
     </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H13" t="s">
+        <v>264</v>
+      </c>
+      <c r="J13">
+        <v>16000</v>
+      </c>
+    </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D20" t="s">
         <v>175</v>
       </c>
       <c r="E20">
         <f>SUM(E2:E15)</f>
-        <v>1300000</v>
+        <v>1316000</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -11970,7 +11987,7 @@
       </c>
       <c r="B26">
         <f>A2-E20</f>
-        <v>3400000</v>
+        <v>3384000</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -11979,7 +11996,7 @@
       </c>
       <c r="B27">
         <f>A2-L2</f>
-        <v>3400000</v>
+        <v>3384000</v>
       </c>
     </row>
   </sheetData>

--- a/Budget.xlsx
+++ b/Budget.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Projet-git\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B68BE5D-EA74-4369-A966-C9CC1D28032B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806262E8-2897-496C-B97B-1475AF4ECE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="15" activeTab="19" xr2:uid="{27B7E826-E620-B34C-81E1-46A3DBC74E62}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="278">
   <si>
     <t>Loyer</t>
   </si>
@@ -851,6 +851,45 @@
   </si>
   <si>
     <t>Tuyau</t>
+  </si>
+  <si>
+    <t>Ngane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avance </t>
+  </si>
+  <si>
+    <t>Brique Coulage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAMBRE 1 </t>
+  </si>
+  <si>
+    <t>SDB1</t>
+  </si>
+  <si>
+    <t>CHAMBRE 2</t>
+  </si>
+  <si>
+    <t>GARAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cuisine </t>
+  </si>
+  <si>
+    <t>sdb2</t>
+  </si>
+  <si>
+    <t>cadeau</t>
+  </si>
+  <si>
+    <t>sœur</t>
+  </si>
+  <si>
+    <t>note de frais</t>
   </si>
 </sst>
 </file>
@@ -11194,8 +11233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B974066F-70AB-4CE0-9413-18C0CA619219}">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -11203,7 +11242,7 @@
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>204</v>
       </c>
@@ -11220,7 +11259,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>11500</v>
       </c>
@@ -11240,7 +11279,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G3" t="s">
         <v>219</v>
       </c>
@@ -11248,9 +11287,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C4">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="G4" t="s">
         <v>220</v>
@@ -11259,15 +11298,18 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G5" t="s">
         <v>221</v>
       </c>
       <c r="H5">
         <v>3000</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -11281,32 +11323,53 @@
       <c r="H6">
         <v>5000</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G7" t="s">
         <v>223</v>
       </c>
       <c r="H7">
         <v>4000</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J7">
+        <v>300</v>
+      </c>
+      <c r="K7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G8" t="s">
         <v>225</v>
       </c>
       <c r="H8">
         <v>4000</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J8">
+        <v>400</v>
+      </c>
+      <c r="K8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G9" t="s">
         <v>234</v>
       </c>
       <c r="H9">
         <v>3000</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J9">
+        <v>300</v>
+      </c>
+      <c r="K9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G10" t="s">
         <v>235</v>
       </c>
@@ -11317,12 +11380,18 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G11" t="s">
         <v>241</v>
       </c>
       <c r="H11">
         <v>3000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J14">
+        <f>SUM(J5:J12)</f>
+        <v>3500</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
@@ -11345,7 +11414,7 @@
       </c>
       <c r="B20">
         <f>B6-F41</f>
-        <v>25350</v>
+        <v>26850</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
@@ -11443,12 +11512,8 @@
         <v>243</v>
       </c>
       <c r="B31" s="17"/>
-      <c r="C31" s="17">
-        <v>1000</v>
-      </c>
-      <c r="D31" s="17">
-        <v>500</v>
-      </c>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
     </row>
@@ -11542,11 +11607,11 @@
       </c>
       <c r="C41" s="18">
         <f t="shared" ref="C41:E41" si="0">SUM(C27:C39)</f>
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="D41" s="18">
         <f t="shared" si="0"/>
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="E41" s="18">
         <f t="shared" si="0"/>
@@ -11554,7 +11619,7 @@
       </c>
       <c r="F41" s="18">
         <f>SUM(B41:E41)</f>
-        <v>5500</v>
+        <v>4000</v>
       </c>
     </row>
   </sheetData>
@@ -11818,10 +11883,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94700D3-58F8-480F-AA59-9339E917FDF7}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -11863,7 +11928,7 @@
       </c>
       <c r="L2">
         <f>SUM(J2:J50)</f>
-        <v>1316000</v>
+        <v>1816000</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -11909,6 +11974,12 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6">
+        <v>800000</v>
+      </c>
       <c r="H6" t="s">
         <v>254</v>
       </c>
@@ -11972,13 +12043,21 @@
         <v>16000</v>
       </c>
     </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H14" t="s">
+        <v>266</v>
+      </c>
+      <c r="J14">
+        <v>500000</v>
+      </c>
+    </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D20" t="s">
         <v>175</v>
       </c>
       <c r="E20">
         <f>SUM(E2:E15)</f>
-        <v>1316000</v>
+        <v>2116000</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -11987,7 +12066,7 @@
       </c>
       <c r="B26">
         <f>A2-E20</f>
-        <v>3384000</v>
+        <v>2584000</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -11996,7 +12075,83 @@
       </c>
       <c r="B27">
         <f>A2-L2</f>
-        <v>3384000</v>
+        <v>2884000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>268</v>
+      </c>
+      <c r="B33">
+        <f>9*19</f>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>269</v>
+      </c>
+      <c r="B34">
+        <f>19*6</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>270</v>
+      </c>
+      <c r="B35">
+        <f>6*4</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>271</v>
+      </c>
+      <c r="B36">
+        <f>18*5</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>272</v>
+      </c>
+      <c r="B37">
+        <f>15*8</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>273</v>
+      </c>
+      <c r="B38">
+        <f>19*4</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>274</v>
+      </c>
+      <c r="B39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45">
+        <f>SUM(B33:B43)</f>
+        <v>615</v>
       </c>
     </row>
   </sheetData>

--- a/Budget.xlsx
+++ b/Budget.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Projet-git\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AG_AUTOMATION\Documents\projet-git\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806262E8-2897-496C-B97B-1475AF4ECE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6C67E08-C93C-49D2-9B35-E76EF4D535FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="15" activeTab="19" xr2:uid="{27B7E826-E620-B34C-81E1-46A3DBC74E62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="15" activeTab="17" xr2:uid="{27B7E826-E620-B34C-81E1-46A3DBC74E62}"/>
   </bookViews>
   <sheets>
     <sheet name="Fevrier" sheetId="3" r:id="rId1"/>
@@ -38,6 +38,7 @@
     <sheet name="divers " sheetId="22" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="279">
   <si>
     <t>Loyer</t>
   </si>
@@ -890,6 +891,9 @@
   </si>
   <si>
     <t>note de frais</t>
+  </si>
+  <si>
+    <t>tontinefrance</t>
   </si>
 </sst>
 </file>
@@ -1350,14 +1354,14 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.58203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1365,7 +1369,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1373,7 +1377,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1382,13 +1386,13 @@
         <v>3375</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1399,7 +1403,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1413,7 +1417,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1427,7 +1431,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1441,7 +1445,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1455,7 +1459,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -1469,7 +1473,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1483,7 +1487,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1497,7 +1501,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1511,7 +1515,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -1520,7 +1524,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,7 +1533,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1538,7 +1542,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -1553,7 +1557,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>15</v>
       </c>
@@ -1562,7 +1566,7 @@
         <v>3446.18</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
@@ -1584,16 +1588,16 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.08203125" customWidth="1"/>
-    <col min="11" max="11" width="8.08203125" customWidth="1"/>
-    <col min="13" max="13" width="18.08203125" customWidth="1"/>
-    <col min="18" max="18" width="3.58203125" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="11" max="11" width="8.125" customWidth="1"/>
+    <col min="13" max="13" width="18.125" customWidth="1"/>
+    <col min="18" max="18" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1614,7 +1618,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -1635,7 +1639,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -1656,7 +1660,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -1689,7 +1693,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -1710,7 +1714,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -1743,7 +1747,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="9"/>
       <c r="C7" s="11"/>
@@ -1780,7 +1784,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="9"/>
       <c r="C8" s="11"/>
@@ -1809,7 +1813,7 @@
       <c r="R8" s="11"/>
       <c r="S8" s="12"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="9"/>
       <c r="C9" s="11"/>
@@ -1846,7 +1850,7 @@
       <c r="R9" s="11"/>
       <c r="S9" s="12"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="C10" s="11"/>
@@ -1883,7 +1887,7 @@
       <c r="R10" s="11"/>
       <c r="S10" s="12"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="11"/>
@@ -1920,7 +1924,7 @@
       <c r="R11" s="11"/>
       <c r="S11" s="12"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>
@@ -1957,7 +1961,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -1990,7 +1994,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -2021,7 +2025,7 @@
       <c r="R14" s="11"/>
       <c r="S14" s="12"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -2054,7 +2058,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="11"/>
@@ -2087,7 +2091,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -2120,7 +2124,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="9"/>
       <c r="C18" s="11"/>
@@ -2153,7 +2157,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="9"/>
       <c r="C19" s="11"/>
@@ -2182,7 +2186,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="9"/>
       <c r="C20" s="11"/>
@@ -2209,7 +2213,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="9"/>
       <c r="C21" s="11"/>
@@ -2238,7 +2242,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="9"/>
       <c r="C22" s="11"/>
@@ -2263,7 +2267,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="9"/>
       <c r="C23" s="11"/>
@@ -2288,7 +2292,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="9"/>
       <c r="C24" s="11"/>
@@ -2313,7 +2317,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="9"/>
       <c r="C25" s="11"/>
@@ -2336,7 +2340,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="9"/>
       <c r="C26" s="11"/>
@@ -2361,7 +2365,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -2386,7 +2390,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -2411,7 +2415,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -2432,7 +2436,7 @@
       <c r="R29" s="11"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -2453,7 +2457,7 @@
       <c r="R30" s="11"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -2474,7 +2478,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="12"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -2495,7 +2499,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="12"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -2516,7 +2520,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="12"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="14" t="s">
         <v>6</v>
@@ -2554,7 +2558,7 @@
       <c r="R34" s="11"/>
       <c r="S34" s="12"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -2575,7 +2579,7 @@
       <c r="R35" s="11"/>
       <c r="S35" s="12"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -2596,7 +2600,7 @@
       <c r="R36" s="11"/>
       <c r="S36" s="12"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -2617,7 +2621,7 @@
       <c r="R37" s="11"/>
       <c r="S37" s="12"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="14" t="s">
@@ -2648,7 +2652,7 @@
       <c r="R38" s="11"/>
       <c r="S38" s="12"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -2669,7 +2673,7 @@
       <c r="R39" s="11"/>
       <c r="S39" s="12"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -2690,7 +2694,7 @@
       <c r="R40" s="11"/>
       <c r="S40" s="12"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="14" t="s">
         <v>8</v>
@@ -2721,7 +2725,7 @@
       <c r="R41" s="11"/>
       <c r="S41" s="12"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -2742,7 +2746,7 @@
       <c r="R42" s="11"/>
       <c r="S42" s="12"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -2763,7 +2767,7 @@
       <c r="R43" s="12"/>
       <c r="S43" s="12"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -2784,7 +2788,7 @@
       <c r="R44" s="12"/>
       <c r="S44" s="12"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -2805,7 +2809,7 @@
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="14" t="s">
         <v>113</v>
@@ -2831,7 +2835,7 @@
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
@@ -2850,7 +2854,7 @@
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="14" t="s">
         <v>3</v>
       </c>
@@ -2871,18 +2875,18 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.08203125" customWidth="1"/>
-    <col min="8" max="8" width="15.58203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.08203125" customWidth="1"/>
-    <col min="13" max="13" width="18.08203125" customWidth="1"/>
-    <col min="16" max="16" width="15.58203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.58203125" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="8" max="8" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.125" customWidth="1"/>
+    <col min="13" max="13" width="18.125" customWidth="1"/>
+    <col min="16" max="16" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -2903,7 +2907,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -2924,7 +2928,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -2945,7 +2949,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -2978,7 +2982,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -2999,7 +3003,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -3032,7 +3036,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="9"/>
       <c r="C7" s="11">
@@ -3071,7 +3075,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="9"/>
       <c r="C8" s="11"/>
@@ -3104,7 +3108,7 @@
       <c r="R8" s="11"/>
       <c r="S8" s="12"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="9"/>
       <c r="C9" s="11"/>
@@ -3141,7 +3145,7 @@
       <c r="R9" s="11"/>
       <c r="S9" s="12"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="C10" s="11"/>
@@ -3175,7 +3179,7 @@
       <c r="R10" s="11"/>
       <c r="S10" s="12"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="11"/>
@@ -3209,7 +3213,7 @@
       <c r="R11" s="11"/>
       <c r="S11" s="12"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>
@@ -3246,7 +3250,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -3283,7 +3287,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -3310,7 +3314,7 @@
       <c r="R14" s="11"/>
       <c r="S14" s="12"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -3335,7 +3339,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="11"/>
@@ -3360,7 +3364,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -3385,7 +3389,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="9"/>
       <c r="C18" s="11"/>
@@ -3410,7 +3414,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="9"/>
       <c r="C19" s="11"/>
@@ -3435,7 +3439,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="9"/>
       <c r="C20" s="11"/>
@@ -3460,7 +3464,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="9"/>
       <c r="C21" s="11"/>
@@ -3485,7 +3489,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="9"/>
       <c r="C22" s="11"/>
@@ -3510,7 +3514,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="9"/>
       <c r="C23" s="11"/>
@@ -3535,7 +3539,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="9"/>
       <c r="C24" s="11"/>
@@ -3560,7 +3564,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="9"/>
       <c r="C25" s="11"/>
@@ -3585,7 +3589,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="9"/>
       <c r="C26" s="11"/>
@@ -3606,7 +3610,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -3627,7 +3631,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -3648,7 +3652,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -3669,7 +3673,7 @@
       <c r="R29" s="11"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -3690,7 +3694,7 @@
       <c r="R30" s="11"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -3711,7 +3715,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="12"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -3732,7 +3736,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="12"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -3753,7 +3757,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="12"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="14" t="s">
         <v>6</v>
@@ -3791,7 +3795,7 @@
       <c r="R34" s="11"/>
       <c r="S34" s="12"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -3812,7 +3816,7 @@
       <c r="R35" s="11"/>
       <c r="S35" s="12"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -3833,7 +3837,7 @@
       <c r="R36" s="11"/>
       <c r="S36" s="12"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -3854,7 +3858,7 @@
       <c r="R37" s="11"/>
       <c r="S37" s="12"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="14" t="s">
@@ -3885,7 +3889,7 @@
       <c r="R38" s="11"/>
       <c r="S38" s="12"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -3906,7 +3910,7 @@
       <c r="R39" s="11"/>
       <c r="S39" s="12"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -3927,7 +3931,7 @@
       <c r="R40" s="11"/>
       <c r="S40" s="12"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="14" t="s">
         <v>8</v>
@@ -3958,7 +3962,7 @@
       <c r="R41" s="11"/>
       <c r="S41" s="12"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -3979,7 +3983,7 @@
       <c r="R42" s="11"/>
       <c r="S42" s="12"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -4000,7 +4004,7 @@
       <c r="R43" s="12"/>
       <c r="S43" s="12"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -4021,7 +4025,7 @@
       <c r="R44" s="12"/>
       <c r="S44" s="12"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -4042,7 +4046,7 @@
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="14" t="s">
         <v>113</v>
@@ -4068,7 +4072,7 @@
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
@@ -4087,7 +4091,7 @@
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="14" t="s">
         <v>3</v>
       </c>
@@ -4108,17 +4112,17 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.08203125" customWidth="1"/>
-    <col min="9" max="9" width="19.58203125" customWidth="1"/>
-    <col min="11" max="11" width="8.08203125" customWidth="1"/>
-    <col min="13" max="13" width="18.08203125" customWidth="1"/>
-    <col min="18" max="18" width="3.58203125" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="9" max="9" width="19.625" customWidth="1"/>
+    <col min="11" max="11" width="8.125" customWidth="1"/>
+    <col min="13" max="13" width="18.125" customWidth="1"/>
+    <col min="18" max="18" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -4139,7 +4143,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -4160,7 +4164,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -4185,7 +4189,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -4223,7 +4227,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -4244,7 +4248,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -4277,7 +4281,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="9" t="s">
         <v>193</v>
@@ -4308,7 +4312,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="9" t="s">
         <v>202</v>
@@ -4344,7 +4348,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="9" t="s">
         <v>146</v>
@@ -4380,7 +4384,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="9" t="s">
         <v>213</v>
@@ -4414,7 +4418,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="9" t="s">
         <v>207</v>
@@ -4448,7 +4452,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="9" t="s">
         <v>208</v>
@@ -4479,7 +4483,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="9" t="s">
         <v>209</v>
@@ -4510,7 +4514,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="9" t="s">
         <v>210</v>
@@ -4541,7 +4545,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="9" t="s">
         <v>216</v>
@@ -4570,7 +4574,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="9" t="s">
         <v>198</v>
@@ -4599,7 +4603,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -4620,7 +4624,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -4641,7 +4645,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -4662,7 +4666,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="14" t="s">
         <v>6</v>
@@ -4700,7 +4704,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -4721,7 +4725,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -4742,7 +4746,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -4763,7 +4767,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="14" t="s">
@@ -4794,7 +4798,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -4815,7 +4819,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -4836,7 +4840,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="14" t="s">
         <v>8</v>
@@ -4867,7 +4871,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -4888,7 +4892,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -4909,7 +4913,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -4930,7 +4934,7 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -4951,7 +4955,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="14" t="s">
         <v>113</v>
@@ -4977,7 +4981,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -4996,7 +5000,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="14" t="s">
         <v>3</v>
       </c>
@@ -5004,12 +5008,12 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>3000</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>2500</v>
       </c>
@@ -5017,7 +5021,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>2500</v>
       </c>
@@ -5025,17 +5029,17 @@
         <v>600</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>800</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>700</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B104">
         <f>SUM(B96:B100)</f>
         <v>9500</v>
@@ -5045,47 +5049,47 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P105">
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P106" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P107" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P108" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P109" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P110" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P111" s="11">
         <v>3.99</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P112" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E113">
         <v>1400</v>
       </c>
@@ -5093,7 +5097,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E114">
         <v>1300</v>
       </c>
@@ -5101,24 +5105,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="115" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E115">
         <v>950</v>
       </c>
       <c r="P115" s="11"/>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="116" spans="5:16" x14ac:dyDescent="0.25">
       <c r="P116" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="119" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E119">
         <f>SUM(E113:E117)</f>
         <v>3650</v>
       </c>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="123" spans="5:16" x14ac:dyDescent="0.25">
       <c r="P123">
         <f>SUM(P103:P120)</f>
         <v>516.99</v>
@@ -5137,17 +5141,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.08203125" customWidth="1"/>
-    <col min="9" max="9" width="19.58203125" customWidth="1"/>
-    <col min="11" max="11" width="8.08203125" customWidth="1"/>
-    <col min="13" max="13" width="18.08203125" customWidth="1"/>
-    <col min="18" max="18" width="3.58203125" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="9" max="9" width="19.625" customWidth="1"/>
+    <col min="11" max="11" width="8.125" customWidth="1"/>
+    <col min="13" max="13" width="18.125" customWidth="1"/>
+    <col min="18" max="18" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -5168,7 +5172,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -5189,7 +5193,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -5214,7 +5218,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -5252,7 +5256,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -5273,7 +5277,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -5306,7 +5310,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="9" t="s">
         <v>193</v>
@@ -5339,7 +5343,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="9" t="s">
         <v>202</v>
@@ -5375,7 +5379,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="9" t="s">
         <v>146</v>
@@ -5411,7 +5415,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="9" t="s">
         <v>214</v>
@@ -5445,7 +5449,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="11"/>
@@ -5475,7 +5479,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>
@@ -5502,7 +5506,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -5529,7 +5533,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -5556,7 +5560,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -5581,7 +5585,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="D16" s="11"/>
@@ -5605,7 +5609,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -5626,7 +5630,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -5647,7 +5651,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -5668,7 +5672,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="14" t="s">
         <v>6</v>
@@ -5706,7 +5710,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -5727,7 +5731,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -5748,7 +5752,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -5769,7 +5773,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="14" t="s">
@@ -5800,7 +5804,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -5821,7 +5825,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -5842,7 +5846,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="14" t="s">
         <v>8</v>
@@ -5873,7 +5877,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -5894,7 +5898,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -5915,7 +5919,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -5936,7 +5940,7 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -5957,7 +5961,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="14" t="s">
         <v>113</v>
@@ -5983,7 +5987,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -6002,7 +6006,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="14" t="s">
         <v>3</v>
       </c>
@@ -6010,12 +6014,12 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>3000</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>2500</v>
       </c>
@@ -6023,7 +6027,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>2500</v>
       </c>
@@ -6031,17 +6035,17 @@
         <v>600</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>800</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>700</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B104">
         <f>SUM(B96:B100)</f>
         <v>9500</v>
@@ -6051,47 +6055,47 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P105">
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P106" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P107" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P108" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P109" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P110" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P111" s="11">
         <v>3.99</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P112" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E113">
         <v>1400</v>
       </c>
@@ -6099,7 +6103,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E114">
         <v>1300</v>
       </c>
@@ -6107,24 +6111,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="115" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E115">
         <v>950</v>
       </c>
       <c r="P115" s="11"/>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="116" spans="5:16" x14ac:dyDescent="0.25">
       <c r="P116" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="119" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E119">
         <f>SUM(E113:E117)</f>
         <v>3650</v>
       </c>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="123" spans="5:16" x14ac:dyDescent="0.25">
       <c r="P123">
         <f>SUM(P103:P120)</f>
         <v>516.99</v>
@@ -6143,17 +6147,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.08203125" customWidth="1"/>
-    <col min="9" max="9" width="19.58203125" customWidth="1"/>
-    <col min="11" max="11" width="8.08203125" customWidth="1"/>
-    <col min="13" max="13" width="18.08203125" customWidth="1"/>
-    <col min="18" max="18" width="3.58203125" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="9" max="9" width="19.625" customWidth="1"/>
+    <col min="11" max="11" width="8.125" customWidth="1"/>
+    <col min="13" max="13" width="18.125" customWidth="1"/>
+    <col min="18" max="18" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -6174,7 +6178,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -6195,7 +6199,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -6220,7 +6224,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -6258,7 +6262,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -6279,7 +6283,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -6312,7 +6316,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="9" t="s">
         <v>193</v>
@@ -6345,7 +6349,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="9" t="s">
         <v>202</v>
@@ -6381,7 +6385,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="9" t="s">
         <v>146</v>
@@ -6417,7 +6421,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="9" t="s">
         <v>214</v>
@@ -6453,7 +6457,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="9" t="s">
         <v>226</v>
@@ -6487,7 +6491,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11">
@@ -6516,7 +6520,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -6543,7 +6547,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -6570,7 +6574,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -6595,7 +6599,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="D16" s="11"/>
@@ -6619,7 +6623,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -6644,7 +6648,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -6665,7 +6669,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -6686,7 +6690,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="14" t="s">
         <v>6</v>
@@ -6724,7 +6728,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -6745,7 +6749,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -6766,7 +6770,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -6787,7 +6791,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="14" t="s">
@@ -6818,7 +6822,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -6839,7 +6843,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -6860,7 +6864,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="14" t="s">
         <v>8</v>
@@ -6891,7 +6895,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -6912,7 +6916,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -6933,7 +6937,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -6954,7 +6958,7 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -6975,7 +6979,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="14" t="s">
         <v>113</v>
@@ -7001,7 +7005,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -7020,7 +7024,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="14" t="s">
         <v>3</v>
       </c>
@@ -7028,12 +7032,12 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>3000</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>2500</v>
       </c>
@@ -7041,7 +7045,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>2500</v>
       </c>
@@ -7049,17 +7053,17 @@
         <v>600</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>800</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>700</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B104">
         <f>SUM(B96:B100)</f>
         <v>9500</v>
@@ -7069,47 +7073,47 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P105">
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P106" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P107" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P108" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P109" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P110" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P111" s="11">
         <v>3.99</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P112" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E113">
         <v>1400</v>
       </c>
@@ -7117,7 +7121,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E114">
         <v>1300</v>
       </c>
@@ -7125,24 +7129,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="115" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E115">
         <v>950</v>
       </c>
       <c r="P115" s="11"/>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="116" spans="5:16" x14ac:dyDescent="0.25">
       <c r="P116" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="119" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E119">
         <f>SUM(E113:E117)</f>
         <v>3650</v>
       </c>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="123" spans="5:16" x14ac:dyDescent="0.25">
       <c r="P123">
         <f>SUM(P103:P120)</f>
         <v>516.99</v>
@@ -7161,17 +7165,17 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.08203125" customWidth="1"/>
-    <col min="9" max="9" width="19.58203125" customWidth="1"/>
-    <col min="11" max="11" width="8.08203125" customWidth="1"/>
-    <col min="13" max="13" width="18.08203125" customWidth="1"/>
-    <col min="18" max="18" width="3.58203125" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="9" max="9" width="19.625" customWidth="1"/>
+    <col min="11" max="11" width="8.125" customWidth="1"/>
+    <col min="13" max="13" width="18.125" customWidth="1"/>
+    <col min="18" max="18" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -7192,7 +7196,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -7213,7 +7217,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -7238,7 +7242,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -7276,7 +7280,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -7297,7 +7301,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -7330,7 +7334,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="9" t="s">
         <v>193</v>
@@ -7363,7 +7367,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="9" t="s">
         <v>202</v>
@@ -7399,7 +7403,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="9" t="s">
         <v>146</v>
@@ -7435,7 +7439,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="9" t="s">
         <v>214</v>
@@ -7469,7 +7473,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="9" t="s">
         <v>205</v>
@@ -7503,7 +7507,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="9" t="s">
         <v>229</v>
@@ -7534,7 +7538,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="9" t="s">
         <v>230</v>
@@ -7565,7 +7569,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="9" t="s">
         <v>231</v>
@@ -7596,7 +7600,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="9" t="s">
         <v>232</v>
@@ -7625,7 +7629,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="9" t="s">
         <v>232</v>
@@ -7654,7 +7658,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11"/>
@@ -7679,7 +7683,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -7700,7 +7704,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -7721,7 +7725,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="14" t="s">
         <v>6</v>
@@ -7759,7 +7763,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -7780,7 +7784,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -7801,7 +7805,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -7822,7 +7826,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="14" t="s">
@@ -7853,7 +7857,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -7874,7 +7878,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -7895,7 +7899,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="14" t="s">
         <v>228</v>
@@ -7926,7 +7930,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -7947,7 +7951,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -7968,7 +7972,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -7989,7 +7993,7 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -8010,7 +8014,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="14" t="s">
         <v>113</v>
@@ -8036,7 +8040,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -8055,7 +8059,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="14" t="s">
         <v>3</v>
       </c>
@@ -8063,12 +8067,12 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>3000</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>2500</v>
       </c>
@@ -8076,7 +8080,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>2500</v>
       </c>
@@ -8084,17 +8088,17 @@
         <v>600</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>800</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>700</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B104">
         <f>SUM(B96:B100)</f>
         <v>9500</v>
@@ -8104,47 +8108,47 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P105">
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P106" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P107" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P108" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P109" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P110" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P111" s="11">
         <v>3.99</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P112" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E113">
         <v>1400</v>
       </c>
@@ -8152,7 +8156,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E114">
         <v>1300</v>
       </c>
@@ -8160,24 +8164,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="115" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E115">
         <v>950</v>
       </c>
       <c r="P115" s="11"/>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="116" spans="5:16" x14ac:dyDescent="0.25">
       <c r="P116" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="119" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E119">
         <f>SUM(E113:E117)</f>
         <v>3650</v>
       </c>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="123" spans="5:16" x14ac:dyDescent="0.25">
       <c r="P123">
         <f>SUM(P103:P120)</f>
         <v>516.99</v>
@@ -8196,17 +8200,17 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.08203125" customWidth="1"/>
-    <col min="9" max="9" width="19.58203125" customWidth="1"/>
-    <col min="11" max="11" width="8.08203125" customWidth="1"/>
-    <col min="13" max="13" width="18.08203125" customWidth="1"/>
-    <col min="18" max="18" width="3.58203125" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="9" max="9" width="19.625" customWidth="1"/>
+    <col min="11" max="11" width="8.125" customWidth="1"/>
+    <col min="13" max="13" width="18.125" customWidth="1"/>
+    <col min="18" max="18" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -8227,7 +8231,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -8248,7 +8252,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -8273,7 +8277,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -8311,7 +8315,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -8332,7 +8336,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="14" t="s">
@@ -8365,7 +8369,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="9" t="s">
         <v>193</v>
@@ -8398,7 +8402,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="9" t="s">
         <v>202</v>
@@ -8434,7 +8438,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="9" t="s">
         <v>146</v>
@@ -8470,7 +8474,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="9" t="s">
         <v>214</v>
@@ -8504,7 +8508,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="9" t="s">
         <v>233</v>
@@ -8538,7 +8542,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="9" t="s">
         <v>239</v>
@@ -8569,7 +8573,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="9" t="s">
         <v>240</v>
@@ -8600,7 +8604,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -8627,7 +8631,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"